--- a/タスク表.xlsx
+++ b/タスク表.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkrs3\Documents\EXTREMEProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k018a1560\Desktop\GameEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
-    <sheet name="タスク表" sheetId="2" r:id="rId2"/>
+    <sheet name="かんノート" sheetId="3" r:id="rId2"/>
+    <sheet name="タスク表" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="63">
   <si>
     <t>タスク表</t>
     <rPh sb="3" eb="4">
@@ -722,6 +723,13 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>6/24,14:38PlayerとEnemyを使えるようにした。</t>
+    <rPh sb="23" eb="24">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -940,7 +948,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1051,28 +1059,14 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <numFmt numFmtId="178" formatCode="\ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -1091,48 +1085,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5353"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1477,32 +1429,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:DH102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.69921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="18" width="7.83203125" customWidth="1"/>
-    <col min="19" max="27" width="6.83203125" customWidth="1"/>
-    <col min="28" max="49" width="7.83203125" customWidth="1"/>
-    <col min="50" max="58" width="6.83203125" customWidth="1"/>
-    <col min="59" max="80" width="7.83203125" customWidth="1"/>
-    <col min="81" max="89" width="6.83203125" customWidth="1"/>
-    <col min="90" max="112" width="7.83203125" customWidth="1"/>
+    <col min="8" max="8" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="18" width="7.796875" customWidth="1"/>
+    <col min="19" max="27" width="6.796875" customWidth="1"/>
+    <col min="28" max="49" width="7.796875" customWidth="1"/>
+    <col min="50" max="58" width="6.796875" customWidth="1"/>
+    <col min="59" max="80" width="7.796875" customWidth="1"/>
+    <col min="81" max="89" width="6.796875" customWidth="1"/>
+    <col min="90" max="112" width="7.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="3:112" x14ac:dyDescent="0.45">
       <c r="P2" s="14" t="s">
         <v>19</v>
       </c>
@@ -1513,7 +1465,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="3:112" x14ac:dyDescent="0.45">
       <c r="H3" s="11"/>
       <c r="I3" s="10" t="s">
         <v>11</v>
@@ -1828,7 +1780,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C4" s="20" t="s">
         <v>3</v>
       </c>
@@ -2160,7 +2112,7 @@
         <v>43740</v>
       </c>
     </row>
-    <row r="5" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C5" s="1" t="s">
         <v>47</v>
       </c>
@@ -2285,7 +2237,7 @@
       <c r="DG5" s="5"/>
       <c r="DH5" s="5"/>
     </row>
-    <row r="6" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
@@ -2412,7 +2364,7 @@
       <c r="DG6" s="5"/>
       <c r="DH6" s="5"/>
     </row>
-    <row r="7" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C7" s="1" t="s">
         <v>48</v>
       </c>
@@ -2539,7 +2491,7 @@
       <c r="DG7" s="5"/>
       <c r="DH7" s="5"/>
     </row>
-    <row r="8" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
@@ -2666,7 +2618,7 @@
       <c r="DG8" s="5"/>
       <c r="DH8" s="5"/>
     </row>
-    <row r="9" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C9" s="1" t="s">
         <v>53</v>
       </c>
@@ -2793,7 +2745,7 @@
       <c r="DG9" s="5"/>
       <c r="DH9" s="5"/>
     </row>
-    <row r="10" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
@@ -2920,7 +2872,7 @@
       <c r="DG10" s="5"/>
       <c r="DH10" s="5"/>
     </row>
-    <row r="11" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C11" s="1" t="s">
         <v>57</v>
       </c>
@@ -3047,7 +2999,7 @@
       <c r="DG11" s="5"/>
       <c r="DH11" s="5"/>
     </row>
-    <row r="12" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C12" s="1" t="s">
         <v>58</v>
       </c>
@@ -3174,7 +3126,7 @@
       <c r="DG12" s="5"/>
       <c r="DH12" s="5"/>
     </row>
-    <row r="13" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C13" s="1" t="s">
         <v>42</v>
       </c>
@@ -3301,7 +3253,7 @@
       <c r="DG13" s="5"/>
       <c r="DH13" s="5"/>
     </row>
-    <row r="14" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C14" s="1" t="s">
         <v>37</v>
       </c>
@@ -3428,7 +3380,7 @@
       <c r="DG14" s="5"/>
       <c r="DH14" s="5"/>
     </row>
-    <row r="15" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
@@ -3555,7 +3507,7 @@
       <c r="DG15" s="5"/>
       <c r="DH15" s="5"/>
     </row>
-    <row r="16" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C16" s="1" t="s">
         <v>43</v>
       </c>
@@ -3682,7 +3634,7 @@
       <c r="DG16" s="5"/>
       <c r="DH16" s="5"/>
     </row>
-    <row r="17" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C17" s="1" t="s">
         <v>35</v>
       </c>
@@ -3809,7 +3761,7 @@
       <c r="DG17" s="5"/>
       <c r="DH17" s="5"/>
     </row>
-    <row r="18" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C18" s="1" t="s">
         <v>50</v>
       </c>
@@ -3936,7 +3888,7 @@
       <c r="DG18" s="5"/>
       <c r="DH18" s="5"/>
     </row>
-    <row r="19" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C19" s="1" t="s">
         <v>51</v>
       </c>
@@ -4063,7 +4015,7 @@
       <c r="DG19" s="5"/>
       <c r="DH19" s="5"/>
     </row>
-    <row r="20" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C20" s="1"/>
       <c r="D20" s="6" t="str">
         <f>IFERROR(VLOOKUP(C20,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4184,7 +4136,7 @@
       <c r="DG20" s="5"/>
       <c r="DH20" s="5"/>
     </row>
-    <row r="21" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C21" s="1"/>
       <c r="D21" s="6" t="str">
         <f>IFERROR(VLOOKUP(C21,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4305,7 +4257,7 @@
       <c r="DG21" s="5"/>
       <c r="DH21" s="5"/>
     </row>
-    <row r="22" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C22" s="1"/>
       <c r="D22" s="6" t="str">
         <f>IFERROR(VLOOKUP(C22,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4426,7 +4378,7 @@
       <c r="DG22" s="5"/>
       <c r="DH22" s="5"/>
     </row>
-    <row r="23" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C23" s="1"/>
       <c r="D23" s="6" t="str">
         <f>IFERROR(VLOOKUP(C23,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4547,7 +4499,7 @@
       <c r="DG23" s="5"/>
       <c r="DH23" s="5"/>
     </row>
-    <row r="24" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C24" s="1"/>
       <c r="D24" s="6" t="str">
         <f>IFERROR(VLOOKUP(C24,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4668,7 +4620,7 @@
       <c r="DG24" s="5"/>
       <c r="DH24" s="5"/>
     </row>
-    <row r="25" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C25" s="1"/>
       <c r="D25" s="6" t="str">
         <f>IFERROR(VLOOKUP(C25,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4789,7 +4741,7 @@
       <c r="DG25" s="5"/>
       <c r="DH25" s="5"/>
     </row>
-    <row r="26" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C26" s="1"/>
       <c r="D26" s="6" t="str">
         <f>IFERROR(VLOOKUP(C26,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4910,7 +4862,7 @@
       <c r="DG26" s="5"/>
       <c r="DH26" s="5"/>
     </row>
-    <row r="27" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C27" s="1"/>
       <c r="D27" s="6" t="str">
         <f>IFERROR(VLOOKUP(C27,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5031,7 +4983,7 @@
       <c r="DG27" s="5"/>
       <c r="DH27" s="5"/>
     </row>
-    <row r="28" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C28" s="1"/>
       <c r="D28" s="6" t="str">
         <f>IFERROR(VLOOKUP(C28,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5152,7 +5104,7 @@
       <c r="DG28" s="5"/>
       <c r="DH28" s="5"/>
     </row>
-    <row r="29" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C29" s="1"/>
       <c r="D29" s="6" t="str">
         <f>IFERROR(VLOOKUP(C29,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5273,7 +5225,7 @@
       <c r="DG29" s="5"/>
       <c r="DH29" s="5"/>
     </row>
-    <row r="30" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C30" s="1"/>
       <c r="D30" s="6" t="str">
         <f>IFERROR(VLOOKUP(C30,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5394,7 +5346,7 @@
       <c r="DG30" s="5"/>
       <c r="DH30" s="5"/>
     </row>
-    <row r="31" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C31" s="1"/>
       <c r="D31" s="6" t="str">
         <f>IFERROR(VLOOKUP(C31,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5515,7 +5467,7 @@
       <c r="DG31" s="5"/>
       <c r="DH31" s="5"/>
     </row>
-    <row r="32" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C32" s="1"/>
       <c r="D32" s="6" t="str">
         <f>IFERROR(VLOOKUP(C32,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5636,7 +5588,7 @@
       <c r="DG32" s="5"/>
       <c r="DH32" s="5"/>
     </row>
-    <row r="33" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C33" s="1"/>
       <c r="D33" s="6" t="str">
         <f>IFERROR(VLOOKUP(C33,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5757,7 +5709,7 @@
       <c r="DG33" s="5"/>
       <c r="DH33" s="5"/>
     </row>
-    <row r="34" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C34" s="1"/>
       <c r="D34" s="6" t="str">
         <f>IFERROR(VLOOKUP(C34,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5878,7 +5830,7 @@
       <c r="DG34" s="5"/>
       <c r="DH34" s="5"/>
     </row>
-    <row r="35" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C35" s="1"/>
       <c r="D35" s="6" t="str">
         <f>IFERROR(VLOOKUP(C35,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5999,7 +5951,7 @@
       <c r="DG35" s="5"/>
       <c r="DH35" s="5"/>
     </row>
-    <row r="36" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C36" s="1"/>
       <c r="D36" s="6" t="str">
         <f>IFERROR(VLOOKUP(C36,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6120,7 +6072,7 @@
       <c r="DG36" s="5"/>
       <c r="DH36" s="5"/>
     </row>
-    <row r="37" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C37" s="1"/>
       <c r="D37" s="6" t="str">
         <f>IFERROR(VLOOKUP(C37,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6241,7 +6193,7 @@
       <c r="DG37" s="5"/>
       <c r="DH37" s="5"/>
     </row>
-    <row r="38" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C38" s="1"/>
       <c r="D38" s="6" t="str">
         <f>IFERROR(VLOOKUP(C38,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6362,7 +6314,7 @@
       <c r="DG38" s="5"/>
       <c r="DH38" s="5"/>
     </row>
-    <row r="39" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C39" s="1"/>
       <c r="D39" s="6" t="str">
         <f>IFERROR(VLOOKUP(C39,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6483,7 +6435,7 @@
       <c r="DG39" s="5"/>
       <c r="DH39" s="5"/>
     </row>
-    <row r="40" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C40" s="1"/>
       <c r="D40" s="6" t="str">
         <f>IFERROR(VLOOKUP(C40,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6604,7 +6556,7 @@
       <c r="DG40" s="5"/>
       <c r="DH40" s="5"/>
     </row>
-    <row r="41" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C41" s="1"/>
       <c r="D41" s="6" t="str">
         <f>IFERROR(VLOOKUP(C41,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6725,7 +6677,7 @@
       <c r="DG41" s="5"/>
       <c r="DH41" s="5"/>
     </row>
-    <row r="42" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C42" s="1"/>
       <c r="D42" s="6" t="str">
         <f>IFERROR(VLOOKUP(C42,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6846,7 +6798,7 @@
       <c r="DG42" s="5"/>
       <c r="DH42" s="5"/>
     </row>
-    <row r="43" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C43" s="1"/>
       <c r="D43" s="6" t="str">
         <f>IFERROR(VLOOKUP(C43,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6967,7 +6919,7 @@
       <c r="DG43" s="5"/>
       <c r="DH43" s="5"/>
     </row>
-    <row r="44" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C44" s="1"/>
       <c r="D44" s="6" t="str">
         <f>IFERROR(VLOOKUP(C44,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7088,7 +7040,7 @@
       <c r="DG44" s="5"/>
       <c r="DH44" s="5"/>
     </row>
-    <row r="45" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C45" s="1"/>
       <c r="D45" s="6" t="str">
         <f>IFERROR(VLOOKUP(C45,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7209,7 +7161,7 @@
       <c r="DG45" s="5"/>
       <c r="DH45" s="5"/>
     </row>
-    <row r="46" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C46" s="1"/>
       <c r="D46" s="6" t="str">
         <f>IFERROR(VLOOKUP(C46,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7330,7 +7282,7 @@
       <c r="DG46" s="5"/>
       <c r="DH46" s="5"/>
     </row>
-    <row r="47" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C47" s="1"/>
       <c r="D47" s="6" t="str">
         <f>IFERROR(VLOOKUP(C47,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7451,7 +7403,7 @@
       <c r="DG47" s="5"/>
       <c r="DH47" s="5"/>
     </row>
-    <row r="48" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C48" s="1"/>
       <c r="D48" s="6" t="str">
         <f>IFERROR(VLOOKUP(C48,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7572,7 +7524,7 @@
       <c r="DG48" s="5"/>
       <c r="DH48" s="5"/>
     </row>
-    <row r="49" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C49" s="1"/>
       <c r="D49" s="6" t="str">
         <f>IFERROR(VLOOKUP(C49,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7693,7 +7645,7 @@
       <c r="DG49" s="5"/>
       <c r="DH49" s="5"/>
     </row>
-    <row r="50" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C50" s="1"/>
       <c r="D50" s="6" t="str">
         <f>IFERROR(VLOOKUP(C50,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7814,7 +7766,7 @@
       <c r="DG50" s="5"/>
       <c r="DH50" s="5"/>
     </row>
-    <row r="51" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C51" s="1"/>
       <c r="D51" s="6" t="str">
         <f>IFERROR(VLOOKUP(C51,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7935,7 +7887,7 @@
       <c r="DG51" s="5"/>
       <c r="DH51" s="5"/>
     </row>
-    <row r="52" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C52" s="1"/>
       <c r="D52" s="6" t="str">
         <f>IFERROR(VLOOKUP(C52,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8056,7 +8008,7 @@
       <c r="DG52" s="5"/>
       <c r="DH52" s="5"/>
     </row>
-    <row r="53" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C53" s="1"/>
       <c r="D53" s="6" t="str">
         <f>IFERROR(VLOOKUP(C53,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8177,7 +8129,7 @@
       <c r="DG53" s="5"/>
       <c r="DH53" s="5"/>
     </row>
-    <row r="54" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C54" s="1"/>
       <c r="D54" s="6" t="str">
         <f>IFERROR(VLOOKUP(C54,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8298,7 +8250,7 @@
       <c r="DG54" s="5"/>
       <c r="DH54" s="5"/>
     </row>
-    <row r="55" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C55" s="1"/>
       <c r="D55" s="6" t="str">
         <f>IFERROR(VLOOKUP(C55,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8419,7 +8371,7 @@
       <c r="DG55" s="5"/>
       <c r="DH55" s="5"/>
     </row>
-    <row r="56" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C56" s="1"/>
       <c r="D56" s="6" t="str">
         <f>IFERROR(VLOOKUP(C56,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8540,7 +8492,7 @@
       <c r="DG56" s="5"/>
       <c r="DH56" s="5"/>
     </row>
-    <row r="57" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C57" s="1"/>
       <c r="D57" s="6" t="str">
         <f>IFERROR(VLOOKUP(C57,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8661,7 +8613,7 @@
       <c r="DG57" s="5"/>
       <c r="DH57" s="5"/>
     </row>
-    <row r="58" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C58" s="1"/>
       <c r="D58" s="6" t="str">
         <f>IFERROR(VLOOKUP(C58,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8782,7 +8734,7 @@
       <c r="DG58" s="5"/>
       <c r="DH58" s="5"/>
     </row>
-    <row r="59" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C59" s="1"/>
       <c r="D59" s="6" t="str">
         <f>IFERROR(VLOOKUP(C59,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8903,7 +8855,7 @@
       <c r="DG59" s="5"/>
       <c r="DH59" s="5"/>
     </row>
-    <row r="60" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C60" s="1"/>
       <c r="D60" s="6" t="str">
         <f>IFERROR(VLOOKUP(C60,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9024,7 +8976,7 @@
       <c r="DG60" s="5"/>
       <c r="DH60" s="5"/>
     </row>
-    <row r="61" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C61" s="1"/>
       <c r="D61" s="6" t="str">
         <f>IFERROR(VLOOKUP(C61,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9145,7 +9097,7 @@
       <c r="DG61" s="5"/>
       <c r="DH61" s="5"/>
     </row>
-    <row r="62" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C62" s="1"/>
       <c r="D62" s="6" t="str">
         <f>IFERROR(VLOOKUP(C62,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9266,7 +9218,7 @@
       <c r="DG62" s="5"/>
       <c r="DH62" s="5"/>
     </row>
-    <row r="63" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C63" s="1"/>
       <c r="D63" s="6" t="str">
         <f>IFERROR(VLOOKUP(C63,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9387,7 +9339,7 @@
       <c r="DG63" s="5"/>
       <c r="DH63" s="5"/>
     </row>
-    <row r="64" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C64" s="1"/>
       <c r="D64" s="6" t="str">
         <f>IFERROR(VLOOKUP(C64,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9508,7 +9460,7 @@
       <c r="DG64" s="5"/>
       <c r="DH64" s="5"/>
     </row>
-    <row r="65" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C65" s="1"/>
       <c r="D65" s="6" t="str">
         <f>IFERROR(VLOOKUP(C65,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9629,7 +9581,7 @@
       <c r="DG65" s="5"/>
       <c r="DH65" s="5"/>
     </row>
-    <row r="66" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C66" s="1"/>
       <c r="D66" s="6" t="str">
         <f>IFERROR(VLOOKUP(C66,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9750,7 +9702,7 @@
       <c r="DG66" s="5"/>
       <c r="DH66" s="5"/>
     </row>
-    <row r="67" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C67" s="1"/>
       <c r="D67" s="6" t="str">
         <f>IFERROR(VLOOKUP(C67,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9871,7 +9823,7 @@
       <c r="DG67" s="5"/>
       <c r="DH67" s="5"/>
     </row>
-    <row r="68" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C68" s="1"/>
       <c r="D68" s="6" t="str">
         <f>IFERROR(VLOOKUP(C68,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9992,7 +9944,7 @@
       <c r="DG68" s="5"/>
       <c r="DH68" s="5"/>
     </row>
-    <row r="69" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C69" s="1"/>
       <c r="D69" s="6" t="str">
         <f>IFERROR(VLOOKUP(C69,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10113,7 +10065,7 @@
       <c r="DG69" s="5"/>
       <c r="DH69" s="5"/>
     </row>
-    <row r="70" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C70" s="1"/>
       <c r="D70" s="6" t="str">
         <f>IFERROR(VLOOKUP(C70,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10234,7 +10186,7 @@
       <c r="DG70" s="5"/>
       <c r="DH70" s="5"/>
     </row>
-    <row r="71" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C71" s="1"/>
       <c r="D71" s="6" t="str">
         <f>IFERROR(VLOOKUP(C71,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10355,7 +10307,7 @@
       <c r="DG71" s="5"/>
       <c r="DH71" s="5"/>
     </row>
-    <row r="72" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C72" s="1"/>
       <c r="D72" s="6" t="str">
         <f>IFERROR(VLOOKUP(C72,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10476,7 +10428,7 @@
       <c r="DG72" s="5"/>
       <c r="DH72" s="5"/>
     </row>
-    <row r="73" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C73" s="1"/>
       <c r="D73" s="6" t="str">
         <f>IFERROR(VLOOKUP(C73,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10597,7 +10549,7 @@
       <c r="DG73" s="5"/>
       <c r="DH73" s="5"/>
     </row>
-    <row r="74" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C74" s="1"/>
       <c r="D74" s="6" t="str">
         <f>IFERROR(VLOOKUP(C74,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10718,7 +10670,7 @@
       <c r="DG74" s="5"/>
       <c r="DH74" s="5"/>
     </row>
-    <row r="75" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C75" s="1"/>
       <c r="D75" s="6" t="str">
         <f>IFERROR(VLOOKUP(C75,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10839,7 +10791,7 @@
       <c r="DG75" s="5"/>
       <c r="DH75" s="5"/>
     </row>
-    <row r="76" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C76" s="1"/>
       <c r="D76" s="6" t="str">
         <f>IFERROR(VLOOKUP(C76,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10960,7 +10912,7 @@
       <c r="DG76" s="5"/>
       <c r="DH76" s="5"/>
     </row>
-    <row r="77" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C77" s="1"/>
       <c r="D77" s="6" t="str">
         <f>IFERROR(VLOOKUP(C77,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11081,7 +11033,7 @@
       <c r="DG77" s="5"/>
       <c r="DH77" s="5"/>
     </row>
-    <row r="78" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C78" s="1"/>
       <c r="D78" s="6" t="str">
         <f>IFERROR(VLOOKUP(C78,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11202,7 +11154,7 @@
       <c r="DG78" s="5"/>
       <c r="DH78" s="5"/>
     </row>
-    <row r="79" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C79" s="1"/>
       <c r="D79" s="6" t="str">
         <f>IFERROR(VLOOKUP(C79,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11323,7 +11275,7 @@
       <c r="DG79" s="5"/>
       <c r="DH79" s="5"/>
     </row>
-    <row r="80" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C80" s="1"/>
       <c r="D80" s="6" t="str">
         <f>IFERROR(VLOOKUP(C80,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11444,7 +11396,7 @@
       <c r="DG80" s="5"/>
       <c r="DH80" s="5"/>
     </row>
-    <row r="81" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C81" s="1"/>
       <c r="D81" s="6" t="str">
         <f>IFERROR(VLOOKUP(C81,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11565,7 +11517,7 @@
       <c r="DG81" s="5"/>
       <c r="DH81" s="5"/>
     </row>
-    <row r="82" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C82" s="1"/>
       <c r="D82" s="6" t="str">
         <f>IFERROR(VLOOKUP(C82,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11686,7 +11638,7 @@
       <c r="DG82" s="5"/>
       <c r="DH82" s="5"/>
     </row>
-    <row r="83" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C83" s="1"/>
       <c r="D83" s="6" t="str">
         <f>IFERROR(VLOOKUP(C83,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11807,7 +11759,7 @@
       <c r="DG83" s="5"/>
       <c r="DH83" s="5"/>
     </row>
-    <row r="84" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C84" s="1"/>
       <c r="D84" s="6" t="str">
         <f>IFERROR(VLOOKUP(C84,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11928,7 +11880,7 @@
       <c r="DG84" s="5"/>
       <c r="DH84" s="5"/>
     </row>
-    <row r="85" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C85" s="1"/>
       <c r="D85" s="6" t="str">
         <f>IFERROR(VLOOKUP(C85,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12049,7 +12001,7 @@
       <c r="DG85" s="5"/>
       <c r="DH85" s="5"/>
     </row>
-    <row r="86" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C86" s="1"/>
       <c r="D86" s="6" t="str">
         <f>IFERROR(VLOOKUP(C86,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12170,7 +12122,7 @@
       <c r="DG86" s="5"/>
       <c r="DH86" s="5"/>
     </row>
-    <row r="87" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C87" s="1"/>
       <c r="D87" s="6" t="str">
         <f>IFERROR(VLOOKUP(C87,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12291,7 +12243,7 @@
       <c r="DG87" s="5"/>
       <c r="DH87" s="5"/>
     </row>
-    <row r="88" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C88" s="1"/>
       <c r="D88" s="6" t="str">
         <f>IFERROR(VLOOKUP(C88,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12412,7 +12364,7 @@
       <c r="DG88" s="5"/>
       <c r="DH88" s="5"/>
     </row>
-    <row r="89" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C89" s="1"/>
       <c r="D89" s="6" t="str">
         <f>IFERROR(VLOOKUP(C89,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12533,7 +12485,7 @@
       <c r="DG89" s="5"/>
       <c r="DH89" s="5"/>
     </row>
-    <row r="90" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C90" s="1"/>
       <c r="D90" s="6" t="str">
         <f>IFERROR(VLOOKUP(C90,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12654,7 +12606,7 @@
       <c r="DG90" s="5"/>
       <c r="DH90" s="5"/>
     </row>
-    <row r="91" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C91" s="1"/>
       <c r="D91" s="6" t="str">
         <f>IFERROR(VLOOKUP(C91,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12775,7 +12727,7 @@
       <c r="DG91" s="5"/>
       <c r="DH91" s="5"/>
     </row>
-    <row r="92" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C92" s="1"/>
       <c r="D92" s="6" t="str">
         <f>IFERROR(VLOOKUP(C92,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12896,7 +12848,7 @@
       <c r="DG92" s="5"/>
       <c r="DH92" s="5"/>
     </row>
-    <row r="93" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C93" s="1"/>
       <c r="D93" s="6" t="str">
         <f>IFERROR(VLOOKUP(C93,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13017,7 +12969,7 @@
       <c r="DG93" s="5"/>
       <c r="DH93" s="5"/>
     </row>
-    <row r="94" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C94" s="1"/>
       <c r="D94" s="6" t="str">
         <f>IFERROR(VLOOKUP(C94,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13138,7 +13090,7 @@
       <c r="DG94" s="5"/>
       <c r="DH94" s="5"/>
     </row>
-    <row r="95" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C95" s="1"/>
       <c r="D95" s="6" t="str">
         <f>IFERROR(VLOOKUP(C95,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13259,7 +13211,7 @@
       <c r="DG95" s="5"/>
       <c r="DH95" s="5"/>
     </row>
-    <row r="96" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C96" s="1"/>
       <c r="D96" s="6" t="str">
         <f>IFERROR(VLOOKUP(C96,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13380,7 +13332,7 @@
       <c r="DG96" s="5"/>
       <c r="DH96" s="5"/>
     </row>
-    <row r="97" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C97" s="1"/>
       <c r="D97" s="6" t="str">
         <f>IFERROR(VLOOKUP(C97,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13501,7 +13453,7 @@
       <c r="DG97" s="5"/>
       <c r="DH97" s="5"/>
     </row>
-    <row r="98" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C98" s="1"/>
       <c r="D98" s="6" t="str">
         <f>IFERROR(VLOOKUP(C98,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13622,7 +13574,7 @@
       <c r="DG98" s="5"/>
       <c r="DH98" s="5"/>
     </row>
-    <row r="99" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C99" s="1"/>
       <c r="D99" s="6" t="str">
         <f>IFERROR(VLOOKUP(C99,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13743,7 +13695,7 @@
       <c r="DG99" s="5"/>
       <c r="DH99" s="5"/>
     </row>
-    <row r="100" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C100" s="1"/>
       <c r="D100" s="6" t="str">
         <f>IFERROR(VLOOKUP(C100,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13864,51 +13816,51 @@
       <c r="DG100" s="5"/>
       <c r="DH100" s="5"/>
     </row>
-    <row r="102" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="3:112" x14ac:dyDescent="0.45">
       <c r="E102" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F5:F100">
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="10" priority="9">
       <formula>$G5="完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>TODAY()&gt;$E5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:DH3">
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="日">
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="日">
       <formula>NOT(ISERROR(SEARCH("日",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="土">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="土">
       <formula>NOT(ISERROR(SEARCH("土",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:DH5">
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>AND(AND($D5&lt;=I$4,$E5&gt;=I$4),$G5="完了")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="13">
+    <cfRule type="expression" dxfId="5" priority="13">
       <formula>AND($D5&lt;=I$4,$E5&gt;=I$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:DH100">
-    <cfRule type="expression" dxfId="7" priority="14">
+    <cfRule type="expression" dxfId="4" priority="14">
       <formula>AND(AND($D6&lt;=I$4,$E6&gt;=I$4),$G6="完了")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="15">
+    <cfRule type="expression" dxfId="3" priority="15">
       <formula>AND($D6&lt;=I$4,$E6&gt;=I$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H100">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$H$5:$H$100="佐藤か"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$H$5:$H$100="吉成"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$H$5:$H$100="佐藤る"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13942,28 +13894,96 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B2" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AD670"/>
   <sheetViews>
     <sheetView topLeftCell="D7" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="101.9140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="101.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C4" s="18" t="s">
         <v>0</v>
       </c>
@@ -13983,7 +14003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C5" s="1" t="s">
         <v>47</v>
       </c>
@@ -14004,7 +14024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:30" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C6" s="27" t="s">
         <v>24</v>
       </c>
@@ -14023,7 +14043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A7" s="22"/>
       <c r="B7" s="23" t="s">
         <v>25</v>
@@ -14045,7 +14065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
@@ -14063,7 +14083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
@@ -14081,7 +14101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
@@ -14099,7 +14119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:30" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C11" s="27" t="s">
         <v>57</v>
       </c>
@@ -14117,7 +14137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B12" s="24" t="s">
         <v>34</v>
       </c>
@@ -14138,7 +14158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C13" s="1" t="s">
         <v>35</v>
       </c>
@@ -14156,7 +14176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C14" s="1" t="s">
         <v>37</v>
       </c>
@@ -14174,7 +14194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
@@ -14192,7 +14212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C16" s="1" t="s">
         <v>40</v>
       </c>
@@ -14210,7 +14230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C17" s="1" t="s">
         <v>43</v>
       </c>
@@ -14228,7 +14248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C18" s="1" t="s">
         <v>58</v>
       </c>
@@ -14246,7 +14266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="35"/>
@@ -14256,7 +14276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="25" t="s">
         <v>46</v>
       </c>
@@ -14277,7 +14297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C21" s="1" t="s">
         <v>51</v>
       </c>
@@ -14295,7 +14315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -14305,7 +14325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -14315,7 +14335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -14325,7 +14345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -14335,7 +14355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -14345,7 +14365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -14355,7 +14375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -14365,7 +14385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -14375,7 +14395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -14385,7 +14405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -14395,7 +14415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -14405,7 +14425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -14415,7 +14435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -14425,7 +14445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -14435,7 +14455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -14445,7 +14465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -14455,7 +14475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -14465,7 +14485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -14475,7 +14495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -14485,7 +14505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -14495,7 +14515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -14505,7 +14525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -14515,7 +14535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -14525,7 +14545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -14535,7 +14555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -14545,7 +14565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -14555,7 +14575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -14565,7 +14585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -14575,7 +14595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -14585,7 +14605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -14595,7 +14615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -14605,7 +14625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -14615,7 +14635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -14625,7 +14645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -14635,7 +14655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -14645,7 +14665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -14655,7 +14675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -14665,7 +14685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -14675,7 +14695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -14685,7 +14705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -14695,7 +14715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -14705,7 +14725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -14715,7 +14735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -14725,7 +14745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -14735,7 +14755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -14745,7 +14765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -14755,7 +14775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -14765,7 +14785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -14775,7 +14795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -14785,7 +14805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -14795,7 +14815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -14805,7 +14825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -14815,7 +14835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -14825,7 +14845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -14835,7 +14855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -14845,7 +14865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -14855,7 +14875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -14865,7 +14885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -14875,7 +14895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -14885,7 +14905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -14895,7 +14915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -14905,7 +14925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -14915,7 +14935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -14925,7 +14945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -14935,7 +14955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -14945,7 +14965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -14955,7 +14975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -14965,7 +14985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -14975,7 +14995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -14985,7 +15005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -14995,7 +15015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -15005,7 +15025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -15015,7 +15035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -15025,7 +15045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -15035,7 +15055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -15045,7 +15065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -15055,7 +15075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -15065,7 +15085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -15075,7 +15095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -15085,7 +15105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -15095,7 +15115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -15105,7 +15125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -15115,7 +15135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -15125,7 +15145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -15135,7 +15155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -15145,7 +15165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -15155,7 +15175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -15165,7 +15185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -15175,7 +15195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -15185,7 +15205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -15195,7 +15215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -15205,7 +15225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -15215,7 +15235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -15225,7 +15245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -15235,7 +15255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -15245,7 +15265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -15255,7 +15275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -15265,7 +15285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -15275,7 +15295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -15285,7 +15305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -15295,7 +15315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -15305,7 +15325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -15315,7 +15335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -15325,7 +15345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -15335,7 +15355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -15345,7 +15365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -15355,7 +15375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -15365,7 +15385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -15375,7 +15395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -15385,7 +15405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -15395,7 +15415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -15405,7 +15425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -15415,7 +15435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -15425,7 +15445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -15435,7 +15455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -15445,7 +15465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -15455,7 +15475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -15465,7 +15485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -15475,7 +15495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -15485,7 +15505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -15495,7 +15515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -15505,7 +15525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -15515,7 +15535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -15525,7 +15545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -15535,7 +15555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -15545,7 +15565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -15555,7 +15575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -15565,7 +15585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -15575,7 +15595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -15585,7 +15605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -15595,7 +15615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -15605,7 +15625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -15615,7 +15635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -15625,7 +15645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -15635,7 +15655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -15645,7 +15665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -15655,7 +15675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -15665,7 +15685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -15675,7 +15695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -15685,7 +15705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -15695,7 +15715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -15705,7 +15725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -15715,7 +15735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -15725,7 +15745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -15735,7 +15755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -15745,7 +15765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -15755,7 +15775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -15765,7 +15785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -15775,7 +15795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -15785,7 +15805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -15795,7 +15815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -15805,7 +15825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -15815,7 +15835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -15825,7 +15845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -15835,7 +15855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -15845,7 +15865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -15855,7 +15875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -15865,7 +15885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -15875,7 +15895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -15885,7 +15905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -15895,7 +15915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -15905,7 +15925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -15915,7 +15935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -15925,7 +15945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -15935,7 +15955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -15945,7 +15965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -15955,7 +15975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -15965,7 +15985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -15975,7 +15995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -15985,7 +16005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -15995,7 +16015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -16005,7 +16025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -16015,7 +16035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -16025,7 +16045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -16035,7 +16055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -16045,7 +16065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -16055,7 +16075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -16065,7 +16085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -16075,7 +16095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -16085,7 +16105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -16095,7 +16115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -16105,7 +16125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -16115,7 +16135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -16125,7 +16145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -16135,7 +16155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -16145,7 +16165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -16155,7 +16175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -16165,7 +16185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -16175,7 +16195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -16185,7 +16205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -16195,7 +16215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -16205,7 +16225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -16215,7 +16235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -16225,7 +16245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -16235,7 +16255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -16245,7 +16265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -16255,7 +16275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -16265,7 +16285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -16275,7 +16295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -16285,7 +16305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -16295,7 +16315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -16305,7 +16325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -16315,7 +16335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -16325,7 +16345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -16335,7 +16355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -16345,7 +16365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -16355,7 +16375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -16365,7 +16385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -16375,7 +16395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -16385,7 +16405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -16395,7 +16415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -16405,7 +16425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -16415,7 +16435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -16425,7 +16445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -16435,7 +16455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -16445,7 +16465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -16455,7 +16475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -16465,7 +16485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -16475,7 +16495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -16485,7 +16505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -16495,7 +16515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -16505,7 +16525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -16515,7 +16535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -16525,7 +16545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -16535,7 +16555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -16545,7 +16565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -16555,7 +16575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -16565,7 +16585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -16575,7 +16595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -16585,7 +16605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -16595,7 +16615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -16605,7 +16625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -16615,7 +16635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -16625,7 +16645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -16635,7 +16655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -16645,7 +16665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -16655,7 +16675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -16665,7 +16685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -16675,7 +16695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -16685,7 +16705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -16695,7 +16715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -16705,7 +16725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -16715,7 +16735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -16725,7 +16745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -16735,7 +16755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -16745,7 +16765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -16755,7 +16775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -16765,7 +16785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -16775,7 +16795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -16785,7 +16805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -16795,7 +16815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -16805,7 +16825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -16815,7 +16835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -16825,7 +16845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -16835,7 +16855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -16845,7 +16865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -16855,7 +16875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -16865,7 +16885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -16875,7 +16895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -16885,7 +16905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -16895,7 +16915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -16905,7 +16925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -16915,7 +16935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -16925,7 +16945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -16935,7 +16955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -16945,7 +16965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -16955,7 +16975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -16965,7 +16985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -16975,7 +16995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -16985,7 +17005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -16995,7 +17015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -17005,7 +17025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -17015,7 +17035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -17025,7 +17045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -17035,7 +17055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -17045,7 +17065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -17055,7 +17075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -17065,7 +17085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -17075,7 +17095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
@@ -17085,7 +17105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
@@ -17095,7 +17115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
@@ -17105,7 +17125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
@@ -17115,7 +17135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
@@ -17125,7 +17145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
@@ -17135,7 +17155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
@@ -17145,7 +17165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
@@ -17155,7 +17175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
@@ -17165,7 +17185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
@@ -17175,7 +17195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
@@ -17185,7 +17205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
@@ -17195,7 +17215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
@@ -17205,7 +17225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
@@ -17215,7 +17235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
@@ -17225,7 +17245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
@@ -17235,7 +17255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
@@ -17245,7 +17265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
@@ -17255,7 +17275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
@@ -17265,7 +17285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
@@ -17275,7 +17295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
@@ -17285,7 +17305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
@@ -17295,7 +17315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
@@ -17305,7 +17325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
@@ -17315,7 +17335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
@@ -17325,7 +17345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
@@ -17335,7 +17355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
@@ -17345,7 +17365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
@@ -17355,7 +17375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
@@ -17365,7 +17385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
@@ -17375,7 +17395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
@@ -17385,7 +17405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
@@ -17395,7 +17415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
@@ -17405,7 +17425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
@@ -17415,7 +17435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
@@ -17425,7 +17445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
@@ -17435,7 +17455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
@@ -17445,7 +17465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
@@ -17455,7 +17475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
@@ -17465,7 +17485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
@@ -17475,7 +17495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
@@ -17485,7 +17505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
@@ -17495,7 +17515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
@@ -17505,7 +17525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
@@ -17515,7 +17535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
@@ -17525,7 +17545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
@@ -17535,7 +17555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
@@ -17545,7 +17565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
@@ -17555,7 +17575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
@@ -17565,7 +17585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
@@ -17575,7 +17595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
@@ -17585,7 +17605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
@@ -17595,7 +17615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
@@ -17605,7 +17625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
@@ -17615,7 +17635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
@@ -17625,7 +17645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
@@ -17635,7 +17655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
@@ -17645,7 +17665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
@@ -17655,7 +17675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
@@ -17665,7 +17685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
@@ -17675,7 +17695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
@@ -17685,7 +17705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
@@ -17695,7 +17715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
@@ -17705,7 +17725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
@@ -17715,7 +17735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
@@ -17725,7 +17745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
@@ -17735,7 +17755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
@@ -17745,7 +17765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
@@ -17755,7 +17775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
@@ -17765,7 +17785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
@@ -17775,7 +17795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
@@ -17785,7 +17805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
@@ -17795,7 +17815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
@@ -17805,7 +17825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
@@ -17815,7 +17835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
@@ -17825,7 +17845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
@@ -17835,7 +17855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
@@ -17845,7 +17865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
@@ -17855,7 +17875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
@@ -17865,7 +17885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
@@ -17875,7 +17895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
@@ -17885,7 +17905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
@@ -17895,7 +17915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
@@ -17905,7 +17925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
@@ -17915,7 +17935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
@@ -17925,7 +17945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
@@ -17935,7 +17955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
@@ -17945,7 +17965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
@@ -17955,7 +17975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
@@ -17965,7 +17985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
@@ -17975,7 +17995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
@@ -17985,7 +18005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
@@ -17995,7 +18015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
@@ -18005,7 +18025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
@@ -18015,7 +18035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
@@ -18025,7 +18045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
@@ -18035,7 +18055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
@@ -18045,7 +18065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
@@ -18055,7 +18075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
@@ -18065,7 +18085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
@@ -18075,7 +18095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
@@ -18085,7 +18105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
@@ -18095,7 +18115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
@@ -18105,7 +18125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
@@ -18115,7 +18135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
@@ -18125,7 +18145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
@@ -18135,7 +18155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
@@ -18145,7 +18165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
@@ -18155,7 +18175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
@@ -18165,7 +18185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
@@ -18175,7 +18195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
@@ -18185,7 +18205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
@@ -18195,7 +18215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
@@ -18205,7 +18225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
@@ -18215,7 +18235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
@@ -18225,7 +18245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
@@ -18235,7 +18255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
@@ -18245,7 +18265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
@@ -18255,7 +18275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
@@ -18265,7 +18285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
@@ -18275,7 +18295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
@@ -18285,7 +18305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
@@ -18295,7 +18315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
@@ -18305,7 +18325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
@@ -18315,7 +18335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
@@ -18325,7 +18345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
@@ -18335,7 +18355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
@@ -18345,7 +18365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
@@ -18355,7 +18375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
@@ -18365,7 +18385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
@@ -18375,7 +18395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
@@ -18385,7 +18405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
@@ -18395,7 +18415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
@@ -18405,7 +18425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
@@ -18415,7 +18435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
@@ -18425,7 +18445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
@@ -18435,7 +18455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
@@ -18445,7 +18465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
@@ -18455,7 +18475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
@@ -18465,7 +18485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
@@ -18475,7 +18495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
@@ -18485,7 +18505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
@@ -18495,7 +18515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
@@ -18505,7 +18525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
@@ -18515,7 +18535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
@@ -18525,7 +18545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
@@ -18535,7 +18555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
@@ -18545,7 +18565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
@@ -18555,7 +18575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
@@ -18565,7 +18585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
@@ -18575,7 +18595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
@@ -18585,7 +18605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
@@ -18595,7 +18615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
@@ -18605,7 +18625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
@@ -18615,7 +18635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
@@ -18625,7 +18645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
@@ -18635,7 +18655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
@@ -18645,7 +18665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
@@ -18655,7 +18675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
@@ -18665,7 +18685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
@@ -18675,7 +18695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
@@ -18685,7 +18705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
@@ -18695,7 +18715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
@@ -18705,7 +18725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
@@ -18715,7 +18735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
@@ -18725,7 +18745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
@@ -18735,7 +18755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
@@ -18745,7 +18765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
@@ -18755,7 +18775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
@@ -18765,7 +18785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
@@ -18775,7 +18795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
@@ -18785,7 +18805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
@@ -18795,7 +18815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
@@ -18805,7 +18825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
@@ -18815,7 +18835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
@@ -18825,7 +18845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
@@ -18835,7 +18855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
@@ -18845,7 +18865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
@@ -18855,7 +18875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
@@ -18865,7 +18885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
@@ -18875,7 +18895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
@@ -18885,7 +18905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
@@ -18895,7 +18915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
@@ -18905,7 +18925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
@@ -18915,7 +18935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
@@ -18925,7 +18945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
@@ -18935,7 +18955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
@@ -18945,7 +18965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
@@ -18955,7 +18975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
@@ -18965,7 +18985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
@@ -18975,7 +18995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
@@ -18985,7 +19005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
@@ -18995,7 +19015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
@@ -19005,7 +19025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
@@ -19015,7 +19035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
@@ -19025,7 +19045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
@@ -19035,7 +19055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
@@ -19045,7 +19065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
@@ -19055,7 +19075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
@@ -19065,7 +19085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
@@ -19075,7 +19095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
@@ -19085,7 +19105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
       <c r="E501" s="1"/>
@@ -19095,7 +19115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
       <c r="E502" s="1"/>
@@ -19105,7 +19125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
       <c r="E503" s="1"/>
@@ -19115,7 +19135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
       <c r="E504" s="1"/>
@@ -19125,7 +19145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="505" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C505" s="1"/>
       <c r="D505" s="1"/>
       <c r="E505" s="1"/>
@@ -19135,7 +19155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
       <c r="E506" s="1"/>
@@ -19145,7 +19165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C507" s="1"/>
       <c r="D507" s="1"/>
       <c r="E507" s="1"/>
@@ -19155,7 +19175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C508" s="1"/>
       <c r="D508" s="1"/>
       <c r="E508" s="1"/>
@@ -19165,7 +19185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="509" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C509" s="1"/>
       <c r="D509" s="1"/>
       <c r="E509" s="1"/>
@@ -19175,7 +19195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="510" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
       <c r="E510" s="1"/>
@@ -19185,7 +19205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="511" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C511" s="1"/>
       <c r="D511" s="1"/>
       <c r="E511" s="1"/>
@@ -19195,7 +19215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="512" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C512" s="1"/>
       <c r="D512" s="1"/>
       <c r="E512" s="1"/>
@@ -19205,7 +19225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="513" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C513" s="1"/>
       <c r="D513" s="1"/>
       <c r="E513" s="1"/>
@@ -19215,7 +19235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="514" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C514" s="1"/>
       <c r="D514" s="1"/>
       <c r="E514" s="1"/>
@@ -19225,7 +19245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="515" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C515" s="1"/>
       <c r="D515" s="1"/>
       <c r="E515" s="1"/>
@@ -19235,7 +19255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="516" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C516" s="1"/>
       <c r="D516" s="1"/>
       <c r="E516" s="1"/>
@@ -19245,7 +19265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="517" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C517" s="1"/>
       <c r="D517" s="1"/>
       <c r="E517" s="1"/>
@@ -19255,7 +19275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="518" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C518" s="1"/>
       <c r="D518" s="1"/>
       <c r="E518" s="1"/>
@@ -19265,7 +19285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="519" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C519" s="1"/>
       <c r="D519" s="1"/>
       <c r="E519" s="1"/>
@@ -19275,7 +19295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="520" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C520" s="1"/>
       <c r="D520" s="1"/>
       <c r="E520" s="1"/>
@@ -19285,7 +19305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="521" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C521" s="1"/>
       <c r="D521" s="1"/>
       <c r="E521" s="1"/>
@@ -19295,7 +19315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="522" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C522" s="1"/>
       <c r="D522" s="1"/>
       <c r="E522" s="1"/>
@@ -19305,7 +19325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="523" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C523" s="1"/>
       <c r="D523" s="1"/>
       <c r="E523" s="1"/>
@@ -19315,7 +19335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="524" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C524" s="1"/>
       <c r="D524" s="1"/>
       <c r="E524" s="1"/>
@@ -19325,7 +19345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="525" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C525" s="1"/>
       <c r="D525" s="1"/>
       <c r="E525" s="1"/>
@@ -19335,7 +19355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="526" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C526" s="1"/>
       <c r="D526" s="1"/>
       <c r="E526" s="1"/>
@@ -19345,7 +19365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="527" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C527" s="1"/>
       <c r="D527" s="1"/>
       <c r="E527" s="1"/>
@@ -19355,7 +19375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="528" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C528" s="1"/>
       <c r="D528" s="1"/>
       <c r="E528" s="1"/>
@@ -19365,7 +19385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="529" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C529" s="1"/>
       <c r="D529" s="1"/>
       <c r="E529" s="1"/>
@@ -19375,7 +19395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="530" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C530" s="1"/>
       <c r="D530" s="1"/>
       <c r="E530" s="1"/>
@@ -19385,7 +19405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="531" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C531" s="1"/>
       <c r="D531" s="1"/>
       <c r="E531" s="1"/>
@@ -19395,7 +19415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="532" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C532" s="1"/>
       <c r="D532" s="1"/>
       <c r="E532" s="1"/>
@@ -19405,7 +19425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="533" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C533" s="1"/>
       <c r="D533" s="1"/>
       <c r="E533" s="1"/>
@@ -19415,7 +19435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="534" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C534" s="1"/>
       <c r="D534" s="1"/>
       <c r="E534" s="1"/>
@@ -19425,7 +19445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="535" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C535" s="1"/>
       <c r="D535" s="1"/>
       <c r="E535" s="1"/>
@@ -19435,7 +19455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="536" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C536" s="1"/>
       <c r="D536" s="1"/>
       <c r="E536" s="1"/>
@@ -19445,7 +19465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="537" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C537" s="1"/>
       <c r="D537" s="1"/>
       <c r="E537" s="1"/>
@@ -19455,7 +19475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="538" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C538" s="1"/>
       <c r="D538" s="1"/>
       <c r="E538" s="1"/>
@@ -19465,7 +19485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="539" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C539" s="1"/>
       <c r="D539" s="1"/>
       <c r="E539" s="1"/>
@@ -19475,7 +19495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="540" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C540" s="1"/>
       <c r="D540" s="1"/>
       <c r="E540" s="1"/>
@@ -19485,7 +19505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="541" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C541" s="1"/>
       <c r="D541" s="1"/>
       <c r="E541" s="1"/>
@@ -19495,7 +19515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="542" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C542" s="1"/>
       <c r="D542" s="1"/>
       <c r="E542" s="1"/>
@@ -19505,7 +19525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="543" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C543" s="1"/>
       <c r="D543" s="1"/>
       <c r="E543" s="1"/>
@@ -19515,7 +19535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="544" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C544" s="1"/>
       <c r="D544" s="1"/>
       <c r="E544" s="1"/>
@@ -19525,7 +19545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="545" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C545" s="1"/>
       <c r="D545" s="1"/>
       <c r="E545" s="1"/>
@@ -19535,7 +19555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="546" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C546" s="1"/>
       <c r="D546" s="1"/>
       <c r="E546" s="1"/>
@@ -19545,7 +19565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="547" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C547" s="1"/>
       <c r="D547" s="1"/>
       <c r="E547" s="1"/>
@@ -19555,7 +19575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="548" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
       <c r="E548" s="1"/>
@@ -19565,7 +19585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="549" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C549" s="1"/>
       <c r="D549" s="1"/>
       <c r="E549" s="1"/>
@@ -19575,7 +19595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="550" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C550" s="1"/>
       <c r="D550" s="1"/>
       <c r="E550" s="1"/>
@@ -19585,7 +19605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="551" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C551" s="1"/>
       <c r="D551" s="1"/>
       <c r="E551" s="1"/>
@@ -19595,7 +19615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="552" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C552" s="1"/>
       <c r="D552" s="1"/>
       <c r="E552" s="1"/>
@@ -19605,7 +19625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="553" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C553" s="1"/>
       <c r="D553" s="1"/>
       <c r="E553" s="1"/>
@@ -19615,7 +19635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="554" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C554" s="1"/>
       <c r="D554" s="1"/>
       <c r="E554" s="1"/>
@@ -19625,7 +19645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="555" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C555" s="1"/>
       <c r="D555" s="1"/>
       <c r="E555" s="1"/>
@@ -19635,7 +19655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="556" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C556" s="1"/>
       <c r="D556" s="1"/>
       <c r="E556" s="1"/>
@@ -19645,7 +19665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="557" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C557" s="1"/>
       <c r="D557" s="1"/>
       <c r="E557" s="1"/>
@@ -19655,7 +19675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="558" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C558" s="1"/>
       <c r="D558" s="1"/>
       <c r="E558" s="1"/>
@@ -19665,7 +19685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="559" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C559" s="1"/>
       <c r="D559" s="1"/>
       <c r="E559" s="1"/>
@@ -19675,7 +19695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="560" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C560" s="1"/>
       <c r="D560" s="1"/>
       <c r="E560" s="1"/>
@@ -19685,7 +19705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="561" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C561" s="1"/>
       <c r="D561" s="1"/>
       <c r="E561" s="1"/>
@@ -19695,7 +19715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="562" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C562" s="1"/>
       <c r="D562" s="1"/>
       <c r="E562" s="1"/>
@@ -19705,7 +19725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="563" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C563" s="1"/>
       <c r="D563" s="1"/>
       <c r="E563" s="1"/>
@@ -19715,7 +19735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="564" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C564" s="1"/>
       <c r="D564" s="1"/>
       <c r="E564" s="1"/>
@@ -19725,7 +19745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="565" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C565" s="1"/>
       <c r="D565" s="1"/>
       <c r="E565" s="1"/>
@@ -19735,7 +19755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="566" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C566" s="1"/>
       <c r="D566" s="1"/>
       <c r="E566" s="1"/>
@@ -19745,7 +19765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="567" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C567" s="1"/>
       <c r="D567" s="1"/>
       <c r="E567" s="1"/>
@@ -19755,7 +19775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="568" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C568" s="1"/>
       <c r="D568" s="1"/>
       <c r="E568" s="1"/>
@@ -19765,7 +19785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="569" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C569" s="1"/>
       <c r="D569" s="1"/>
       <c r="E569" s="1"/>
@@ -19775,7 +19795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="570" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C570" s="1"/>
       <c r="D570" s="1"/>
       <c r="E570" s="1"/>
@@ -19785,7 +19805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="571" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C571" s="1"/>
       <c r="D571" s="1"/>
       <c r="E571" s="1"/>
@@ -19795,7 +19815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="572" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C572" s="1"/>
       <c r="D572" s="1"/>
       <c r="E572" s="1"/>
@@ -19805,7 +19825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="573" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C573" s="1"/>
       <c r="D573" s="1"/>
       <c r="E573" s="1"/>
@@ -19815,7 +19835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="574" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C574" s="1"/>
       <c r="D574" s="1"/>
       <c r="E574" s="1"/>
@@ -19825,7 +19845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="575" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C575" s="1"/>
       <c r="D575" s="1"/>
       <c r="E575" s="1"/>
@@ -19835,7 +19855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="576" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C576" s="1"/>
       <c r="D576" s="1"/>
       <c r="E576" s="1"/>
@@ -19845,7 +19865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="577" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C577" s="1"/>
       <c r="D577" s="1"/>
       <c r="E577" s="1"/>
@@ -19855,7 +19875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="578" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C578" s="1"/>
       <c r="D578" s="1"/>
       <c r="E578" s="1"/>
@@ -19865,7 +19885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="579" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C579" s="1"/>
       <c r="D579" s="1"/>
       <c r="E579" s="1"/>
@@ -19875,7 +19895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="580" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C580" s="1"/>
       <c r="D580" s="1"/>
       <c r="E580" s="1"/>
@@ -19885,7 +19905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="581" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C581" s="1"/>
       <c r="D581" s="1"/>
       <c r="E581" s="1"/>
@@ -19895,7 +19915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="582" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C582" s="1"/>
       <c r="D582" s="1"/>
       <c r="E582" s="1"/>
@@ -19905,7 +19925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="583" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C583" s="1"/>
       <c r="D583" s="1"/>
       <c r="E583" s="1"/>
@@ -19915,7 +19935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="584" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C584" s="1"/>
       <c r="D584" s="1"/>
       <c r="E584" s="1"/>
@@ -19925,7 +19945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="585" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C585" s="1"/>
       <c r="D585" s="1"/>
       <c r="E585" s="1"/>
@@ -19935,7 +19955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="586" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C586" s="1"/>
       <c r="D586" s="1"/>
       <c r="E586" s="1"/>
@@ -19945,7 +19965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="587" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C587" s="1"/>
       <c r="D587" s="1"/>
       <c r="E587" s="1"/>
@@ -19955,7 +19975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="588" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C588" s="1"/>
       <c r="D588" s="1"/>
       <c r="E588" s="1"/>
@@ -19965,7 +19985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="589" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C589" s="1"/>
       <c r="D589" s="1"/>
       <c r="E589" s="1"/>
@@ -19975,7 +19995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="590" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C590" s="1"/>
       <c r="D590" s="1"/>
       <c r="E590" s="1"/>
@@ -19985,7 +20005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="591" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C591" s="1"/>
       <c r="D591" s="1"/>
       <c r="E591" s="1"/>
@@ -19995,7 +20015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="592" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C592" s="1"/>
       <c r="D592" s="1"/>
       <c r="E592" s="1"/>
@@ -20005,7 +20025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="593" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C593" s="1"/>
       <c r="D593" s="1"/>
       <c r="E593" s="1"/>
@@ -20015,7 +20035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="594" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C594" s="1"/>
       <c r="D594" s="1"/>
       <c r="E594" s="1"/>
@@ -20025,7 +20045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="595" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C595" s="1"/>
       <c r="D595" s="1"/>
       <c r="E595" s="1"/>
@@ -20035,7 +20055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="596" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C596" s="1"/>
       <c r="D596" s="1"/>
       <c r="E596" s="1"/>
@@ -20045,7 +20065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="597" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C597" s="1"/>
       <c r="D597" s="1"/>
       <c r="E597" s="1"/>
@@ -20055,7 +20075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="598" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C598" s="1"/>
       <c r="D598" s="1"/>
       <c r="E598" s="1"/>
@@ -20065,7 +20085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="599" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C599" s="1"/>
       <c r="D599" s="1"/>
       <c r="E599" s="1"/>
@@ -20075,7 +20095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="600" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C600" s="1"/>
       <c r="D600" s="1"/>
       <c r="E600" s="1"/>
@@ -20085,7 +20105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="601" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C601" s="1"/>
       <c r="D601" s="1"/>
       <c r="E601" s="1"/>
@@ -20095,7 +20115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="602" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C602" s="1"/>
       <c r="D602" s="1"/>
       <c r="E602" s="1"/>
@@ -20105,7 +20125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="603" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C603" s="1"/>
       <c r="D603" s="1"/>
       <c r="E603" s="1"/>
@@ -20115,7 +20135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="604" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C604" s="1"/>
       <c r="D604" s="1"/>
       <c r="E604" s="1"/>
@@ -20125,7 +20145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="605" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C605" s="1"/>
       <c r="D605" s="1"/>
       <c r="E605" s="1"/>
@@ -20135,7 +20155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="606" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C606" s="1"/>
       <c r="D606" s="1"/>
       <c r="E606" s="1"/>
@@ -20145,7 +20165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="607" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C607" s="1"/>
       <c r="D607" s="1"/>
       <c r="E607" s="1"/>
@@ -20155,7 +20175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="608" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C608" s="1"/>
       <c r="D608" s="1"/>
       <c r="E608" s="1"/>
@@ -20165,7 +20185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="609" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C609" s="1"/>
       <c r="D609" s="1"/>
       <c r="E609" s="1"/>
@@ -20175,7 +20195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="610" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C610" s="1"/>
       <c r="D610" s="1"/>
       <c r="E610" s="1"/>
@@ -20185,7 +20205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="611" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C611" s="1"/>
       <c r="D611" s="1"/>
       <c r="E611" s="1"/>
@@ -20195,7 +20215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="612" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C612" s="1"/>
       <c r="D612" s="1"/>
       <c r="E612" s="1"/>
@@ -20205,7 +20225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="613" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C613" s="1"/>
       <c r="D613" s="1"/>
       <c r="E613" s="1"/>
@@ -20215,7 +20235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="614" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C614" s="1"/>
       <c r="D614" s="1"/>
       <c r="E614" s="1"/>
@@ -20225,7 +20245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="615" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C615" s="1"/>
       <c r="D615" s="1"/>
       <c r="E615" s="1"/>
@@ -20235,7 +20255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="616" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C616" s="1"/>
       <c r="D616" s="1"/>
       <c r="E616" s="1"/>
@@ -20245,7 +20265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="617" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C617" s="1"/>
       <c r="D617" s="1"/>
       <c r="E617" s="1"/>
@@ -20255,7 +20275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="618" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C618" s="1"/>
       <c r="D618" s="1"/>
       <c r="E618" s="1"/>
@@ -20265,7 +20285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="619" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C619" s="1"/>
       <c r="D619" s="1"/>
       <c r="E619" s="1"/>
@@ -20275,7 +20295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="620" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C620" s="1"/>
       <c r="D620" s="1"/>
       <c r="E620" s="1"/>
@@ -20285,7 +20305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="621" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C621" s="1"/>
       <c r="D621" s="1"/>
       <c r="E621" s="1"/>
@@ -20295,7 +20315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="622" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C622" s="1"/>
       <c r="D622" s="1"/>
       <c r="E622" s="1"/>
@@ -20305,7 +20325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="623" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C623" s="1"/>
       <c r="D623" s="1"/>
       <c r="E623" s="1"/>
@@ -20315,7 +20335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="624" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C624" s="1"/>
       <c r="D624" s="1"/>
       <c r="E624" s="1"/>
@@ -20325,7 +20345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="625" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C625" s="1"/>
       <c r="D625" s="1"/>
       <c r="E625" s="1"/>
@@ -20335,7 +20355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="626" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C626" s="1"/>
       <c r="D626" s="1"/>
       <c r="E626" s="1"/>
@@ -20345,7 +20365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="627" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C627" s="1"/>
       <c r="D627" s="1"/>
       <c r="E627" s="1"/>
@@ -20355,7 +20375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="628" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C628" s="1"/>
       <c r="D628" s="1"/>
       <c r="E628" s="1"/>
@@ -20365,7 +20385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="629" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C629" s="1"/>
       <c r="D629" s="1"/>
       <c r="E629" s="1"/>
@@ -20375,7 +20395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="630" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C630" s="1"/>
       <c r="D630" s="1"/>
       <c r="E630" s="1"/>
@@ -20385,7 +20405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="631" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C631" s="1"/>
       <c r="D631" s="1"/>
       <c r="E631" s="1"/>
@@ -20395,7 +20415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="632" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C632" s="1"/>
       <c r="D632" s="1"/>
       <c r="E632" s="1"/>
@@ -20405,7 +20425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="633" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C633" s="1"/>
       <c r="D633" s="1"/>
       <c r="E633" s="1"/>
@@ -20415,7 +20435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="634" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C634" s="1"/>
       <c r="D634" s="1"/>
       <c r="E634" s="1"/>
@@ -20425,7 +20445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="635" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C635" s="1"/>
       <c r="D635" s="1"/>
       <c r="E635" s="1"/>
@@ -20435,7 +20455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="636" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C636" s="1"/>
       <c r="D636" s="1"/>
       <c r="E636" s="1"/>
@@ -20445,7 +20465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="637" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C637" s="1"/>
       <c r="D637" s="1"/>
       <c r="E637" s="1"/>
@@ -20455,7 +20475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="638" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C638" s="1"/>
       <c r="D638" s="1"/>
       <c r="E638" s="1"/>
@@ -20465,7 +20485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="639" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C639" s="1"/>
       <c r="D639" s="1"/>
       <c r="E639" s="1"/>
@@ -20475,7 +20495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="640" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C640" s="1"/>
       <c r="D640" s="1"/>
       <c r="E640" s="1"/>
@@ -20485,7 +20505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="641" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C641" s="1"/>
       <c r="D641" s="1"/>
       <c r="E641" s="1"/>
@@ -20495,7 +20515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="642" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C642" s="1"/>
       <c r="D642" s="1"/>
       <c r="E642" s="1"/>
@@ -20505,7 +20525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="643" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C643" s="1"/>
       <c r="D643" s="1"/>
       <c r="E643" s="1"/>
@@ -20515,7 +20535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="644" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C644" s="1"/>
       <c r="D644" s="1"/>
       <c r="E644" s="1"/>
@@ -20525,7 +20545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="645" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C645" s="1"/>
       <c r="D645" s="1"/>
       <c r="E645" s="1"/>
@@ -20535,7 +20555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="646" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C646" s="1"/>
       <c r="D646" s="1"/>
       <c r="E646" s="1"/>
@@ -20545,7 +20565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="647" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C647" s="1"/>
       <c r="D647" s="1"/>
       <c r="E647" s="1"/>
@@ -20555,7 +20575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="648" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C648" s="1"/>
       <c r="D648" s="1"/>
       <c r="E648" s="1"/>
@@ -20565,7 +20585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="649" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C649" s="1"/>
       <c r="D649" s="1"/>
       <c r="E649" s="1"/>
@@ -20575,7 +20595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="650" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C650" s="1"/>
       <c r="D650" s="1"/>
       <c r="E650" s="1"/>
@@ -20585,7 +20605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="651" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C651" s="1"/>
       <c r="D651" s="1"/>
       <c r="E651" s="1"/>
@@ -20595,7 +20615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="652" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C652" s="1"/>
       <c r="D652" s="1"/>
       <c r="E652" s="1"/>
@@ -20605,7 +20625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="653" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C653" s="1"/>
       <c r="D653" s="1"/>
       <c r="E653" s="1"/>
@@ -20615,7 +20635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="654" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C654" s="1"/>
       <c r="D654" s="1"/>
       <c r="E654" s="1"/>
@@ -20625,7 +20645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="655" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C655" s="1"/>
       <c r="D655" s="1"/>
       <c r="E655" s="1"/>
@@ -20635,7 +20655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="656" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C656" s="1"/>
       <c r="D656" s="1"/>
       <c r="E656" s="1"/>
@@ -20645,7 +20665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="657" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C657" s="1"/>
       <c r="D657" s="1"/>
       <c r="E657" s="1"/>
@@ -20655,7 +20675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="658" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C658" s="1"/>
       <c r="D658" s="1"/>
       <c r="E658" s="1"/>
@@ -20665,7 +20685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="659" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C659" s="1"/>
       <c r="D659" s="1"/>
       <c r="E659" s="1"/>
@@ -20675,7 +20695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="660" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C660" s="1"/>
       <c r="D660" s="1"/>
       <c r="E660" s="1"/>
@@ -20685,7 +20705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="661" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C661" s="1"/>
       <c r="D661" s="1"/>
       <c r="E661" s="1"/>
@@ -20695,7 +20715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="662" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C662" s="1"/>
       <c r="D662" s="1"/>
       <c r="E662" s="1"/>
@@ -20705,7 +20725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="663" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C663" s="1"/>
       <c r="D663" s="1"/>
       <c r="E663" s="1"/>
@@ -20715,7 +20735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="664" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C664" s="1"/>
       <c r="D664" s="1"/>
       <c r="E664" s="1"/>
@@ -20725,7 +20745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="665" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C665" s="1"/>
       <c r="D665" s="1"/>
       <c r="E665" s="1"/>
@@ -20735,7 +20755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="666" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C666" s="1"/>
       <c r="D666" s="1"/>
       <c r="E666" s="1"/>
@@ -20745,7 +20765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="667" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C667" s="1"/>
       <c r="D667" s="1"/>
       <c r="E667" s="1"/>
@@ -20755,7 +20775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="668" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C668" s="1"/>
       <c r="D668" s="1"/>
       <c r="E668" s="1"/>
@@ -20765,7 +20785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="669" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C669" s="1"/>
       <c r="D669" s="1"/>
       <c r="E669" s="1"/>
@@ -20775,7 +20795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="670" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C670" s="1"/>
       <c r="D670" s="1"/>
       <c r="E670" s="1"/>

--- a/タスク表.xlsx
+++ b/タスク表.xlsx
@@ -1055,24 +1055,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <numFmt numFmtId="178" formatCode="\ "/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -1091,48 +1074,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5353"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1478,7 +1419,7 @@
   <dimension ref="C1:DH102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2302,7 +2243,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H6" s="30" t="s">
         <v>23</v>
@@ -13870,45 +13811,45 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F5:F100">
-    <cfRule type="expression" dxfId="2" priority="9">
+    <cfRule type="expression" dxfId="10" priority="9">
       <formula>$G5="完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>TODAY()&gt;$E5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:DH3">
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="日">
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="日">
       <formula>NOT(ISERROR(SEARCH("日",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="土">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="土">
       <formula>NOT(ISERROR(SEARCH("土",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:DH5">
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>AND(AND($D5&lt;=I$4,$E5&gt;=I$4),$G5="完了")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="13">
+    <cfRule type="expression" dxfId="5" priority="13">
       <formula>AND($D5&lt;=I$4,$E5&gt;=I$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:DH100">
-    <cfRule type="expression" dxfId="7" priority="14">
+    <cfRule type="expression" dxfId="4" priority="14">
       <formula>AND(AND($D6&lt;=I$4,$E6&gt;=I$4),$G6="完了")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="15">
+    <cfRule type="expression" dxfId="3" priority="15">
       <formula>AND($D6&lt;=I$4,$E6&gt;=I$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H100">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$H$5:$H$100="佐藤か"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$H$5:$H$100="吉成"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$H$5:$H$100="佐藤る"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13944,8 +13885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AD670"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/タスク表.xlsx
+++ b/タスク表.xlsx
@@ -14,7 +14,8 @@
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
     <sheet name="タスク表" sheetId="2" r:id="rId2"/>
-    <sheet name="かんノート" sheetId="3" r:id="rId3"/>
+    <sheet name="バグ報告書" sheetId="4" r:id="rId3"/>
+    <sheet name="かんノート" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="80">
   <si>
     <t>タスク表</t>
     <rPh sb="3" eb="4">
@@ -730,6 +731,158 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>発見者</t>
+    <rPh sb="0" eb="3">
+      <t>ハッケンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発生条件</t>
+    <rPh sb="0" eb="2">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発生内容</t>
+    <rPh sb="0" eb="2">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発見日時</t>
+    <rPh sb="0" eb="2">
+      <t>ハッケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発生箇所</t>
+    <rPh sb="0" eb="2">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正者</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正日時</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正内容</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正箇所</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※※/※※</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前後に進もうとすると横に進んでしまう</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W,Sキーを押したとき</t>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※※/※※</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PlayerControllerScript内</t>
+    <rPh sb="22" eb="23">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X軸の値を代入するところが"Horizontal"ではなく、"Vertical"になっていました。</t>
+    <rPh sb="1" eb="2">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※例です</t>
+    <rPh sb="1" eb="2">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -764,7 +917,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -825,8 +978,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFABAB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -942,13 +1113,204 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1062,6 +1424,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1148,9 +1582,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFABAB"/>
+      <color rgb="FFFF5353"/>
       <color rgb="FFEFD9D9"/>
       <color rgb="FFFF99FF"/>
-      <color rgb="FFFF5353"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1429,8 +1864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:DH102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1442,7 +1877,9 @@
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="18" width="7.83203125" customWidth="1"/>
-    <col min="19" max="27" width="6.83203125" customWidth="1"/>
+    <col min="19" max="19" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="27" width="6.83203125" customWidth="1"/>
     <col min="28" max="49" width="7.83203125" customWidth="1"/>
     <col min="50" max="58" width="6.83203125" customWidth="1"/>
     <col min="59" max="80" width="7.83203125" customWidth="1"/>
@@ -1455,7 +1892,7 @@
       <c r="D1" s="9"/>
     </row>
     <row r="2" spans="3:112" x14ac:dyDescent="0.55000000000000004">
-      <c r="P2" s="14" t="s">
+      <c r="T2" s="60" t="s">
         <v>19</v>
       </c>
       <c r="AN2" s="14" t="s">
@@ -1488,7 +1925,7 @@
       <c r="O3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="P3" s="58" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="2" t="s">
@@ -1500,7 +1937,7 @@
       <c r="S3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3" s="59" t="s">
         <v>15</v>
       </c>
       <c r="U3" s="2" t="s">
@@ -2126,7 +2563,7 @@
       </c>
       <c r="F5" s="13">
         <f ca="1">IFERROR(ABS(TODAY()-$E5),"")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>6</v>
@@ -2251,10 +2688,10 @@
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F69" ca="1" si="0">IFERROR(ABS(TODAY()-$E6),"")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H6" s="30" t="s">
         <v>23</v>
@@ -2378,7 +2815,7 @@
       </c>
       <c r="F7" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>8</v>
@@ -2505,7 +2942,7 @@
       </c>
       <c r="F8" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>8</v>
@@ -2632,7 +3069,7 @@
       </c>
       <c r="F9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>7</v>
@@ -2759,7 +3196,7 @@
       </c>
       <c r="F10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>7</v>
@@ -2886,7 +3323,7 @@
       </c>
       <c r="F11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>7</v>
@@ -3013,7 +3450,7 @@
       </c>
       <c r="F12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>7</v>
@@ -3140,7 +3577,7 @@
       </c>
       <c r="F13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>7</v>
@@ -3267,7 +3704,7 @@
       </c>
       <c r="F14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>7</v>
@@ -3394,7 +3831,7 @@
       </c>
       <c r="F15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>7</v>
@@ -3521,7 +3958,7 @@
       </c>
       <c r="F16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>7</v>
@@ -3648,7 +4085,7 @@
       </c>
       <c r="F17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>7</v>
@@ -3775,7 +4212,7 @@
       </c>
       <c r="F18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>7</v>
@@ -3902,7 +4339,7 @@
       </c>
       <c r="F19" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>7</v>
@@ -13896,7 +14333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AD670"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -20746,6 +21183,1673 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:L136"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="3" max="3" width="6.83203125" customWidth="1"/>
+    <col min="4" max="4" width="9.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.9140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.83203125" customWidth="1"/>
+    <col min="10" max="10" width="9.4140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="72.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="4" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B4" s="49"/>
+      <c r="C4" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="55" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="49"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="56"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="49"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="56"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="49"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="56"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="49"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="56"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="49"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="56"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="49"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="56"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="49"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="56"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="49"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="56"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="49"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="56"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="49"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="56"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="49"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="56"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="49"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="56"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="49"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="56"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="49"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="56"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="49"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="56"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="49"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="56"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="49"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="56"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="49"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="56"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="49"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="56"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="49"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="56"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="49"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="56"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="49"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="56"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="49"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="56"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="49"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="56"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="49"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="56"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="49"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="56"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="49"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="56"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="49"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="56"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="49"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="56"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="49"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="56"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="49"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="56"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="49"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="56"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="49"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="56"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="49"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="56"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="49"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="56"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="49"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="56"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="49"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="56"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="49"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="56"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="49"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="56"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="49"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="56"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="49"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="56"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="49"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="56"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="49"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="56"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="49"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="56"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="49"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="56"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="49"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="56"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="49"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="56"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="49"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="56"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="49"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="56"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="49"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="I55" s="50"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="56"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="49"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="56"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="49"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="56"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="49"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="38"/>
+      <c r="K58" s="38"/>
+      <c r="L58" s="56"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="49"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="56"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="49"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="56"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="49"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="56"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="49"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="I62" s="50"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="56"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63" s="49"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="38"/>
+      <c r="L63" s="56"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" s="49"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="38"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="I64" s="50"/>
+      <c r="J64" s="38"/>
+      <c r="K64" s="38"/>
+      <c r="L64" s="56"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65" s="49"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="38"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="38"/>
+      <c r="K65" s="38"/>
+      <c r="L65" s="56"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" s="49"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="38"/>
+      <c r="I66" s="50"/>
+      <c r="J66" s="38"/>
+      <c r="K66" s="38"/>
+      <c r="L66" s="56"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" s="49"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="38"/>
+      <c r="I67" s="50"/>
+      <c r="J67" s="38"/>
+      <c r="K67" s="38"/>
+      <c r="L67" s="56"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68" s="49"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="38"/>
+      <c r="I68" s="50"/>
+      <c r="J68" s="38"/>
+      <c r="K68" s="38"/>
+      <c r="L68" s="56"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69" s="49"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="38"/>
+      <c r="I69" s="50"/>
+      <c r="J69" s="38"/>
+      <c r="K69" s="38"/>
+      <c r="L69" s="56"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B70" s="49"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
+      <c r="I70" s="50"/>
+      <c r="J70" s="38"/>
+      <c r="K70" s="38"/>
+      <c r="L70" s="56"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B71" s="49"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="38"/>
+      <c r="I71" s="50"/>
+      <c r="J71" s="38"/>
+      <c r="K71" s="38"/>
+      <c r="L71" s="56"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B72" s="49"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="38"/>
+      <c r="I72" s="50"/>
+      <c r="J72" s="38"/>
+      <c r="K72" s="38"/>
+      <c r="L72" s="56"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B73" s="49"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="38"/>
+      <c r="I73" s="50"/>
+      <c r="J73" s="38"/>
+      <c r="K73" s="38"/>
+      <c r="L73" s="56"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74" s="49"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="38"/>
+      <c r="I74" s="50"/>
+      <c r="J74" s="38"/>
+      <c r="K74" s="38"/>
+      <c r="L74" s="56"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75" s="49"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="38"/>
+      <c r="K75" s="38"/>
+      <c r="L75" s="56"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B76" s="49"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="38"/>
+      <c r="I76" s="50"/>
+      <c r="J76" s="38"/>
+      <c r="K76" s="38"/>
+      <c r="L76" s="56"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B77" s="49"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
+      <c r="I77" s="50"/>
+      <c r="J77" s="38"/>
+      <c r="K77" s="38"/>
+      <c r="L77" s="56"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B78" s="49"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="38"/>
+      <c r="I78" s="50"/>
+      <c r="J78" s="38"/>
+      <c r="K78" s="38"/>
+      <c r="L78" s="56"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B79" s="49"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="44"/>
+      <c r="F79" s="38"/>
+      <c r="G79" s="38"/>
+      <c r="I79" s="50"/>
+      <c r="J79" s="38"/>
+      <c r="K79" s="38"/>
+      <c r="L79" s="56"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B80" s="49"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="44"/>
+      <c r="F80" s="38"/>
+      <c r="G80" s="38"/>
+      <c r="I80" s="50"/>
+      <c r="J80" s="38"/>
+      <c r="K80" s="38"/>
+      <c r="L80" s="56"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B81" s="49"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="38"/>
+      <c r="G81" s="38"/>
+      <c r="I81" s="50"/>
+      <c r="J81" s="38"/>
+      <c r="K81" s="38"/>
+      <c r="L81" s="56"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B82" s="49"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="38"/>
+      <c r="I82" s="50"/>
+      <c r="J82" s="38"/>
+      <c r="K82" s="38"/>
+      <c r="L82" s="56"/>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B83" s="49"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="44"/>
+      <c r="F83" s="38"/>
+      <c r="G83" s="38"/>
+      <c r="I83" s="50"/>
+      <c r="J83" s="38"/>
+      <c r="K83" s="38"/>
+      <c r="L83" s="56"/>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B84" s="49"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="44"/>
+      <c r="F84" s="38"/>
+      <c r="G84" s="38"/>
+      <c r="I84" s="50"/>
+      <c r="J84" s="38"/>
+      <c r="K84" s="38"/>
+      <c r="L84" s="56"/>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B85" s="49"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="44"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="38"/>
+      <c r="I85" s="50"/>
+      <c r="J85" s="38"/>
+      <c r="K85" s="38"/>
+      <c r="L85" s="56"/>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B86" s="49"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="44"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="38"/>
+      <c r="I86" s="50"/>
+      <c r="J86" s="38"/>
+      <c r="K86" s="38"/>
+      <c r="L86" s="56"/>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B87" s="49"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="38"/>
+      <c r="E87" s="44"/>
+      <c r="F87" s="38"/>
+      <c r="G87" s="38"/>
+      <c r="I87" s="50"/>
+      <c r="J87" s="38"/>
+      <c r="K87" s="38"/>
+      <c r="L87" s="56"/>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B88" s="49"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="44"/>
+      <c r="F88" s="38"/>
+      <c r="G88" s="38"/>
+      <c r="I88" s="50"/>
+      <c r="J88" s="38"/>
+      <c r="K88" s="38"/>
+      <c r="L88" s="56"/>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B89" s="49"/>
+      <c r="C89" s="44"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="44"/>
+      <c r="F89" s="38"/>
+      <c r="G89" s="38"/>
+      <c r="I89" s="50"/>
+      <c r="J89" s="38"/>
+      <c r="K89" s="38"/>
+      <c r="L89" s="56"/>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B90" s="49"/>
+      <c r="C90" s="44"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="44"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="38"/>
+      <c r="I90" s="50"/>
+      <c r="J90" s="38"/>
+      <c r="K90" s="38"/>
+      <c r="L90" s="56"/>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B91" s="49"/>
+      <c r="C91" s="44"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="44"/>
+      <c r="F91" s="38"/>
+      <c r="G91" s="38"/>
+      <c r="I91" s="50"/>
+      <c r="J91" s="38"/>
+      <c r="K91" s="38"/>
+      <c r="L91" s="56"/>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B92" s="49"/>
+      <c r="C92" s="44"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="44"/>
+      <c r="F92" s="38"/>
+      <c r="G92" s="38"/>
+      <c r="I92" s="50"/>
+      <c r="J92" s="38"/>
+      <c r="K92" s="38"/>
+      <c r="L92" s="56"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B93" s="49"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="38"/>
+      <c r="E93" s="44"/>
+      <c r="F93" s="38"/>
+      <c r="G93" s="38"/>
+      <c r="I93" s="50"/>
+      <c r="J93" s="38"/>
+      <c r="K93" s="38"/>
+      <c r="L93" s="56"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B94" s="49"/>
+      <c r="C94" s="44"/>
+      <c r="D94" s="38"/>
+      <c r="E94" s="44"/>
+      <c r="F94" s="38"/>
+      <c r="G94" s="38"/>
+      <c r="I94" s="50"/>
+      <c r="J94" s="38"/>
+      <c r="K94" s="38"/>
+      <c r="L94" s="56"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B95" s="49"/>
+      <c r="C95" s="44"/>
+      <c r="D95" s="38"/>
+      <c r="E95" s="44"/>
+      <c r="F95" s="38"/>
+      <c r="G95" s="38"/>
+      <c r="I95" s="50"/>
+      <c r="J95" s="38"/>
+      <c r="K95" s="38"/>
+      <c r="L95" s="56"/>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B96" s="49"/>
+      <c r="C96" s="44"/>
+      <c r="D96" s="38"/>
+      <c r="E96" s="44"/>
+      <c r="F96" s="38"/>
+      <c r="G96" s="38"/>
+      <c r="I96" s="50"/>
+      <c r="J96" s="38"/>
+      <c r="K96" s="38"/>
+      <c r="L96" s="56"/>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B97" s="49"/>
+      <c r="C97" s="44"/>
+      <c r="D97" s="38"/>
+      <c r="E97" s="44"/>
+      <c r="F97" s="38"/>
+      <c r="G97" s="38"/>
+      <c r="I97" s="50"/>
+      <c r="J97" s="38"/>
+      <c r="K97" s="38"/>
+      <c r="L97" s="56"/>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B98" s="49"/>
+      <c r="C98" s="44"/>
+      <c r="D98" s="38"/>
+      <c r="E98" s="44"/>
+      <c r="F98" s="38"/>
+      <c r="G98" s="38"/>
+      <c r="I98" s="50"/>
+      <c r="J98" s="38"/>
+      <c r="K98" s="38"/>
+      <c r="L98" s="56"/>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B99" s="49"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="38"/>
+      <c r="E99" s="44"/>
+      <c r="F99" s="38"/>
+      <c r="G99" s="38"/>
+      <c r="I99" s="50"/>
+      <c r="J99" s="38"/>
+      <c r="K99" s="38"/>
+      <c r="L99" s="56"/>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B100" s="49"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="38"/>
+      <c r="E100" s="44"/>
+      <c r="F100" s="38"/>
+      <c r="G100" s="38"/>
+      <c r="I100" s="50"/>
+      <c r="J100" s="38"/>
+      <c r="K100" s="38"/>
+      <c r="L100" s="56"/>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B101" s="49"/>
+      <c r="C101" s="44"/>
+      <c r="D101" s="38"/>
+      <c r="E101" s="44"/>
+      <c r="F101" s="38"/>
+      <c r="G101" s="38"/>
+      <c r="I101" s="50"/>
+      <c r="J101" s="38"/>
+      <c r="K101" s="38"/>
+      <c r="L101" s="56"/>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B102" s="49"/>
+      <c r="C102" s="44"/>
+      <c r="D102" s="38"/>
+      <c r="E102" s="44"/>
+      <c r="F102" s="38"/>
+      <c r="G102" s="38"/>
+      <c r="I102" s="50"/>
+      <c r="J102" s="38"/>
+      <c r="K102" s="38"/>
+      <c r="L102" s="56"/>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B103" s="49"/>
+      <c r="C103" s="44"/>
+      <c r="D103" s="38"/>
+      <c r="E103" s="44"/>
+      <c r="F103" s="38"/>
+      <c r="G103" s="38"/>
+      <c r="I103" s="50"/>
+      <c r="J103" s="38"/>
+      <c r="K103" s="38"/>
+      <c r="L103" s="56"/>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B104" s="49"/>
+      <c r="C104" s="44"/>
+      <c r="D104" s="38"/>
+      <c r="E104" s="44"/>
+      <c r="F104" s="38"/>
+      <c r="G104" s="38"/>
+      <c r="I104" s="50"/>
+      <c r="J104" s="38"/>
+      <c r="K104" s="38"/>
+      <c r="L104" s="56"/>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B105" s="49"/>
+      <c r="C105" s="44"/>
+      <c r="D105" s="38"/>
+      <c r="E105" s="44"/>
+      <c r="F105" s="38"/>
+      <c r="G105" s="38"/>
+      <c r="I105" s="50"/>
+      <c r="J105" s="38"/>
+      <c r="K105" s="38"/>
+      <c r="L105" s="56"/>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B106" s="49"/>
+      <c r="C106" s="44"/>
+      <c r="D106" s="38"/>
+      <c r="E106" s="44"/>
+      <c r="F106" s="38"/>
+      <c r="G106" s="38"/>
+      <c r="I106" s="50"/>
+      <c r="J106" s="38"/>
+      <c r="K106" s="38"/>
+      <c r="L106" s="56"/>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B107" s="49"/>
+      <c r="C107" s="44"/>
+      <c r="D107" s="38"/>
+      <c r="E107" s="44"/>
+      <c r="F107" s="38"/>
+      <c r="G107" s="38"/>
+      <c r="I107" s="50"/>
+      <c r="J107" s="38"/>
+      <c r="K107" s="38"/>
+      <c r="L107" s="56"/>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B108" s="49"/>
+      <c r="C108" s="44"/>
+      <c r="D108" s="38"/>
+      <c r="E108" s="44"/>
+      <c r="F108" s="38"/>
+      <c r="G108" s="38"/>
+      <c r="I108" s="50"/>
+      <c r="J108" s="38"/>
+      <c r="K108" s="38"/>
+      <c r="L108" s="56"/>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B109" s="49"/>
+      <c r="C109" s="44"/>
+      <c r="D109" s="38"/>
+      <c r="E109" s="44"/>
+      <c r="F109" s="38"/>
+      <c r="G109" s="38"/>
+      <c r="I109" s="50"/>
+      <c r="J109" s="38"/>
+      <c r="K109" s="38"/>
+      <c r="L109" s="56"/>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B110" s="49"/>
+      <c r="C110" s="44"/>
+      <c r="D110" s="38"/>
+      <c r="E110" s="44"/>
+      <c r="F110" s="38"/>
+      <c r="G110" s="38"/>
+      <c r="I110" s="50"/>
+      <c r="J110" s="38"/>
+      <c r="K110" s="38"/>
+      <c r="L110" s="56"/>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B111" s="49"/>
+      <c r="C111" s="44"/>
+      <c r="D111" s="38"/>
+      <c r="E111" s="44"/>
+      <c r="F111" s="38"/>
+      <c r="G111" s="38"/>
+      <c r="I111" s="50"/>
+      <c r="J111" s="38"/>
+      <c r="K111" s="38"/>
+      <c r="L111" s="56"/>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B112" s="49"/>
+      <c r="C112" s="44"/>
+      <c r="D112" s="38"/>
+      <c r="E112" s="44"/>
+      <c r="F112" s="38"/>
+      <c r="G112" s="38"/>
+      <c r="I112" s="50"/>
+      <c r="J112" s="38"/>
+      <c r="K112" s="38"/>
+      <c r="L112" s="56"/>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B113" s="49"/>
+      <c r="C113" s="44"/>
+      <c r="D113" s="38"/>
+      <c r="E113" s="44"/>
+      <c r="F113" s="38"/>
+      <c r="G113" s="38"/>
+      <c r="I113" s="50"/>
+      <c r="J113" s="38"/>
+      <c r="K113" s="38"/>
+      <c r="L113" s="56"/>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B114" s="49"/>
+      <c r="C114" s="44"/>
+      <c r="D114" s="38"/>
+      <c r="E114" s="44"/>
+      <c r="F114" s="38"/>
+      <c r="G114" s="38"/>
+      <c r="I114" s="50"/>
+      <c r="J114" s="38"/>
+      <c r="K114" s="38"/>
+      <c r="L114" s="56"/>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B115" s="49"/>
+      <c r="C115" s="44"/>
+      <c r="D115" s="38"/>
+      <c r="E115" s="44"/>
+      <c r="F115" s="38"/>
+      <c r="G115" s="38"/>
+      <c r="I115" s="50"/>
+      <c r="J115" s="38"/>
+      <c r="K115" s="38"/>
+      <c r="L115" s="56"/>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B116" s="49"/>
+      <c r="C116" s="44"/>
+      <c r="D116" s="38"/>
+      <c r="E116" s="44"/>
+      <c r="F116" s="38"/>
+      <c r="G116" s="38"/>
+      <c r="I116" s="50"/>
+      <c r="J116" s="38"/>
+      <c r="K116" s="38"/>
+      <c r="L116" s="56"/>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B117" s="49"/>
+      <c r="C117" s="44"/>
+      <c r="D117" s="38"/>
+      <c r="E117" s="44"/>
+      <c r="F117" s="38"/>
+      <c r="G117" s="38"/>
+      <c r="I117" s="50"/>
+      <c r="J117" s="38"/>
+      <c r="K117" s="38"/>
+      <c r="L117" s="56"/>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B118" s="49"/>
+      <c r="C118" s="44"/>
+      <c r="D118" s="38"/>
+      <c r="E118" s="44"/>
+      <c r="F118" s="38"/>
+      <c r="G118" s="38"/>
+      <c r="I118" s="50"/>
+      <c r="J118" s="38"/>
+      <c r="K118" s="38"/>
+      <c r="L118" s="56"/>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B119" s="49"/>
+      <c r="C119" s="44"/>
+      <c r="D119" s="38"/>
+      <c r="E119" s="44"/>
+      <c r="F119" s="38"/>
+      <c r="G119" s="38"/>
+      <c r="I119" s="50"/>
+      <c r="J119" s="38"/>
+      <c r="K119" s="38"/>
+      <c r="L119" s="56"/>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B120" s="49"/>
+      <c r="C120" s="44"/>
+      <c r="D120" s="38"/>
+      <c r="E120" s="44"/>
+      <c r="F120" s="38"/>
+      <c r="G120" s="38"/>
+      <c r="I120" s="50"/>
+      <c r="J120" s="38"/>
+      <c r="K120" s="38"/>
+      <c r="L120" s="56"/>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B121" s="49"/>
+      <c r="C121" s="44"/>
+      <c r="D121" s="38"/>
+      <c r="E121" s="44"/>
+      <c r="F121" s="38"/>
+      <c r="G121" s="38"/>
+      <c r="I121" s="50"/>
+      <c r="J121" s="38"/>
+      <c r="K121" s="38"/>
+      <c r="L121" s="56"/>
+    </row>
+    <row r="122" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B122" s="49"/>
+      <c r="C122" s="44"/>
+      <c r="D122" s="38"/>
+      <c r="E122" s="44"/>
+      <c r="F122" s="38"/>
+      <c r="G122" s="38"/>
+      <c r="I122" s="50"/>
+      <c r="J122" s="38"/>
+      <c r="K122" s="38"/>
+      <c r="L122" s="56"/>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B123" s="49"/>
+      <c r="C123" s="44"/>
+      <c r="D123" s="38"/>
+      <c r="E123" s="44"/>
+      <c r="F123" s="38"/>
+      <c r="G123" s="38"/>
+      <c r="I123" s="50"/>
+      <c r="J123" s="38"/>
+      <c r="K123" s="38"/>
+      <c r="L123" s="56"/>
+    </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B124" s="49"/>
+      <c r="C124" s="44"/>
+      <c r="D124" s="38"/>
+      <c r="E124" s="44"/>
+      <c r="F124" s="38"/>
+      <c r="G124" s="38"/>
+      <c r="I124" s="50"/>
+      <c r="J124" s="38"/>
+      <c r="K124" s="38"/>
+      <c r="L124" s="56"/>
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B125" s="49"/>
+      <c r="C125" s="44"/>
+      <c r="D125" s="38"/>
+      <c r="E125" s="44"/>
+      <c r="F125" s="38"/>
+      <c r="G125" s="38"/>
+      <c r="I125" s="50"/>
+      <c r="J125" s="38"/>
+      <c r="K125" s="38"/>
+      <c r="L125" s="56"/>
+    </row>
+    <row r="126" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B126" s="49"/>
+      <c r="C126" s="44"/>
+      <c r="D126" s="38"/>
+      <c r="E126" s="44"/>
+      <c r="F126" s="38"/>
+      <c r="G126" s="38"/>
+      <c r="I126" s="50"/>
+      <c r="J126" s="38"/>
+      <c r="K126" s="38"/>
+      <c r="L126" s="56"/>
+    </row>
+    <row r="127" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B127" s="49"/>
+      <c r="C127" s="44"/>
+      <c r="D127" s="38"/>
+      <c r="E127" s="44"/>
+      <c r="F127" s="38"/>
+      <c r="G127" s="38"/>
+      <c r="I127" s="50"/>
+      <c r="J127" s="38"/>
+      <c r="K127" s="38"/>
+      <c r="L127" s="56"/>
+    </row>
+    <row r="128" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B128" s="49"/>
+      <c r="C128" s="44"/>
+      <c r="D128" s="38"/>
+      <c r="E128" s="44"/>
+      <c r="F128" s="38"/>
+      <c r="G128" s="38"/>
+      <c r="I128" s="50"/>
+      <c r="J128" s="38"/>
+      <c r="K128" s="38"/>
+      <c r="L128" s="56"/>
+    </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B129" s="49"/>
+      <c r="C129" s="44"/>
+      <c r="D129" s="38"/>
+      <c r="E129" s="44"/>
+      <c r="F129" s="38"/>
+      <c r="G129" s="38"/>
+      <c r="I129" s="50"/>
+      <c r="J129" s="38"/>
+      <c r="K129" s="38"/>
+      <c r="L129" s="56"/>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B130" s="49"/>
+      <c r="C130" s="44"/>
+      <c r="D130" s="38"/>
+      <c r="E130" s="44"/>
+      <c r="F130" s="38"/>
+      <c r="G130" s="38"/>
+      <c r="I130" s="50"/>
+      <c r="J130" s="38"/>
+      <c r="K130" s="38"/>
+      <c r="L130" s="56"/>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B131" s="49"/>
+      <c r="C131" s="44"/>
+      <c r="D131" s="38"/>
+      <c r="E131" s="44"/>
+      <c r="F131" s="38"/>
+      <c r="G131" s="38"/>
+      <c r="I131" s="50"/>
+      <c r="J131" s="38"/>
+      <c r="K131" s="38"/>
+      <c r="L131" s="56"/>
+    </row>
+    <row r="132" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B132" s="49"/>
+      <c r="C132" s="44"/>
+      <c r="D132" s="38"/>
+      <c r="E132" s="44"/>
+      <c r="F132" s="38"/>
+      <c r="G132" s="38"/>
+      <c r="I132" s="50"/>
+      <c r="J132" s="38"/>
+      <c r="K132" s="38"/>
+      <c r="L132" s="56"/>
+    </row>
+    <row r="133" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B133" s="49"/>
+      <c r="C133" s="44"/>
+      <c r="D133" s="38"/>
+      <c r="E133" s="44"/>
+      <c r="F133" s="38"/>
+      <c r="G133" s="38"/>
+      <c r="I133" s="50"/>
+      <c r="J133" s="38"/>
+      <c r="K133" s="38"/>
+      <c r="L133" s="56"/>
+    </row>
+    <row r="134" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B134" s="49"/>
+      <c r="C134" s="44"/>
+      <c r="D134" s="38"/>
+      <c r="E134" s="44"/>
+      <c r="F134" s="38"/>
+      <c r="G134" s="38"/>
+      <c r="I134" s="50"/>
+      <c r="J134" s="38"/>
+      <c r="K134" s="38"/>
+      <c r="L134" s="56"/>
+    </row>
+    <row r="135" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B135" s="49"/>
+      <c r="C135" s="44"/>
+      <c r="D135" s="38"/>
+      <c r="E135" s="44"/>
+      <c r="F135" s="38"/>
+      <c r="G135" s="38"/>
+      <c r="I135" s="50"/>
+      <c r="J135" s="38"/>
+      <c r="K135" s="38"/>
+      <c r="L135" s="56"/>
+    </row>
+    <row r="136" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B136" s="49"/>
+      <c r="C136" s="48"/>
+      <c r="D136" s="39"/>
+      <c r="E136" s="46"/>
+      <c r="F136" s="39"/>
+      <c r="G136" s="39"/>
+      <c r="I136" s="51"/>
+      <c r="J136" s="39"/>
+      <c r="K136" s="39"/>
+      <c r="L136" s="57"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C136 I5:I136">
+      <formula1>"佐藤る,吉成,佐藤か"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/タスク表.xlsx
+++ b/タスク表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkrs3\Documents\EXTREMEProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K015A1881\Documents\EXTREMEProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1864,34 +1864,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:DH102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.69921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="18" width="7.83203125" customWidth="1"/>
-    <col min="19" max="19" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="18" width="7.796875" customWidth="1"/>
+    <col min="19" max="19" width="6.796875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="27" width="6.83203125" customWidth="1"/>
-    <col min="28" max="49" width="7.83203125" customWidth="1"/>
-    <col min="50" max="58" width="6.83203125" customWidth="1"/>
-    <col min="59" max="80" width="7.83203125" customWidth="1"/>
-    <col min="81" max="89" width="6.83203125" customWidth="1"/>
-    <col min="90" max="112" width="7.83203125" customWidth="1"/>
+    <col min="21" max="27" width="6.796875" customWidth="1"/>
+    <col min="28" max="49" width="7.796875" customWidth="1"/>
+    <col min="50" max="58" width="6.796875" customWidth="1"/>
+    <col min="59" max="80" width="7.796875" customWidth="1"/>
+    <col min="81" max="89" width="6.796875" customWidth="1"/>
+    <col min="90" max="112" width="7.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="3:112" x14ac:dyDescent="0.45">
       <c r="T2" s="60" t="s">
         <v>19</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="3:112" x14ac:dyDescent="0.45">
       <c r="H3" s="11"/>
       <c r="I3" s="10" t="s">
         <v>11</v>
@@ -2217,7 +2217,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C4" s="20" t="s">
         <v>3</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>43740</v>
       </c>
     </row>
-    <row r="5" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C5" s="1" t="s">
         <v>47</v>
       </c>
@@ -2674,7 +2674,7 @@
       <c r="DG5" s="5"/>
       <c r="DH5" s="5"/>
     </row>
-    <row r="6" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
@@ -2801,7 +2801,7 @@
       <c r="DG6" s="5"/>
       <c r="DH6" s="5"/>
     </row>
-    <row r="7" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C7" s="1" t="s">
         <v>48</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H7" s="31" t="s">
         <v>54</v>
@@ -2928,7 +2928,7 @@
       <c r="DG7" s="5"/>
       <c r="DH7" s="5"/>
     </row>
-    <row r="8" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H8" s="31" t="s">
         <v>54</v>
@@ -3055,7 +3055,7 @@
       <c r="DG8" s="5"/>
       <c r="DH8" s="5"/>
     </row>
-    <row r="9" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C9" s="1" t="s">
         <v>53</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H9" s="31" t="s">
         <v>54</v>
@@ -3182,7 +3182,7 @@
       <c r="DG9" s="5"/>
       <c r="DH9" s="5"/>
     </row>
-    <row r="10" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
@@ -3309,7 +3309,7 @@
       <c r="DG10" s="5"/>
       <c r="DH10" s="5"/>
     </row>
-    <row r="11" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C11" s="1" t="s">
         <v>57</v>
       </c>
@@ -3436,7 +3436,7 @@
       <c r="DG11" s="5"/>
       <c r="DH11" s="5"/>
     </row>
-    <row r="12" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C12" s="1" t="s">
         <v>58</v>
       </c>
@@ -3563,7 +3563,7 @@
       <c r="DG12" s="5"/>
       <c r="DH12" s="5"/>
     </row>
-    <row r="13" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C13" s="1" t="s">
         <v>42</v>
       </c>
@@ -3690,7 +3690,7 @@
       <c r="DG13" s="5"/>
       <c r="DH13" s="5"/>
     </row>
-    <row r="14" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C14" s="1" t="s">
         <v>37</v>
       </c>
@@ -3817,7 +3817,7 @@
       <c r="DG14" s="5"/>
       <c r="DH14" s="5"/>
     </row>
-    <row r="15" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
@@ -3944,7 +3944,7 @@
       <c r="DG15" s="5"/>
       <c r="DH15" s="5"/>
     </row>
-    <row r="16" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C16" s="1" t="s">
         <v>43</v>
       </c>
@@ -4071,7 +4071,7 @@
       <c r="DG16" s="5"/>
       <c r="DH16" s="5"/>
     </row>
-    <row r="17" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C17" s="1" t="s">
         <v>35</v>
       </c>
@@ -4198,7 +4198,7 @@
       <c r="DG17" s="5"/>
       <c r="DH17" s="5"/>
     </row>
-    <row r="18" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C18" s="1" t="s">
         <v>50</v>
       </c>
@@ -4325,7 +4325,7 @@
       <c r="DG18" s="5"/>
       <c r="DH18" s="5"/>
     </row>
-    <row r="19" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C19" s="1" t="s">
         <v>51</v>
       </c>
@@ -4452,7 +4452,7 @@
       <c r="DG19" s="5"/>
       <c r="DH19" s="5"/>
     </row>
-    <row r="20" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C20" s="1"/>
       <c r="D20" s="6" t="str">
         <f>IFERROR(VLOOKUP(C20,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4573,7 +4573,7 @@
       <c r="DG20" s="5"/>
       <c r="DH20" s="5"/>
     </row>
-    <row r="21" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C21" s="1"/>
       <c r="D21" s="6" t="str">
         <f>IFERROR(VLOOKUP(C21,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4694,7 +4694,7 @@
       <c r="DG21" s="5"/>
       <c r="DH21" s="5"/>
     </row>
-    <row r="22" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C22" s="1"/>
       <c r="D22" s="6" t="str">
         <f>IFERROR(VLOOKUP(C22,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4815,7 +4815,7 @@
       <c r="DG22" s="5"/>
       <c r="DH22" s="5"/>
     </row>
-    <row r="23" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C23" s="1"/>
       <c r="D23" s="6" t="str">
         <f>IFERROR(VLOOKUP(C23,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4936,7 +4936,7 @@
       <c r="DG23" s="5"/>
       <c r="DH23" s="5"/>
     </row>
-    <row r="24" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C24" s="1"/>
       <c r="D24" s="6" t="str">
         <f>IFERROR(VLOOKUP(C24,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5057,7 +5057,7 @@
       <c r="DG24" s="5"/>
       <c r="DH24" s="5"/>
     </row>
-    <row r="25" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C25" s="1"/>
       <c r="D25" s="6" t="str">
         <f>IFERROR(VLOOKUP(C25,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5178,7 +5178,7 @@
       <c r="DG25" s="5"/>
       <c r="DH25" s="5"/>
     </row>
-    <row r="26" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C26" s="1"/>
       <c r="D26" s="6" t="str">
         <f>IFERROR(VLOOKUP(C26,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5299,7 +5299,7 @@
       <c r="DG26" s="5"/>
       <c r="DH26" s="5"/>
     </row>
-    <row r="27" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C27" s="1"/>
       <c r="D27" s="6" t="str">
         <f>IFERROR(VLOOKUP(C27,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5420,7 +5420,7 @@
       <c r="DG27" s="5"/>
       <c r="DH27" s="5"/>
     </row>
-    <row r="28" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C28" s="1"/>
       <c r="D28" s="6" t="str">
         <f>IFERROR(VLOOKUP(C28,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5541,7 +5541,7 @@
       <c r="DG28" s="5"/>
       <c r="DH28" s="5"/>
     </row>
-    <row r="29" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C29" s="1"/>
       <c r="D29" s="6" t="str">
         <f>IFERROR(VLOOKUP(C29,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5662,7 +5662,7 @@
       <c r="DG29" s="5"/>
       <c r="DH29" s="5"/>
     </row>
-    <row r="30" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C30" s="1"/>
       <c r="D30" s="6" t="str">
         <f>IFERROR(VLOOKUP(C30,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5783,7 +5783,7 @@
       <c r="DG30" s="5"/>
       <c r="DH30" s="5"/>
     </row>
-    <row r="31" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C31" s="1"/>
       <c r="D31" s="6" t="str">
         <f>IFERROR(VLOOKUP(C31,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5904,7 +5904,7 @@
       <c r="DG31" s="5"/>
       <c r="DH31" s="5"/>
     </row>
-    <row r="32" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C32" s="1"/>
       <c r="D32" s="6" t="str">
         <f>IFERROR(VLOOKUP(C32,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6025,7 +6025,7 @@
       <c r="DG32" s="5"/>
       <c r="DH32" s="5"/>
     </row>
-    <row r="33" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C33" s="1"/>
       <c r="D33" s="6" t="str">
         <f>IFERROR(VLOOKUP(C33,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6146,7 +6146,7 @@
       <c r="DG33" s="5"/>
       <c r="DH33" s="5"/>
     </row>
-    <row r="34" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C34" s="1"/>
       <c r="D34" s="6" t="str">
         <f>IFERROR(VLOOKUP(C34,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6267,7 +6267,7 @@
       <c r="DG34" s="5"/>
       <c r="DH34" s="5"/>
     </row>
-    <row r="35" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C35" s="1"/>
       <c r="D35" s="6" t="str">
         <f>IFERROR(VLOOKUP(C35,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6388,7 +6388,7 @@
       <c r="DG35" s="5"/>
       <c r="DH35" s="5"/>
     </row>
-    <row r="36" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C36" s="1"/>
       <c r="D36" s="6" t="str">
         <f>IFERROR(VLOOKUP(C36,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6509,7 +6509,7 @@
       <c r="DG36" s="5"/>
       <c r="DH36" s="5"/>
     </row>
-    <row r="37" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C37" s="1"/>
       <c r="D37" s="6" t="str">
         <f>IFERROR(VLOOKUP(C37,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6630,7 +6630,7 @@
       <c r="DG37" s="5"/>
       <c r="DH37" s="5"/>
     </row>
-    <row r="38" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C38" s="1"/>
       <c r="D38" s="6" t="str">
         <f>IFERROR(VLOOKUP(C38,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6751,7 +6751,7 @@
       <c r="DG38" s="5"/>
       <c r="DH38" s="5"/>
     </row>
-    <row r="39" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C39" s="1"/>
       <c r="D39" s="6" t="str">
         <f>IFERROR(VLOOKUP(C39,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6872,7 +6872,7 @@
       <c r="DG39" s="5"/>
       <c r="DH39" s="5"/>
     </row>
-    <row r="40" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C40" s="1"/>
       <c r="D40" s="6" t="str">
         <f>IFERROR(VLOOKUP(C40,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6993,7 +6993,7 @@
       <c r="DG40" s="5"/>
       <c r="DH40" s="5"/>
     </row>
-    <row r="41" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C41" s="1"/>
       <c r="D41" s="6" t="str">
         <f>IFERROR(VLOOKUP(C41,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7114,7 +7114,7 @@
       <c r="DG41" s="5"/>
       <c r="DH41" s="5"/>
     </row>
-    <row r="42" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C42" s="1"/>
       <c r="D42" s="6" t="str">
         <f>IFERROR(VLOOKUP(C42,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7235,7 +7235,7 @@
       <c r="DG42" s="5"/>
       <c r="DH42" s="5"/>
     </row>
-    <row r="43" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C43" s="1"/>
       <c r="D43" s="6" t="str">
         <f>IFERROR(VLOOKUP(C43,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7356,7 +7356,7 @@
       <c r="DG43" s="5"/>
       <c r="DH43" s="5"/>
     </row>
-    <row r="44" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C44" s="1"/>
       <c r="D44" s="6" t="str">
         <f>IFERROR(VLOOKUP(C44,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7477,7 +7477,7 @@
       <c r="DG44" s="5"/>
       <c r="DH44" s="5"/>
     </row>
-    <row r="45" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C45" s="1"/>
       <c r="D45" s="6" t="str">
         <f>IFERROR(VLOOKUP(C45,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7598,7 +7598,7 @@
       <c r="DG45" s="5"/>
       <c r="DH45" s="5"/>
     </row>
-    <row r="46" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C46" s="1"/>
       <c r="D46" s="6" t="str">
         <f>IFERROR(VLOOKUP(C46,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7719,7 +7719,7 @@
       <c r="DG46" s="5"/>
       <c r="DH46" s="5"/>
     </row>
-    <row r="47" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C47" s="1"/>
       <c r="D47" s="6" t="str">
         <f>IFERROR(VLOOKUP(C47,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7840,7 +7840,7 @@
       <c r="DG47" s="5"/>
       <c r="DH47" s="5"/>
     </row>
-    <row r="48" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C48" s="1"/>
       <c r="D48" s="6" t="str">
         <f>IFERROR(VLOOKUP(C48,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7961,7 +7961,7 @@
       <c r="DG48" s="5"/>
       <c r="DH48" s="5"/>
     </row>
-    <row r="49" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C49" s="1"/>
       <c r="D49" s="6" t="str">
         <f>IFERROR(VLOOKUP(C49,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8082,7 +8082,7 @@
       <c r="DG49" s="5"/>
       <c r="DH49" s="5"/>
     </row>
-    <row r="50" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C50" s="1"/>
       <c r="D50" s="6" t="str">
         <f>IFERROR(VLOOKUP(C50,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8203,7 +8203,7 @@
       <c r="DG50" s="5"/>
       <c r="DH50" s="5"/>
     </row>
-    <row r="51" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C51" s="1"/>
       <c r="D51" s="6" t="str">
         <f>IFERROR(VLOOKUP(C51,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8324,7 +8324,7 @@
       <c r="DG51" s="5"/>
       <c r="DH51" s="5"/>
     </row>
-    <row r="52" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C52" s="1"/>
       <c r="D52" s="6" t="str">
         <f>IFERROR(VLOOKUP(C52,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8445,7 +8445,7 @@
       <c r="DG52" s="5"/>
       <c r="DH52" s="5"/>
     </row>
-    <row r="53" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C53" s="1"/>
       <c r="D53" s="6" t="str">
         <f>IFERROR(VLOOKUP(C53,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8566,7 +8566,7 @@
       <c r="DG53" s="5"/>
       <c r="DH53" s="5"/>
     </row>
-    <row r="54" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C54" s="1"/>
       <c r="D54" s="6" t="str">
         <f>IFERROR(VLOOKUP(C54,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8687,7 +8687,7 @@
       <c r="DG54" s="5"/>
       <c r="DH54" s="5"/>
     </row>
-    <row r="55" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C55" s="1"/>
       <c r="D55" s="6" t="str">
         <f>IFERROR(VLOOKUP(C55,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8808,7 +8808,7 @@
       <c r="DG55" s="5"/>
       <c r="DH55" s="5"/>
     </row>
-    <row r="56" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C56" s="1"/>
       <c r="D56" s="6" t="str">
         <f>IFERROR(VLOOKUP(C56,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8929,7 +8929,7 @@
       <c r="DG56" s="5"/>
       <c r="DH56" s="5"/>
     </row>
-    <row r="57" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C57" s="1"/>
       <c r="D57" s="6" t="str">
         <f>IFERROR(VLOOKUP(C57,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9050,7 +9050,7 @@
       <c r="DG57" s="5"/>
       <c r="DH57" s="5"/>
     </row>
-    <row r="58" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C58" s="1"/>
       <c r="D58" s="6" t="str">
         <f>IFERROR(VLOOKUP(C58,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9171,7 +9171,7 @@
       <c r="DG58" s="5"/>
       <c r="DH58" s="5"/>
     </row>
-    <row r="59" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C59" s="1"/>
       <c r="D59" s="6" t="str">
         <f>IFERROR(VLOOKUP(C59,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9292,7 +9292,7 @@
       <c r="DG59" s="5"/>
       <c r="DH59" s="5"/>
     </row>
-    <row r="60" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C60" s="1"/>
       <c r="D60" s="6" t="str">
         <f>IFERROR(VLOOKUP(C60,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9413,7 +9413,7 @@
       <c r="DG60" s="5"/>
       <c r="DH60" s="5"/>
     </row>
-    <row r="61" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C61" s="1"/>
       <c r="D61" s="6" t="str">
         <f>IFERROR(VLOOKUP(C61,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9534,7 +9534,7 @@
       <c r="DG61" s="5"/>
       <c r="DH61" s="5"/>
     </row>
-    <row r="62" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C62" s="1"/>
       <c r="D62" s="6" t="str">
         <f>IFERROR(VLOOKUP(C62,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9655,7 +9655,7 @@
       <c r="DG62" s="5"/>
       <c r="DH62" s="5"/>
     </row>
-    <row r="63" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C63" s="1"/>
       <c r="D63" s="6" t="str">
         <f>IFERROR(VLOOKUP(C63,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9776,7 +9776,7 @@
       <c r="DG63" s="5"/>
       <c r="DH63" s="5"/>
     </row>
-    <row r="64" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C64" s="1"/>
       <c r="D64" s="6" t="str">
         <f>IFERROR(VLOOKUP(C64,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9897,7 +9897,7 @@
       <c r="DG64" s="5"/>
       <c r="DH64" s="5"/>
     </row>
-    <row r="65" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C65" s="1"/>
       <c r="D65" s="6" t="str">
         <f>IFERROR(VLOOKUP(C65,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10018,7 +10018,7 @@
       <c r="DG65" s="5"/>
       <c r="DH65" s="5"/>
     </row>
-    <row r="66" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C66" s="1"/>
       <c r="D66" s="6" t="str">
         <f>IFERROR(VLOOKUP(C66,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10139,7 +10139,7 @@
       <c r="DG66" s="5"/>
       <c r="DH66" s="5"/>
     </row>
-    <row r="67" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C67" s="1"/>
       <c r="D67" s="6" t="str">
         <f>IFERROR(VLOOKUP(C67,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10260,7 +10260,7 @@
       <c r="DG67" s="5"/>
       <c r="DH67" s="5"/>
     </row>
-    <row r="68" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C68" s="1"/>
       <c r="D68" s="6" t="str">
         <f>IFERROR(VLOOKUP(C68,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10381,7 +10381,7 @@
       <c r="DG68" s="5"/>
       <c r="DH68" s="5"/>
     </row>
-    <row r="69" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C69" s="1"/>
       <c r="D69" s="6" t="str">
         <f>IFERROR(VLOOKUP(C69,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10502,7 +10502,7 @@
       <c r="DG69" s="5"/>
       <c r="DH69" s="5"/>
     </row>
-    <row r="70" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C70" s="1"/>
       <c r="D70" s="6" t="str">
         <f>IFERROR(VLOOKUP(C70,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10623,7 +10623,7 @@
       <c r="DG70" s="5"/>
       <c r="DH70" s="5"/>
     </row>
-    <row r="71" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C71" s="1"/>
       <c r="D71" s="6" t="str">
         <f>IFERROR(VLOOKUP(C71,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10744,7 +10744,7 @@
       <c r="DG71" s="5"/>
       <c r="DH71" s="5"/>
     </row>
-    <row r="72" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C72" s="1"/>
       <c r="D72" s="6" t="str">
         <f>IFERROR(VLOOKUP(C72,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10865,7 +10865,7 @@
       <c r="DG72" s="5"/>
       <c r="DH72" s="5"/>
     </row>
-    <row r="73" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C73" s="1"/>
       <c r="D73" s="6" t="str">
         <f>IFERROR(VLOOKUP(C73,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10986,7 +10986,7 @@
       <c r="DG73" s="5"/>
       <c r="DH73" s="5"/>
     </row>
-    <row r="74" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C74" s="1"/>
       <c r="D74" s="6" t="str">
         <f>IFERROR(VLOOKUP(C74,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11107,7 +11107,7 @@
       <c r="DG74" s="5"/>
       <c r="DH74" s="5"/>
     </row>
-    <row r="75" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C75" s="1"/>
       <c r="D75" s="6" t="str">
         <f>IFERROR(VLOOKUP(C75,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11228,7 +11228,7 @@
       <c r="DG75" s="5"/>
       <c r="DH75" s="5"/>
     </row>
-    <row r="76" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C76" s="1"/>
       <c r="D76" s="6" t="str">
         <f>IFERROR(VLOOKUP(C76,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11349,7 +11349,7 @@
       <c r="DG76" s="5"/>
       <c r="DH76" s="5"/>
     </row>
-    <row r="77" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C77" s="1"/>
       <c r="D77" s="6" t="str">
         <f>IFERROR(VLOOKUP(C77,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11470,7 +11470,7 @@
       <c r="DG77" s="5"/>
       <c r="DH77" s="5"/>
     </row>
-    <row r="78" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C78" s="1"/>
       <c r="D78" s="6" t="str">
         <f>IFERROR(VLOOKUP(C78,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11591,7 +11591,7 @@
       <c r="DG78" s="5"/>
       <c r="DH78" s="5"/>
     </row>
-    <row r="79" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C79" s="1"/>
       <c r="D79" s="6" t="str">
         <f>IFERROR(VLOOKUP(C79,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11712,7 +11712,7 @@
       <c r="DG79" s="5"/>
       <c r="DH79" s="5"/>
     </row>
-    <row r="80" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C80" s="1"/>
       <c r="D80" s="6" t="str">
         <f>IFERROR(VLOOKUP(C80,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11833,7 +11833,7 @@
       <c r="DG80" s="5"/>
       <c r="DH80" s="5"/>
     </row>
-    <row r="81" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C81" s="1"/>
       <c r="D81" s="6" t="str">
         <f>IFERROR(VLOOKUP(C81,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11954,7 +11954,7 @@
       <c r="DG81" s="5"/>
       <c r="DH81" s="5"/>
     </row>
-    <row r="82" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C82" s="1"/>
       <c r="D82" s="6" t="str">
         <f>IFERROR(VLOOKUP(C82,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12075,7 +12075,7 @@
       <c r="DG82" s="5"/>
       <c r="DH82" s="5"/>
     </row>
-    <row r="83" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C83" s="1"/>
       <c r="D83" s="6" t="str">
         <f>IFERROR(VLOOKUP(C83,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12196,7 +12196,7 @@
       <c r="DG83" s="5"/>
       <c r="DH83" s="5"/>
     </row>
-    <row r="84" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C84" s="1"/>
       <c r="D84" s="6" t="str">
         <f>IFERROR(VLOOKUP(C84,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12317,7 +12317,7 @@
       <c r="DG84" s="5"/>
       <c r="DH84" s="5"/>
     </row>
-    <row r="85" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C85" s="1"/>
       <c r="D85" s="6" t="str">
         <f>IFERROR(VLOOKUP(C85,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12438,7 +12438,7 @@
       <c r="DG85" s="5"/>
       <c r="DH85" s="5"/>
     </row>
-    <row r="86" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C86" s="1"/>
       <c r="D86" s="6" t="str">
         <f>IFERROR(VLOOKUP(C86,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12559,7 +12559,7 @@
       <c r="DG86" s="5"/>
       <c r="DH86" s="5"/>
     </row>
-    <row r="87" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C87" s="1"/>
       <c r="D87" s="6" t="str">
         <f>IFERROR(VLOOKUP(C87,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12680,7 +12680,7 @@
       <c r="DG87" s="5"/>
       <c r="DH87" s="5"/>
     </row>
-    <row r="88" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C88" s="1"/>
       <c r="D88" s="6" t="str">
         <f>IFERROR(VLOOKUP(C88,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12801,7 +12801,7 @@
       <c r="DG88" s="5"/>
       <c r="DH88" s="5"/>
     </row>
-    <row r="89" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C89" s="1"/>
       <c r="D89" s="6" t="str">
         <f>IFERROR(VLOOKUP(C89,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12922,7 +12922,7 @@
       <c r="DG89" s="5"/>
       <c r="DH89" s="5"/>
     </row>
-    <row r="90" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C90" s="1"/>
       <c r="D90" s="6" t="str">
         <f>IFERROR(VLOOKUP(C90,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13043,7 +13043,7 @@
       <c r="DG90" s="5"/>
       <c r="DH90" s="5"/>
     </row>
-    <row r="91" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C91" s="1"/>
       <c r="D91" s="6" t="str">
         <f>IFERROR(VLOOKUP(C91,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13164,7 +13164,7 @@
       <c r="DG91" s="5"/>
       <c r="DH91" s="5"/>
     </row>
-    <row r="92" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C92" s="1"/>
       <c r="D92" s="6" t="str">
         <f>IFERROR(VLOOKUP(C92,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13285,7 +13285,7 @@
       <c r="DG92" s="5"/>
       <c r="DH92" s="5"/>
     </row>
-    <row r="93" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C93" s="1"/>
       <c r="D93" s="6" t="str">
         <f>IFERROR(VLOOKUP(C93,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13406,7 +13406,7 @@
       <c r="DG93" s="5"/>
       <c r="DH93" s="5"/>
     </row>
-    <row r="94" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C94" s="1"/>
       <c r="D94" s="6" t="str">
         <f>IFERROR(VLOOKUP(C94,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13527,7 +13527,7 @@
       <c r="DG94" s="5"/>
       <c r="DH94" s="5"/>
     </row>
-    <row r="95" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C95" s="1"/>
       <c r="D95" s="6" t="str">
         <f>IFERROR(VLOOKUP(C95,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13648,7 +13648,7 @@
       <c r="DG95" s="5"/>
       <c r="DH95" s="5"/>
     </row>
-    <row r="96" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C96" s="1"/>
       <c r="D96" s="6" t="str">
         <f>IFERROR(VLOOKUP(C96,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13769,7 +13769,7 @@
       <c r="DG96" s="5"/>
       <c r="DH96" s="5"/>
     </row>
-    <row r="97" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C97" s="1"/>
       <c r="D97" s="6" t="str">
         <f>IFERROR(VLOOKUP(C97,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13890,7 +13890,7 @@
       <c r="DG97" s="5"/>
       <c r="DH97" s="5"/>
     </row>
-    <row r="98" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C98" s="1"/>
       <c r="D98" s="6" t="str">
         <f>IFERROR(VLOOKUP(C98,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -14011,7 +14011,7 @@
       <c r="DG98" s="5"/>
       <c r="DH98" s="5"/>
     </row>
-    <row r="99" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C99" s="1"/>
       <c r="D99" s="6" t="str">
         <f>IFERROR(VLOOKUP(C99,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -14132,7 +14132,7 @@
       <c r="DG99" s="5"/>
       <c r="DH99" s="5"/>
     </row>
-    <row r="100" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C100" s="1"/>
       <c r="D100" s="6" t="str">
         <f>IFERROR(VLOOKUP(C100,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -14253,7 +14253,7 @@
       <c r="DG100" s="5"/>
       <c r="DH100" s="5"/>
     </row>
-    <row r="102" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="3:112" x14ac:dyDescent="0.45">
       <c r="E102" s="9"/>
     </row>
   </sheetData>
@@ -14333,26 +14333,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AD670"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="101.9140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="101.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C4" s="18" t="s">
         <v>0</v>
       </c>
@@ -14372,7 +14372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C5" s="1" t="s">
         <v>47</v>
       </c>
@@ -14393,7 +14393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:30" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C6" s="27" t="s">
         <v>24</v>
       </c>
@@ -14412,7 +14412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A7" s="22"/>
       <c r="B7" s="23" t="s">
         <v>25</v>
@@ -14434,7 +14434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
@@ -14452,7 +14452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
@@ -14470,7 +14470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
@@ -14488,7 +14488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:30" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C11" s="27" t="s">
         <v>57</v>
       </c>
@@ -14506,7 +14506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B12" s="24" t="s">
         <v>34</v>
       </c>
@@ -14527,7 +14527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C13" s="1" t="s">
         <v>35</v>
       </c>
@@ -14545,7 +14545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C14" s="1" t="s">
         <v>37</v>
       </c>
@@ -14563,7 +14563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
@@ -14581,7 +14581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C16" s="1" t="s">
         <v>40</v>
       </c>
@@ -14599,7 +14599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C17" s="1" t="s">
         <v>43</v>
       </c>
@@ -14617,7 +14617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C18" s="1" t="s">
         <v>58</v>
       </c>
@@ -14635,7 +14635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="35"/>
@@ -14645,7 +14645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="25" t="s">
         <v>46</v>
       </c>
@@ -14666,7 +14666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C21" s="1" t="s">
         <v>51</v>
       </c>
@@ -14684,7 +14684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -14694,7 +14694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -14704,7 +14704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -14714,7 +14714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -14724,7 +14724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -14734,7 +14734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -14744,7 +14744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -14754,7 +14754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -14764,7 +14764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -14774,7 +14774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -14784,7 +14784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -14794,7 +14794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -14804,7 +14804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -14814,7 +14814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -14824,7 +14824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -14834,7 +14834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -14844,7 +14844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -14854,7 +14854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -14864,7 +14864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -14874,7 +14874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -14884,7 +14884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -14894,7 +14894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -14904,7 +14904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -14914,7 +14914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -14924,7 +14924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -14934,7 +14934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -14944,7 +14944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -14954,7 +14954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -14964,7 +14964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -14974,7 +14974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -14984,7 +14984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -14994,7 +14994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -15004,7 +15004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -15014,7 +15014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -15024,7 +15024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -15034,7 +15034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -15044,7 +15044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -15054,7 +15054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -15064,7 +15064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -15074,7 +15074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -15084,7 +15084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -15094,7 +15094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -15104,7 +15104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -15114,7 +15114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -15124,7 +15124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -15134,7 +15134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -15144,7 +15144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -15154,7 +15154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -15164,7 +15164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -15174,7 +15174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -15184,7 +15184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -15194,7 +15194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -15204,7 +15204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -15214,7 +15214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -15224,7 +15224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -15234,7 +15234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -15244,7 +15244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -15254,7 +15254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -15264,7 +15264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -15274,7 +15274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -15284,7 +15284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -15294,7 +15294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -15304,7 +15304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -15314,7 +15314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -15324,7 +15324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -15334,7 +15334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -15344,7 +15344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -15354,7 +15354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -15364,7 +15364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -15374,7 +15374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -15384,7 +15384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -15394,7 +15394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -15404,7 +15404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -15414,7 +15414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -15424,7 +15424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -15434,7 +15434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -15444,7 +15444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -15454,7 +15454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -15464,7 +15464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -15474,7 +15474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -15484,7 +15484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -15494,7 +15494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -15504,7 +15504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -15514,7 +15514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -15524,7 +15524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -15534,7 +15534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -15544,7 +15544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -15554,7 +15554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -15564,7 +15564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -15574,7 +15574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -15584,7 +15584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -15594,7 +15594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -15604,7 +15604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -15614,7 +15614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -15624,7 +15624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -15634,7 +15634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -15644,7 +15644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -15654,7 +15654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -15664,7 +15664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -15674,7 +15674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -15684,7 +15684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -15694,7 +15694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -15704,7 +15704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -15714,7 +15714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -15724,7 +15724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -15734,7 +15734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -15744,7 +15744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -15754,7 +15754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -15764,7 +15764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -15774,7 +15774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -15784,7 +15784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -15794,7 +15794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -15804,7 +15804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -15814,7 +15814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -15824,7 +15824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -15834,7 +15834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -15844,7 +15844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -15854,7 +15854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -15864,7 +15864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -15874,7 +15874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -15884,7 +15884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -15894,7 +15894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -15904,7 +15904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -15914,7 +15914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -15924,7 +15924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -15934,7 +15934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -15944,7 +15944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -15954,7 +15954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -15964,7 +15964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -15974,7 +15974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -15984,7 +15984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -15994,7 +15994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -16004,7 +16004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -16014,7 +16014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -16024,7 +16024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -16034,7 +16034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -16044,7 +16044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -16054,7 +16054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -16064,7 +16064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -16074,7 +16074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -16084,7 +16084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -16094,7 +16094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -16104,7 +16104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -16114,7 +16114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -16124,7 +16124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -16134,7 +16134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -16144,7 +16144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -16154,7 +16154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -16164,7 +16164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -16174,7 +16174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -16184,7 +16184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -16194,7 +16194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -16204,7 +16204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -16214,7 +16214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -16224,7 +16224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -16234,7 +16234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -16244,7 +16244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -16254,7 +16254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -16264,7 +16264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -16274,7 +16274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -16284,7 +16284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -16294,7 +16294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -16304,7 +16304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -16314,7 +16314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -16324,7 +16324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -16334,7 +16334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -16344,7 +16344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -16354,7 +16354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -16364,7 +16364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -16374,7 +16374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -16384,7 +16384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -16394,7 +16394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -16404,7 +16404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -16414,7 +16414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -16424,7 +16424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -16434,7 +16434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -16444,7 +16444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -16454,7 +16454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -16464,7 +16464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -16474,7 +16474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -16484,7 +16484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -16494,7 +16494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -16504,7 +16504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -16514,7 +16514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -16524,7 +16524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -16534,7 +16534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -16544,7 +16544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -16554,7 +16554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -16564,7 +16564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -16574,7 +16574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -16584,7 +16584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -16594,7 +16594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -16604,7 +16604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -16614,7 +16614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -16624,7 +16624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -16634,7 +16634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -16644,7 +16644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -16654,7 +16654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -16664,7 +16664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -16674,7 +16674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -16684,7 +16684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -16694,7 +16694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -16704,7 +16704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -16714,7 +16714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -16724,7 +16724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -16734,7 +16734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -16744,7 +16744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -16754,7 +16754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -16764,7 +16764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -16774,7 +16774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -16784,7 +16784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -16794,7 +16794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -16804,7 +16804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -16814,7 +16814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -16824,7 +16824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -16834,7 +16834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -16844,7 +16844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -16854,7 +16854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -16864,7 +16864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -16874,7 +16874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -16884,7 +16884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -16894,7 +16894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -16904,7 +16904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -16914,7 +16914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -16924,7 +16924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -16934,7 +16934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -16944,7 +16944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -16954,7 +16954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -16964,7 +16964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -16974,7 +16974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -16984,7 +16984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -16994,7 +16994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -17004,7 +17004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -17014,7 +17014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -17024,7 +17024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -17034,7 +17034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -17044,7 +17044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -17054,7 +17054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -17064,7 +17064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -17074,7 +17074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -17084,7 +17084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -17094,7 +17094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -17104,7 +17104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -17114,7 +17114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -17124,7 +17124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -17134,7 +17134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -17144,7 +17144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -17154,7 +17154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -17164,7 +17164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -17174,7 +17174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -17184,7 +17184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -17194,7 +17194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -17204,7 +17204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -17214,7 +17214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -17224,7 +17224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -17234,7 +17234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -17244,7 +17244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -17254,7 +17254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -17264,7 +17264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -17274,7 +17274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -17284,7 +17284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -17294,7 +17294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -17304,7 +17304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -17314,7 +17314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -17324,7 +17324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -17334,7 +17334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -17344,7 +17344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -17354,7 +17354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -17364,7 +17364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -17374,7 +17374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -17384,7 +17384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -17394,7 +17394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -17404,7 +17404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -17414,7 +17414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -17424,7 +17424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -17434,7 +17434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -17444,7 +17444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -17454,7 +17454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -17464,7 +17464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
@@ -17474,7 +17474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
@@ -17484,7 +17484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
@@ -17494,7 +17494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
@@ -17504,7 +17504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
@@ -17514,7 +17514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
@@ -17524,7 +17524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
@@ -17534,7 +17534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
@@ -17544,7 +17544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
@@ -17554,7 +17554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
@@ -17564,7 +17564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
@@ -17574,7 +17574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
@@ -17584,7 +17584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
@@ -17594,7 +17594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
@@ -17604,7 +17604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
@@ -17614,7 +17614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
@@ -17624,7 +17624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
@@ -17634,7 +17634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
@@ -17644,7 +17644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
@@ -17654,7 +17654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
@@ -17664,7 +17664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
@@ -17674,7 +17674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
@@ -17684,7 +17684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
@@ -17694,7 +17694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
@@ -17704,7 +17704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
@@ -17714,7 +17714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
@@ -17724,7 +17724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
@@ -17734,7 +17734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
@@ -17744,7 +17744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
@@ -17754,7 +17754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
@@ -17764,7 +17764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
@@ -17774,7 +17774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
@@ -17784,7 +17784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
@@ -17794,7 +17794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
@@ -17804,7 +17804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
@@ -17814,7 +17814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
@@ -17824,7 +17824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
@@ -17834,7 +17834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
@@ -17844,7 +17844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
@@ -17854,7 +17854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
@@ -17864,7 +17864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
@@ -17874,7 +17874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
@@ -17884,7 +17884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
@@ -17894,7 +17894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
@@ -17904,7 +17904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
@@ -17914,7 +17914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
@@ -17924,7 +17924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
@@ -17934,7 +17934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
@@ -17944,7 +17944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
@@ -17954,7 +17954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
@@ -17964,7 +17964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
@@ -17974,7 +17974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
@@ -17984,7 +17984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
@@ -17994,7 +17994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
@@ -18004,7 +18004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
@@ -18014,7 +18014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
@@ -18024,7 +18024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
@@ -18034,7 +18034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
@@ -18044,7 +18044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
@@ -18054,7 +18054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
@@ -18064,7 +18064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
@@ -18074,7 +18074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
@@ -18084,7 +18084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
@@ -18094,7 +18094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
@@ -18104,7 +18104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
@@ -18114,7 +18114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
@@ -18124,7 +18124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
@@ -18134,7 +18134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
@@ -18144,7 +18144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
@@ -18154,7 +18154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
@@ -18164,7 +18164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
@@ -18174,7 +18174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
@@ -18184,7 +18184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
@@ -18194,7 +18194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
@@ -18204,7 +18204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
@@ -18214,7 +18214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
@@ -18224,7 +18224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
@@ -18234,7 +18234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
@@ -18244,7 +18244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
@@ -18254,7 +18254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
@@ -18264,7 +18264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
@@ -18274,7 +18274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
@@ -18284,7 +18284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
@@ -18294,7 +18294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
@@ -18304,7 +18304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
@@ -18314,7 +18314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
@@ -18324,7 +18324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
@@ -18334,7 +18334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
@@ -18344,7 +18344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
@@ -18354,7 +18354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
@@ -18364,7 +18364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
@@ -18374,7 +18374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
@@ -18384,7 +18384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
@@ -18394,7 +18394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
@@ -18404,7 +18404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
@@ -18414,7 +18414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
@@ -18424,7 +18424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
@@ -18434,7 +18434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
@@ -18444,7 +18444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
@@ -18454,7 +18454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
@@ -18464,7 +18464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
@@ -18474,7 +18474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
@@ -18484,7 +18484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
@@ -18494,7 +18494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
@@ -18504,7 +18504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
@@ -18514,7 +18514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
@@ -18524,7 +18524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
@@ -18534,7 +18534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
@@ -18544,7 +18544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
@@ -18554,7 +18554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
@@ -18564,7 +18564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
@@ -18574,7 +18574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
@@ -18584,7 +18584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
@@ -18594,7 +18594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
@@ -18604,7 +18604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
@@ -18614,7 +18614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
@@ -18624,7 +18624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
@@ -18634,7 +18634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
@@ -18644,7 +18644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
@@ -18654,7 +18654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
@@ -18664,7 +18664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
@@ -18674,7 +18674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
@@ -18684,7 +18684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
@@ -18694,7 +18694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
@@ -18704,7 +18704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
@@ -18714,7 +18714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
@@ -18724,7 +18724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
@@ -18734,7 +18734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
@@ -18744,7 +18744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
@@ -18754,7 +18754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
@@ -18764,7 +18764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
@@ -18774,7 +18774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
@@ -18784,7 +18784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
@@ -18794,7 +18794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
@@ -18804,7 +18804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
@@ -18814,7 +18814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
@@ -18824,7 +18824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
@@ -18834,7 +18834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
@@ -18844,7 +18844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
@@ -18854,7 +18854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
@@ -18864,7 +18864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
@@ -18874,7 +18874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
@@ -18884,7 +18884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
@@ -18894,7 +18894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
@@ -18904,7 +18904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
@@ -18914,7 +18914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
@@ -18924,7 +18924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
@@ -18934,7 +18934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
@@ -18944,7 +18944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
@@ -18954,7 +18954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
@@ -18964,7 +18964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
@@ -18974,7 +18974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
@@ -18984,7 +18984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
@@ -18994,7 +18994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
@@ -19004,7 +19004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
@@ -19014,7 +19014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
@@ -19024,7 +19024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
@@ -19034,7 +19034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
@@ -19044,7 +19044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
@@ -19054,7 +19054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
@@ -19064,7 +19064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
@@ -19074,7 +19074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
@@ -19084,7 +19084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
@@ -19094,7 +19094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
@@ -19104,7 +19104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
@@ -19114,7 +19114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
@@ -19124,7 +19124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
@@ -19134,7 +19134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
@@ -19144,7 +19144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
@@ -19154,7 +19154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
@@ -19164,7 +19164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
@@ -19174,7 +19174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
@@ -19184,7 +19184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
@@ -19194,7 +19194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
@@ -19204,7 +19204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
@@ -19214,7 +19214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
@@ -19224,7 +19224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
@@ -19234,7 +19234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
@@ -19244,7 +19244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
@@ -19254,7 +19254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
@@ -19264,7 +19264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
@@ -19274,7 +19274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
@@ -19284,7 +19284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
@@ -19294,7 +19294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
@@ -19304,7 +19304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
@@ -19314,7 +19314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
@@ -19324,7 +19324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
@@ -19334,7 +19334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
@@ -19344,7 +19344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
@@ -19354,7 +19354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
@@ -19364,7 +19364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
@@ -19374,7 +19374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
@@ -19384,7 +19384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
@@ -19394,7 +19394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
@@ -19404,7 +19404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
@@ -19414,7 +19414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
@@ -19424,7 +19424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
@@ -19434,7 +19434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
@@ -19444,7 +19444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
@@ -19454,7 +19454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
@@ -19464,7 +19464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
@@ -19474,7 +19474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
       <c r="E501" s="1"/>
@@ -19484,7 +19484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
       <c r="E502" s="1"/>
@@ -19494,7 +19494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
       <c r="E503" s="1"/>
@@ -19504,7 +19504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
       <c r="E504" s="1"/>
@@ -19514,7 +19514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="505" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C505" s="1"/>
       <c r="D505" s="1"/>
       <c r="E505" s="1"/>
@@ -19524,7 +19524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
       <c r="E506" s="1"/>
@@ -19534,7 +19534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C507" s="1"/>
       <c r="D507" s="1"/>
       <c r="E507" s="1"/>
@@ -19544,7 +19544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C508" s="1"/>
       <c r="D508" s="1"/>
       <c r="E508" s="1"/>
@@ -19554,7 +19554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="509" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C509" s="1"/>
       <c r="D509" s="1"/>
       <c r="E509" s="1"/>
@@ -19564,7 +19564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="510" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
       <c r="E510" s="1"/>
@@ -19574,7 +19574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="511" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C511" s="1"/>
       <c r="D511" s="1"/>
       <c r="E511" s="1"/>
@@ -19584,7 +19584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="512" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C512" s="1"/>
       <c r="D512" s="1"/>
       <c r="E512" s="1"/>
@@ -19594,7 +19594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="513" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C513" s="1"/>
       <c r="D513" s="1"/>
       <c r="E513" s="1"/>
@@ -19604,7 +19604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="514" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C514" s="1"/>
       <c r="D514" s="1"/>
       <c r="E514" s="1"/>
@@ -19614,7 +19614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="515" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C515" s="1"/>
       <c r="D515" s="1"/>
       <c r="E515" s="1"/>
@@ -19624,7 +19624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="516" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C516" s="1"/>
       <c r="D516" s="1"/>
       <c r="E516" s="1"/>
@@ -19634,7 +19634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="517" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C517" s="1"/>
       <c r="D517" s="1"/>
       <c r="E517" s="1"/>
@@ -19644,7 +19644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="518" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C518" s="1"/>
       <c r="D518" s="1"/>
       <c r="E518" s="1"/>
@@ -19654,7 +19654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="519" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C519" s="1"/>
       <c r="D519" s="1"/>
       <c r="E519" s="1"/>
@@ -19664,7 +19664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="520" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C520" s="1"/>
       <c r="D520" s="1"/>
       <c r="E520" s="1"/>
@@ -19674,7 +19674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="521" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C521" s="1"/>
       <c r="D521" s="1"/>
       <c r="E521" s="1"/>
@@ -19684,7 +19684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="522" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C522" s="1"/>
       <c r="D522" s="1"/>
       <c r="E522" s="1"/>
@@ -19694,7 +19694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="523" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C523" s="1"/>
       <c r="D523" s="1"/>
       <c r="E523" s="1"/>
@@ -19704,7 +19704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="524" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C524" s="1"/>
       <c r="D524" s="1"/>
       <c r="E524" s="1"/>
@@ -19714,7 +19714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="525" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C525" s="1"/>
       <c r="D525" s="1"/>
       <c r="E525" s="1"/>
@@ -19724,7 +19724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="526" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C526" s="1"/>
       <c r="D526" s="1"/>
       <c r="E526" s="1"/>
@@ -19734,7 +19734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="527" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C527" s="1"/>
       <c r="D527" s="1"/>
       <c r="E527" s="1"/>
@@ -19744,7 +19744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="528" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C528" s="1"/>
       <c r="D528" s="1"/>
       <c r="E528" s="1"/>
@@ -19754,7 +19754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="529" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C529" s="1"/>
       <c r="D529" s="1"/>
       <c r="E529" s="1"/>
@@ -19764,7 +19764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="530" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C530" s="1"/>
       <c r="D530" s="1"/>
       <c r="E530" s="1"/>
@@ -19774,7 +19774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="531" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C531" s="1"/>
       <c r="D531" s="1"/>
       <c r="E531" s="1"/>
@@ -19784,7 +19784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="532" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C532" s="1"/>
       <c r="D532" s="1"/>
       <c r="E532" s="1"/>
@@ -19794,7 +19794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="533" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C533" s="1"/>
       <c r="D533" s="1"/>
       <c r="E533" s="1"/>
@@ -19804,7 +19804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="534" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C534" s="1"/>
       <c r="D534" s="1"/>
       <c r="E534" s="1"/>
@@ -19814,7 +19814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="535" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C535" s="1"/>
       <c r="D535" s="1"/>
       <c r="E535" s="1"/>
@@ -19824,7 +19824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="536" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C536" s="1"/>
       <c r="D536" s="1"/>
       <c r="E536" s="1"/>
@@ -19834,7 +19834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="537" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C537" s="1"/>
       <c r="D537" s="1"/>
       <c r="E537" s="1"/>
@@ -19844,7 +19844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="538" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C538" s="1"/>
       <c r="D538" s="1"/>
       <c r="E538" s="1"/>
@@ -19854,7 +19854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="539" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C539" s="1"/>
       <c r="D539" s="1"/>
       <c r="E539" s="1"/>
@@ -19864,7 +19864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="540" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C540" s="1"/>
       <c r="D540" s="1"/>
       <c r="E540" s="1"/>
@@ -19874,7 +19874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="541" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C541" s="1"/>
       <c r="D541" s="1"/>
       <c r="E541" s="1"/>
@@ -19884,7 +19884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="542" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C542" s="1"/>
       <c r="D542" s="1"/>
       <c r="E542" s="1"/>
@@ -19894,7 +19894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="543" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C543" s="1"/>
       <c r="D543" s="1"/>
       <c r="E543" s="1"/>
@@ -19904,7 +19904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="544" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C544" s="1"/>
       <c r="D544" s="1"/>
       <c r="E544" s="1"/>
@@ -19914,7 +19914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="545" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C545" s="1"/>
       <c r="D545" s="1"/>
       <c r="E545" s="1"/>
@@ -19924,7 +19924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="546" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C546" s="1"/>
       <c r="D546" s="1"/>
       <c r="E546" s="1"/>
@@ -19934,7 +19934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="547" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C547" s="1"/>
       <c r="D547" s="1"/>
       <c r="E547" s="1"/>
@@ -19944,7 +19944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="548" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
       <c r="E548" s="1"/>
@@ -19954,7 +19954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="549" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C549" s="1"/>
       <c r="D549" s="1"/>
       <c r="E549" s="1"/>
@@ -19964,7 +19964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="550" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C550" s="1"/>
       <c r="D550" s="1"/>
       <c r="E550" s="1"/>
@@ -19974,7 +19974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="551" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C551" s="1"/>
       <c r="D551" s="1"/>
       <c r="E551" s="1"/>
@@ -19984,7 +19984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="552" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C552" s="1"/>
       <c r="D552" s="1"/>
       <c r="E552" s="1"/>
@@ -19994,7 +19994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="553" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C553" s="1"/>
       <c r="D553" s="1"/>
       <c r="E553" s="1"/>
@@ -20004,7 +20004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="554" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C554" s="1"/>
       <c r="D554" s="1"/>
       <c r="E554" s="1"/>
@@ -20014,7 +20014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="555" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C555" s="1"/>
       <c r="D555" s="1"/>
       <c r="E555" s="1"/>
@@ -20024,7 +20024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="556" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C556" s="1"/>
       <c r="D556" s="1"/>
       <c r="E556" s="1"/>
@@ -20034,7 +20034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="557" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C557" s="1"/>
       <c r="D557" s="1"/>
       <c r="E557" s="1"/>
@@ -20044,7 +20044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="558" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C558" s="1"/>
       <c r="D558" s="1"/>
       <c r="E558" s="1"/>
@@ -20054,7 +20054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="559" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C559" s="1"/>
       <c r="D559" s="1"/>
       <c r="E559" s="1"/>
@@ -20064,7 +20064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="560" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C560" s="1"/>
       <c r="D560" s="1"/>
       <c r="E560" s="1"/>
@@ -20074,7 +20074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="561" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C561" s="1"/>
       <c r="D561" s="1"/>
       <c r="E561" s="1"/>
@@ -20084,7 +20084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="562" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C562" s="1"/>
       <c r="D562" s="1"/>
       <c r="E562" s="1"/>
@@ -20094,7 +20094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="563" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C563" s="1"/>
       <c r="D563" s="1"/>
       <c r="E563" s="1"/>
@@ -20104,7 +20104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="564" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C564" s="1"/>
       <c r="D564" s="1"/>
       <c r="E564" s="1"/>
@@ -20114,7 +20114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="565" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C565" s="1"/>
       <c r="D565" s="1"/>
       <c r="E565" s="1"/>
@@ -20124,7 +20124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="566" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C566" s="1"/>
       <c r="D566" s="1"/>
       <c r="E566" s="1"/>
@@ -20134,7 +20134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="567" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C567" s="1"/>
       <c r="D567" s="1"/>
       <c r="E567" s="1"/>
@@ -20144,7 +20144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="568" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C568" s="1"/>
       <c r="D568" s="1"/>
       <c r="E568" s="1"/>
@@ -20154,7 +20154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="569" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C569" s="1"/>
       <c r="D569" s="1"/>
       <c r="E569" s="1"/>
@@ -20164,7 +20164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="570" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C570" s="1"/>
       <c r="D570" s="1"/>
       <c r="E570" s="1"/>
@@ -20174,7 +20174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="571" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C571" s="1"/>
       <c r="D571" s="1"/>
       <c r="E571" s="1"/>
@@ -20184,7 +20184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="572" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C572" s="1"/>
       <c r="D572" s="1"/>
       <c r="E572" s="1"/>
@@ -20194,7 +20194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="573" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C573" s="1"/>
       <c r="D573" s="1"/>
       <c r="E573" s="1"/>
@@ -20204,7 +20204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="574" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C574" s="1"/>
       <c r="D574" s="1"/>
       <c r="E574" s="1"/>
@@ -20214,7 +20214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="575" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C575" s="1"/>
       <c r="D575" s="1"/>
       <c r="E575" s="1"/>
@@ -20224,7 +20224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="576" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C576" s="1"/>
       <c r="D576" s="1"/>
       <c r="E576" s="1"/>
@@ -20234,7 +20234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="577" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C577" s="1"/>
       <c r="D577" s="1"/>
       <c r="E577" s="1"/>
@@ -20244,7 +20244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="578" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C578" s="1"/>
       <c r="D578" s="1"/>
       <c r="E578" s="1"/>
@@ -20254,7 +20254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="579" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C579" s="1"/>
       <c r="D579" s="1"/>
       <c r="E579" s="1"/>
@@ -20264,7 +20264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="580" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C580" s="1"/>
       <c r="D580" s="1"/>
       <c r="E580" s="1"/>
@@ -20274,7 +20274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="581" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C581" s="1"/>
       <c r="D581" s="1"/>
       <c r="E581" s="1"/>
@@ -20284,7 +20284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="582" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C582" s="1"/>
       <c r="D582" s="1"/>
       <c r="E582" s="1"/>
@@ -20294,7 +20294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="583" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C583" s="1"/>
       <c r="D583" s="1"/>
       <c r="E583" s="1"/>
@@ -20304,7 +20304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="584" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C584" s="1"/>
       <c r="D584" s="1"/>
       <c r="E584" s="1"/>
@@ -20314,7 +20314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="585" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C585" s="1"/>
       <c r="D585" s="1"/>
       <c r="E585" s="1"/>
@@ -20324,7 +20324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="586" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C586" s="1"/>
       <c r="D586" s="1"/>
       <c r="E586" s="1"/>
@@ -20334,7 +20334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="587" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C587" s="1"/>
       <c r="D587" s="1"/>
       <c r="E587" s="1"/>
@@ -20344,7 +20344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="588" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C588" s="1"/>
       <c r="D588" s="1"/>
       <c r="E588" s="1"/>
@@ -20354,7 +20354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="589" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C589" s="1"/>
       <c r="D589" s="1"/>
       <c r="E589" s="1"/>
@@ -20364,7 +20364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="590" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C590" s="1"/>
       <c r="D590" s="1"/>
       <c r="E590" s="1"/>
@@ -20374,7 +20374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="591" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C591" s="1"/>
       <c r="D591" s="1"/>
       <c r="E591" s="1"/>
@@ -20384,7 +20384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="592" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C592" s="1"/>
       <c r="D592" s="1"/>
       <c r="E592" s="1"/>
@@ -20394,7 +20394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="593" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C593" s="1"/>
       <c r="D593" s="1"/>
       <c r="E593" s="1"/>
@@ -20404,7 +20404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="594" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C594" s="1"/>
       <c r="D594" s="1"/>
       <c r="E594" s="1"/>
@@ -20414,7 +20414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="595" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C595" s="1"/>
       <c r="D595" s="1"/>
       <c r="E595" s="1"/>
@@ -20424,7 +20424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="596" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C596" s="1"/>
       <c r="D596" s="1"/>
       <c r="E596" s="1"/>
@@ -20434,7 +20434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="597" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C597" s="1"/>
       <c r="D597" s="1"/>
       <c r="E597" s="1"/>
@@ -20444,7 +20444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="598" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C598" s="1"/>
       <c r="D598" s="1"/>
       <c r="E598" s="1"/>
@@ -20454,7 +20454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="599" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C599" s="1"/>
       <c r="D599" s="1"/>
       <c r="E599" s="1"/>
@@ -20464,7 +20464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="600" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C600" s="1"/>
       <c r="D600" s="1"/>
       <c r="E600" s="1"/>
@@ -20474,7 +20474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="601" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C601" s="1"/>
       <c r="D601" s="1"/>
       <c r="E601" s="1"/>
@@ -20484,7 +20484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="602" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C602" s="1"/>
       <c r="D602" s="1"/>
       <c r="E602" s="1"/>
@@ -20494,7 +20494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="603" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C603" s="1"/>
       <c r="D603" s="1"/>
       <c r="E603" s="1"/>
@@ -20504,7 +20504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="604" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C604" s="1"/>
       <c r="D604" s="1"/>
       <c r="E604" s="1"/>
@@ -20514,7 +20514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="605" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C605" s="1"/>
       <c r="D605" s="1"/>
       <c r="E605" s="1"/>
@@ -20524,7 +20524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="606" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C606" s="1"/>
       <c r="D606" s="1"/>
       <c r="E606" s="1"/>
@@ -20534,7 +20534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="607" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C607" s="1"/>
       <c r="D607" s="1"/>
       <c r="E607" s="1"/>
@@ -20544,7 +20544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="608" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C608" s="1"/>
       <c r="D608" s="1"/>
       <c r="E608" s="1"/>
@@ -20554,7 +20554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="609" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C609" s="1"/>
       <c r="D609" s="1"/>
       <c r="E609" s="1"/>
@@ -20564,7 +20564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="610" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C610" s="1"/>
       <c r="D610" s="1"/>
       <c r="E610" s="1"/>
@@ -20574,7 +20574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="611" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C611" s="1"/>
       <c r="D611" s="1"/>
       <c r="E611" s="1"/>
@@ -20584,7 +20584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="612" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C612" s="1"/>
       <c r="D612" s="1"/>
       <c r="E612" s="1"/>
@@ -20594,7 +20594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="613" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C613" s="1"/>
       <c r="D613" s="1"/>
       <c r="E613" s="1"/>
@@ -20604,7 +20604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="614" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C614" s="1"/>
       <c r="D614" s="1"/>
       <c r="E614" s="1"/>
@@ -20614,7 +20614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="615" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C615" s="1"/>
       <c r="D615" s="1"/>
       <c r="E615" s="1"/>
@@ -20624,7 +20624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="616" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C616" s="1"/>
       <c r="D616" s="1"/>
       <c r="E616" s="1"/>
@@ -20634,7 +20634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="617" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C617" s="1"/>
       <c r="D617" s="1"/>
       <c r="E617" s="1"/>
@@ -20644,7 +20644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="618" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C618" s="1"/>
       <c r="D618" s="1"/>
       <c r="E618" s="1"/>
@@ -20654,7 +20654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="619" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C619" s="1"/>
       <c r="D619" s="1"/>
       <c r="E619" s="1"/>
@@ -20664,7 +20664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="620" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C620" s="1"/>
       <c r="D620" s="1"/>
       <c r="E620" s="1"/>
@@ -20674,7 +20674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="621" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C621" s="1"/>
       <c r="D621" s="1"/>
       <c r="E621" s="1"/>
@@ -20684,7 +20684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="622" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C622" s="1"/>
       <c r="D622" s="1"/>
       <c r="E622" s="1"/>
@@ -20694,7 +20694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="623" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C623" s="1"/>
       <c r="D623" s="1"/>
       <c r="E623" s="1"/>
@@ -20704,7 +20704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="624" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C624" s="1"/>
       <c r="D624" s="1"/>
       <c r="E624" s="1"/>
@@ -20714,7 +20714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="625" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C625" s="1"/>
       <c r="D625" s="1"/>
       <c r="E625" s="1"/>
@@ -20724,7 +20724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="626" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C626" s="1"/>
       <c r="D626" s="1"/>
       <c r="E626" s="1"/>
@@ -20734,7 +20734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="627" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C627" s="1"/>
       <c r="D627" s="1"/>
       <c r="E627" s="1"/>
@@ -20744,7 +20744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="628" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C628" s="1"/>
       <c r="D628" s="1"/>
       <c r="E628" s="1"/>
@@ -20754,7 +20754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="629" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C629" s="1"/>
       <c r="D629" s="1"/>
       <c r="E629" s="1"/>
@@ -20764,7 +20764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="630" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C630" s="1"/>
       <c r="D630" s="1"/>
       <c r="E630" s="1"/>
@@ -20774,7 +20774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="631" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C631" s="1"/>
       <c r="D631" s="1"/>
       <c r="E631" s="1"/>
@@ -20784,7 +20784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="632" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C632" s="1"/>
       <c r="D632" s="1"/>
       <c r="E632" s="1"/>
@@ -20794,7 +20794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="633" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C633" s="1"/>
       <c r="D633" s="1"/>
       <c r="E633" s="1"/>
@@ -20804,7 +20804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="634" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C634" s="1"/>
       <c r="D634" s="1"/>
       <c r="E634" s="1"/>
@@ -20814,7 +20814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="635" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C635" s="1"/>
       <c r="D635" s="1"/>
       <c r="E635" s="1"/>
@@ -20824,7 +20824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="636" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C636" s="1"/>
       <c r="D636" s="1"/>
       <c r="E636" s="1"/>
@@ -20834,7 +20834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="637" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C637" s="1"/>
       <c r="D637" s="1"/>
       <c r="E637" s="1"/>
@@ -20844,7 +20844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="638" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C638" s="1"/>
       <c r="D638" s="1"/>
       <c r="E638" s="1"/>
@@ -20854,7 +20854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="639" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C639" s="1"/>
       <c r="D639" s="1"/>
       <c r="E639" s="1"/>
@@ -20864,7 +20864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="640" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C640" s="1"/>
       <c r="D640" s="1"/>
       <c r="E640" s="1"/>
@@ -20874,7 +20874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="641" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C641" s="1"/>
       <c r="D641" s="1"/>
       <c r="E641" s="1"/>
@@ -20884,7 +20884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="642" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C642" s="1"/>
       <c r="D642" s="1"/>
       <c r="E642" s="1"/>
@@ -20894,7 +20894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="643" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C643" s="1"/>
       <c r="D643" s="1"/>
       <c r="E643" s="1"/>
@@ -20904,7 +20904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="644" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C644" s="1"/>
       <c r="D644" s="1"/>
       <c r="E644" s="1"/>
@@ -20914,7 +20914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="645" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C645" s="1"/>
       <c r="D645" s="1"/>
       <c r="E645" s="1"/>
@@ -20924,7 +20924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="646" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C646" s="1"/>
       <c r="D646" s="1"/>
       <c r="E646" s="1"/>
@@ -20934,7 +20934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="647" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C647" s="1"/>
       <c r="D647" s="1"/>
       <c r="E647" s="1"/>
@@ -20944,7 +20944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="648" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C648" s="1"/>
       <c r="D648" s="1"/>
       <c r="E648" s="1"/>
@@ -20954,7 +20954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="649" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C649" s="1"/>
       <c r="D649" s="1"/>
       <c r="E649" s="1"/>
@@ -20964,7 +20964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="650" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C650" s="1"/>
       <c r="D650" s="1"/>
       <c r="E650" s="1"/>
@@ -20974,7 +20974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="651" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C651" s="1"/>
       <c r="D651" s="1"/>
       <c r="E651" s="1"/>
@@ -20984,7 +20984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="652" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C652" s="1"/>
       <c r="D652" s="1"/>
       <c r="E652" s="1"/>
@@ -20994,7 +20994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="653" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C653" s="1"/>
       <c r="D653" s="1"/>
       <c r="E653" s="1"/>
@@ -21004,7 +21004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="654" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C654" s="1"/>
       <c r="D654" s="1"/>
       <c r="E654" s="1"/>
@@ -21014,7 +21014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="655" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C655" s="1"/>
       <c r="D655" s="1"/>
       <c r="E655" s="1"/>
@@ -21024,7 +21024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="656" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C656" s="1"/>
       <c r="D656" s="1"/>
       <c r="E656" s="1"/>
@@ -21034,7 +21034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="657" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C657" s="1"/>
       <c r="D657" s="1"/>
       <c r="E657" s="1"/>
@@ -21044,7 +21044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="658" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C658" s="1"/>
       <c r="D658" s="1"/>
       <c r="E658" s="1"/>
@@ -21054,7 +21054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="659" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C659" s="1"/>
       <c r="D659" s="1"/>
       <c r="E659" s="1"/>
@@ -21064,7 +21064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="660" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C660" s="1"/>
       <c r="D660" s="1"/>
       <c r="E660" s="1"/>
@@ -21074,7 +21074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="661" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C661" s="1"/>
       <c r="D661" s="1"/>
       <c r="E661" s="1"/>
@@ -21084,7 +21084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="662" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C662" s="1"/>
       <c r="D662" s="1"/>
       <c r="E662" s="1"/>
@@ -21094,7 +21094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="663" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C663" s="1"/>
       <c r="D663" s="1"/>
       <c r="E663" s="1"/>
@@ -21104,7 +21104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="664" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C664" s="1"/>
       <c r="D664" s="1"/>
       <c r="E664" s="1"/>
@@ -21114,7 +21114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="665" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C665" s="1"/>
       <c r="D665" s="1"/>
       <c r="E665" s="1"/>
@@ -21124,7 +21124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="666" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C666" s="1"/>
       <c r="D666" s="1"/>
       <c r="E666" s="1"/>
@@ -21134,7 +21134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="667" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C667" s="1"/>
       <c r="D667" s="1"/>
       <c r="E667" s="1"/>
@@ -21144,7 +21144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="668" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C668" s="1"/>
       <c r="D668" s="1"/>
       <c r="E668" s="1"/>
@@ -21154,7 +21154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="669" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C669" s="1"/>
       <c r="D669" s="1"/>
       <c r="E669" s="1"/>
@@ -21164,7 +21164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="670" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C670" s="1"/>
       <c r="D670" s="1"/>
       <c r="E670" s="1"/>
@@ -21189,21 +21189,21 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="6.83203125" customWidth="1"/>
-    <col min="4" max="4" width="9.4140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.9140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.83203125" customWidth="1"/>
-    <col min="10" max="10" width="9.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.796875" customWidth="1"/>
+    <col min="4" max="4" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.69921875" customWidth="1"/>
+    <col min="6" max="6" width="19.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.796875" customWidth="1"/>
+    <col min="10" max="10" width="9.3984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="72.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="72.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="4" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="49"/>
       <c r="C4" s="41" t="s">
         <v>63</v>
@@ -21233,7 +21233,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B5" s="49" t="s">
         <v>79</v>
       </c>
@@ -21265,7 +21265,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B6" s="49"/>
       <c r="C6" s="44"/>
       <c r="D6" s="45"/>
@@ -21277,7 +21277,7 @@
       <c r="K6" s="38"/>
       <c r="L6" s="56"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B7" s="49"/>
       <c r="C7" s="44"/>
       <c r="D7" s="38"/>
@@ -21289,7 +21289,7 @@
       <c r="K7" s="38"/>
       <c r="L7" s="56"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B8" s="49"/>
       <c r="C8" s="44"/>
       <c r="D8" s="38"/>
@@ -21301,7 +21301,7 @@
       <c r="K8" s="38"/>
       <c r="L8" s="56"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B9" s="49"/>
       <c r="C9" s="44"/>
       <c r="D9" s="38"/>
@@ -21313,7 +21313,7 @@
       <c r="K9" s="38"/>
       <c r="L9" s="56"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B10" s="49"/>
       <c r="C10" s="44"/>
       <c r="D10" s="38"/>
@@ -21325,7 +21325,7 @@
       <c r="K10" s="38"/>
       <c r="L10" s="56"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B11" s="49"/>
       <c r="C11" s="44"/>
       <c r="D11" s="38"/>
@@ -21337,7 +21337,7 @@
       <c r="K11" s="38"/>
       <c r="L11" s="56"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" s="49"/>
       <c r="C12" s="44"/>
       <c r="D12" s="38"/>
@@ -21349,7 +21349,7 @@
       <c r="K12" s="38"/>
       <c r="L12" s="56"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" s="49"/>
       <c r="C13" s="44"/>
       <c r="D13" s="38"/>
@@ -21361,7 +21361,7 @@
       <c r="K13" s="38"/>
       <c r="L13" s="56"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" s="49"/>
       <c r="C14" s="44"/>
       <c r="D14" s="38"/>
@@ -21373,7 +21373,7 @@
       <c r="K14" s="38"/>
       <c r="L14" s="56"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B15" s="49"/>
       <c r="C15" s="44"/>
       <c r="D15" s="38"/>
@@ -21385,7 +21385,7 @@
       <c r="K15" s="38"/>
       <c r="L15" s="56"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B16" s="49"/>
       <c r="C16" s="44"/>
       <c r="D16" s="38"/>
@@ -21397,7 +21397,7 @@
       <c r="K16" s="38"/>
       <c r="L16" s="56"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B17" s="49"/>
       <c r="C17" s="44"/>
       <c r="D17" s="38"/>
@@ -21409,7 +21409,7 @@
       <c r="K17" s="38"/>
       <c r="L17" s="56"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B18" s="49"/>
       <c r="C18" s="44"/>
       <c r="D18" s="38"/>
@@ -21421,7 +21421,7 @@
       <c r="K18" s="38"/>
       <c r="L18" s="56"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B19" s="49"/>
       <c r="C19" s="44"/>
       <c r="D19" s="38"/>
@@ -21433,7 +21433,7 @@
       <c r="K19" s="38"/>
       <c r="L19" s="56"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B20" s="49"/>
       <c r="C20" s="44"/>
       <c r="D20" s="38"/>
@@ -21445,7 +21445,7 @@
       <c r="K20" s="38"/>
       <c r="L20" s="56"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B21" s="49"/>
       <c r="C21" s="44"/>
       <c r="D21" s="38"/>
@@ -21457,7 +21457,7 @@
       <c r="K21" s="38"/>
       <c r="L21" s="56"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B22" s="49"/>
       <c r="C22" s="44"/>
       <c r="D22" s="38"/>
@@ -21469,7 +21469,7 @@
       <c r="K22" s="38"/>
       <c r="L22" s="56"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B23" s="49"/>
       <c r="C23" s="44"/>
       <c r="D23" s="38"/>
@@ -21481,7 +21481,7 @@
       <c r="K23" s="38"/>
       <c r="L23" s="56"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B24" s="49"/>
       <c r="C24" s="44"/>
       <c r="D24" s="38"/>
@@ -21493,7 +21493,7 @@
       <c r="K24" s="38"/>
       <c r="L24" s="56"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B25" s="49"/>
       <c r="C25" s="44"/>
       <c r="D25" s="38"/>
@@ -21505,7 +21505,7 @@
       <c r="K25" s="38"/>
       <c r="L25" s="56"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B26" s="49"/>
       <c r="C26" s="44"/>
       <c r="D26" s="38"/>
@@ -21517,7 +21517,7 @@
       <c r="K26" s="38"/>
       <c r="L26" s="56"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B27" s="49"/>
       <c r="C27" s="44"/>
       <c r="D27" s="38"/>
@@ -21529,7 +21529,7 @@
       <c r="K27" s="38"/>
       <c r="L27" s="56"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B28" s="49"/>
       <c r="C28" s="44"/>
       <c r="D28" s="38"/>
@@ -21541,7 +21541,7 @@
       <c r="K28" s="38"/>
       <c r="L28" s="56"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B29" s="49"/>
       <c r="C29" s="44"/>
       <c r="D29" s="38"/>
@@ -21553,7 +21553,7 @@
       <c r="K29" s="38"/>
       <c r="L29" s="56"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B30" s="49"/>
       <c r="C30" s="44"/>
       <c r="D30" s="38"/>
@@ -21565,7 +21565,7 @@
       <c r="K30" s="38"/>
       <c r="L30" s="56"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B31" s="49"/>
       <c r="C31" s="44"/>
       <c r="D31" s="38"/>
@@ -21577,7 +21577,7 @@
       <c r="K31" s="38"/>
       <c r="L31" s="56"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B32" s="49"/>
       <c r="C32" s="44"/>
       <c r="D32" s="38"/>
@@ -21589,7 +21589,7 @@
       <c r="K32" s="38"/>
       <c r="L32" s="56"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B33" s="49"/>
       <c r="C33" s="44"/>
       <c r="D33" s="38"/>
@@ -21601,7 +21601,7 @@
       <c r="K33" s="38"/>
       <c r="L33" s="56"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B34" s="49"/>
       <c r="C34" s="44"/>
       <c r="D34" s="38"/>
@@ -21613,7 +21613,7 @@
       <c r="K34" s="38"/>
       <c r="L34" s="56"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B35" s="49"/>
       <c r="C35" s="44"/>
       <c r="D35" s="38"/>
@@ -21625,7 +21625,7 @@
       <c r="K35" s="38"/>
       <c r="L35" s="56"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B36" s="49"/>
       <c r="C36" s="44"/>
       <c r="D36" s="38"/>
@@ -21637,7 +21637,7 @@
       <c r="K36" s="38"/>
       <c r="L36" s="56"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B37" s="49"/>
       <c r="C37" s="44"/>
       <c r="D37" s="38"/>
@@ -21649,7 +21649,7 @@
       <c r="K37" s="38"/>
       <c r="L37" s="56"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B38" s="49"/>
       <c r="C38" s="44"/>
       <c r="D38" s="38"/>
@@ -21661,7 +21661,7 @@
       <c r="K38" s="38"/>
       <c r="L38" s="56"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B39" s="49"/>
       <c r="C39" s="44"/>
       <c r="D39" s="38"/>
@@ -21673,7 +21673,7 @@
       <c r="K39" s="38"/>
       <c r="L39" s="56"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B40" s="49"/>
       <c r="C40" s="44"/>
       <c r="D40" s="38"/>
@@ -21685,7 +21685,7 @@
       <c r="K40" s="38"/>
       <c r="L40" s="56"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B41" s="49"/>
       <c r="C41" s="44"/>
       <c r="D41" s="38"/>
@@ -21697,7 +21697,7 @@
       <c r="K41" s="38"/>
       <c r="L41" s="56"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B42" s="49"/>
       <c r="C42" s="44"/>
       <c r="D42" s="38"/>
@@ -21709,7 +21709,7 @@
       <c r="K42" s="38"/>
       <c r="L42" s="56"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B43" s="49"/>
       <c r="C43" s="44"/>
       <c r="D43" s="38"/>
@@ -21721,7 +21721,7 @@
       <c r="K43" s="38"/>
       <c r="L43" s="56"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B44" s="49"/>
       <c r="C44" s="44"/>
       <c r="D44" s="38"/>
@@ -21733,7 +21733,7 @@
       <c r="K44" s="38"/>
       <c r="L44" s="56"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B45" s="49"/>
       <c r="C45" s="44"/>
       <c r="D45" s="38"/>
@@ -21745,7 +21745,7 @@
       <c r="K45" s="38"/>
       <c r="L45" s="56"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B46" s="49"/>
       <c r="C46" s="44"/>
       <c r="D46" s="38"/>
@@ -21757,7 +21757,7 @@
       <c r="K46" s="38"/>
       <c r="L46" s="56"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B47" s="49"/>
       <c r="C47" s="44"/>
       <c r="D47" s="38"/>
@@ -21769,7 +21769,7 @@
       <c r="K47" s="38"/>
       <c r="L47" s="56"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B48" s="49"/>
       <c r="C48" s="44"/>
       <c r="D48" s="38"/>
@@ -21781,7 +21781,7 @@
       <c r="K48" s="38"/>
       <c r="L48" s="56"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B49" s="49"/>
       <c r="C49" s="44"/>
       <c r="D49" s="38"/>
@@ -21793,7 +21793,7 @@
       <c r="K49" s="38"/>
       <c r="L49" s="56"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B50" s="49"/>
       <c r="C50" s="44"/>
       <c r="D50" s="38"/>
@@ -21805,7 +21805,7 @@
       <c r="K50" s="38"/>
       <c r="L50" s="56"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B51" s="49"/>
       <c r="C51" s="44"/>
       <c r="D51" s="38"/>
@@ -21817,7 +21817,7 @@
       <c r="K51" s="38"/>
       <c r="L51" s="56"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B52" s="49"/>
       <c r="C52" s="44"/>
       <c r="D52" s="38"/>
@@ -21829,7 +21829,7 @@
       <c r="K52" s="38"/>
       <c r="L52" s="56"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B53" s="49"/>
       <c r="C53" s="44"/>
       <c r="D53" s="38"/>
@@ -21841,7 +21841,7 @@
       <c r="K53" s="38"/>
       <c r="L53" s="56"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B54" s="49"/>
       <c r="C54" s="44"/>
       <c r="D54" s="38"/>
@@ -21853,7 +21853,7 @@
       <c r="K54" s="38"/>
       <c r="L54" s="56"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B55" s="49"/>
       <c r="C55" s="44"/>
       <c r="D55" s="38"/>
@@ -21865,7 +21865,7 @@
       <c r="K55" s="38"/>
       <c r="L55" s="56"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B56" s="49"/>
       <c r="C56" s="44"/>
       <c r="D56" s="38"/>
@@ -21877,7 +21877,7 @@
       <c r="K56" s="38"/>
       <c r="L56" s="56"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B57" s="49"/>
       <c r="C57" s="44"/>
       <c r="D57" s="38"/>
@@ -21889,7 +21889,7 @@
       <c r="K57" s="38"/>
       <c r="L57" s="56"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B58" s="49"/>
       <c r="C58" s="44"/>
       <c r="D58" s="38"/>
@@ -21901,7 +21901,7 @@
       <c r="K58" s="38"/>
       <c r="L58" s="56"/>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B59" s="49"/>
       <c r="C59" s="44"/>
       <c r="D59" s="38"/>
@@ -21913,7 +21913,7 @@
       <c r="K59" s="38"/>
       <c r="L59" s="56"/>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B60" s="49"/>
       <c r="C60" s="44"/>
       <c r="D60" s="38"/>
@@ -21925,7 +21925,7 @@
       <c r="K60" s="38"/>
       <c r="L60" s="56"/>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B61" s="49"/>
       <c r="C61" s="44"/>
       <c r="D61" s="38"/>
@@ -21937,7 +21937,7 @@
       <c r="K61" s="38"/>
       <c r="L61" s="56"/>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B62" s="49"/>
       <c r="C62" s="44"/>
       <c r="D62" s="38"/>
@@ -21949,7 +21949,7 @@
       <c r="K62" s="38"/>
       <c r="L62" s="56"/>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B63" s="49"/>
       <c r="C63" s="44"/>
       <c r="D63" s="38"/>
@@ -21961,7 +21961,7 @@
       <c r="K63" s="38"/>
       <c r="L63" s="56"/>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B64" s="49"/>
       <c r="C64" s="44"/>
       <c r="D64" s="38"/>
@@ -21973,7 +21973,7 @@
       <c r="K64" s="38"/>
       <c r="L64" s="56"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B65" s="49"/>
       <c r="C65" s="44"/>
       <c r="D65" s="38"/>
@@ -21985,7 +21985,7 @@
       <c r="K65" s="38"/>
       <c r="L65" s="56"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B66" s="49"/>
       <c r="C66" s="44"/>
       <c r="D66" s="38"/>
@@ -21997,7 +21997,7 @@
       <c r="K66" s="38"/>
       <c r="L66" s="56"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B67" s="49"/>
       <c r="C67" s="44"/>
       <c r="D67" s="38"/>
@@ -22009,7 +22009,7 @@
       <c r="K67" s="38"/>
       <c r="L67" s="56"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B68" s="49"/>
       <c r="C68" s="44"/>
       <c r="D68" s="38"/>
@@ -22021,7 +22021,7 @@
       <c r="K68" s="38"/>
       <c r="L68" s="56"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B69" s="49"/>
       <c r="C69" s="44"/>
       <c r="D69" s="38"/>
@@ -22033,7 +22033,7 @@
       <c r="K69" s="38"/>
       <c r="L69" s="56"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B70" s="49"/>
       <c r="C70" s="44"/>
       <c r="D70" s="38"/>
@@ -22045,7 +22045,7 @@
       <c r="K70" s="38"/>
       <c r="L70" s="56"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B71" s="49"/>
       <c r="C71" s="44"/>
       <c r="D71" s="38"/>
@@ -22057,7 +22057,7 @@
       <c r="K71" s="38"/>
       <c r="L71" s="56"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B72" s="49"/>
       <c r="C72" s="44"/>
       <c r="D72" s="38"/>
@@ -22069,7 +22069,7 @@
       <c r="K72" s="38"/>
       <c r="L72" s="56"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B73" s="49"/>
       <c r="C73" s="44"/>
       <c r="D73" s="38"/>
@@ -22081,7 +22081,7 @@
       <c r="K73" s="38"/>
       <c r="L73" s="56"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B74" s="49"/>
       <c r="C74" s="44"/>
       <c r="D74" s="38"/>
@@ -22093,7 +22093,7 @@
       <c r="K74" s="38"/>
       <c r="L74" s="56"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B75" s="49"/>
       <c r="C75" s="44"/>
       <c r="D75" s="38"/>
@@ -22105,7 +22105,7 @@
       <c r="K75" s="38"/>
       <c r="L75" s="56"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B76" s="49"/>
       <c r="C76" s="44"/>
       <c r="D76" s="38"/>
@@ -22117,7 +22117,7 @@
       <c r="K76" s="38"/>
       <c r="L76" s="56"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B77" s="49"/>
       <c r="C77" s="44"/>
       <c r="D77" s="38"/>
@@ -22129,7 +22129,7 @@
       <c r="K77" s="38"/>
       <c r="L77" s="56"/>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B78" s="49"/>
       <c r="C78" s="44"/>
       <c r="D78" s="38"/>
@@ -22141,7 +22141,7 @@
       <c r="K78" s="38"/>
       <c r="L78" s="56"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B79" s="49"/>
       <c r="C79" s="44"/>
       <c r="D79" s="38"/>
@@ -22153,7 +22153,7 @@
       <c r="K79" s="38"/>
       <c r="L79" s="56"/>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B80" s="49"/>
       <c r="C80" s="44"/>
       <c r="D80" s="38"/>
@@ -22165,7 +22165,7 @@
       <c r="K80" s="38"/>
       <c r="L80" s="56"/>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B81" s="49"/>
       <c r="C81" s="44"/>
       <c r="D81" s="38"/>
@@ -22177,7 +22177,7 @@
       <c r="K81" s="38"/>
       <c r="L81" s="56"/>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B82" s="49"/>
       <c r="C82" s="44"/>
       <c r="D82" s="38"/>
@@ -22189,7 +22189,7 @@
       <c r="K82" s="38"/>
       <c r="L82" s="56"/>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B83" s="49"/>
       <c r="C83" s="44"/>
       <c r="D83" s="38"/>
@@ -22201,7 +22201,7 @@
       <c r="K83" s="38"/>
       <c r="L83" s="56"/>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B84" s="49"/>
       <c r="C84" s="44"/>
       <c r="D84" s="38"/>
@@ -22213,7 +22213,7 @@
       <c r="K84" s="38"/>
       <c r="L84" s="56"/>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B85" s="49"/>
       <c r="C85" s="44"/>
       <c r="D85" s="38"/>
@@ -22225,7 +22225,7 @@
       <c r="K85" s="38"/>
       <c r="L85" s="56"/>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B86" s="49"/>
       <c r="C86" s="44"/>
       <c r="D86" s="38"/>
@@ -22237,7 +22237,7 @@
       <c r="K86" s="38"/>
       <c r="L86" s="56"/>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B87" s="49"/>
       <c r="C87" s="44"/>
       <c r="D87" s="38"/>
@@ -22249,7 +22249,7 @@
       <c r="K87" s="38"/>
       <c r="L87" s="56"/>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B88" s="49"/>
       <c r="C88" s="44"/>
       <c r="D88" s="38"/>
@@ -22261,7 +22261,7 @@
       <c r="K88" s="38"/>
       <c r="L88" s="56"/>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B89" s="49"/>
       <c r="C89" s="44"/>
       <c r="D89" s="38"/>
@@ -22273,7 +22273,7 @@
       <c r="K89" s="38"/>
       <c r="L89" s="56"/>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B90" s="49"/>
       <c r="C90" s="44"/>
       <c r="D90" s="38"/>
@@ -22285,7 +22285,7 @@
       <c r="K90" s="38"/>
       <c r="L90" s="56"/>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B91" s="49"/>
       <c r="C91" s="44"/>
       <c r="D91" s="38"/>
@@ -22297,7 +22297,7 @@
       <c r="K91" s="38"/>
       <c r="L91" s="56"/>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B92" s="49"/>
       <c r="C92" s="44"/>
       <c r="D92" s="38"/>
@@ -22309,7 +22309,7 @@
       <c r="K92" s="38"/>
       <c r="L92" s="56"/>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B93" s="49"/>
       <c r="C93" s="44"/>
       <c r="D93" s="38"/>
@@ -22321,7 +22321,7 @@
       <c r="K93" s="38"/>
       <c r="L93" s="56"/>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B94" s="49"/>
       <c r="C94" s="44"/>
       <c r="D94" s="38"/>
@@ -22333,7 +22333,7 @@
       <c r="K94" s="38"/>
       <c r="L94" s="56"/>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B95" s="49"/>
       <c r="C95" s="44"/>
       <c r="D95" s="38"/>
@@ -22345,7 +22345,7 @@
       <c r="K95" s="38"/>
       <c r="L95" s="56"/>
     </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B96" s="49"/>
       <c r="C96" s="44"/>
       <c r="D96" s="38"/>
@@ -22357,7 +22357,7 @@
       <c r="K96" s="38"/>
       <c r="L96" s="56"/>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B97" s="49"/>
       <c r="C97" s="44"/>
       <c r="D97" s="38"/>
@@ -22369,7 +22369,7 @@
       <c r="K97" s="38"/>
       <c r="L97" s="56"/>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B98" s="49"/>
       <c r="C98" s="44"/>
       <c r="D98" s="38"/>
@@ -22381,7 +22381,7 @@
       <c r="K98" s="38"/>
       <c r="L98" s="56"/>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B99" s="49"/>
       <c r="C99" s="44"/>
       <c r="D99" s="38"/>
@@ -22393,7 +22393,7 @@
       <c r="K99" s="38"/>
       <c r="L99" s="56"/>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B100" s="49"/>
       <c r="C100" s="44"/>
       <c r="D100" s="38"/>
@@ -22405,7 +22405,7 @@
       <c r="K100" s="38"/>
       <c r="L100" s="56"/>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B101" s="49"/>
       <c r="C101" s="44"/>
       <c r="D101" s="38"/>
@@ -22417,7 +22417,7 @@
       <c r="K101" s="38"/>
       <c r="L101" s="56"/>
     </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B102" s="49"/>
       <c r="C102" s="44"/>
       <c r="D102" s="38"/>
@@ -22429,7 +22429,7 @@
       <c r="K102" s="38"/>
       <c r="L102" s="56"/>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B103" s="49"/>
       <c r="C103" s="44"/>
       <c r="D103" s="38"/>
@@ -22441,7 +22441,7 @@
       <c r="K103" s="38"/>
       <c r="L103" s="56"/>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B104" s="49"/>
       <c r="C104" s="44"/>
       <c r="D104" s="38"/>
@@ -22453,7 +22453,7 @@
       <c r="K104" s="38"/>
       <c r="L104" s="56"/>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B105" s="49"/>
       <c r="C105" s="44"/>
       <c r="D105" s="38"/>
@@ -22465,7 +22465,7 @@
       <c r="K105" s="38"/>
       <c r="L105" s="56"/>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B106" s="49"/>
       <c r="C106" s="44"/>
       <c r="D106" s="38"/>
@@ -22477,7 +22477,7 @@
       <c r="K106" s="38"/>
       <c r="L106" s="56"/>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B107" s="49"/>
       <c r="C107" s="44"/>
       <c r="D107" s="38"/>
@@ -22489,7 +22489,7 @@
       <c r="K107" s="38"/>
       <c r="L107" s="56"/>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B108" s="49"/>
       <c r="C108" s="44"/>
       <c r="D108" s="38"/>
@@ -22501,7 +22501,7 @@
       <c r="K108" s="38"/>
       <c r="L108" s="56"/>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B109" s="49"/>
       <c r="C109" s="44"/>
       <c r="D109" s="38"/>
@@ -22513,7 +22513,7 @@
       <c r="K109" s="38"/>
       <c r="L109" s="56"/>
     </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B110" s="49"/>
       <c r="C110" s="44"/>
       <c r="D110" s="38"/>
@@ -22525,7 +22525,7 @@
       <c r="K110" s="38"/>
       <c r="L110" s="56"/>
     </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B111" s="49"/>
       <c r="C111" s="44"/>
       <c r="D111" s="38"/>
@@ -22537,7 +22537,7 @@
       <c r="K111" s="38"/>
       <c r="L111" s="56"/>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B112" s="49"/>
       <c r="C112" s="44"/>
       <c r="D112" s="38"/>
@@ -22549,7 +22549,7 @@
       <c r="K112" s="38"/>
       <c r="L112" s="56"/>
     </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B113" s="49"/>
       <c r="C113" s="44"/>
       <c r="D113" s="38"/>
@@ -22561,7 +22561,7 @@
       <c r="K113" s="38"/>
       <c r="L113" s="56"/>
     </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B114" s="49"/>
       <c r="C114" s="44"/>
       <c r="D114" s="38"/>
@@ -22573,7 +22573,7 @@
       <c r="K114" s="38"/>
       <c r="L114" s="56"/>
     </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B115" s="49"/>
       <c r="C115" s="44"/>
       <c r="D115" s="38"/>
@@ -22585,7 +22585,7 @@
       <c r="K115" s="38"/>
       <c r="L115" s="56"/>
     </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B116" s="49"/>
       <c r="C116" s="44"/>
       <c r="D116" s="38"/>
@@ -22597,7 +22597,7 @@
       <c r="K116" s="38"/>
       <c r="L116" s="56"/>
     </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B117" s="49"/>
       <c r="C117" s="44"/>
       <c r="D117" s="38"/>
@@ -22609,7 +22609,7 @@
       <c r="K117" s="38"/>
       <c r="L117" s="56"/>
     </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B118" s="49"/>
       <c r="C118" s="44"/>
       <c r="D118" s="38"/>
@@ -22621,7 +22621,7 @@
       <c r="K118" s="38"/>
       <c r="L118" s="56"/>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B119" s="49"/>
       <c r="C119" s="44"/>
       <c r="D119" s="38"/>
@@ -22633,7 +22633,7 @@
       <c r="K119" s="38"/>
       <c r="L119" s="56"/>
     </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B120" s="49"/>
       <c r="C120" s="44"/>
       <c r="D120" s="38"/>
@@ -22645,7 +22645,7 @@
       <c r="K120" s="38"/>
       <c r="L120" s="56"/>
     </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B121" s="49"/>
       <c r="C121" s="44"/>
       <c r="D121" s="38"/>
@@ -22657,7 +22657,7 @@
       <c r="K121" s="38"/>
       <c r="L121" s="56"/>
     </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B122" s="49"/>
       <c r="C122" s="44"/>
       <c r="D122" s="38"/>
@@ -22669,7 +22669,7 @@
       <c r="K122" s="38"/>
       <c r="L122" s="56"/>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B123" s="49"/>
       <c r="C123" s="44"/>
       <c r="D123" s="38"/>
@@ -22681,7 +22681,7 @@
       <c r="K123" s="38"/>
       <c r="L123" s="56"/>
     </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B124" s="49"/>
       <c r="C124" s="44"/>
       <c r="D124" s="38"/>
@@ -22693,7 +22693,7 @@
       <c r="K124" s="38"/>
       <c r="L124" s="56"/>
     </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B125" s="49"/>
       <c r="C125" s="44"/>
       <c r="D125" s="38"/>
@@ -22705,7 +22705,7 @@
       <c r="K125" s="38"/>
       <c r="L125" s="56"/>
     </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B126" s="49"/>
       <c r="C126" s="44"/>
       <c r="D126" s="38"/>
@@ -22717,7 +22717,7 @@
       <c r="K126" s="38"/>
       <c r="L126" s="56"/>
     </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B127" s="49"/>
       <c r="C127" s="44"/>
       <c r="D127" s="38"/>
@@ -22729,7 +22729,7 @@
       <c r="K127" s="38"/>
       <c r="L127" s="56"/>
     </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B128" s="49"/>
       <c r="C128" s="44"/>
       <c r="D128" s="38"/>
@@ -22741,7 +22741,7 @@
       <c r="K128" s="38"/>
       <c r="L128" s="56"/>
     </row>
-    <row r="129" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B129" s="49"/>
       <c r="C129" s="44"/>
       <c r="D129" s="38"/>
@@ -22753,7 +22753,7 @@
       <c r="K129" s="38"/>
       <c r="L129" s="56"/>
     </row>
-    <row r="130" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B130" s="49"/>
       <c r="C130" s="44"/>
       <c r="D130" s="38"/>
@@ -22765,7 +22765,7 @@
       <c r="K130" s="38"/>
       <c r="L130" s="56"/>
     </row>
-    <row r="131" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B131" s="49"/>
       <c r="C131" s="44"/>
       <c r="D131" s="38"/>
@@ -22777,7 +22777,7 @@
       <c r="K131" s="38"/>
       <c r="L131" s="56"/>
     </row>
-    <row r="132" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B132" s="49"/>
       <c r="C132" s="44"/>
       <c r="D132" s="38"/>
@@ -22789,7 +22789,7 @@
       <c r="K132" s="38"/>
       <c r="L132" s="56"/>
     </row>
-    <row r="133" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B133" s="49"/>
       <c r="C133" s="44"/>
       <c r="D133" s="38"/>
@@ -22801,7 +22801,7 @@
       <c r="K133" s="38"/>
       <c r="L133" s="56"/>
     </row>
-    <row r="134" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B134" s="49"/>
       <c r="C134" s="44"/>
       <c r="D134" s="38"/>
@@ -22813,7 +22813,7 @@
       <c r="K134" s="38"/>
       <c r="L134" s="56"/>
     </row>
-    <row r="135" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B135" s="49"/>
       <c r="C135" s="44"/>
       <c r="D135" s="38"/>
@@ -22825,7 +22825,7 @@
       <c r="K135" s="38"/>
       <c r="L135" s="56"/>
     </row>
-    <row r="136" spans="2:12" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="136" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B136" s="49"/>
       <c r="C136" s="48"/>
       <c r="D136" s="39"/>
@@ -22856,9 +22856,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" s="36" t="s">
         <v>62</v>
       </c>
@@ -22870,7 +22870,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -22880,7 +22880,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
@@ -22890,7 +22890,7 @@
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
@@ -22900,7 +22900,7 @@
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>

--- a/タスク表.xlsx
+++ b/タスク表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkrs3\Documents\EXTREMEProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k018a1560\Desktop\GameEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1429,32 +1429,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:DH102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.69921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="18" width="7.83203125" customWidth="1"/>
-    <col min="19" max="27" width="6.83203125" customWidth="1"/>
-    <col min="28" max="49" width="7.83203125" customWidth="1"/>
-    <col min="50" max="58" width="6.83203125" customWidth="1"/>
-    <col min="59" max="80" width="7.83203125" customWidth="1"/>
-    <col min="81" max="89" width="6.83203125" customWidth="1"/>
-    <col min="90" max="112" width="7.83203125" customWidth="1"/>
+    <col min="8" max="8" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="18" width="7.796875" customWidth="1"/>
+    <col min="19" max="27" width="6.796875" customWidth="1"/>
+    <col min="28" max="49" width="7.796875" customWidth="1"/>
+    <col min="50" max="58" width="6.796875" customWidth="1"/>
+    <col min="59" max="80" width="7.796875" customWidth="1"/>
+    <col min="81" max="89" width="6.796875" customWidth="1"/>
+    <col min="90" max="112" width="7.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="3:112" x14ac:dyDescent="0.45">
       <c r="P2" s="14" t="s">
         <v>19</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="3:112" x14ac:dyDescent="0.45">
       <c r="H3" s="11"/>
       <c r="I3" s="10" t="s">
         <v>11</v>
@@ -1780,7 +1780,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C4" s="20" t="s">
         <v>3</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>43740</v>
       </c>
     </row>
-    <row r="5" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C5" s="1" t="s">
         <v>47</v>
       </c>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="F5" s="13">
         <f ca="1">IFERROR(ABS(TODAY()-$E5),"")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>6</v>
@@ -2237,7 +2237,7 @@
       <c r="DG5" s="5"/>
       <c r="DH5" s="5"/>
     </row>
-    <row r="6" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F69" ca="1" si="0">IFERROR(ABS(TODAY()-$E6),"")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>8</v>
@@ -2364,7 +2364,7 @@
       <c r="DG6" s="5"/>
       <c r="DH6" s="5"/>
     </row>
-    <row r="7" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C7" s="1" t="s">
         <v>48</v>
       </c>
@@ -2378,7 +2378,7 @@
       </c>
       <c r="F7" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>8</v>
@@ -2491,7 +2491,7 @@
       <c r="DG7" s="5"/>
       <c r="DH7" s="5"/>
     </row>
-    <row r="8" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F8" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>8</v>
@@ -2618,7 +2618,7 @@
       <c r="DG8" s="5"/>
       <c r="DH8" s="5"/>
     </row>
-    <row r="9" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C9" s="1" t="s">
         <v>53</v>
       </c>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="F9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>7</v>
@@ -2745,7 +2745,7 @@
       <c r="DG9" s="5"/>
       <c r="DH9" s="5"/>
     </row>
-    <row r="10" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
@@ -2759,7 +2759,7 @@
       </c>
       <c r="F10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>7</v>
@@ -2872,7 +2872,7 @@
       <c r="DG10" s="5"/>
       <c r="DH10" s="5"/>
     </row>
-    <row r="11" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C11" s="1" t="s">
         <v>57</v>
       </c>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="F11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>7</v>
@@ -2999,7 +2999,7 @@
       <c r="DG11" s="5"/>
       <c r="DH11" s="5"/>
     </row>
-    <row r="12" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C12" s="1" t="s">
         <v>58</v>
       </c>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="F12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>7</v>
@@ -3126,7 +3126,7 @@
       <c r="DG12" s="5"/>
       <c r="DH12" s="5"/>
     </row>
-    <row r="13" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C13" s="1" t="s">
         <v>42</v>
       </c>
@@ -3140,10 +3140,10 @@
       </c>
       <c r="F13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H13" s="33" t="s">
         <v>56</v>
@@ -3253,7 +3253,7 @@
       <c r="DG13" s="5"/>
       <c r="DH13" s="5"/>
     </row>
-    <row r="14" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C14" s="1" t="s">
         <v>37</v>
       </c>
@@ -3267,10 +3267,10 @@
       </c>
       <c r="F14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H14" s="33" t="s">
         <v>56</v>
@@ -3380,7 +3380,7 @@
       <c r="DG14" s="5"/>
       <c r="DH14" s="5"/>
     </row>
-    <row r="15" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
@@ -3394,10 +3394,10 @@
       </c>
       <c r="F15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H15" s="33" t="s">
         <v>56</v>
@@ -3507,7 +3507,7 @@
       <c r="DG15" s="5"/>
       <c r="DH15" s="5"/>
     </row>
-    <row r="16" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C16" s="1" t="s">
         <v>43</v>
       </c>
@@ -3521,10 +3521,10 @@
       </c>
       <c r="F16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H16" s="33" t="s">
         <v>56</v>
@@ -3634,7 +3634,7 @@
       <c r="DG16" s="5"/>
       <c r="DH16" s="5"/>
     </row>
-    <row r="17" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C17" s="1" t="s">
         <v>35</v>
       </c>
@@ -3648,7 +3648,7 @@
       </c>
       <c r="F17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>7</v>
@@ -3761,7 +3761,7 @@
       <c r="DG17" s="5"/>
       <c r="DH17" s="5"/>
     </row>
-    <row r="18" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C18" s="1" t="s">
         <v>50</v>
       </c>
@@ -3775,7 +3775,7 @@
       </c>
       <c r="F18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>7</v>
@@ -3888,7 +3888,7 @@
       <c r="DG18" s="5"/>
       <c r="DH18" s="5"/>
     </row>
-    <row r="19" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C19" s="1" t="s">
         <v>51</v>
       </c>
@@ -3902,7 +3902,7 @@
       </c>
       <c r="F19" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>7</v>
@@ -4015,7 +4015,7 @@
       <c r="DG19" s="5"/>
       <c r="DH19" s="5"/>
     </row>
-    <row r="20" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C20" s="1"/>
       <c r="D20" s="6" t="str">
         <f>IFERROR(VLOOKUP(C20,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4136,7 +4136,7 @@
       <c r="DG20" s="5"/>
       <c r="DH20" s="5"/>
     </row>
-    <row r="21" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C21" s="1"/>
       <c r="D21" s="6" t="str">
         <f>IFERROR(VLOOKUP(C21,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4257,7 +4257,7 @@
       <c r="DG21" s="5"/>
       <c r="DH21" s="5"/>
     </row>
-    <row r="22" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C22" s="1"/>
       <c r="D22" s="6" t="str">
         <f>IFERROR(VLOOKUP(C22,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4378,7 +4378,7 @@
       <c r="DG22" s="5"/>
       <c r="DH22" s="5"/>
     </row>
-    <row r="23" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C23" s="1"/>
       <c r="D23" s="6" t="str">
         <f>IFERROR(VLOOKUP(C23,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4499,7 +4499,7 @@
       <c r="DG23" s="5"/>
       <c r="DH23" s="5"/>
     </row>
-    <row r="24" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C24" s="1"/>
       <c r="D24" s="6" t="str">
         <f>IFERROR(VLOOKUP(C24,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4620,7 +4620,7 @@
       <c r="DG24" s="5"/>
       <c r="DH24" s="5"/>
     </row>
-    <row r="25" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C25" s="1"/>
       <c r="D25" s="6" t="str">
         <f>IFERROR(VLOOKUP(C25,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4741,7 +4741,7 @@
       <c r="DG25" s="5"/>
       <c r="DH25" s="5"/>
     </row>
-    <row r="26" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C26" s="1"/>
       <c r="D26" s="6" t="str">
         <f>IFERROR(VLOOKUP(C26,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4862,7 +4862,7 @@
       <c r="DG26" s="5"/>
       <c r="DH26" s="5"/>
     </row>
-    <row r="27" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C27" s="1"/>
       <c r="D27" s="6" t="str">
         <f>IFERROR(VLOOKUP(C27,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4983,7 +4983,7 @@
       <c r="DG27" s="5"/>
       <c r="DH27" s="5"/>
     </row>
-    <row r="28" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C28" s="1"/>
       <c r="D28" s="6" t="str">
         <f>IFERROR(VLOOKUP(C28,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5104,7 +5104,7 @@
       <c r="DG28" s="5"/>
       <c r="DH28" s="5"/>
     </row>
-    <row r="29" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C29" s="1"/>
       <c r="D29" s="6" t="str">
         <f>IFERROR(VLOOKUP(C29,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5225,7 +5225,7 @@
       <c r="DG29" s="5"/>
       <c r="DH29" s="5"/>
     </row>
-    <row r="30" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C30" s="1"/>
       <c r="D30" s="6" t="str">
         <f>IFERROR(VLOOKUP(C30,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5346,7 +5346,7 @@
       <c r="DG30" s="5"/>
       <c r="DH30" s="5"/>
     </row>
-    <row r="31" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C31" s="1"/>
       <c r="D31" s="6" t="str">
         <f>IFERROR(VLOOKUP(C31,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5467,7 +5467,7 @@
       <c r="DG31" s="5"/>
       <c r="DH31" s="5"/>
     </row>
-    <row r="32" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C32" s="1"/>
       <c r="D32" s="6" t="str">
         <f>IFERROR(VLOOKUP(C32,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5588,7 +5588,7 @@
       <c r="DG32" s="5"/>
       <c r="DH32" s="5"/>
     </row>
-    <row r="33" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C33" s="1"/>
       <c r="D33" s="6" t="str">
         <f>IFERROR(VLOOKUP(C33,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5709,7 +5709,7 @@
       <c r="DG33" s="5"/>
       <c r="DH33" s="5"/>
     </row>
-    <row r="34" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C34" s="1"/>
       <c r="D34" s="6" t="str">
         <f>IFERROR(VLOOKUP(C34,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5830,7 +5830,7 @@
       <c r="DG34" s="5"/>
       <c r="DH34" s="5"/>
     </row>
-    <row r="35" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C35" s="1"/>
       <c r="D35" s="6" t="str">
         <f>IFERROR(VLOOKUP(C35,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5951,7 +5951,7 @@
       <c r="DG35" s="5"/>
       <c r="DH35" s="5"/>
     </row>
-    <row r="36" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C36" s="1"/>
       <c r="D36" s="6" t="str">
         <f>IFERROR(VLOOKUP(C36,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6072,7 +6072,7 @@
       <c r="DG36" s="5"/>
       <c r="DH36" s="5"/>
     </row>
-    <row r="37" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C37" s="1"/>
       <c r="D37" s="6" t="str">
         <f>IFERROR(VLOOKUP(C37,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6193,7 +6193,7 @@
       <c r="DG37" s="5"/>
       <c r="DH37" s="5"/>
     </row>
-    <row r="38" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C38" s="1"/>
       <c r="D38" s="6" t="str">
         <f>IFERROR(VLOOKUP(C38,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6314,7 +6314,7 @@
       <c r="DG38" s="5"/>
       <c r="DH38" s="5"/>
     </row>
-    <row r="39" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C39" s="1"/>
       <c r="D39" s="6" t="str">
         <f>IFERROR(VLOOKUP(C39,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6435,7 +6435,7 @@
       <c r="DG39" s="5"/>
       <c r="DH39" s="5"/>
     </row>
-    <row r="40" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C40" s="1"/>
       <c r="D40" s="6" t="str">
         <f>IFERROR(VLOOKUP(C40,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6556,7 +6556,7 @@
       <c r="DG40" s="5"/>
       <c r="DH40" s="5"/>
     </row>
-    <row r="41" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C41" s="1"/>
       <c r="D41" s="6" t="str">
         <f>IFERROR(VLOOKUP(C41,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6677,7 +6677,7 @@
       <c r="DG41" s="5"/>
       <c r="DH41" s="5"/>
     </row>
-    <row r="42" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C42" s="1"/>
       <c r="D42" s="6" t="str">
         <f>IFERROR(VLOOKUP(C42,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6798,7 +6798,7 @@
       <c r="DG42" s="5"/>
       <c r="DH42" s="5"/>
     </row>
-    <row r="43" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C43" s="1"/>
       <c r="D43" s="6" t="str">
         <f>IFERROR(VLOOKUP(C43,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6919,7 +6919,7 @@
       <c r="DG43" s="5"/>
       <c r="DH43" s="5"/>
     </row>
-    <row r="44" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C44" s="1"/>
       <c r="D44" s="6" t="str">
         <f>IFERROR(VLOOKUP(C44,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7040,7 +7040,7 @@
       <c r="DG44" s="5"/>
       <c r="DH44" s="5"/>
     </row>
-    <row r="45" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C45" s="1"/>
       <c r="D45" s="6" t="str">
         <f>IFERROR(VLOOKUP(C45,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7161,7 +7161,7 @@
       <c r="DG45" s="5"/>
       <c r="DH45" s="5"/>
     </row>
-    <row r="46" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C46" s="1"/>
       <c r="D46" s="6" t="str">
         <f>IFERROR(VLOOKUP(C46,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7282,7 +7282,7 @@
       <c r="DG46" s="5"/>
       <c r="DH46" s="5"/>
     </row>
-    <row r="47" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C47" s="1"/>
       <c r="D47" s="6" t="str">
         <f>IFERROR(VLOOKUP(C47,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7403,7 +7403,7 @@
       <c r="DG47" s="5"/>
       <c r="DH47" s="5"/>
     </row>
-    <row r="48" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C48" s="1"/>
       <c r="D48" s="6" t="str">
         <f>IFERROR(VLOOKUP(C48,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7524,7 +7524,7 @@
       <c r="DG48" s="5"/>
       <c r="DH48" s="5"/>
     </row>
-    <row r="49" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C49" s="1"/>
       <c r="D49" s="6" t="str">
         <f>IFERROR(VLOOKUP(C49,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7645,7 +7645,7 @@
       <c r="DG49" s="5"/>
       <c r="DH49" s="5"/>
     </row>
-    <row r="50" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C50" s="1"/>
       <c r="D50" s="6" t="str">
         <f>IFERROR(VLOOKUP(C50,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7766,7 +7766,7 @@
       <c r="DG50" s="5"/>
       <c r="DH50" s="5"/>
     </row>
-    <row r="51" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C51" s="1"/>
       <c r="D51" s="6" t="str">
         <f>IFERROR(VLOOKUP(C51,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7887,7 +7887,7 @@
       <c r="DG51" s="5"/>
       <c r="DH51" s="5"/>
     </row>
-    <row r="52" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C52" s="1"/>
       <c r="D52" s="6" t="str">
         <f>IFERROR(VLOOKUP(C52,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8008,7 +8008,7 @@
       <c r="DG52" s="5"/>
       <c r="DH52" s="5"/>
     </row>
-    <row r="53" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C53" s="1"/>
       <c r="D53" s="6" t="str">
         <f>IFERROR(VLOOKUP(C53,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8129,7 +8129,7 @@
       <c r="DG53" s="5"/>
       <c r="DH53" s="5"/>
     </row>
-    <row r="54" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C54" s="1"/>
       <c r="D54" s="6" t="str">
         <f>IFERROR(VLOOKUP(C54,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8250,7 +8250,7 @@
       <c r="DG54" s="5"/>
       <c r="DH54" s="5"/>
     </row>
-    <row r="55" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C55" s="1"/>
       <c r="D55" s="6" t="str">
         <f>IFERROR(VLOOKUP(C55,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8371,7 +8371,7 @@
       <c r="DG55" s="5"/>
       <c r="DH55" s="5"/>
     </row>
-    <row r="56" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C56" s="1"/>
       <c r="D56" s="6" t="str">
         <f>IFERROR(VLOOKUP(C56,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8492,7 +8492,7 @@
       <c r="DG56" s="5"/>
       <c r="DH56" s="5"/>
     </row>
-    <row r="57" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C57" s="1"/>
       <c r="D57" s="6" t="str">
         <f>IFERROR(VLOOKUP(C57,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8613,7 +8613,7 @@
       <c r="DG57" s="5"/>
       <c r="DH57" s="5"/>
     </row>
-    <row r="58" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C58" s="1"/>
       <c r="D58" s="6" t="str">
         <f>IFERROR(VLOOKUP(C58,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8734,7 +8734,7 @@
       <c r="DG58" s="5"/>
       <c r="DH58" s="5"/>
     </row>
-    <row r="59" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C59" s="1"/>
       <c r="D59" s="6" t="str">
         <f>IFERROR(VLOOKUP(C59,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8855,7 +8855,7 @@
       <c r="DG59" s="5"/>
       <c r="DH59" s="5"/>
     </row>
-    <row r="60" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C60" s="1"/>
       <c r="D60" s="6" t="str">
         <f>IFERROR(VLOOKUP(C60,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8976,7 +8976,7 @@
       <c r="DG60" s="5"/>
       <c r="DH60" s="5"/>
     </row>
-    <row r="61" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C61" s="1"/>
       <c r="D61" s="6" t="str">
         <f>IFERROR(VLOOKUP(C61,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9097,7 +9097,7 @@
       <c r="DG61" s="5"/>
       <c r="DH61" s="5"/>
     </row>
-    <row r="62" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C62" s="1"/>
       <c r="D62" s="6" t="str">
         <f>IFERROR(VLOOKUP(C62,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9218,7 +9218,7 @@
       <c r="DG62" s="5"/>
       <c r="DH62" s="5"/>
     </row>
-    <row r="63" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C63" s="1"/>
       <c r="D63" s="6" t="str">
         <f>IFERROR(VLOOKUP(C63,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9339,7 +9339,7 @@
       <c r="DG63" s="5"/>
       <c r="DH63" s="5"/>
     </row>
-    <row r="64" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C64" s="1"/>
       <c r="D64" s="6" t="str">
         <f>IFERROR(VLOOKUP(C64,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9460,7 +9460,7 @@
       <c r="DG64" s="5"/>
       <c r="DH64" s="5"/>
     </row>
-    <row r="65" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C65" s="1"/>
       <c r="D65" s="6" t="str">
         <f>IFERROR(VLOOKUP(C65,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9581,7 +9581,7 @@
       <c r="DG65" s="5"/>
       <c r="DH65" s="5"/>
     </row>
-    <row r="66" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C66" s="1"/>
       <c r="D66" s="6" t="str">
         <f>IFERROR(VLOOKUP(C66,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9702,7 +9702,7 @@
       <c r="DG66" s="5"/>
       <c r="DH66" s="5"/>
     </row>
-    <row r="67" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C67" s="1"/>
       <c r="D67" s="6" t="str">
         <f>IFERROR(VLOOKUP(C67,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9823,7 +9823,7 @@
       <c r="DG67" s="5"/>
       <c r="DH67" s="5"/>
     </row>
-    <row r="68" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C68" s="1"/>
       <c r="D68" s="6" t="str">
         <f>IFERROR(VLOOKUP(C68,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9944,7 +9944,7 @@
       <c r="DG68" s="5"/>
       <c r="DH68" s="5"/>
     </row>
-    <row r="69" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C69" s="1"/>
       <c r="D69" s="6" t="str">
         <f>IFERROR(VLOOKUP(C69,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10065,7 +10065,7 @@
       <c r="DG69" s="5"/>
       <c r="DH69" s="5"/>
     </row>
-    <row r="70" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C70" s="1"/>
       <c r="D70" s="6" t="str">
         <f>IFERROR(VLOOKUP(C70,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10186,7 +10186,7 @@
       <c r="DG70" s="5"/>
       <c r="DH70" s="5"/>
     </row>
-    <row r="71" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C71" s="1"/>
       <c r="D71" s="6" t="str">
         <f>IFERROR(VLOOKUP(C71,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10307,7 +10307,7 @@
       <c r="DG71" s="5"/>
       <c r="DH71" s="5"/>
     </row>
-    <row r="72" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C72" s="1"/>
       <c r="D72" s="6" t="str">
         <f>IFERROR(VLOOKUP(C72,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10428,7 +10428,7 @@
       <c r="DG72" s="5"/>
       <c r="DH72" s="5"/>
     </row>
-    <row r="73" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C73" s="1"/>
       <c r="D73" s="6" t="str">
         <f>IFERROR(VLOOKUP(C73,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10549,7 +10549,7 @@
       <c r="DG73" s="5"/>
       <c r="DH73" s="5"/>
     </row>
-    <row r="74" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C74" s="1"/>
       <c r="D74" s="6" t="str">
         <f>IFERROR(VLOOKUP(C74,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10670,7 +10670,7 @@
       <c r="DG74" s="5"/>
       <c r="DH74" s="5"/>
     </row>
-    <row r="75" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C75" s="1"/>
       <c r="D75" s="6" t="str">
         <f>IFERROR(VLOOKUP(C75,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10791,7 +10791,7 @@
       <c r="DG75" s="5"/>
       <c r="DH75" s="5"/>
     </row>
-    <row r="76" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C76" s="1"/>
       <c r="D76" s="6" t="str">
         <f>IFERROR(VLOOKUP(C76,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10912,7 +10912,7 @@
       <c r="DG76" s="5"/>
       <c r="DH76" s="5"/>
     </row>
-    <row r="77" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C77" s="1"/>
       <c r="D77" s="6" t="str">
         <f>IFERROR(VLOOKUP(C77,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11033,7 +11033,7 @@
       <c r="DG77" s="5"/>
       <c r="DH77" s="5"/>
     </row>
-    <row r="78" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C78" s="1"/>
       <c r="D78" s="6" t="str">
         <f>IFERROR(VLOOKUP(C78,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11154,7 +11154,7 @@
       <c r="DG78" s="5"/>
       <c r="DH78" s="5"/>
     </row>
-    <row r="79" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C79" s="1"/>
       <c r="D79" s="6" t="str">
         <f>IFERROR(VLOOKUP(C79,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11275,7 +11275,7 @@
       <c r="DG79" s="5"/>
       <c r="DH79" s="5"/>
     </row>
-    <row r="80" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C80" s="1"/>
       <c r="D80" s="6" t="str">
         <f>IFERROR(VLOOKUP(C80,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11396,7 +11396,7 @@
       <c r="DG80" s="5"/>
       <c r="DH80" s="5"/>
     </row>
-    <row r="81" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C81" s="1"/>
       <c r="D81" s="6" t="str">
         <f>IFERROR(VLOOKUP(C81,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11517,7 +11517,7 @@
       <c r="DG81" s="5"/>
       <c r="DH81" s="5"/>
     </row>
-    <row r="82" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C82" s="1"/>
       <c r="D82" s="6" t="str">
         <f>IFERROR(VLOOKUP(C82,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11638,7 +11638,7 @@
       <c r="DG82" s="5"/>
       <c r="DH82" s="5"/>
     </row>
-    <row r="83" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C83" s="1"/>
       <c r="D83" s="6" t="str">
         <f>IFERROR(VLOOKUP(C83,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11759,7 +11759,7 @@
       <c r="DG83" s="5"/>
       <c r="DH83" s="5"/>
     </row>
-    <row r="84" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C84" s="1"/>
       <c r="D84" s="6" t="str">
         <f>IFERROR(VLOOKUP(C84,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11880,7 +11880,7 @@
       <c r="DG84" s="5"/>
       <c r="DH84" s="5"/>
     </row>
-    <row r="85" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C85" s="1"/>
       <c r="D85" s="6" t="str">
         <f>IFERROR(VLOOKUP(C85,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12001,7 +12001,7 @@
       <c r="DG85" s="5"/>
       <c r="DH85" s="5"/>
     </row>
-    <row r="86" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C86" s="1"/>
       <c r="D86" s="6" t="str">
         <f>IFERROR(VLOOKUP(C86,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12122,7 +12122,7 @@
       <c r="DG86" s="5"/>
       <c r="DH86" s="5"/>
     </row>
-    <row r="87" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C87" s="1"/>
       <c r="D87" s="6" t="str">
         <f>IFERROR(VLOOKUP(C87,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12243,7 +12243,7 @@
       <c r="DG87" s="5"/>
       <c r="DH87" s="5"/>
     </row>
-    <row r="88" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C88" s="1"/>
       <c r="D88" s="6" t="str">
         <f>IFERROR(VLOOKUP(C88,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12364,7 +12364,7 @@
       <c r="DG88" s="5"/>
       <c r="DH88" s="5"/>
     </row>
-    <row r="89" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C89" s="1"/>
       <c r="D89" s="6" t="str">
         <f>IFERROR(VLOOKUP(C89,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12485,7 +12485,7 @@
       <c r="DG89" s="5"/>
       <c r="DH89" s="5"/>
     </row>
-    <row r="90" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C90" s="1"/>
       <c r="D90" s="6" t="str">
         <f>IFERROR(VLOOKUP(C90,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12606,7 +12606,7 @@
       <c r="DG90" s="5"/>
       <c r="DH90" s="5"/>
     </row>
-    <row r="91" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C91" s="1"/>
       <c r="D91" s="6" t="str">
         <f>IFERROR(VLOOKUP(C91,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12727,7 +12727,7 @@
       <c r="DG91" s="5"/>
       <c r="DH91" s="5"/>
     </row>
-    <row r="92" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C92" s="1"/>
       <c r="D92" s="6" t="str">
         <f>IFERROR(VLOOKUP(C92,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12848,7 +12848,7 @@
       <c r="DG92" s="5"/>
       <c r="DH92" s="5"/>
     </row>
-    <row r="93" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C93" s="1"/>
       <c r="D93" s="6" t="str">
         <f>IFERROR(VLOOKUP(C93,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12969,7 +12969,7 @@
       <c r="DG93" s="5"/>
       <c r="DH93" s="5"/>
     </row>
-    <row r="94" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C94" s="1"/>
       <c r="D94" s="6" t="str">
         <f>IFERROR(VLOOKUP(C94,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13090,7 +13090,7 @@
       <c r="DG94" s="5"/>
       <c r="DH94" s="5"/>
     </row>
-    <row r="95" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C95" s="1"/>
       <c r="D95" s="6" t="str">
         <f>IFERROR(VLOOKUP(C95,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13211,7 +13211,7 @@
       <c r="DG95" s="5"/>
       <c r="DH95" s="5"/>
     </row>
-    <row r="96" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C96" s="1"/>
       <c r="D96" s="6" t="str">
         <f>IFERROR(VLOOKUP(C96,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13332,7 +13332,7 @@
       <c r="DG96" s="5"/>
       <c r="DH96" s="5"/>
     </row>
-    <row r="97" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C97" s="1"/>
       <c r="D97" s="6" t="str">
         <f>IFERROR(VLOOKUP(C97,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13453,7 +13453,7 @@
       <c r="DG97" s="5"/>
       <c r="DH97" s="5"/>
     </row>
-    <row r="98" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C98" s="1"/>
       <c r="D98" s="6" t="str">
         <f>IFERROR(VLOOKUP(C98,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13574,7 +13574,7 @@
       <c r="DG98" s="5"/>
       <c r="DH98" s="5"/>
     </row>
-    <row r="99" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C99" s="1"/>
       <c r="D99" s="6" t="str">
         <f>IFERROR(VLOOKUP(C99,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13695,7 +13695,7 @@
       <c r="DG99" s="5"/>
       <c r="DH99" s="5"/>
     </row>
-    <row r="100" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C100" s="1"/>
       <c r="D100" s="6" t="str">
         <f>IFERROR(VLOOKUP(C100,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13816,7 +13816,7 @@
       <c r="DG100" s="5"/>
       <c r="DH100" s="5"/>
     </row>
-    <row r="102" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="3:112" x14ac:dyDescent="0.45">
       <c r="E102" s="9"/>
     </row>
   </sheetData>
@@ -13900,22 +13900,22 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="101.9140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="101.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C4" s="18" t="s">
         <v>0</v>
       </c>
@@ -13935,7 +13935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C5" s="1" t="s">
         <v>47</v>
       </c>
@@ -13956,7 +13956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:30" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C6" s="27" t="s">
         <v>24</v>
       </c>
@@ -13975,7 +13975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A7" s="22"/>
       <c r="B7" s="23" t="s">
         <v>25</v>
@@ -13997,7 +13997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
@@ -14015,7 +14015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
@@ -14033,7 +14033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
@@ -14051,7 +14051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:30" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C11" s="27" t="s">
         <v>57</v>
       </c>
@@ -14069,7 +14069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B12" s="24" t="s">
         <v>34</v>
       </c>
@@ -14090,7 +14090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C13" s="1" t="s">
         <v>35</v>
       </c>
@@ -14108,7 +14108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C14" s="1" t="s">
         <v>37</v>
       </c>
@@ -14126,7 +14126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
@@ -14144,7 +14144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C16" s="1" t="s">
         <v>40</v>
       </c>
@@ -14162,7 +14162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C17" s="1" t="s">
         <v>43</v>
       </c>
@@ -14180,7 +14180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C18" s="1" t="s">
         <v>58</v>
       </c>
@@ -14198,7 +14198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="35"/>
@@ -14208,7 +14208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="25" t="s">
         <v>46</v>
       </c>
@@ -14229,7 +14229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C21" s="1" t="s">
         <v>51</v>
       </c>
@@ -14247,7 +14247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -14257,7 +14257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -14267,7 +14267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -14277,7 +14277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -14287,7 +14287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -14297,7 +14297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -14307,7 +14307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -14317,7 +14317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -14327,7 +14327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -14337,7 +14337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -14347,7 +14347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -14357,7 +14357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -14367,7 +14367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -14377,7 +14377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -14387,7 +14387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -14397,7 +14397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -14407,7 +14407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -14417,7 +14417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -14427,7 +14427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -14437,7 +14437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -14457,7 +14457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -14467,7 +14467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -14477,7 +14477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -14487,7 +14487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -14497,7 +14497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -14507,7 +14507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -14517,7 +14517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -14527,7 +14527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -14537,7 +14537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -14547,7 +14547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -14557,7 +14557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -14567,7 +14567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -14577,7 +14577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -14587,7 +14587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -14597,7 +14597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -14607,7 +14607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -14617,7 +14617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -14627,7 +14627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -14637,7 +14637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -14647,7 +14647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -14657,7 +14657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -14667,7 +14667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -14677,7 +14677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -14687,7 +14687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -14697,7 +14697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -14707,7 +14707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -14717,7 +14717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -14727,7 +14727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -14737,7 +14737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -14747,7 +14747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -14757,7 +14757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -14767,7 +14767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -14777,7 +14777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -14787,7 +14787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -14797,7 +14797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -14807,7 +14807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -14817,7 +14817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -14827,7 +14827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -14837,7 +14837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -14847,7 +14847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -14857,7 +14857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -14867,7 +14867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -14877,7 +14877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -14887,7 +14887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -14897,7 +14897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -14907,7 +14907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -14917,7 +14917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -14927,7 +14927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -14937,7 +14937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -14947,7 +14947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -14957,7 +14957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -14967,7 +14967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -14977,7 +14977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -14987,7 +14987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -14997,7 +14997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -15007,7 +15007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -15017,7 +15017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -15027,7 +15027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -15037,7 +15037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -15047,7 +15047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -15057,7 +15057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -15067,7 +15067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -15077,7 +15077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -15087,7 +15087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -15097,7 +15097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -15107,7 +15107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -15117,7 +15117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -15127,7 +15127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -15137,7 +15137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -15147,7 +15147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -15157,7 +15157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -15167,7 +15167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -15177,7 +15177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -15187,7 +15187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -15197,7 +15197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -15207,7 +15207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -15217,7 +15217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -15227,7 +15227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -15237,7 +15237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -15247,7 +15247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -15257,7 +15257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -15267,7 +15267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -15277,7 +15277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -15287,7 +15287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -15297,7 +15297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -15307,7 +15307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -15317,7 +15317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -15327,7 +15327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -15337,7 +15337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -15347,7 +15347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -15357,7 +15357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -15367,7 +15367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -15377,7 +15377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -15387,7 +15387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -15397,7 +15397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -15407,7 +15407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -15417,7 +15417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -15427,7 +15427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -15437,7 +15437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -15447,7 +15447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -15457,7 +15457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -15467,7 +15467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -15477,7 +15477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -15487,7 +15487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -15497,7 +15497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -15507,7 +15507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -15517,7 +15517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -15527,7 +15527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -15537,7 +15537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -15547,7 +15547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -15557,7 +15557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -15567,7 +15567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -15577,7 +15577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -15587,7 +15587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -15597,7 +15597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -15607,7 +15607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -15617,7 +15617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -15627,7 +15627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -15637,7 +15637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -15647,7 +15647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -15657,7 +15657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -15667,7 +15667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -15677,7 +15677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -15687,7 +15687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -15697,7 +15697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -15707,7 +15707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -15717,7 +15717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -15727,7 +15727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -15737,7 +15737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -15747,7 +15747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -15757,7 +15757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -15767,7 +15767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -15777,7 +15777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -15787,7 +15787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -15797,7 +15797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -15807,7 +15807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -15817,7 +15817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -15827,7 +15827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -15837,7 +15837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -15847,7 +15847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -15857,7 +15857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -15867,7 +15867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -15877,7 +15877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -15887,7 +15887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -15897,7 +15897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -15907,7 +15907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -15917,7 +15917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -15927,7 +15927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -15937,7 +15937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -15947,7 +15947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -15957,7 +15957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -15967,7 +15967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -15987,7 +15987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -15997,7 +15997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -16007,7 +16007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -16017,7 +16017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -16027,7 +16027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -16037,7 +16037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -16047,7 +16047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -16057,7 +16057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -16067,7 +16067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -16077,7 +16077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -16087,7 +16087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -16097,7 +16097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -16107,7 +16107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -16117,7 +16117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -16127,7 +16127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -16137,7 +16137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -16147,7 +16147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -16157,7 +16157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -16167,7 +16167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -16177,7 +16177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -16187,7 +16187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -16197,7 +16197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -16207,7 +16207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -16217,7 +16217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -16227,7 +16227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -16237,7 +16237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -16247,7 +16247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -16257,7 +16257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -16267,7 +16267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -16277,7 +16277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -16287,7 +16287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -16297,7 +16297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -16307,7 +16307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -16317,7 +16317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -16327,7 +16327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -16337,7 +16337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -16347,7 +16347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -16357,7 +16357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -16367,7 +16367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -16377,7 +16377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -16387,7 +16387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -16397,7 +16397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -16407,7 +16407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -16417,7 +16417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -16427,7 +16427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -16437,7 +16437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -16447,7 +16447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -16457,7 +16457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -16467,7 +16467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -16477,7 +16477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -16487,7 +16487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -16497,7 +16497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -16507,7 +16507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -16517,7 +16517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -16527,7 +16527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -16537,7 +16537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -16547,7 +16547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -16557,7 +16557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -16567,7 +16567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -16577,7 +16577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -16587,7 +16587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -16597,7 +16597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -16607,7 +16607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -16617,7 +16617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -16627,7 +16627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -16637,7 +16637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -16647,7 +16647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -16657,7 +16657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -16667,7 +16667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -16677,7 +16677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -16687,7 +16687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -16697,7 +16697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -16707,7 +16707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -16717,7 +16717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -16727,7 +16727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -16737,7 +16737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -16747,7 +16747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -16757,7 +16757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -16767,7 +16767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -16777,7 +16777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -16787,7 +16787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -16797,7 +16797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -16807,7 +16807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -16817,7 +16817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -16827,7 +16827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -16837,7 +16837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -16847,7 +16847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -16857,7 +16857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -16867,7 +16867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -16877,7 +16877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -16887,7 +16887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -16897,7 +16897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -16907,7 +16907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -16917,7 +16917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -16927,7 +16927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -16937,7 +16937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -16947,7 +16947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -16957,7 +16957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -16967,7 +16967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -16977,7 +16977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -16987,7 +16987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -16997,7 +16997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -17007,7 +17007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -17017,7 +17017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -17027,7 +17027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
@@ -17037,7 +17037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
@@ -17047,7 +17047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
@@ -17057,7 +17057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
@@ -17067,7 +17067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
@@ -17077,7 +17077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
@@ -17087,7 +17087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
@@ -17097,7 +17097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
@@ -17107,7 +17107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
@@ -17117,7 +17117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
@@ -17127,7 +17127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
@@ -17137,7 +17137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
@@ -17147,7 +17147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
@@ -17157,7 +17157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
@@ -17167,7 +17167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
@@ -17177,7 +17177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
@@ -17187,7 +17187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
@@ -17197,7 +17197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
@@ -17207,7 +17207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
@@ -17217,7 +17217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
@@ -17227,7 +17227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
@@ -17237,7 +17237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
@@ -17247,7 +17247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
@@ -17257,7 +17257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
@@ -17267,7 +17267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
@@ -17277,7 +17277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
@@ -17287,7 +17287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
@@ -17297,7 +17297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
@@ -17307,7 +17307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
@@ -17317,7 +17317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
@@ -17327,7 +17327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
@@ -17337,7 +17337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
@@ -17347,7 +17347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
@@ -17357,7 +17357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
@@ -17367,7 +17367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
@@ -17377,7 +17377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
@@ -17387,7 +17387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
@@ -17397,7 +17397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
@@ -17407,7 +17407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
@@ -17417,7 +17417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
@@ -17427,7 +17427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
@@ -17437,7 +17437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
@@ -17447,7 +17447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
@@ -17457,7 +17457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
@@ -17467,7 +17467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
@@ -17477,7 +17477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
@@ -17487,7 +17487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
@@ -17497,7 +17497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
@@ -17507,7 +17507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
@@ -17517,7 +17517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
@@ -17527,7 +17527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
@@ -17537,7 +17537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
@@ -17547,7 +17547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
@@ -17557,7 +17557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
@@ -17567,7 +17567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
@@ -17577,7 +17577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
@@ -17587,7 +17587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
@@ -17597,7 +17597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
@@ -17607,7 +17607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
@@ -17617,7 +17617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
@@ -17627,7 +17627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
@@ -17637,7 +17637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
@@ -17647,7 +17647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
@@ -17657,7 +17657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
@@ -17667,7 +17667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
@@ -17677,7 +17677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
@@ -17687,7 +17687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
@@ -17697,7 +17697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
@@ -17707,7 +17707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
@@ -17717,7 +17717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
@@ -17727,7 +17727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
@@ -17737,7 +17737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
@@ -17747,7 +17747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
@@ -17757,7 +17757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
@@ -17767,7 +17767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
@@ -17777,7 +17777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
@@ -17787,7 +17787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
@@ -17797,7 +17797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
@@ -17807,7 +17807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
@@ -17817,7 +17817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
@@ -17827,7 +17827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
@@ -17837,7 +17837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
@@ -17847,7 +17847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
@@ -17857,7 +17857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
@@ -17867,7 +17867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
@@ -17877,7 +17877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
@@ -17887,7 +17887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
@@ -17897,7 +17897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
@@ -17907,7 +17907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
@@ -17917,7 +17917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
@@ -17927,7 +17927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
@@ -17937,7 +17937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
@@ -17947,7 +17947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
@@ -17957,7 +17957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
@@ -17967,7 +17967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
@@ -17977,7 +17977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
@@ -17987,7 +17987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
@@ -17997,7 +17997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
@@ -18007,7 +18007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
@@ -18017,7 +18017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
@@ -18027,7 +18027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
@@ -18037,7 +18037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
@@ -18047,7 +18047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
@@ -18057,7 +18057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
@@ -18067,7 +18067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
@@ -18077,7 +18077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
@@ -18087,7 +18087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
@@ -18097,7 +18097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
@@ -18107,7 +18107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
@@ -18117,7 +18117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
@@ -18127,7 +18127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
@@ -18137,7 +18137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
@@ -18147,7 +18147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
@@ -18157,7 +18157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
@@ -18167,7 +18167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
@@ -18177,7 +18177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
@@ -18187,7 +18187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
@@ -18197,7 +18197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
@@ -18207,7 +18207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
@@ -18217,7 +18217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
@@ -18227,7 +18227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
@@ -18237,7 +18237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
@@ -18247,7 +18247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
@@ -18257,7 +18257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
@@ -18267,7 +18267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
@@ -18277,7 +18277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
@@ -18287,7 +18287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
@@ -18297,7 +18297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
@@ -18307,7 +18307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
@@ -18317,7 +18317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
@@ -18327,7 +18327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
@@ -18337,7 +18337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
@@ -18347,7 +18347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
@@ -18357,7 +18357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
@@ -18367,7 +18367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
@@ -18377,7 +18377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
@@ -18387,7 +18387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
@@ -18397,7 +18397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
@@ -18407,7 +18407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
@@ -18417,7 +18417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
@@ -18427,7 +18427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
@@ -18437,7 +18437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
@@ -18447,7 +18447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
@@ -18457,7 +18457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
@@ -18467,7 +18467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
@@ -18477,7 +18477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
@@ -18487,7 +18487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
@@ -18497,7 +18497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
@@ -18507,7 +18507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
@@ -18517,7 +18517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
@@ -18527,7 +18527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
@@ -18537,7 +18537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
@@ -18547,7 +18547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
@@ -18557,7 +18557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
@@ -18567,7 +18567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
@@ -18577,7 +18577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
@@ -18587,7 +18587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
@@ -18597,7 +18597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
@@ -18607,7 +18607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
@@ -18617,7 +18617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
@@ -18627,7 +18627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
@@ -18637,7 +18637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
@@ -18647,7 +18647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
@@ -18657,7 +18657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
@@ -18667,7 +18667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
@@ -18677,7 +18677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
@@ -18687,7 +18687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
@@ -18697,7 +18697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
@@ -18707,7 +18707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
@@ -18717,7 +18717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
@@ -18727,7 +18727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
@@ -18737,7 +18737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
@@ -18747,7 +18747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
@@ -18757,7 +18757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
@@ -18767,7 +18767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
@@ -18777,7 +18777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
@@ -18787,7 +18787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
@@ -18797,7 +18797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
@@ -18807,7 +18807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
@@ -18817,7 +18817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
@@ -18827,7 +18827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
@@ -18837,7 +18837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
@@ -18847,7 +18847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
@@ -18857,7 +18857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
@@ -18867,7 +18867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
@@ -18877,7 +18877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
@@ -18887,7 +18887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
@@ -18897,7 +18897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
@@ -18907,7 +18907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
@@ -18917,7 +18917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
@@ -18927,7 +18927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
@@ -18937,7 +18937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
@@ -18947,7 +18947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
@@ -18957,7 +18957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
@@ -18967,7 +18967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
@@ -18977,7 +18977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
@@ -18987,7 +18987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
@@ -18997,7 +18997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
@@ -19007,7 +19007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
@@ -19017,7 +19017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
@@ -19027,7 +19027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
@@ -19037,7 +19037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
       <c r="E501" s="1"/>
@@ -19047,7 +19047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
       <c r="E502" s="1"/>
@@ -19057,7 +19057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
       <c r="E503" s="1"/>
@@ -19067,7 +19067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
       <c r="E504" s="1"/>
@@ -19077,7 +19077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="505" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C505" s="1"/>
       <c r="D505" s="1"/>
       <c r="E505" s="1"/>
@@ -19087,7 +19087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
       <c r="E506" s="1"/>
@@ -19097,7 +19097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C507" s="1"/>
       <c r="D507" s="1"/>
       <c r="E507" s="1"/>
@@ -19107,7 +19107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C508" s="1"/>
       <c r="D508" s="1"/>
       <c r="E508" s="1"/>
@@ -19117,7 +19117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="509" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C509" s="1"/>
       <c r="D509" s="1"/>
       <c r="E509" s="1"/>
@@ -19127,7 +19127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="510" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
       <c r="E510" s="1"/>
@@ -19137,7 +19137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="511" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C511" s="1"/>
       <c r="D511" s="1"/>
       <c r="E511" s="1"/>
@@ -19147,7 +19147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="512" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C512" s="1"/>
       <c r="D512" s="1"/>
       <c r="E512" s="1"/>
@@ -19157,7 +19157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="513" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C513" s="1"/>
       <c r="D513" s="1"/>
       <c r="E513" s="1"/>
@@ -19167,7 +19167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="514" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C514" s="1"/>
       <c r="D514" s="1"/>
       <c r="E514" s="1"/>
@@ -19177,7 +19177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="515" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C515" s="1"/>
       <c r="D515" s="1"/>
       <c r="E515" s="1"/>
@@ -19187,7 +19187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="516" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C516" s="1"/>
       <c r="D516" s="1"/>
       <c r="E516" s="1"/>
@@ -19197,7 +19197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="517" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C517" s="1"/>
       <c r="D517" s="1"/>
       <c r="E517" s="1"/>
@@ -19207,7 +19207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="518" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C518" s="1"/>
       <c r="D518" s="1"/>
       <c r="E518" s="1"/>
@@ -19217,7 +19217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="519" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C519" s="1"/>
       <c r="D519" s="1"/>
       <c r="E519" s="1"/>
@@ -19227,7 +19227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="520" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C520" s="1"/>
       <c r="D520" s="1"/>
       <c r="E520" s="1"/>
@@ -19237,7 +19237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="521" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C521" s="1"/>
       <c r="D521" s="1"/>
       <c r="E521" s="1"/>
@@ -19247,7 +19247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="522" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C522" s="1"/>
       <c r="D522" s="1"/>
       <c r="E522" s="1"/>
@@ -19257,7 +19257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="523" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C523" s="1"/>
       <c r="D523" s="1"/>
       <c r="E523" s="1"/>
@@ -19267,7 +19267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="524" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C524" s="1"/>
       <c r="D524" s="1"/>
       <c r="E524" s="1"/>
@@ -19277,7 +19277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="525" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C525" s="1"/>
       <c r="D525" s="1"/>
       <c r="E525" s="1"/>
@@ -19287,7 +19287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="526" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C526" s="1"/>
       <c r="D526" s="1"/>
       <c r="E526" s="1"/>
@@ -19297,7 +19297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="527" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C527" s="1"/>
       <c r="D527" s="1"/>
       <c r="E527" s="1"/>
@@ -19307,7 +19307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="528" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C528" s="1"/>
       <c r="D528" s="1"/>
       <c r="E528" s="1"/>
@@ -19317,7 +19317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="529" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C529" s="1"/>
       <c r="D529" s="1"/>
       <c r="E529" s="1"/>
@@ -19327,7 +19327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="530" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C530" s="1"/>
       <c r="D530" s="1"/>
       <c r="E530" s="1"/>
@@ -19337,7 +19337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="531" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C531" s="1"/>
       <c r="D531" s="1"/>
       <c r="E531" s="1"/>
@@ -19347,7 +19347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="532" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C532" s="1"/>
       <c r="D532" s="1"/>
       <c r="E532" s="1"/>
@@ -19357,7 +19357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="533" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C533" s="1"/>
       <c r="D533" s="1"/>
       <c r="E533" s="1"/>
@@ -19367,7 +19367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="534" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C534" s="1"/>
       <c r="D534" s="1"/>
       <c r="E534" s="1"/>
@@ -19377,7 +19377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="535" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C535" s="1"/>
       <c r="D535" s="1"/>
       <c r="E535" s="1"/>
@@ -19387,7 +19387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="536" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C536" s="1"/>
       <c r="D536" s="1"/>
       <c r="E536" s="1"/>
@@ -19397,7 +19397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="537" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C537" s="1"/>
       <c r="D537" s="1"/>
       <c r="E537" s="1"/>
@@ -19407,7 +19407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="538" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C538" s="1"/>
       <c r="D538" s="1"/>
       <c r="E538" s="1"/>
@@ -19417,7 +19417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="539" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C539" s="1"/>
       <c r="D539" s="1"/>
       <c r="E539" s="1"/>
@@ -19427,7 +19427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="540" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C540" s="1"/>
       <c r="D540" s="1"/>
       <c r="E540" s="1"/>
@@ -19437,7 +19437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="541" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C541" s="1"/>
       <c r="D541" s="1"/>
       <c r="E541" s="1"/>
@@ -19447,7 +19447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="542" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C542" s="1"/>
       <c r="D542" s="1"/>
       <c r="E542" s="1"/>
@@ -19457,7 +19457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="543" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C543" s="1"/>
       <c r="D543" s="1"/>
       <c r="E543" s="1"/>
@@ -19467,7 +19467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="544" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C544" s="1"/>
       <c r="D544" s="1"/>
       <c r="E544" s="1"/>
@@ -19477,7 +19477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="545" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C545" s="1"/>
       <c r="D545" s="1"/>
       <c r="E545" s="1"/>
@@ -19487,7 +19487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="546" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C546" s="1"/>
       <c r="D546" s="1"/>
       <c r="E546" s="1"/>
@@ -19497,7 +19497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="547" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C547" s="1"/>
       <c r="D547" s="1"/>
       <c r="E547" s="1"/>
@@ -19507,7 +19507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="548" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
       <c r="E548" s="1"/>
@@ -19517,7 +19517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="549" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C549" s="1"/>
       <c r="D549" s="1"/>
       <c r="E549" s="1"/>
@@ -19527,7 +19527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="550" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C550" s="1"/>
       <c r="D550" s="1"/>
       <c r="E550" s="1"/>
@@ -19537,7 +19537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="551" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C551" s="1"/>
       <c r="D551" s="1"/>
       <c r="E551" s="1"/>
@@ -19547,7 +19547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="552" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C552" s="1"/>
       <c r="D552" s="1"/>
       <c r="E552" s="1"/>
@@ -19557,7 +19557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="553" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C553" s="1"/>
       <c r="D553" s="1"/>
       <c r="E553" s="1"/>
@@ -19567,7 +19567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="554" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C554" s="1"/>
       <c r="D554" s="1"/>
       <c r="E554" s="1"/>
@@ -19577,7 +19577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="555" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C555" s="1"/>
       <c r="D555" s="1"/>
       <c r="E555" s="1"/>
@@ -19587,7 +19587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="556" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C556" s="1"/>
       <c r="D556" s="1"/>
       <c r="E556" s="1"/>
@@ -19597,7 +19597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="557" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C557" s="1"/>
       <c r="D557" s="1"/>
       <c r="E557" s="1"/>
@@ -19607,7 +19607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="558" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C558" s="1"/>
       <c r="D558" s="1"/>
       <c r="E558" s="1"/>
@@ -19617,7 +19617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="559" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C559" s="1"/>
       <c r="D559" s="1"/>
       <c r="E559" s="1"/>
@@ -19627,7 +19627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="560" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C560" s="1"/>
       <c r="D560" s="1"/>
       <c r="E560" s="1"/>
@@ -19637,7 +19637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="561" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C561" s="1"/>
       <c r="D561" s="1"/>
       <c r="E561" s="1"/>
@@ -19647,7 +19647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="562" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C562" s="1"/>
       <c r="D562" s="1"/>
       <c r="E562" s="1"/>
@@ -19657,7 +19657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="563" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C563" s="1"/>
       <c r="D563" s="1"/>
       <c r="E563" s="1"/>
@@ -19667,7 +19667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="564" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C564" s="1"/>
       <c r="D564" s="1"/>
       <c r="E564" s="1"/>
@@ -19677,7 +19677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="565" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C565" s="1"/>
       <c r="D565" s="1"/>
       <c r="E565" s="1"/>
@@ -19687,7 +19687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="566" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C566" s="1"/>
       <c r="D566" s="1"/>
       <c r="E566" s="1"/>
@@ -19697,7 +19697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="567" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C567" s="1"/>
       <c r="D567" s="1"/>
       <c r="E567" s="1"/>
@@ -19707,7 +19707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="568" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C568" s="1"/>
       <c r="D568" s="1"/>
       <c r="E568" s="1"/>
@@ -19717,7 +19717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="569" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C569" s="1"/>
       <c r="D569" s="1"/>
       <c r="E569" s="1"/>
@@ -19727,7 +19727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="570" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C570" s="1"/>
       <c r="D570" s="1"/>
       <c r="E570" s="1"/>
@@ -19737,7 +19737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="571" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C571" s="1"/>
       <c r="D571" s="1"/>
       <c r="E571" s="1"/>
@@ -19747,7 +19747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="572" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C572" s="1"/>
       <c r="D572" s="1"/>
       <c r="E572" s="1"/>
@@ -19757,7 +19757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="573" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C573" s="1"/>
       <c r="D573" s="1"/>
       <c r="E573" s="1"/>
@@ -19767,7 +19767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="574" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C574" s="1"/>
       <c r="D574" s="1"/>
       <c r="E574" s="1"/>
@@ -19777,7 +19777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="575" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C575" s="1"/>
       <c r="D575" s="1"/>
       <c r="E575" s="1"/>
@@ -19787,7 +19787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="576" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C576" s="1"/>
       <c r="D576" s="1"/>
       <c r="E576" s="1"/>
@@ -19797,7 +19797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="577" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C577" s="1"/>
       <c r="D577" s="1"/>
       <c r="E577" s="1"/>
@@ -19807,7 +19807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="578" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C578" s="1"/>
       <c r="D578" s="1"/>
       <c r="E578" s="1"/>
@@ -19817,7 +19817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="579" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C579" s="1"/>
       <c r="D579" s="1"/>
       <c r="E579" s="1"/>
@@ -19827,7 +19827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="580" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C580" s="1"/>
       <c r="D580" s="1"/>
       <c r="E580" s="1"/>
@@ -19837,7 +19837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="581" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C581" s="1"/>
       <c r="D581" s="1"/>
       <c r="E581" s="1"/>
@@ -19847,7 +19847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="582" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C582" s="1"/>
       <c r="D582" s="1"/>
       <c r="E582" s="1"/>
@@ -19857,7 +19857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="583" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C583" s="1"/>
       <c r="D583" s="1"/>
       <c r="E583" s="1"/>
@@ -19867,7 +19867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="584" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C584" s="1"/>
       <c r="D584" s="1"/>
       <c r="E584" s="1"/>
@@ -19877,7 +19877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="585" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C585" s="1"/>
       <c r="D585" s="1"/>
       <c r="E585" s="1"/>
@@ -19887,7 +19887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="586" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C586" s="1"/>
       <c r="D586" s="1"/>
       <c r="E586" s="1"/>
@@ -19897,7 +19897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="587" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C587" s="1"/>
       <c r="D587" s="1"/>
       <c r="E587" s="1"/>
@@ -19907,7 +19907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="588" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C588" s="1"/>
       <c r="D588" s="1"/>
       <c r="E588" s="1"/>
@@ -19917,7 +19917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="589" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C589" s="1"/>
       <c r="D589" s="1"/>
       <c r="E589" s="1"/>
@@ -19927,7 +19927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="590" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C590" s="1"/>
       <c r="D590" s="1"/>
       <c r="E590" s="1"/>
@@ -19937,7 +19937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="591" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C591" s="1"/>
       <c r="D591" s="1"/>
       <c r="E591" s="1"/>
@@ -19947,7 +19947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="592" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C592" s="1"/>
       <c r="D592" s="1"/>
       <c r="E592" s="1"/>
@@ -19957,7 +19957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="593" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C593" s="1"/>
       <c r="D593" s="1"/>
       <c r="E593" s="1"/>
@@ -19967,7 +19967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="594" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C594" s="1"/>
       <c r="D594" s="1"/>
       <c r="E594" s="1"/>
@@ -19977,7 +19977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="595" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C595" s="1"/>
       <c r="D595" s="1"/>
       <c r="E595" s="1"/>
@@ -19987,7 +19987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="596" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C596" s="1"/>
       <c r="D596" s="1"/>
       <c r="E596" s="1"/>
@@ -19997,7 +19997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="597" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C597" s="1"/>
       <c r="D597" s="1"/>
       <c r="E597" s="1"/>
@@ -20007,7 +20007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="598" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C598" s="1"/>
       <c r="D598" s="1"/>
       <c r="E598" s="1"/>
@@ -20017,7 +20017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="599" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C599" s="1"/>
       <c r="D599" s="1"/>
       <c r="E599" s="1"/>
@@ -20027,7 +20027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="600" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C600" s="1"/>
       <c r="D600" s="1"/>
       <c r="E600" s="1"/>
@@ -20037,7 +20037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="601" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C601" s="1"/>
       <c r="D601" s="1"/>
       <c r="E601" s="1"/>
@@ -20047,7 +20047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="602" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C602" s="1"/>
       <c r="D602" s="1"/>
       <c r="E602" s="1"/>
@@ -20057,7 +20057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="603" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C603" s="1"/>
       <c r="D603" s="1"/>
       <c r="E603" s="1"/>
@@ -20067,7 +20067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="604" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C604" s="1"/>
       <c r="D604" s="1"/>
       <c r="E604" s="1"/>
@@ -20077,7 +20077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="605" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C605" s="1"/>
       <c r="D605" s="1"/>
       <c r="E605" s="1"/>
@@ -20087,7 +20087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="606" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C606" s="1"/>
       <c r="D606" s="1"/>
       <c r="E606" s="1"/>
@@ -20097,7 +20097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="607" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C607" s="1"/>
       <c r="D607" s="1"/>
       <c r="E607" s="1"/>
@@ -20107,7 +20107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="608" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C608" s="1"/>
       <c r="D608" s="1"/>
       <c r="E608" s="1"/>
@@ -20117,7 +20117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="609" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C609" s="1"/>
       <c r="D609" s="1"/>
       <c r="E609" s="1"/>
@@ -20127,7 +20127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="610" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C610" s="1"/>
       <c r="D610" s="1"/>
       <c r="E610" s="1"/>
@@ -20137,7 +20137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="611" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C611" s="1"/>
       <c r="D611" s="1"/>
       <c r="E611" s="1"/>
@@ -20147,7 +20147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="612" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C612" s="1"/>
       <c r="D612" s="1"/>
       <c r="E612" s="1"/>
@@ -20157,7 +20157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="613" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C613" s="1"/>
       <c r="D613" s="1"/>
       <c r="E613" s="1"/>
@@ -20167,7 +20167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="614" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C614" s="1"/>
       <c r="D614" s="1"/>
       <c r="E614" s="1"/>
@@ -20177,7 +20177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="615" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C615" s="1"/>
       <c r="D615" s="1"/>
       <c r="E615" s="1"/>
@@ -20187,7 +20187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="616" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C616" s="1"/>
       <c r="D616" s="1"/>
       <c r="E616" s="1"/>
@@ -20197,7 +20197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="617" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C617" s="1"/>
       <c r="D617" s="1"/>
       <c r="E617" s="1"/>
@@ -20207,7 +20207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="618" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C618" s="1"/>
       <c r="D618" s="1"/>
       <c r="E618" s="1"/>
@@ -20217,7 +20217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="619" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C619" s="1"/>
       <c r="D619" s="1"/>
       <c r="E619" s="1"/>
@@ -20227,7 +20227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="620" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C620" s="1"/>
       <c r="D620" s="1"/>
       <c r="E620" s="1"/>
@@ -20237,7 +20237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="621" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C621" s="1"/>
       <c r="D621" s="1"/>
       <c r="E621" s="1"/>
@@ -20247,7 +20247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="622" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C622" s="1"/>
       <c r="D622" s="1"/>
       <c r="E622" s="1"/>
@@ -20257,7 +20257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="623" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C623" s="1"/>
       <c r="D623" s="1"/>
       <c r="E623" s="1"/>
@@ -20267,7 +20267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="624" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C624" s="1"/>
       <c r="D624" s="1"/>
       <c r="E624" s="1"/>
@@ -20277,7 +20277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="625" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C625" s="1"/>
       <c r="D625" s="1"/>
       <c r="E625" s="1"/>
@@ -20287,7 +20287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="626" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C626" s="1"/>
       <c r="D626" s="1"/>
       <c r="E626" s="1"/>
@@ -20297,7 +20297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="627" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C627" s="1"/>
       <c r="D627" s="1"/>
       <c r="E627" s="1"/>
@@ -20307,7 +20307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="628" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C628" s="1"/>
       <c r="D628" s="1"/>
       <c r="E628" s="1"/>
@@ -20317,7 +20317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="629" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C629" s="1"/>
       <c r="D629" s="1"/>
       <c r="E629" s="1"/>
@@ -20327,7 +20327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="630" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C630" s="1"/>
       <c r="D630" s="1"/>
       <c r="E630" s="1"/>
@@ -20337,7 +20337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="631" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C631" s="1"/>
       <c r="D631" s="1"/>
       <c r="E631" s="1"/>
@@ -20347,7 +20347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="632" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C632" s="1"/>
       <c r="D632" s="1"/>
       <c r="E632" s="1"/>
@@ -20357,7 +20357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="633" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C633" s="1"/>
       <c r="D633" s="1"/>
       <c r="E633" s="1"/>
@@ -20367,7 +20367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="634" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C634" s="1"/>
       <c r="D634" s="1"/>
       <c r="E634" s="1"/>
@@ -20377,7 +20377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="635" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C635" s="1"/>
       <c r="D635" s="1"/>
       <c r="E635" s="1"/>
@@ -20387,7 +20387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="636" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C636" s="1"/>
       <c r="D636" s="1"/>
       <c r="E636" s="1"/>
@@ -20397,7 +20397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="637" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C637" s="1"/>
       <c r="D637" s="1"/>
       <c r="E637" s="1"/>
@@ -20407,7 +20407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="638" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C638" s="1"/>
       <c r="D638" s="1"/>
       <c r="E638" s="1"/>
@@ -20417,7 +20417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="639" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C639" s="1"/>
       <c r="D639" s="1"/>
       <c r="E639" s="1"/>
@@ -20427,7 +20427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="640" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C640" s="1"/>
       <c r="D640" s="1"/>
       <c r="E640" s="1"/>
@@ -20437,7 +20437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="641" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C641" s="1"/>
       <c r="D641" s="1"/>
       <c r="E641" s="1"/>
@@ -20447,7 +20447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="642" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C642" s="1"/>
       <c r="D642" s="1"/>
       <c r="E642" s="1"/>
@@ -20457,7 +20457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="643" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C643" s="1"/>
       <c r="D643" s="1"/>
       <c r="E643" s="1"/>
@@ -20467,7 +20467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="644" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C644" s="1"/>
       <c r="D644" s="1"/>
       <c r="E644" s="1"/>
@@ -20477,7 +20477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="645" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C645" s="1"/>
       <c r="D645" s="1"/>
       <c r="E645" s="1"/>
@@ -20487,7 +20487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="646" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C646" s="1"/>
       <c r="D646" s="1"/>
       <c r="E646" s="1"/>
@@ -20497,7 +20497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="647" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C647" s="1"/>
       <c r="D647" s="1"/>
       <c r="E647" s="1"/>
@@ -20507,7 +20507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="648" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C648" s="1"/>
       <c r="D648" s="1"/>
       <c r="E648" s="1"/>
@@ -20517,7 +20517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="649" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C649" s="1"/>
       <c r="D649" s="1"/>
       <c r="E649" s="1"/>
@@ -20527,7 +20527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="650" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C650" s="1"/>
       <c r="D650" s="1"/>
       <c r="E650" s="1"/>
@@ -20537,7 +20537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="651" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C651" s="1"/>
       <c r="D651" s="1"/>
       <c r="E651" s="1"/>
@@ -20547,7 +20547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="652" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C652" s="1"/>
       <c r="D652" s="1"/>
       <c r="E652" s="1"/>
@@ -20557,7 +20557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="653" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C653" s="1"/>
       <c r="D653" s="1"/>
       <c r="E653" s="1"/>
@@ -20567,7 +20567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="654" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C654" s="1"/>
       <c r="D654" s="1"/>
       <c r="E654" s="1"/>
@@ -20577,7 +20577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="655" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C655" s="1"/>
       <c r="D655" s="1"/>
       <c r="E655" s="1"/>
@@ -20587,7 +20587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="656" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C656" s="1"/>
       <c r="D656" s="1"/>
       <c r="E656" s="1"/>
@@ -20597,7 +20597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="657" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C657" s="1"/>
       <c r="D657" s="1"/>
       <c r="E657" s="1"/>
@@ -20607,7 +20607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="658" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C658" s="1"/>
       <c r="D658" s="1"/>
       <c r="E658" s="1"/>
@@ -20617,7 +20617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="659" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C659" s="1"/>
       <c r="D659" s="1"/>
       <c r="E659" s="1"/>
@@ -20627,7 +20627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="660" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C660" s="1"/>
       <c r="D660" s="1"/>
       <c r="E660" s="1"/>
@@ -20637,7 +20637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="661" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C661" s="1"/>
       <c r="D661" s="1"/>
       <c r="E661" s="1"/>
@@ -20647,7 +20647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="662" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C662" s="1"/>
       <c r="D662" s="1"/>
       <c r="E662" s="1"/>
@@ -20657,7 +20657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="663" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C663" s="1"/>
       <c r="D663" s="1"/>
       <c r="E663" s="1"/>
@@ -20667,7 +20667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="664" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C664" s="1"/>
       <c r="D664" s="1"/>
       <c r="E664" s="1"/>
@@ -20677,7 +20677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="665" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C665" s="1"/>
       <c r="D665" s="1"/>
       <c r="E665" s="1"/>
@@ -20687,7 +20687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="666" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C666" s="1"/>
       <c r="D666" s="1"/>
       <c r="E666" s="1"/>
@@ -20697,7 +20697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="667" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C667" s="1"/>
       <c r="D667" s="1"/>
       <c r="E667" s="1"/>
@@ -20707,7 +20707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="668" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C668" s="1"/>
       <c r="D668" s="1"/>
       <c r="E668" s="1"/>
@@ -20717,7 +20717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="669" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C669" s="1"/>
       <c r="D669" s="1"/>
       <c r="E669" s="1"/>
@@ -20727,7 +20727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="670" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C670" s="1"/>
       <c r="D670" s="1"/>
       <c r="E670" s="1"/>
@@ -20752,9 +20752,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" s="36" t="s">
         <v>62</v>
       </c>
@@ -20766,7 +20766,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -20776,7 +20776,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
@@ -20786,7 +20786,7 @@
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
@@ -20796,7 +20796,7 @@
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>

--- a/タスク表.xlsx
+++ b/タスク表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k018a1560\Desktop\GameEX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K015A1881\Documents\EXTREMEProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1430,7 +1430,7 @@
   <dimension ref="C1:DH102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="F5" s="13">
         <f ca="1">IFERROR(ABS(TODAY()-$E5),"")</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>6</v>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F69" ca="1" si="0">IFERROR(ABS(TODAY()-$E6),"")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>8</v>
@@ -2378,7 +2378,7 @@
       </c>
       <c r="F7" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>6</v>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F8" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>6</v>
@@ -2632,10 +2632,10 @@
       </c>
       <c r="F9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H9" s="31" t="s">
         <v>54</v>
@@ -2759,7 +2759,7 @@
       </c>
       <c r="F10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>7</v>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="F11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>7</v>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="F12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>7</v>
@@ -3140,7 +3140,7 @@
       </c>
       <c r="F13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>6</v>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="F14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>8</v>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="F15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>8</v>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="F16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>8</v>
@@ -3648,7 +3648,7 @@
       </c>
       <c r="F17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>7</v>
@@ -3775,7 +3775,7 @@
       </c>
       <c r="F18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>7</v>
@@ -3902,7 +3902,7 @@
       </c>
       <c r="F19" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>7</v>
@@ -13896,7 +13896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AD670"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" workbookViewId="0">
+    <sheetView topLeftCell="C3" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>

--- a/タスク表.xlsx
+++ b/タスク表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K015A1881\Documents\EXTREMEProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkrs3\Documents\EXTREMEProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -738,7 +738,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -762,6 +762,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
+      <family val="1"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="11">
@@ -948,7 +955,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1061,6 +1068,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1427,34 +1437,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:DH102"/>
+  <dimension ref="A1:DH102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.4140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="18" width="7.796875" customWidth="1"/>
-    <col min="19" max="27" width="6.796875" customWidth="1"/>
-    <col min="28" max="49" width="7.796875" customWidth="1"/>
-    <col min="50" max="58" width="6.796875" customWidth="1"/>
-    <col min="59" max="80" width="7.796875" customWidth="1"/>
-    <col min="81" max="89" width="6.796875" customWidth="1"/>
-    <col min="90" max="112" width="7.796875" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="18" width="7.83203125" customWidth="1"/>
+    <col min="19" max="27" width="6.83203125" customWidth="1"/>
+    <col min="28" max="49" width="7.83203125" customWidth="1"/>
+    <col min="50" max="58" width="6.83203125" customWidth="1"/>
+    <col min="59" max="80" width="7.83203125" customWidth="1"/>
+    <col min="81" max="89" width="6.83203125" customWidth="1"/>
+    <col min="90" max="112" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="37"/>
       <c r="P2" s="14" t="s">
         <v>19</v>
       </c>
@@ -1465,7 +1476,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="H3" s="11"/>
       <c r="I3" s="10" t="s">
         <v>11</v>
@@ -1780,7 +1791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="20" t="s">
         <v>3</v>
       </c>
@@ -2112,7 +2123,7 @@
         <v>43740</v>
       </c>
     </row>
-    <row r="5" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="1" t="s">
         <v>47</v>
       </c>
@@ -2126,7 +2137,7 @@
       </c>
       <c r="F5" s="13">
         <f ca="1">IFERROR(ABS(TODAY()-$E5),"")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>6</v>
@@ -2237,7 +2248,7 @@
       <c r="DG5" s="5"/>
       <c r="DH5" s="5"/>
     </row>
-    <row r="6" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
@@ -2251,10 +2262,10 @@
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F69" ca="1" si="0">IFERROR(ABS(TODAY()-$E6),"")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H6" s="30" t="s">
         <v>23</v>
@@ -2364,7 +2375,7 @@
       <c r="DG6" s="5"/>
       <c r="DH6" s="5"/>
     </row>
-    <row r="7" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="1" t="s">
         <v>48</v>
       </c>
@@ -2378,7 +2389,7 @@
       </c>
       <c r="F7" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>6</v>
@@ -2491,7 +2502,7 @@
       <c r="DG7" s="5"/>
       <c r="DH7" s="5"/>
     </row>
-    <row r="8" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
@@ -2505,7 +2516,7 @@
       </c>
       <c r="F8" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>6</v>
@@ -2618,7 +2629,7 @@
       <c r="DG8" s="5"/>
       <c r="DH8" s="5"/>
     </row>
-    <row r="9" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="1" t="s">
         <v>53</v>
       </c>
@@ -2632,7 +2643,7 @@
       </c>
       <c r="F9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>6</v>
@@ -2745,7 +2756,7 @@
       <c r="DG9" s="5"/>
       <c r="DH9" s="5"/>
     </row>
-    <row r="10" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
@@ -2759,7 +2770,7 @@
       </c>
       <c r="F10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>7</v>
@@ -2872,7 +2883,7 @@
       <c r="DG10" s="5"/>
       <c r="DH10" s="5"/>
     </row>
-    <row r="11" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="1" t="s">
         <v>57</v>
       </c>
@@ -2886,7 +2897,7 @@
       </c>
       <c r="F11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>7</v>
@@ -2999,7 +3010,7 @@
       <c r="DG11" s="5"/>
       <c r="DH11" s="5"/>
     </row>
-    <row r="12" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="1" t="s">
         <v>58</v>
       </c>
@@ -3013,7 +3024,7 @@
       </c>
       <c r="F12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>7</v>
@@ -3126,7 +3137,7 @@
       <c r="DG12" s="5"/>
       <c r="DH12" s="5"/>
     </row>
-    <row r="13" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="1" t="s">
         <v>42</v>
       </c>
@@ -3140,7 +3151,7 @@
       </c>
       <c r="F13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>6</v>
@@ -3253,7 +3264,7 @@
       <c r="DG13" s="5"/>
       <c r="DH13" s="5"/>
     </row>
-    <row r="14" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="1" t="s">
         <v>37</v>
       </c>
@@ -3267,7 +3278,7 @@
       </c>
       <c r="F14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>8</v>
@@ -3380,7 +3391,7 @@
       <c r="DG14" s="5"/>
       <c r="DH14" s="5"/>
     </row>
-    <row r="15" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
@@ -3394,7 +3405,7 @@
       </c>
       <c r="F15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>8</v>
@@ -3507,7 +3518,7 @@
       <c r="DG15" s="5"/>
       <c r="DH15" s="5"/>
     </row>
-    <row r="16" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="1" t="s">
         <v>43</v>
       </c>
@@ -3521,7 +3532,7 @@
       </c>
       <c r="F16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>8</v>
@@ -3634,7 +3645,7 @@
       <c r="DG16" s="5"/>
       <c r="DH16" s="5"/>
     </row>
-    <row r="17" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="1" t="s">
         <v>35</v>
       </c>
@@ -3648,7 +3659,7 @@
       </c>
       <c r="F17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>7</v>
@@ -3761,7 +3772,7 @@
       <c r="DG17" s="5"/>
       <c r="DH17" s="5"/>
     </row>
-    <row r="18" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="1" t="s">
         <v>50</v>
       </c>
@@ -3775,7 +3786,7 @@
       </c>
       <c r="F18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>7</v>
@@ -3888,7 +3899,7 @@
       <c r="DG18" s="5"/>
       <c r="DH18" s="5"/>
     </row>
-    <row r="19" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="1" t="s">
         <v>51</v>
       </c>
@@ -3902,7 +3913,7 @@
       </c>
       <c r="F19" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>7</v>
@@ -4015,7 +4026,7 @@
       <c r="DG19" s="5"/>
       <c r="DH19" s="5"/>
     </row>
-    <row r="20" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="1"/>
       <c r="D20" s="6" t="str">
         <f>IFERROR(VLOOKUP(C20,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4136,7 +4147,7 @@
       <c r="DG20" s="5"/>
       <c r="DH20" s="5"/>
     </row>
-    <row r="21" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="1"/>
       <c r="D21" s="6" t="str">
         <f>IFERROR(VLOOKUP(C21,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4257,7 +4268,7 @@
       <c r="DG21" s="5"/>
       <c r="DH21" s="5"/>
     </row>
-    <row r="22" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="1"/>
       <c r="D22" s="6" t="str">
         <f>IFERROR(VLOOKUP(C22,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4378,7 +4389,7 @@
       <c r="DG22" s="5"/>
       <c r="DH22" s="5"/>
     </row>
-    <row r="23" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="1"/>
       <c r="D23" s="6" t="str">
         <f>IFERROR(VLOOKUP(C23,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4499,7 +4510,7 @@
       <c r="DG23" s="5"/>
       <c r="DH23" s="5"/>
     </row>
-    <row r="24" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" s="1"/>
       <c r="D24" s="6" t="str">
         <f>IFERROR(VLOOKUP(C24,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4620,7 +4631,7 @@
       <c r="DG24" s="5"/>
       <c r="DH24" s="5"/>
     </row>
-    <row r="25" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" s="1"/>
       <c r="D25" s="6" t="str">
         <f>IFERROR(VLOOKUP(C25,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4741,7 +4752,7 @@
       <c r="DG25" s="5"/>
       <c r="DH25" s="5"/>
     </row>
-    <row r="26" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" s="1"/>
       <c r="D26" s="6" t="str">
         <f>IFERROR(VLOOKUP(C26,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4862,7 +4873,7 @@
       <c r="DG26" s="5"/>
       <c r="DH26" s="5"/>
     </row>
-    <row r="27" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" s="1"/>
       <c r="D27" s="6" t="str">
         <f>IFERROR(VLOOKUP(C27,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4983,7 +4994,7 @@
       <c r="DG27" s="5"/>
       <c r="DH27" s="5"/>
     </row>
-    <row r="28" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="1"/>
       <c r="D28" s="6" t="str">
         <f>IFERROR(VLOOKUP(C28,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5104,7 +5115,7 @@
       <c r="DG28" s="5"/>
       <c r="DH28" s="5"/>
     </row>
-    <row r="29" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="1"/>
       <c r="D29" s="6" t="str">
         <f>IFERROR(VLOOKUP(C29,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5225,7 +5236,7 @@
       <c r="DG29" s="5"/>
       <c r="DH29" s="5"/>
     </row>
-    <row r="30" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="1"/>
       <c r="D30" s="6" t="str">
         <f>IFERROR(VLOOKUP(C30,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5346,7 +5357,7 @@
       <c r="DG30" s="5"/>
       <c r="DH30" s="5"/>
     </row>
-    <row r="31" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="1"/>
       <c r="D31" s="6" t="str">
         <f>IFERROR(VLOOKUP(C31,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5467,7 +5478,7 @@
       <c r="DG31" s="5"/>
       <c r="DH31" s="5"/>
     </row>
-    <row r="32" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" s="1"/>
       <c r="D32" s="6" t="str">
         <f>IFERROR(VLOOKUP(C32,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5588,7 +5599,7 @@
       <c r="DG32" s="5"/>
       <c r="DH32" s="5"/>
     </row>
-    <row r="33" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" s="1"/>
       <c r="D33" s="6" t="str">
         <f>IFERROR(VLOOKUP(C33,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5709,7 +5720,7 @@
       <c r="DG33" s="5"/>
       <c r="DH33" s="5"/>
     </row>
-    <row r="34" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C34" s="1"/>
       <c r="D34" s="6" t="str">
         <f>IFERROR(VLOOKUP(C34,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5830,7 +5841,7 @@
       <c r="DG34" s="5"/>
       <c r="DH34" s="5"/>
     </row>
-    <row r="35" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" s="1"/>
       <c r="D35" s="6" t="str">
         <f>IFERROR(VLOOKUP(C35,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5951,7 +5962,7 @@
       <c r="DG35" s="5"/>
       <c r="DH35" s="5"/>
     </row>
-    <row r="36" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C36" s="1"/>
       <c r="D36" s="6" t="str">
         <f>IFERROR(VLOOKUP(C36,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6072,7 +6083,7 @@
       <c r="DG36" s="5"/>
       <c r="DH36" s="5"/>
     </row>
-    <row r="37" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C37" s="1"/>
       <c r="D37" s="6" t="str">
         <f>IFERROR(VLOOKUP(C37,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6193,7 +6204,7 @@
       <c r="DG37" s="5"/>
       <c r="DH37" s="5"/>
     </row>
-    <row r="38" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C38" s="1"/>
       <c r="D38" s="6" t="str">
         <f>IFERROR(VLOOKUP(C38,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6314,7 +6325,7 @@
       <c r="DG38" s="5"/>
       <c r="DH38" s="5"/>
     </row>
-    <row r="39" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C39" s="1"/>
       <c r="D39" s="6" t="str">
         <f>IFERROR(VLOOKUP(C39,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6435,7 +6446,7 @@
       <c r="DG39" s="5"/>
       <c r="DH39" s="5"/>
     </row>
-    <row r="40" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C40" s="1"/>
       <c r="D40" s="6" t="str">
         <f>IFERROR(VLOOKUP(C40,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6556,7 +6567,7 @@
       <c r="DG40" s="5"/>
       <c r="DH40" s="5"/>
     </row>
-    <row r="41" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C41" s="1"/>
       <c r="D41" s="6" t="str">
         <f>IFERROR(VLOOKUP(C41,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6677,7 +6688,7 @@
       <c r="DG41" s="5"/>
       <c r="DH41" s="5"/>
     </row>
-    <row r="42" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="42" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C42" s="1"/>
       <c r="D42" s="6" t="str">
         <f>IFERROR(VLOOKUP(C42,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6798,7 +6809,7 @@
       <c r="DG42" s="5"/>
       <c r="DH42" s="5"/>
     </row>
-    <row r="43" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="43" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C43" s="1"/>
       <c r="D43" s="6" t="str">
         <f>IFERROR(VLOOKUP(C43,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6919,7 +6930,7 @@
       <c r="DG43" s="5"/>
       <c r="DH43" s="5"/>
     </row>
-    <row r="44" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C44" s="1"/>
       <c r="D44" s="6" t="str">
         <f>IFERROR(VLOOKUP(C44,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7040,7 +7051,7 @@
       <c r="DG44" s="5"/>
       <c r="DH44" s="5"/>
     </row>
-    <row r="45" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="45" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C45" s="1"/>
       <c r="D45" s="6" t="str">
         <f>IFERROR(VLOOKUP(C45,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7161,7 +7172,7 @@
       <c r="DG45" s="5"/>
       <c r="DH45" s="5"/>
     </row>
-    <row r="46" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C46" s="1"/>
       <c r="D46" s="6" t="str">
         <f>IFERROR(VLOOKUP(C46,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7282,7 +7293,7 @@
       <c r="DG46" s="5"/>
       <c r="DH46" s="5"/>
     </row>
-    <row r="47" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="47" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C47" s="1"/>
       <c r="D47" s="6" t="str">
         <f>IFERROR(VLOOKUP(C47,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7403,7 +7414,7 @@
       <c r="DG47" s="5"/>
       <c r="DH47" s="5"/>
     </row>
-    <row r="48" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C48" s="1"/>
       <c r="D48" s="6" t="str">
         <f>IFERROR(VLOOKUP(C48,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7524,7 +7535,7 @@
       <c r="DG48" s="5"/>
       <c r="DH48" s="5"/>
     </row>
-    <row r="49" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C49" s="1"/>
       <c r="D49" s="6" t="str">
         <f>IFERROR(VLOOKUP(C49,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7645,7 +7656,7 @@
       <c r="DG49" s="5"/>
       <c r="DH49" s="5"/>
     </row>
-    <row r="50" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C50" s="1"/>
       <c r="D50" s="6" t="str">
         <f>IFERROR(VLOOKUP(C50,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7766,7 +7777,7 @@
       <c r="DG50" s="5"/>
       <c r="DH50" s="5"/>
     </row>
-    <row r="51" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C51" s="1"/>
       <c r="D51" s="6" t="str">
         <f>IFERROR(VLOOKUP(C51,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7887,7 +7898,7 @@
       <c r="DG51" s="5"/>
       <c r="DH51" s="5"/>
     </row>
-    <row r="52" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="52" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C52" s="1"/>
       <c r="D52" s="6" t="str">
         <f>IFERROR(VLOOKUP(C52,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8008,7 +8019,7 @@
       <c r="DG52" s="5"/>
       <c r="DH52" s="5"/>
     </row>
-    <row r="53" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="53" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C53" s="1"/>
       <c r="D53" s="6" t="str">
         <f>IFERROR(VLOOKUP(C53,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8129,7 +8140,7 @@
       <c r="DG53" s="5"/>
       <c r="DH53" s="5"/>
     </row>
-    <row r="54" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="54" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C54" s="1"/>
       <c r="D54" s="6" t="str">
         <f>IFERROR(VLOOKUP(C54,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8250,7 +8261,7 @@
       <c r="DG54" s="5"/>
       <c r="DH54" s="5"/>
     </row>
-    <row r="55" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="55" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C55" s="1"/>
       <c r="D55" s="6" t="str">
         <f>IFERROR(VLOOKUP(C55,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8371,7 +8382,7 @@
       <c r="DG55" s="5"/>
       <c r="DH55" s="5"/>
     </row>
-    <row r="56" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="56" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C56" s="1"/>
       <c r="D56" s="6" t="str">
         <f>IFERROR(VLOOKUP(C56,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8492,7 +8503,7 @@
       <c r="DG56" s="5"/>
       <c r="DH56" s="5"/>
     </row>
-    <row r="57" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="57" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C57" s="1"/>
       <c r="D57" s="6" t="str">
         <f>IFERROR(VLOOKUP(C57,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8613,7 +8624,7 @@
       <c r="DG57" s="5"/>
       <c r="DH57" s="5"/>
     </row>
-    <row r="58" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="58" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C58" s="1"/>
       <c r="D58" s="6" t="str">
         <f>IFERROR(VLOOKUP(C58,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8734,7 +8745,7 @@
       <c r="DG58" s="5"/>
       <c r="DH58" s="5"/>
     </row>
-    <row r="59" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="59" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C59" s="1"/>
       <c r="D59" s="6" t="str">
         <f>IFERROR(VLOOKUP(C59,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8855,7 +8866,7 @@
       <c r="DG59" s="5"/>
       <c r="DH59" s="5"/>
     </row>
-    <row r="60" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="60" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C60" s="1"/>
       <c r="D60" s="6" t="str">
         <f>IFERROR(VLOOKUP(C60,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8976,7 +8987,7 @@
       <c r="DG60" s="5"/>
       <c r="DH60" s="5"/>
     </row>
-    <row r="61" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="61" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C61" s="1"/>
       <c r="D61" s="6" t="str">
         <f>IFERROR(VLOOKUP(C61,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9097,7 +9108,7 @@
       <c r="DG61" s="5"/>
       <c r="DH61" s="5"/>
     </row>
-    <row r="62" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="62" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C62" s="1"/>
       <c r="D62" s="6" t="str">
         <f>IFERROR(VLOOKUP(C62,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9218,7 +9229,7 @@
       <c r="DG62" s="5"/>
       <c r="DH62" s="5"/>
     </row>
-    <row r="63" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="63" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C63" s="1"/>
       <c r="D63" s="6" t="str">
         <f>IFERROR(VLOOKUP(C63,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9339,7 +9350,7 @@
       <c r="DG63" s="5"/>
       <c r="DH63" s="5"/>
     </row>
-    <row r="64" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="64" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C64" s="1"/>
       <c r="D64" s="6" t="str">
         <f>IFERROR(VLOOKUP(C64,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9460,7 +9471,7 @@
       <c r="DG64" s="5"/>
       <c r="DH64" s="5"/>
     </row>
-    <row r="65" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="65" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C65" s="1"/>
       <c r="D65" s="6" t="str">
         <f>IFERROR(VLOOKUP(C65,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9581,7 +9592,7 @@
       <c r="DG65" s="5"/>
       <c r="DH65" s="5"/>
     </row>
-    <row r="66" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="66" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C66" s="1"/>
       <c r="D66" s="6" t="str">
         <f>IFERROR(VLOOKUP(C66,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9702,7 +9713,7 @@
       <c r="DG66" s="5"/>
       <c r="DH66" s="5"/>
     </row>
-    <row r="67" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="67" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C67" s="1"/>
       <c r="D67" s="6" t="str">
         <f>IFERROR(VLOOKUP(C67,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9823,7 +9834,7 @@
       <c r="DG67" s="5"/>
       <c r="DH67" s="5"/>
     </row>
-    <row r="68" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="68" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C68" s="1"/>
       <c r="D68" s="6" t="str">
         <f>IFERROR(VLOOKUP(C68,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9944,7 +9955,7 @@
       <c r="DG68" s="5"/>
       <c r="DH68" s="5"/>
     </row>
-    <row r="69" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="69" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C69" s="1"/>
       <c r="D69" s="6" t="str">
         <f>IFERROR(VLOOKUP(C69,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10065,7 +10076,7 @@
       <c r="DG69" s="5"/>
       <c r="DH69" s="5"/>
     </row>
-    <row r="70" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="70" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C70" s="1"/>
       <c r="D70" s="6" t="str">
         <f>IFERROR(VLOOKUP(C70,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10186,7 +10197,7 @@
       <c r="DG70" s="5"/>
       <c r="DH70" s="5"/>
     </row>
-    <row r="71" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="71" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C71" s="1"/>
       <c r="D71" s="6" t="str">
         <f>IFERROR(VLOOKUP(C71,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10307,7 +10318,7 @@
       <c r="DG71" s="5"/>
       <c r="DH71" s="5"/>
     </row>
-    <row r="72" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="72" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C72" s="1"/>
       <c r="D72" s="6" t="str">
         <f>IFERROR(VLOOKUP(C72,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10428,7 +10439,7 @@
       <c r="DG72" s="5"/>
       <c r="DH72" s="5"/>
     </row>
-    <row r="73" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="73" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C73" s="1"/>
       <c r="D73" s="6" t="str">
         <f>IFERROR(VLOOKUP(C73,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10549,7 +10560,7 @@
       <c r="DG73" s="5"/>
       <c r="DH73" s="5"/>
     </row>
-    <row r="74" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="74" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C74" s="1"/>
       <c r="D74" s="6" t="str">
         <f>IFERROR(VLOOKUP(C74,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10670,7 +10681,7 @@
       <c r="DG74" s="5"/>
       <c r="DH74" s="5"/>
     </row>
-    <row r="75" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="75" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C75" s="1"/>
       <c r="D75" s="6" t="str">
         <f>IFERROR(VLOOKUP(C75,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10791,7 +10802,7 @@
       <c r="DG75" s="5"/>
       <c r="DH75" s="5"/>
     </row>
-    <row r="76" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="76" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C76" s="1"/>
       <c r="D76" s="6" t="str">
         <f>IFERROR(VLOOKUP(C76,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10912,7 +10923,7 @@
       <c r="DG76" s="5"/>
       <c r="DH76" s="5"/>
     </row>
-    <row r="77" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="77" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C77" s="1"/>
       <c r="D77" s="6" t="str">
         <f>IFERROR(VLOOKUP(C77,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11033,7 +11044,7 @@
       <c r="DG77" s="5"/>
       <c r="DH77" s="5"/>
     </row>
-    <row r="78" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="78" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C78" s="1"/>
       <c r="D78" s="6" t="str">
         <f>IFERROR(VLOOKUP(C78,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11154,7 +11165,7 @@
       <c r="DG78" s="5"/>
       <c r="DH78" s="5"/>
     </row>
-    <row r="79" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="79" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C79" s="1"/>
       <c r="D79" s="6" t="str">
         <f>IFERROR(VLOOKUP(C79,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11275,7 +11286,7 @@
       <c r="DG79" s="5"/>
       <c r="DH79" s="5"/>
     </row>
-    <row r="80" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="80" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C80" s="1"/>
       <c r="D80" s="6" t="str">
         <f>IFERROR(VLOOKUP(C80,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11396,7 +11407,7 @@
       <c r="DG80" s="5"/>
       <c r="DH80" s="5"/>
     </row>
-    <row r="81" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="81" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C81" s="1"/>
       <c r="D81" s="6" t="str">
         <f>IFERROR(VLOOKUP(C81,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11517,7 +11528,7 @@
       <c r="DG81" s="5"/>
       <c r="DH81" s="5"/>
     </row>
-    <row r="82" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="82" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C82" s="1"/>
       <c r="D82" s="6" t="str">
         <f>IFERROR(VLOOKUP(C82,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11638,7 +11649,7 @@
       <c r="DG82" s="5"/>
       <c r="DH82" s="5"/>
     </row>
-    <row r="83" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="83" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C83" s="1"/>
       <c r="D83" s="6" t="str">
         <f>IFERROR(VLOOKUP(C83,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11759,7 +11770,7 @@
       <c r="DG83" s="5"/>
       <c r="DH83" s="5"/>
     </row>
-    <row r="84" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="84" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C84" s="1"/>
       <c r="D84" s="6" t="str">
         <f>IFERROR(VLOOKUP(C84,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11880,7 +11891,7 @@
       <c r="DG84" s="5"/>
       <c r="DH84" s="5"/>
     </row>
-    <row r="85" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="85" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C85" s="1"/>
       <c r="D85" s="6" t="str">
         <f>IFERROR(VLOOKUP(C85,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12001,7 +12012,7 @@
       <c r="DG85" s="5"/>
       <c r="DH85" s="5"/>
     </row>
-    <row r="86" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="86" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C86" s="1"/>
       <c r="D86" s="6" t="str">
         <f>IFERROR(VLOOKUP(C86,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12122,7 +12133,7 @@
       <c r="DG86" s="5"/>
       <c r="DH86" s="5"/>
     </row>
-    <row r="87" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="87" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C87" s="1"/>
       <c r="D87" s="6" t="str">
         <f>IFERROR(VLOOKUP(C87,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12243,7 +12254,7 @@
       <c r="DG87" s="5"/>
       <c r="DH87" s="5"/>
     </row>
-    <row r="88" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="88" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C88" s="1"/>
       <c r="D88" s="6" t="str">
         <f>IFERROR(VLOOKUP(C88,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12364,7 +12375,7 @@
       <c r="DG88" s="5"/>
       <c r="DH88" s="5"/>
     </row>
-    <row r="89" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="89" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C89" s="1"/>
       <c r="D89" s="6" t="str">
         <f>IFERROR(VLOOKUP(C89,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12485,7 +12496,7 @@
       <c r="DG89" s="5"/>
       <c r="DH89" s="5"/>
     </row>
-    <row r="90" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="90" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C90" s="1"/>
       <c r="D90" s="6" t="str">
         <f>IFERROR(VLOOKUP(C90,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12606,7 +12617,7 @@
       <c r="DG90" s="5"/>
       <c r="DH90" s="5"/>
     </row>
-    <row r="91" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="91" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C91" s="1"/>
       <c r="D91" s="6" t="str">
         <f>IFERROR(VLOOKUP(C91,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12727,7 +12738,7 @@
       <c r="DG91" s="5"/>
       <c r="DH91" s="5"/>
     </row>
-    <row r="92" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="92" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C92" s="1"/>
       <c r="D92" s="6" t="str">
         <f>IFERROR(VLOOKUP(C92,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12848,7 +12859,7 @@
       <c r="DG92" s="5"/>
       <c r="DH92" s="5"/>
     </row>
-    <row r="93" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="93" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C93" s="1"/>
       <c r="D93" s="6" t="str">
         <f>IFERROR(VLOOKUP(C93,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12969,7 +12980,7 @@
       <c r="DG93" s="5"/>
       <c r="DH93" s="5"/>
     </row>
-    <row r="94" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="94" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C94" s="1"/>
       <c r="D94" s="6" t="str">
         <f>IFERROR(VLOOKUP(C94,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13090,7 +13101,7 @@
       <c r="DG94" s="5"/>
       <c r="DH94" s="5"/>
     </row>
-    <row r="95" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="95" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C95" s="1"/>
       <c r="D95" s="6" t="str">
         <f>IFERROR(VLOOKUP(C95,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13211,7 +13222,7 @@
       <c r="DG95" s="5"/>
       <c r="DH95" s="5"/>
     </row>
-    <row r="96" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="96" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C96" s="1"/>
       <c r="D96" s="6" t="str">
         <f>IFERROR(VLOOKUP(C96,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13332,7 +13343,7 @@
       <c r="DG96" s="5"/>
       <c r="DH96" s="5"/>
     </row>
-    <row r="97" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="97" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C97" s="1"/>
       <c r="D97" s="6" t="str">
         <f>IFERROR(VLOOKUP(C97,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13453,7 +13464,7 @@
       <c r="DG97" s="5"/>
       <c r="DH97" s="5"/>
     </row>
-    <row r="98" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="98" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C98" s="1"/>
       <c r="D98" s="6" t="str">
         <f>IFERROR(VLOOKUP(C98,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13574,7 +13585,7 @@
       <c r="DG98" s="5"/>
       <c r="DH98" s="5"/>
     </row>
-    <row r="99" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="99" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C99" s="1"/>
       <c r="D99" s="6" t="str">
         <f>IFERROR(VLOOKUP(C99,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13695,7 +13706,7 @@
       <c r="DG99" s="5"/>
       <c r="DH99" s="5"/>
     </row>
-    <row r="100" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="100" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C100" s="1"/>
       <c r="D100" s="6" t="str">
         <f>IFERROR(VLOOKUP(C100,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13816,7 +13827,7 @@
       <c r="DG100" s="5"/>
       <c r="DH100" s="5"/>
     </row>
-    <row r="102" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="102" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="E102" s="9"/>
     </row>
   </sheetData>
@@ -13900,22 +13911,22 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="101.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="101.9140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="18" t="s">
         <v>0</v>
       </c>
@@ -13935,7 +13946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="1" t="s">
         <v>47</v>
       </c>
@@ -13956,7 +13967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:30" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C6" s="27" t="s">
         <v>24</v>
       </c>
@@ -13975,7 +13986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="22"/>
       <c r="B7" s="23" t="s">
         <v>25</v>
@@ -13997,7 +14008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
@@ -14015,7 +14026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
@@ -14033,7 +14044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
@@ -14051,7 +14062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:30" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C11" s="27" t="s">
         <v>57</v>
       </c>
@@ -14069,7 +14080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="24" t="s">
         <v>34</v>
       </c>
@@ -14090,7 +14101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="1" t="s">
         <v>35</v>
       </c>
@@ -14108,7 +14119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="1" t="s">
         <v>37</v>
       </c>
@@ -14126,7 +14137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
@@ -14144,7 +14155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="1" t="s">
         <v>40</v>
       </c>
@@ -14162,7 +14173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="1" t="s">
         <v>43</v>
       </c>
@@ -14180,7 +14191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="1" t="s">
         <v>58</v>
       </c>
@@ -14198,7 +14209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="35"/>
@@ -14208,7 +14219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="25" t="s">
         <v>46</v>
       </c>
@@ -14229,7 +14240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="1" t="s">
         <v>51</v>
       </c>
@@ -14247,7 +14258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -14257,7 +14268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -14267,7 +14278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -14277,7 +14288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -14287,7 +14298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -14297,7 +14308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -14307,7 +14318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -14317,7 +14328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -14327,7 +14338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -14337,7 +14348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -14347,7 +14358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -14357,7 +14368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -14367,7 +14378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -14377,7 +14388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -14387,7 +14398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -14397,7 +14408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -14407,7 +14418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -14417,7 +14428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -14427,7 +14438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -14437,7 +14448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -14447,7 +14458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -14457,7 +14468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -14467,7 +14478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -14477,7 +14488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -14487,7 +14498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -14497,7 +14508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -14507,7 +14518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -14517,7 +14528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -14527,7 +14538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -14537,7 +14548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -14547,7 +14558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -14557,7 +14568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -14567,7 +14578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -14577,7 +14588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -14587,7 +14598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -14597,7 +14608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -14607,7 +14618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -14617,7 +14628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -14627,7 +14638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -14637,7 +14648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -14647,7 +14658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -14657,7 +14668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -14667,7 +14678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -14677,7 +14688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="65" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -14687,7 +14698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="66" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -14697,7 +14708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="67" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -14707,7 +14718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="68" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -14717,7 +14728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="69" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -14727,7 +14738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -14737,7 +14748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -14747,7 +14758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -14757,7 +14768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="73" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -14767,7 +14778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="74" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -14777,7 +14788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="75" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -14787,7 +14798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="76" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -14797,7 +14808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="77" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -14807,7 +14818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="78" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -14817,7 +14828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="79" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -14827,7 +14838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="80" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -14837,7 +14848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="81" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -14847,7 +14858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -14857,7 +14868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -14867,7 +14878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="84" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -14877,7 +14888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -14887,7 +14898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="86" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -14897,7 +14908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="87" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -14907,7 +14918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="88" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -14917,7 +14928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="89" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -14927,7 +14938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -14937,7 +14948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="91" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -14947,7 +14958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="92" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -14957,7 +14968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="93" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -14967,7 +14978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="94" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -14977,7 +14988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="95" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -14987,7 +14998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -14997,7 +15008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="97" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -15007,7 +15018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="98" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -15017,7 +15028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="99" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -15027,7 +15038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="100" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -15037,7 +15048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="101" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -15047,7 +15058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="102" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -15057,7 +15068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="103" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -15067,7 +15078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="104" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -15077,7 +15088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="105" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -15087,7 +15098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="106" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -15097,7 +15108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="107" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -15107,7 +15118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="108" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -15117,7 +15128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="109" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -15127,7 +15138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="110" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -15137,7 +15148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="111" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -15147,7 +15158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="112" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -15157,7 +15168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="113" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -15167,7 +15178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="114" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -15177,7 +15188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="115" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -15187,7 +15198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="116" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -15197,7 +15208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="117" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -15207,7 +15218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="118" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -15217,7 +15228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="119" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -15227,7 +15238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="120" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -15237,7 +15248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="121" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -15247,7 +15258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="122" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -15257,7 +15268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="123" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -15267,7 +15278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="124" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -15277,7 +15288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="125" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -15287,7 +15298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="126" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -15297,7 +15308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="127" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -15307,7 +15318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="128" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -15317,7 +15328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="129" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -15327,7 +15338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="130" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -15337,7 +15348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="131" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -15347,7 +15358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="132" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -15357,7 +15368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="133" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -15367,7 +15378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="134" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -15377,7 +15388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="135" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -15387,7 +15398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="136" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -15397,7 +15408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="137" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -15407,7 +15418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="138" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -15417,7 +15428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="139" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -15427,7 +15438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="140" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -15437,7 +15448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="141" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -15447,7 +15458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="142" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -15457,7 +15468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="143" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -15467,7 +15478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="144" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -15477,7 +15488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="145" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -15487,7 +15498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="146" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -15497,7 +15508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="147" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -15507,7 +15518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="148" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -15517,7 +15528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="149" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -15527,7 +15538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="150" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -15537,7 +15548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="151" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -15547,7 +15558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="152" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -15557,7 +15568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="153" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -15567,7 +15578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="154" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -15577,7 +15588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="155" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -15587,7 +15598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="156" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -15597,7 +15608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="157" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -15607,7 +15618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="158" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -15617,7 +15628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="159" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -15627,7 +15638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="160" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -15637,7 +15648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="161" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -15647,7 +15658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="162" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -15657,7 +15668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="163" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -15667,7 +15678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="164" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -15677,7 +15688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="165" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -15687,7 +15698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="166" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -15697,7 +15708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="167" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -15707,7 +15718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="168" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -15717,7 +15728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="169" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -15727,7 +15738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="170" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -15737,7 +15748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="171" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -15747,7 +15758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="172" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -15757,7 +15768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="173" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -15767,7 +15778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="174" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -15777,7 +15788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="175" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -15787,7 +15798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="176" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -15797,7 +15808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="177" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -15807,7 +15818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="178" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -15817,7 +15828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="179" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -15827,7 +15838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="180" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -15837,7 +15848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="181" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -15847,7 +15858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="182" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -15857,7 +15868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="183" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -15867,7 +15878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="184" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -15877,7 +15888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="185" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -15887,7 +15898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="186" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -15897,7 +15908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="187" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -15907,7 +15918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="188" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -15917,7 +15928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="189" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -15927,7 +15938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="190" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -15937,7 +15948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="191" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -15947,7 +15958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="192" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -15957,7 +15968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="193" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -15967,7 +15978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="194" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -15977,7 +15988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="195" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -15987,7 +15998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="196" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -15997,7 +16008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="197" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -16007,7 +16018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="198" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -16017,7 +16028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="199" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -16027,7 +16038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="200" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -16037,7 +16048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="201" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -16047,7 +16058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="202" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -16057,7 +16068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="203" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -16067,7 +16078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="204" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -16077,7 +16088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="205" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -16087,7 +16098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="206" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -16097,7 +16108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="207" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -16107,7 +16118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="208" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -16117,7 +16128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="209" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -16127,7 +16138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="210" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -16137,7 +16148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="211" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -16147,7 +16158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="212" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -16157,7 +16168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="213" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -16167,7 +16178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="214" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -16177,7 +16188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="215" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -16187,7 +16198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="216" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -16197,7 +16208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="217" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -16207,7 +16218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="218" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -16217,7 +16228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="219" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -16227,7 +16238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="220" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -16237,7 +16248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="221" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -16247,7 +16258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="222" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -16257,7 +16268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="223" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -16267,7 +16278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="224" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -16277,7 +16288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="225" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -16287,7 +16298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="226" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -16297,7 +16308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="227" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -16307,7 +16318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="228" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -16317,7 +16328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="229" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -16327,7 +16338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="230" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -16337,7 +16348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="231" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -16347,7 +16358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="232" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -16357,7 +16368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="233" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -16367,7 +16378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="234" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -16377,7 +16388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="235" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -16387,7 +16398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="236" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -16397,7 +16408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="237" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -16407,7 +16418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="238" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -16417,7 +16428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="239" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -16427,7 +16438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="240" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -16437,7 +16448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="241" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -16447,7 +16458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="242" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -16457,7 +16468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="243" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -16467,7 +16478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="244" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -16477,7 +16488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="245" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -16487,7 +16498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="246" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -16497,7 +16508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="247" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -16507,7 +16518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="248" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -16517,7 +16528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="249" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -16527,7 +16538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="250" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -16537,7 +16548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="251" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -16547,7 +16558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="252" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -16557,7 +16568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="253" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -16567,7 +16578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="254" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -16577,7 +16588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="255" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -16587,7 +16598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="256" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -16597,7 +16608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="257" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -16607,7 +16618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="258" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -16617,7 +16628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="259" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -16627,7 +16638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="260" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -16637,7 +16648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="261" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -16647,7 +16658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="262" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -16657,7 +16668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="263" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -16667,7 +16678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="264" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -16677,7 +16688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="265" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -16687,7 +16698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="266" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -16697,7 +16708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="267" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -16707,7 +16718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="268" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -16717,7 +16728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="269" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -16727,7 +16738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="270" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -16737,7 +16748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="271" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -16747,7 +16758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="272" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -16757,7 +16768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="273" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -16767,7 +16778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="274" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -16777,7 +16788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="275" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -16787,7 +16798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="276" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -16797,7 +16808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="277" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -16807,7 +16818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="278" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -16817,7 +16828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="279" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -16827,7 +16838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="280" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -16837,7 +16848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="281" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -16847,7 +16858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="282" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -16857,7 +16868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="283" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -16867,7 +16878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="284" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -16877,7 +16888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="285" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -16887,7 +16898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="286" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -16897,7 +16908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="287" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -16907,7 +16918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="288" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -16917,7 +16928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="289" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -16927,7 +16938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="290" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -16937,7 +16948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="291" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -16947,7 +16958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="292" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -16957,7 +16968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="293" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -16967,7 +16978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="294" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -16977,7 +16988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="295" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -16987,7 +16998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="296" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -16997,7 +17008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="297" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -17007,7 +17018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="298" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -17017,7 +17028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="299" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -17027,7 +17038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="300" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
@@ -17037,7 +17048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="301" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
@@ -17047,7 +17058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="302" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
@@ -17057,7 +17068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="303" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
@@ -17067,7 +17078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="304" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
@@ -17077,7 +17088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="305" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
@@ -17087,7 +17098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="306" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
@@ -17097,7 +17108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="307" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
@@ -17107,7 +17118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="308" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
@@ -17117,7 +17128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="309" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
@@ -17127,7 +17138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="310" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
@@ -17137,7 +17148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="311" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
@@ -17147,7 +17158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="312" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
@@ -17157,7 +17168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="313" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
@@ -17167,7 +17178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="314" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
@@ -17177,7 +17188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="315" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
@@ -17187,7 +17198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="316" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
@@ -17197,7 +17208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="317" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
@@ -17207,7 +17218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="318" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
@@ -17217,7 +17228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="319" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
@@ -17227,7 +17238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="320" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
@@ -17237,7 +17248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="321" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
@@ -17247,7 +17258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="322" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
@@ -17257,7 +17268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="323" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
@@ -17267,7 +17278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="324" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
@@ -17277,7 +17288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="325" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
@@ -17287,7 +17298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="326" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
@@ -17297,7 +17308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="327" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
@@ -17307,7 +17318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="328" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
@@ -17317,7 +17328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="329" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
@@ -17327,7 +17338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="330" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
@@ -17337,7 +17348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="331" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
@@ -17347,7 +17358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="332" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
@@ -17357,7 +17368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="333" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
@@ -17367,7 +17378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="334" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
@@ -17377,7 +17388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="335" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
@@ -17387,7 +17398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="336" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
@@ -17397,7 +17408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="337" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
@@ -17407,7 +17418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="338" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
@@ -17417,7 +17428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="339" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
@@ -17427,7 +17438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="340" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
@@ -17437,7 +17448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="341" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
@@ -17447,7 +17458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="342" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
@@ -17457,7 +17468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="343" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
@@ -17467,7 +17478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="344" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
@@ -17477,7 +17488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="345" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
@@ -17487,7 +17498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="346" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
@@ -17497,7 +17508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="347" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
@@ -17507,7 +17518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="348" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
@@ -17517,7 +17528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="349" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
@@ -17527,7 +17538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="350" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
@@ -17537,7 +17548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="351" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
@@ -17547,7 +17558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="352" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
@@ -17557,7 +17568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="353" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
@@ -17567,7 +17578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="354" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
@@ -17577,7 +17588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="355" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
@@ -17587,7 +17598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="356" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
@@ -17597,7 +17608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="357" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
@@ -17607,7 +17618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="358" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
@@ -17617,7 +17628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="359" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
@@ -17627,7 +17638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="360" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
@@ -17637,7 +17648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="361" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
@@ -17647,7 +17658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="362" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
@@ -17657,7 +17668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="363" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
@@ -17667,7 +17678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="364" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
@@ -17677,7 +17688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="365" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
@@ -17687,7 +17698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="366" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
@@ -17697,7 +17708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="367" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
@@ -17707,7 +17718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="368" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
@@ -17717,7 +17728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="369" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
@@ -17727,7 +17738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="370" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
@@ -17737,7 +17748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="371" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
@@ -17747,7 +17758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="372" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
@@ -17757,7 +17768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="373" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
@@ -17767,7 +17778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="374" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
@@ -17777,7 +17788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="375" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
@@ -17787,7 +17798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="376" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
@@ -17797,7 +17808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="377" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
@@ -17807,7 +17818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="378" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
@@ -17817,7 +17828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="379" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
@@ -17827,7 +17838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="380" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
@@ -17837,7 +17848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="381" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
@@ -17847,7 +17858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="382" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
@@ -17857,7 +17868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="383" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
@@ -17867,7 +17878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="384" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
@@ -17877,7 +17888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="385" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
@@ -17887,7 +17898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="386" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
@@ -17897,7 +17908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="387" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
@@ -17907,7 +17918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="388" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
@@ -17917,7 +17928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="389" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
@@ -17927,7 +17938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="390" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
@@ -17937,7 +17948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="391" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
@@ -17947,7 +17958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="392" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
@@ -17957,7 +17968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="393" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
@@ -17967,7 +17978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="394" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
@@ -17977,7 +17988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="395" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
@@ -17987,7 +17998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="396" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
@@ -17997,7 +18008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="397" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
@@ -18007,7 +18018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="398" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
@@ -18017,7 +18028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="399" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
@@ -18027,7 +18038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="400" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
@@ -18037,7 +18048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="401" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
@@ -18047,7 +18058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="402" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
@@ -18057,7 +18068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="403" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
@@ -18067,7 +18078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="404" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
@@ -18077,7 +18088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="405" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
@@ -18087,7 +18098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="406" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
@@ -18097,7 +18108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="407" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
@@ -18107,7 +18118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="408" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
@@ -18117,7 +18128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="409" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
@@ -18127,7 +18138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="410" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
@@ -18137,7 +18148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="411" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
@@ -18147,7 +18158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="412" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
@@ -18157,7 +18168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="413" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
@@ -18167,7 +18178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="414" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
@@ -18177,7 +18188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="415" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
@@ -18187,7 +18198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="416" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
@@ -18197,7 +18208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="417" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
@@ -18207,7 +18218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="418" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
@@ -18217,7 +18228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="419" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
@@ -18227,7 +18238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="420" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
@@ -18237,7 +18248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="421" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
@@ -18247,7 +18258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="422" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
@@ -18257,7 +18268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="423" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
@@ -18267,7 +18278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="424" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
@@ -18277,7 +18288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="425" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
@@ -18287,7 +18298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="426" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
@@ -18297,7 +18308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="427" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
@@ -18307,7 +18318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="428" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
@@ -18317,7 +18328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="429" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
@@ -18327,7 +18338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="430" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
@@ -18337,7 +18348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="431" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
@@ -18347,7 +18358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="432" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
@@ -18357,7 +18368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="433" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
@@ -18367,7 +18378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="434" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
@@ -18377,7 +18388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="435" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
@@ -18387,7 +18398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="436" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
@@ -18397,7 +18408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="437" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
@@ -18407,7 +18418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="438" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
@@ -18417,7 +18428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="439" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
@@ -18427,7 +18438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="440" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
@@ -18437,7 +18448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="441" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
@@ -18447,7 +18458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="442" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
@@ -18457,7 +18468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="443" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
@@ -18467,7 +18478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="444" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
@@ -18477,7 +18488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="445" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
@@ -18487,7 +18498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="446" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
@@ -18497,7 +18508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="447" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
@@ -18507,7 +18518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="448" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
@@ -18517,7 +18528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="449" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
@@ -18527,7 +18538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="450" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
@@ -18537,7 +18548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="451" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
@@ -18547,7 +18558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="452" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
@@ -18557,7 +18568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="453" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
@@ -18567,7 +18578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="454" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
@@ -18577,7 +18588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="455" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
@@ -18587,7 +18598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="456" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
@@ -18597,7 +18608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="457" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
@@ -18607,7 +18618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="458" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
@@ -18617,7 +18628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="459" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
@@ -18627,7 +18638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="460" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
@@ -18637,7 +18648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="461" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
@@ -18647,7 +18658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="462" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
@@ -18657,7 +18668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="463" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
@@ -18667,7 +18678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="464" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
@@ -18677,7 +18688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="465" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
@@ -18687,7 +18698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="466" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
@@ -18697,7 +18708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="467" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
@@ -18707,7 +18718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="468" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
@@ -18717,7 +18728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="469" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
@@ -18727,7 +18738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="470" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
@@ -18737,7 +18748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="471" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
@@ -18747,7 +18758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="472" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
@@ -18757,7 +18768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="473" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
@@ -18767,7 +18778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="474" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
@@ -18777,7 +18788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="475" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
@@ -18787,7 +18798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="476" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
@@ -18797,7 +18808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="477" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
@@ -18807,7 +18818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="478" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
@@ -18817,7 +18828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="479" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
@@ -18827,7 +18838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="480" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
@@ -18837,7 +18848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="481" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
@@ -18847,7 +18858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="482" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
@@ -18857,7 +18868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="483" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
@@ -18867,7 +18878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="484" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
@@ -18877,7 +18888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="485" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
@@ -18887,7 +18898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="486" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
@@ -18897,7 +18908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="487" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
@@ -18907,7 +18918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="488" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
@@ -18917,7 +18928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="489" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
@@ -18927,7 +18938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="490" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
@@ -18937,7 +18948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="491" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
@@ -18947,7 +18958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="492" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
@@ -18957,7 +18968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="493" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
@@ -18967,7 +18978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="494" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
@@ -18977,7 +18988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="495" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
@@ -18987,7 +18998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="496" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
@@ -18997,7 +19008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="497" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
@@ -19007,7 +19018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="498" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
@@ -19017,7 +19028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="499" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
@@ -19027,7 +19038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="500" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
@@ -19037,7 +19048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="501" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
       <c r="E501" s="1"/>
@@ -19047,7 +19058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="502" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
       <c r="E502" s="1"/>
@@ -19057,7 +19068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="503" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
       <c r="E503" s="1"/>
@@ -19067,7 +19078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="504" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
       <c r="E504" s="1"/>
@@ -19077,7 +19088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="505" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C505" s="1"/>
       <c r="D505" s="1"/>
       <c r="E505" s="1"/>
@@ -19087,7 +19098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="506" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
       <c r="E506" s="1"/>
@@ -19097,7 +19108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="507" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C507" s="1"/>
       <c r="D507" s="1"/>
       <c r="E507" s="1"/>
@@ -19107,7 +19118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="508" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C508" s="1"/>
       <c r="D508" s="1"/>
       <c r="E508" s="1"/>
@@ -19117,7 +19128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="509" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C509" s="1"/>
       <c r="D509" s="1"/>
       <c r="E509" s="1"/>
@@ -19127,7 +19138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="510" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
       <c r="E510" s="1"/>
@@ -19137,7 +19148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="511" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C511" s="1"/>
       <c r="D511" s="1"/>
       <c r="E511" s="1"/>
@@ -19147,7 +19158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="512" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C512" s="1"/>
       <c r="D512" s="1"/>
       <c r="E512" s="1"/>
@@ -19157,7 +19168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="513" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C513" s="1"/>
       <c r="D513" s="1"/>
       <c r="E513" s="1"/>
@@ -19167,7 +19178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="514" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C514" s="1"/>
       <c r="D514" s="1"/>
       <c r="E514" s="1"/>
@@ -19177,7 +19188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="515" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C515" s="1"/>
       <c r="D515" s="1"/>
       <c r="E515" s="1"/>
@@ -19187,7 +19198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="516" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C516" s="1"/>
       <c r="D516" s="1"/>
       <c r="E516" s="1"/>
@@ -19197,7 +19208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="517" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C517" s="1"/>
       <c r="D517" s="1"/>
       <c r="E517" s="1"/>
@@ -19207,7 +19218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="518" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C518" s="1"/>
       <c r="D518" s="1"/>
       <c r="E518" s="1"/>
@@ -19217,7 +19228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="519" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C519" s="1"/>
       <c r="D519" s="1"/>
       <c r="E519" s="1"/>
@@ -19227,7 +19238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="520" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C520" s="1"/>
       <c r="D520" s="1"/>
       <c r="E520" s="1"/>
@@ -19237,7 +19248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="521" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C521" s="1"/>
       <c r="D521" s="1"/>
       <c r="E521" s="1"/>
@@ -19247,7 +19258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="522" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C522" s="1"/>
       <c r="D522" s="1"/>
       <c r="E522" s="1"/>
@@ -19257,7 +19268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="523" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C523" s="1"/>
       <c r="D523" s="1"/>
       <c r="E523" s="1"/>
@@ -19267,7 +19278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="524" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C524" s="1"/>
       <c r="D524" s="1"/>
       <c r="E524" s="1"/>
@@ -19277,7 +19288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="525" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C525" s="1"/>
       <c r="D525" s="1"/>
       <c r="E525" s="1"/>
@@ -19287,7 +19298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="526" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C526" s="1"/>
       <c r="D526" s="1"/>
       <c r="E526" s="1"/>
@@ -19297,7 +19308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="527" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C527" s="1"/>
       <c r="D527" s="1"/>
       <c r="E527" s="1"/>
@@ -19307,7 +19318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="528" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C528" s="1"/>
       <c r="D528" s="1"/>
       <c r="E528" s="1"/>
@@ -19317,7 +19328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="529" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C529" s="1"/>
       <c r="D529" s="1"/>
       <c r="E529" s="1"/>
@@ -19327,7 +19338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="530" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C530" s="1"/>
       <c r="D530" s="1"/>
       <c r="E530" s="1"/>
@@ -19337,7 +19348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="531" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C531" s="1"/>
       <c r="D531" s="1"/>
       <c r="E531" s="1"/>
@@ -19347,7 +19358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="532" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C532" s="1"/>
       <c r="D532" s="1"/>
       <c r="E532" s="1"/>
@@ -19357,7 +19368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="533" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C533" s="1"/>
       <c r="D533" s="1"/>
       <c r="E533" s="1"/>
@@ -19367,7 +19378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="534" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C534" s="1"/>
       <c r="D534" s="1"/>
       <c r="E534" s="1"/>
@@ -19377,7 +19388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="535" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C535" s="1"/>
       <c r="D535" s="1"/>
       <c r="E535" s="1"/>
@@ -19387,7 +19398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="536" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C536" s="1"/>
       <c r="D536" s="1"/>
       <c r="E536" s="1"/>
@@ -19397,7 +19408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="537" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C537" s="1"/>
       <c r="D537" s="1"/>
       <c r="E537" s="1"/>
@@ -19407,7 +19418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="538" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C538" s="1"/>
       <c r="D538" s="1"/>
       <c r="E538" s="1"/>
@@ -19417,7 +19428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="539" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C539" s="1"/>
       <c r="D539" s="1"/>
       <c r="E539" s="1"/>
@@ -19427,7 +19438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="540" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C540" s="1"/>
       <c r="D540" s="1"/>
       <c r="E540" s="1"/>
@@ -19437,7 +19448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="541" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C541" s="1"/>
       <c r="D541" s="1"/>
       <c r="E541" s="1"/>
@@ -19447,7 +19458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="542" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C542" s="1"/>
       <c r="D542" s="1"/>
       <c r="E542" s="1"/>
@@ -19457,7 +19468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="543" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C543" s="1"/>
       <c r="D543" s="1"/>
       <c r="E543" s="1"/>
@@ -19467,7 +19478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="544" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C544" s="1"/>
       <c r="D544" s="1"/>
       <c r="E544" s="1"/>
@@ -19477,7 +19488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="545" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C545" s="1"/>
       <c r="D545" s="1"/>
       <c r="E545" s="1"/>
@@ -19487,7 +19498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="546" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C546" s="1"/>
       <c r="D546" s="1"/>
       <c r="E546" s="1"/>
@@ -19497,7 +19508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="547" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C547" s="1"/>
       <c r="D547" s="1"/>
       <c r="E547" s="1"/>
@@ -19507,7 +19518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="548" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
       <c r="E548" s="1"/>
@@ -19517,7 +19528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="549" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C549" s="1"/>
       <c r="D549" s="1"/>
       <c r="E549" s="1"/>
@@ -19527,7 +19538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="550" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C550" s="1"/>
       <c r="D550" s="1"/>
       <c r="E550" s="1"/>
@@ -19537,7 +19548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="551" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C551" s="1"/>
       <c r="D551" s="1"/>
       <c r="E551" s="1"/>
@@ -19547,7 +19558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="552" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C552" s="1"/>
       <c r="D552" s="1"/>
       <c r="E552" s="1"/>
@@ -19557,7 +19568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="553" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C553" s="1"/>
       <c r="D553" s="1"/>
       <c r="E553" s="1"/>
@@ -19567,7 +19578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="554" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C554" s="1"/>
       <c r="D554" s="1"/>
       <c r="E554" s="1"/>
@@ -19577,7 +19588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="555" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C555" s="1"/>
       <c r="D555" s="1"/>
       <c r="E555" s="1"/>
@@ -19587,7 +19598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="556" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C556" s="1"/>
       <c r="D556" s="1"/>
       <c r="E556" s="1"/>
@@ -19597,7 +19608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="557" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C557" s="1"/>
       <c r="D557" s="1"/>
       <c r="E557" s="1"/>
@@ -19607,7 +19618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="558" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C558" s="1"/>
       <c r="D558" s="1"/>
       <c r="E558" s="1"/>
@@ -19617,7 +19628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="559" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C559" s="1"/>
       <c r="D559" s="1"/>
       <c r="E559" s="1"/>
@@ -19627,7 +19638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="560" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C560" s="1"/>
       <c r="D560" s="1"/>
       <c r="E560" s="1"/>
@@ -19637,7 +19648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="561" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C561" s="1"/>
       <c r="D561" s="1"/>
       <c r="E561" s="1"/>
@@ -19647,7 +19658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="562" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C562" s="1"/>
       <c r="D562" s="1"/>
       <c r="E562" s="1"/>
@@ -19657,7 +19668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="563" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C563" s="1"/>
       <c r="D563" s="1"/>
       <c r="E563" s="1"/>
@@ -19667,7 +19678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="564" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C564" s="1"/>
       <c r="D564" s="1"/>
       <c r="E564" s="1"/>
@@ -19677,7 +19688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="565" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C565" s="1"/>
       <c r="D565" s="1"/>
       <c r="E565" s="1"/>
@@ -19687,7 +19698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="566" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C566" s="1"/>
       <c r="D566" s="1"/>
       <c r="E566" s="1"/>
@@ -19697,7 +19708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="567" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C567" s="1"/>
       <c r="D567" s="1"/>
       <c r="E567" s="1"/>
@@ -19707,7 +19718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="568" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C568" s="1"/>
       <c r="D568" s="1"/>
       <c r="E568" s="1"/>
@@ -19717,7 +19728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="569" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C569" s="1"/>
       <c r="D569" s="1"/>
       <c r="E569" s="1"/>
@@ -19727,7 +19738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="570" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C570" s="1"/>
       <c r="D570" s="1"/>
       <c r="E570" s="1"/>
@@ -19737,7 +19748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="571" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C571" s="1"/>
       <c r="D571" s="1"/>
       <c r="E571" s="1"/>
@@ -19747,7 +19758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="572" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C572" s="1"/>
       <c r="D572" s="1"/>
       <c r="E572" s="1"/>
@@ -19757,7 +19768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="573" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C573" s="1"/>
       <c r="D573" s="1"/>
       <c r="E573" s="1"/>
@@ -19767,7 +19778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="574" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C574" s="1"/>
       <c r="D574" s="1"/>
       <c r="E574" s="1"/>
@@ -19777,7 +19788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="575" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C575" s="1"/>
       <c r="D575" s="1"/>
       <c r="E575" s="1"/>
@@ -19787,7 +19798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="576" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C576" s="1"/>
       <c r="D576" s="1"/>
       <c r="E576" s="1"/>
@@ -19797,7 +19808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="577" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C577" s="1"/>
       <c r="D577" s="1"/>
       <c r="E577" s="1"/>
@@ -19807,7 +19818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="578" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C578" s="1"/>
       <c r="D578" s="1"/>
       <c r="E578" s="1"/>
@@ -19817,7 +19828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="579" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C579" s="1"/>
       <c r="D579" s="1"/>
       <c r="E579" s="1"/>
@@ -19827,7 +19838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="580" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C580" s="1"/>
       <c r="D580" s="1"/>
       <c r="E580" s="1"/>
@@ -19837,7 +19848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="581" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C581" s="1"/>
       <c r="D581" s="1"/>
       <c r="E581" s="1"/>
@@ -19847,7 +19858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="582" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C582" s="1"/>
       <c r="D582" s="1"/>
       <c r="E582" s="1"/>
@@ -19857,7 +19868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="583" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C583" s="1"/>
       <c r="D583" s="1"/>
       <c r="E583" s="1"/>
@@ -19867,7 +19878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="584" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C584" s="1"/>
       <c r="D584" s="1"/>
       <c r="E584" s="1"/>
@@ -19877,7 +19888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="585" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C585" s="1"/>
       <c r="D585" s="1"/>
       <c r="E585" s="1"/>
@@ -19887,7 +19898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="586" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C586" s="1"/>
       <c r="D586" s="1"/>
       <c r="E586" s="1"/>
@@ -19897,7 +19908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="587" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C587" s="1"/>
       <c r="D587" s="1"/>
       <c r="E587" s="1"/>
@@ -19907,7 +19918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="588" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C588" s="1"/>
       <c r="D588" s="1"/>
       <c r="E588" s="1"/>
@@ -19917,7 +19928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="589" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C589" s="1"/>
       <c r="D589" s="1"/>
       <c r="E589" s="1"/>
@@ -19927,7 +19938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="590" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C590" s="1"/>
       <c r="D590" s="1"/>
       <c r="E590" s="1"/>
@@ -19937,7 +19948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="591" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C591" s="1"/>
       <c r="D591" s="1"/>
       <c r="E591" s="1"/>
@@ -19947,7 +19958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="592" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C592" s="1"/>
       <c r="D592" s="1"/>
       <c r="E592" s="1"/>
@@ -19957,7 +19968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="593" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C593" s="1"/>
       <c r="D593" s="1"/>
       <c r="E593" s="1"/>
@@ -19967,7 +19978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="594" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C594" s="1"/>
       <c r="D594" s="1"/>
       <c r="E594" s="1"/>
@@ -19977,7 +19988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="595" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C595" s="1"/>
       <c r="D595" s="1"/>
       <c r="E595" s="1"/>
@@ -19987,7 +19998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="596" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C596" s="1"/>
       <c r="D596" s="1"/>
       <c r="E596" s="1"/>
@@ -19997,7 +20008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="597" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C597" s="1"/>
       <c r="D597" s="1"/>
       <c r="E597" s="1"/>
@@ -20007,7 +20018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="598" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C598" s="1"/>
       <c r="D598" s="1"/>
       <c r="E598" s="1"/>
@@ -20017,7 +20028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="599" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C599" s="1"/>
       <c r="D599" s="1"/>
       <c r="E599" s="1"/>
@@ -20027,7 +20038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="600" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C600" s="1"/>
       <c r="D600" s="1"/>
       <c r="E600" s="1"/>
@@ -20037,7 +20048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="601" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C601" s="1"/>
       <c r="D601" s="1"/>
       <c r="E601" s="1"/>
@@ -20047,7 +20058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="602" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C602" s="1"/>
       <c r="D602" s="1"/>
       <c r="E602" s="1"/>
@@ -20057,7 +20068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="603" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C603" s="1"/>
       <c r="D603" s="1"/>
       <c r="E603" s="1"/>
@@ -20067,7 +20078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="604" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C604" s="1"/>
       <c r="D604" s="1"/>
       <c r="E604" s="1"/>
@@ -20077,7 +20088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="605" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C605" s="1"/>
       <c r="D605" s="1"/>
       <c r="E605" s="1"/>
@@ -20087,7 +20098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="606" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C606" s="1"/>
       <c r="D606" s="1"/>
       <c r="E606" s="1"/>
@@ -20097,7 +20108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="607" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C607" s="1"/>
       <c r="D607" s="1"/>
       <c r="E607" s="1"/>
@@ -20107,7 +20118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="608" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C608" s="1"/>
       <c r="D608" s="1"/>
       <c r="E608" s="1"/>
@@ -20117,7 +20128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="609" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C609" s="1"/>
       <c r="D609" s="1"/>
       <c r="E609" s="1"/>
@@ -20127,7 +20138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="610" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C610" s="1"/>
       <c r="D610" s="1"/>
       <c r="E610" s="1"/>
@@ -20137,7 +20148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="611" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C611" s="1"/>
       <c r="D611" s="1"/>
       <c r="E611" s="1"/>
@@ -20147,7 +20158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="612" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C612" s="1"/>
       <c r="D612" s="1"/>
       <c r="E612" s="1"/>
@@ -20157,7 +20168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="613" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C613" s="1"/>
       <c r="D613" s="1"/>
       <c r="E613" s="1"/>
@@ -20167,7 +20178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="614" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C614" s="1"/>
       <c r="D614" s="1"/>
       <c r="E614" s="1"/>
@@ -20177,7 +20188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="615" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C615" s="1"/>
       <c r="D615" s="1"/>
       <c r="E615" s="1"/>
@@ -20187,7 +20198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="616" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C616" s="1"/>
       <c r="D616" s="1"/>
       <c r="E616" s="1"/>
@@ -20197,7 +20208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="617" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C617" s="1"/>
       <c r="D617" s="1"/>
       <c r="E617" s="1"/>
@@ -20207,7 +20218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="618" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C618" s="1"/>
       <c r="D618" s="1"/>
       <c r="E618" s="1"/>
@@ -20217,7 +20228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="619" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C619" s="1"/>
       <c r="D619" s="1"/>
       <c r="E619" s="1"/>
@@ -20227,7 +20238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="620" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C620" s="1"/>
       <c r="D620" s="1"/>
       <c r="E620" s="1"/>
@@ -20237,7 +20248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="621" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C621" s="1"/>
       <c r="D621" s="1"/>
       <c r="E621" s="1"/>
@@ -20247,7 +20258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="622" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C622" s="1"/>
       <c r="D622" s="1"/>
       <c r="E622" s="1"/>
@@ -20257,7 +20268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="623" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C623" s="1"/>
       <c r="D623" s="1"/>
       <c r="E623" s="1"/>
@@ -20267,7 +20278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="624" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C624" s="1"/>
       <c r="D624" s="1"/>
       <c r="E624" s="1"/>
@@ -20277,7 +20288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="625" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C625" s="1"/>
       <c r="D625" s="1"/>
       <c r="E625" s="1"/>
@@ -20287,7 +20298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="626" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C626" s="1"/>
       <c r="D626" s="1"/>
       <c r="E626" s="1"/>
@@ -20297,7 +20308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="627" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C627" s="1"/>
       <c r="D627" s="1"/>
       <c r="E627" s="1"/>
@@ -20307,7 +20318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="628" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C628" s="1"/>
       <c r="D628" s="1"/>
       <c r="E628" s="1"/>
@@ -20317,7 +20328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="629" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C629" s="1"/>
       <c r="D629" s="1"/>
       <c r="E629" s="1"/>
@@ -20327,7 +20338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="630" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C630" s="1"/>
       <c r="D630" s="1"/>
       <c r="E630" s="1"/>
@@ -20337,7 +20348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="631" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C631" s="1"/>
       <c r="D631" s="1"/>
       <c r="E631" s="1"/>
@@ -20347,7 +20358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="632" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C632" s="1"/>
       <c r="D632" s="1"/>
       <c r="E632" s="1"/>
@@ -20357,7 +20368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="633" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C633" s="1"/>
       <c r="D633" s="1"/>
       <c r="E633" s="1"/>
@@ -20367,7 +20378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="634" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C634" s="1"/>
       <c r="D634" s="1"/>
       <c r="E634" s="1"/>
@@ -20377,7 +20388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="635" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C635" s="1"/>
       <c r="D635" s="1"/>
       <c r="E635" s="1"/>
@@ -20387,7 +20398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="636" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C636" s="1"/>
       <c r="D636" s="1"/>
       <c r="E636" s="1"/>
@@ -20397,7 +20408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="637" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C637" s="1"/>
       <c r="D637" s="1"/>
       <c r="E637" s="1"/>
@@ -20407,7 +20418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="638" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C638" s="1"/>
       <c r="D638" s="1"/>
       <c r="E638" s="1"/>
@@ -20417,7 +20428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="639" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C639" s="1"/>
       <c r="D639" s="1"/>
       <c r="E639" s="1"/>
@@ -20427,7 +20438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="640" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C640" s="1"/>
       <c r="D640" s="1"/>
       <c r="E640" s="1"/>
@@ -20437,7 +20448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="641" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C641" s="1"/>
       <c r="D641" s="1"/>
       <c r="E641" s="1"/>
@@ -20447,7 +20458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="642" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C642" s="1"/>
       <c r="D642" s="1"/>
       <c r="E642" s="1"/>
@@ -20457,7 +20468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="643" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C643" s="1"/>
       <c r="D643" s="1"/>
       <c r="E643" s="1"/>
@@ -20467,7 +20478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="644" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C644" s="1"/>
       <c r="D644" s="1"/>
       <c r="E644" s="1"/>
@@ -20477,7 +20488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="645" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C645" s="1"/>
       <c r="D645" s="1"/>
       <c r="E645" s="1"/>
@@ -20487,7 +20498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="646" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C646" s="1"/>
       <c r="D646" s="1"/>
       <c r="E646" s="1"/>
@@ -20497,7 +20508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="647" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C647" s="1"/>
       <c r="D647" s="1"/>
       <c r="E647" s="1"/>
@@ -20507,7 +20518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="648" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C648" s="1"/>
       <c r="D648" s="1"/>
       <c r="E648" s="1"/>
@@ -20517,7 +20528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="649" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C649" s="1"/>
       <c r="D649" s="1"/>
       <c r="E649" s="1"/>
@@ -20527,7 +20538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="650" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C650" s="1"/>
       <c r="D650" s="1"/>
       <c r="E650" s="1"/>
@@ -20537,7 +20548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="651" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C651" s="1"/>
       <c r="D651" s="1"/>
       <c r="E651" s="1"/>
@@ -20547,7 +20558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="652" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C652" s="1"/>
       <c r="D652" s="1"/>
       <c r="E652" s="1"/>
@@ -20557,7 +20568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="653" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C653" s="1"/>
       <c r="D653" s="1"/>
       <c r="E653" s="1"/>
@@ -20567,7 +20578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="654" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C654" s="1"/>
       <c r="D654" s="1"/>
       <c r="E654" s="1"/>
@@ -20577,7 +20588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="655" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C655" s="1"/>
       <c r="D655" s="1"/>
       <c r="E655" s="1"/>
@@ -20587,7 +20598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="656" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C656" s="1"/>
       <c r="D656" s="1"/>
       <c r="E656" s="1"/>
@@ -20597,7 +20608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="657" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C657" s="1"/>
       <c r="D657" s="1"/>
       <c r="E657" s="1"/>
@@ -20607,7 +20618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="658" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C658" s="1"/>
       <c r="D658" s="1"/>
       <c r="E658" s="1"/>
@@ -20617,7 +20628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="659" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C659" s="1"/>
       <c r="D659" s="1"/>
       <c r="E659" s="1"/>
@@ -20627,7 +20638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="660" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C660" s="1"/>
       <c r="D660" s="1"/>
       <c r="E660" s="1"/>
@@ -20637,7 +20648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="661" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C661" s="1"/>
       <c r="D661" s="1"/>
       <c r="E661" s="1"/>
@@ -20647,7 +20658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="662" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C662" s="1"/>
       <c r="D662" s="1"/>
       <c r="E662" s="1"/>
@@ -20657,7 +20668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="663" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C663" s="1"/>
       <c r="D663" s="1"/>
       <c r="E663" s="1"/>
@@ -20667,7 +20678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="664" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C664" s="1"/>
       <c r="D664" s="1"/>
       <c r="E664" s="1"/>
@@ -20677,7 +20688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="665" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C665" s="1"/>
       <c r="D665" s="1"/>
       <c r="E665" s="1"/>
@@ -20687,7 +20698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="666" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C666" s="1"/>
       <c r="D666" s="1"/>
       <c r="E666" s="1"/>
@@ -20697,7 +20708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="667" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C667" s="1"/>
       <c r="D667" s="1"/>
       <c r="E667" s="1"/>
@@ -20707,7 +20718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="668" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C668" s="1"/>
       <c r="D668" s="1"/>
       <c r="E668" s="1"/>
@@ -20717,7 +20728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="669" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C669" s="1"/>
       <c r="D669" s="1"/>
       <c r="E669" s="1"/>
@@ -20727,7 +20738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="670" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C670" s="1"/>
       <c r="D670" s="1"/>
       <c r="E670" s="1"/>
@@ -20752,9 +20763,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="36" t="s">
         <v>62</v>
       </c>
@@ -20766,7 +20777,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -20776,7 +20787,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
@@ -20786,7 +20797,7 @@
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
@@ -20796,7 +20807,7 @@
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>

--- a/タスク表.xlsx
+++ b/タスク表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
@@ -248,44 +248,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スペースキー。Xボタンで決定する。(引き出し調べる。トビラ開ける。等々に使用)</t>
-    <rPh sb="12" eb="14">
-      <t>ケッテイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>シラ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ナドナド</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤーが移動するたびに足音が鳴るようにする</t>
-    <rPh sb="6" eb="8">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>アシオト</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイ会仕様</t>
     <rPh sb="3" eb="4">
       <t>カイ</t>
@@ -509,28 +471,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤーの足音とは別の音にする。(差別化して、わかりやすくするため)大きさはPの1.2倍ぐらい</t>
-    <rPh sb="6" eb="8">
-      <t>アシオト</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>オト</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>サベツカ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>バイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Object</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -727,6 +667,108 @@
     <t>6/24,14:38PlayerとEnemyを使えるようにした。</t>
     <rPh sb="23" eb="24">
       <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの足音とは別の音にする。(差別化して、わかりやすくするため)大きさはPの1.2倍ぐらい。場所によって聞こえる位置音量が異なる。</t>
+    <rPh sb="6" eb="8">
+      <t>アシオト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>サベツカ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>オンリョウ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが移動するたびに足音が鳴るようにする。アニメーションで足が地面に着いた時にならす。</t>
+    <rPh sb="6" eb="8">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>アシオト</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペースキー。Xボタンで決定する。(引き出し調べる。トビラ開ける。等々に使用)距離は相談。判定はできればカメラに乗せてほしいけど、無理そうならboxcoliderでどうにかする</t>
+    <rPh sb="12" eb="14">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ナドナド</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ソウダン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ムリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1439,7 +1481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DH102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="I4" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -2125,7 +2167,7 @@
     </row>
     <row r="5" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D5" s="6">
         <f>IFERROR(VLOOKUP(C5,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -2377,7 +2419,7 @@
     </row>
     <row r="7" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D7" s="6">
         <f>IFERROR(VLOOKUP(C7,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -2395,7 +2437,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="5"/>
@@ -2522,7 +2564,7 @@
         <v>6</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="5"/>
@@ -2631,7 +2673,7 @@
     </row>
     <row r="9" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D9" s="6">
         <f>IFERROR(VLOOKUP(C9,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -2649,7 +2691,7 @@
         <v>6</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="5"/>
@@ -2776,7 +2818,7 @@
         <v>7</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="5"/>
@@ -2885,7 +2927,7 @@
     </row>
     <row r="11" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D11" s="6">
         <f>IFERROR(VLOOKUP(C11,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -2903,7 +2945,7 @@
         <v>7</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="5"/>
@@ -3012,7 +3054,7 @@
     </row>
     <row r="12" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D12" s="6">
         <f>IFERROR(VLOOKUP(C12,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -3030,7 +3072,7 @@
         <v>7</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="5"/>
@@ -3139,7 +3181,7 @@
     </row>
     <row r="13" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" s="6">
         <f>IFERROR(VLOOKUP(C13,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -3157,7 +3199,7 @@
         <v>6</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="5"/>
@@ -3266,7 +3308,7 @@
     </row>
     <row r="14" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" s="6">
         <f>IFERROR(VLOOKUP(C14,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -3284,7 +3326,7 @@
         <v>8</v>
       </c>
       <c r="H14" s="33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="5"/>
@@ -3393,7 +3435,7 @@
     </row>
     <row r="15" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" s="6">
         <f>IFERROR(VLOOKUP(C15,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -3411,7 +3453,7 @@
         <v>8</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="5"/>
@@ -3520,7 +3562,7 @@
     </row>
     <row r="16" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" s="6">
         <f>IFERROR(VLOOKUP(C16,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -3538,7 +3580,7 @@
         <v>8</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="5"/>
@@ -3647,7 +3689,7 @@
     </row>
     <row r="17" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="6">
         <f>IFERROR(VLOOKUP(C17,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -3665,7 +3707,7 @@
         <v>7</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="5"/>
@@ -3774,7 +3816,7 @@
     </row>
     <row r="18" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D18" s="6">
         <f>IFERROR(VLOOKUP(C18,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -3901,7 +3943,7 @@
     </row>
     <row r="19" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="6">
         <f>IFERROR(VLOOKUP(C19,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13907,15 +13949,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AD670"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="101.9140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="160.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.4140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.58203125" bestFit="1" customWidth="1"/>
@@ -13923,7 +13965,7 @@
   <sheetData>
     <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
@@ -13940,7 +13982,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AD4" t="s">
         <v>7</v>
@@ -13948,7 +13990,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>22</v>
@@ -13992,10 +14034,10 @@
         <v>25</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E7" s="28">
         <v>43640</v>
@@ -14013,7 +14055,7 @@
         <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" s="3">
         <v>43640</v>
@@ -14049,7 +14091,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="E10" s="3">
         <v>43647</v>
@@ -14064,10 +14106,10 @@
     </row>
     <row r="11" spans="1:30" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C11" s="27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="E11" s="29">
         <v>43654</v>
@@ -14082,13 +14124,13 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E12" s="28">
         <v>43640</v>
@@ -14103,10 +14145,10 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E13" s="3">
         <v>43644</v>
@@ -14121,10 +14163,10 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E14" s="3">
         <v>43647</v>
@@ -14139,10 +14181,10 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="3">
         <v>43651</v>
@@ -14157,10 +14199,10 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E16" s="3">
         <v>43644</v>
@@ -14175,10 +14217,10 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E17" s="3">
         <v>43654</v>
@@ -14193,10 +14235,10 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E18" s="3">
         <v>43661</v>
@@ -14221,13 +14263,13 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="26" t="s">
         <v>46</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>49</v>
       </c>
       <c r="E20" s="28">
         <v>43644</v>
@@ -14242,10 +14284,10 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E21" s="3">
         <v>43644</v>
@@ -20767,7 +20809,7 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="36" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>

--- a/タスク表.xlsx
+++ b/タスク表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="66">
   <si>
     <t>タスク表</t>
     <rPh sb="3" eb="4">
@@ -730,6 +730,36 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>6/28,15:12宿題Enemyのスピードを変えられるようにする</t>
+    <rPh sb="10" eb="12">
+      <t>シュクダイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状態を分かりやすくするnavimeshをもっと知る</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドアを作る</t>
+    <rPh sb="3" eb="4">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1429,7 +1459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:DH102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -13896,7 +13926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AD670"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -20749,7 +20779,7 @@
   <dimension ref="B2:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -20767,7 +20797,9 @@
       <c r="I2" s="36"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B3" s="36"/>
+      <c r="B3" s="36" t="s">
+        <v>63</v>
+      </c>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
       <c r="E3" s="36"/>
@@ -20777,7 +20809,9 @@
       <c r="I3" s="36"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B4" s="36"/>
+      <c r="B4" s="36" t="s">
+        <v>64</v>
+      </c>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
@@ -20787,7 +20821,9 @@
       <c r="I4" s="36"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B5" s="36"/>
+      <c r="B5" s="36" t="s">
+        <v>65</v>
+      </c>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
       <c r="E5" s="36"/>

--- a/タスク表.xlsx
+++ b/タスク表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkrs3\Documents\EXTREMEProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K015A1881\Documents\EXTREMEProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1440,31 +1440,31 @@
   <dimension ref="A1:DH102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="26.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.69921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="18" width="7.83203125" customWidth="1"/>
-    <col min="19" max="27" width="6.83203125" customWidth="1"/>
-    <col min="28" max="49" width="7.83203125" customWidth="1"/>
-    <col min="50" max="58" width="6.83203125" customWidth="1"/>
-    <col min="59" max="80" width="7.83203125" customWidth="1"/>
-    <col min="81" max="89" width="6.83203125" customWidth="1"/>
-    <col min="90" max="112" width="7.83203125" customWidth="1"/>
+    <col min="8" max="8" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="18" width="7.796875" customWidth="1"/>
+    <col min="19" max="27" width="6.796875" customWidth="1"/>
+    <col min="28" max="49" width="7.796875" customWidth="1"/>
+    <col min="50" max="58" width="6.796875" customWidth="1"/>
+    <col min="59" max="80" width="7.796875" customWidth="1"/>
+    <col min="81" max="89" width="6.796875" customWidth="1"/>
+    <col min="90" max="112" width="7.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:112" x14ac:dyDescent="0.45">
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A2" s="37"/>
       <c r="P2" s="14" t="s">
         <v>19</v>
@@ -1476,7 +1476,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:112" x14ac:dyDescent="0.45">
       <c r="H3" s="11"/>
       <c r="I3" s="10" t="s">
         <v>11</v>
@@ -1791,7 +1791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:112" x14ac:dyDescent="0.45">
       <c r="C4" s="20" t="s">
         <v>3</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>43740</v>
       </c>
     </row>
-    <row r="5" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:112" x14ac:dyDescent="0.45">
       <c r="C5" s="1" t="s">
         <v>47</v>
       </c>
@@ -2248,7 +2248,7 @@
       <c r="DG5" s="5"/>
       <c r="DH5" s="5"/>
     </row>
-    <row r="6" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:112" x14ac:dyDescent="0.45">
       <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
@@ -2375,7 +2375,7 @@
       <c r="DG6" s="5"/>
       <c r="DH6" s="5"/>
     </row>
-    <row r="7" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:112" x14ac:dyDescent="0.45">
       <c r="C7" s="1" t="s">
         <v>48</v>
       </c>
@@ -2502,7 +2502,7 @@
       <c r="DG7" s="5"/>
       <c r="DH7" s="5"/>
     </row>
-    <row r="8" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:112" x14ac:dyDescent="0.45">
       <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
@@ -2629,7 +2629,7 @@
       <c r="DG8" s="5"/>
       <c r="DH8" s="5"/>
     </row>
-    <row r="9" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:112" x14ac:dyDescent="0.45">
       <c r="C9" s="1" t="s">
         <v>53</v>
       </c>
@@ -2756,7 +2756,7 @@
       <c r="DG9" s="5"/>
       <c r="DH9" s="5"/>
     </row>
-    <row r="10" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:112" x14ac:dyDescent="0.45">
       <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H10" s="31" t="s">
         <v>54</v>
@@ -2883,7 +2883,7 @@
       <c r="DG10" s="5"/>
       <c r="DH10" s="5"/>
     </row>
-    <row r="11" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:112" x14ac:dyDescent="0.45">
       <c r="C11" s="1" t="s">
         <v>57</v>
       </c>
@@ -3010,7 +3010,7 @@
       <c r="DG11" s="5"/>
       <c r="DH11" s="5"/>
     </row>
-    <row r="12" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:112" x14ac:dyDescent="0.45">
       <c r="C12" s="1" t="s">
         <v>58</v>
       </c>
@@ -3137,7 +3137,7 @@
       <c r="DG12" s="5"/>
       <c r="DH12" s="5"/>
     </row>
-    <row r="13" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:112" x14ac:dyDescent="0.45">
       <c r="C13" s="1" t="s">
         <v>42</v>
       </c>
@@ -3264,7 +3264,7 @@
       <c r="DG13" s="5"/>
       <c r="DH13" s="5"/>
     </row>
-    <row r="14" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:112" x14ac:dyDescent="0.45">
       <c r="C14" s="1" t="s">
         <v>37</v>
       </c>
@@ -3391,7 +3391,7 @@
       <c r="DG14" s="5"/>
       <c r="DH14" s="5"/>
     </row>
-    <row r="15" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:112" x14ac:dyDescent="0.45">
       <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
@@ -3518,7 +3518,7 @@
       <c r="DG15" s="5"/>
       <c r="DH15" s="5"/>
     </row>
-    <row r="16" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:112" x14ac:dyDescent="0.45">
       <c r="C16" s="1" t="s">
         <v>43</v>
       </c>
@@ -3645,7 +3645,7 @@
       <c r="DG16" s="5"/>
       <c r="DH16" s="5"/>
     </row>
-    <row r="17" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C17" s="1" t="s">
         <v>35</v>
       </c>
@@ -3772,7 +3772,7 @@
       <c r="DG17" s="5"/>
       <c r="DH17" s="5"/>
     </row>
-    <row r="18" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C18" s="1" t="s">
         <v>50</v>
       </c>
@@ -3899,7 +3899,7 @@
       <c r="DG18" s="5"/>
       <c r="DH18" s="5"/>
     </row>
-    <row r="19" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C19" s="1" t="s">
         <v>51</v>
       </c>
@@ -4026,7 +4026,7 @@
       <c r="DG19" s="5"/>
       <c r="DH19" s="5"/>
     </row>
-    <row r="20" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C20" s="1"/>
       <c r="D20" s="6" t="str">
         <f>IFERROR(VLOOKUP(C20,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4147,7 +4147,7 @@
       <c r="DG20" s="5"/>
       <c r="DH20" s="5"/>
     </row>
-    <row r="21" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C21" s="1"/>
       <c r="D21" s="6" t="str">
         <f>IFERROR(VLOOKUP(C21,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4268,7 +4268,7 @@
       <c r="DG21" s="5"/>
       <c r="DH21" s="5"/>
     </row>
-    <row r="22" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C22" s="1"/>
       <c r="D22" s="6" t="str">
         <f>IFERROR(VLOOKUP(C22,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4389,7 +4389,7 @@
       <c r="DG22" s="5"/>
       <c r="DH22" s="5"/>
     </row>
-    <row r="23" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C23" s="1"/>
       <c r="D23" s="6" t="str">
         <f>IFERROR(VLOOKUP(C23,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4510,7 +4510,7 @@
       <c r="DG23" s="5"/>
       <c r="DH23" s="5"/>
     </row>
-    <row r="24" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C24" s="1"/>
       <c r="D24" s="6" t="str">
         <f>IFERROR(VLOOKUP(C24,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4631,7 +4631,7 @@
       <c r="DG24" s="5"/>
       <c r="DH24" s="5"/>
     </row>
-    <row r="25" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C25" s="1"/>
       <c r="D25" s="6" t="str">
         <f>IFERROR(VLOOKUP(C25,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4752,7 +4752,7 @@
       <c r="DG25" s="5"/>
       <c r="DH25" s="5"/>
     </row>
-    <row r="26" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C26" s="1"/>
       <c r="D26" s="6" t="str">
         <f>IFERROR(VLOOKUP(C26,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4873,7 +4873,7 @@
       <c r="DG26" s="5"/>
       <c r="DH26" s="5"/>
     </row>
-    <row r="27" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C27" s="1"/>
       <c r="D27" s="6" t="str">
         <f>IFERROR(VLOOKUP(C27,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4994,7 +4994,7 @@
       <c r="DG27" s="5"/>
       <c r="DH27" s="5"/>
     </row>
-    <row r="28" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C28" s="1"/>
       <c r="D28" s="6" t="str">
         <f>IFERROR(VLOOKUP(C28,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5115,7 +5115,7 @@
       <c r="DG28" s="5"/>
       <c r="DH28" s="5"/>
     </row>
-    <row r="29" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C29" s="1"/>
       <c r="D29" s="6" t="str">
         <f>IFERROR(VLOOKUP(C29,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5236,7 +5236,7 @@
       <c r="DG29" s="5"/>
       <c r="DH29" s="5"/>
     </row>
-    <row r="30" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C30" s="1"/>
       <c r="D30" s="6" t="str">
         <f>IFERROR(VLOOKUP(C30,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5357,7 +5357,7 @@
       <c r="DG30" s="5"/>
       <c r="DH30" s="5"/>
     </row>
-    <row r="31" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C31" s="1"/>
       <c r="D31" s="6" t="str">
         <f>IFERROR(VLOOKUP(C31,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5478,7 +5478,7 @@
       <c r="DG31" s="5"/>
       <c r="DH31" s="5"/>
     </row>
-    <row r="32" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C32" s="1"/>
       <c r="D32" s="6" t="str">
         <f>IFERROR(VLOOKUP(C32,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5599,7 +5599,7 @@
       <c r="DG32" s="5"/>
       <c r="DH32" s="5"/>
     </row>
-    <row r="33" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C33" s="1"/>
       <c r="D33" s="6" t="str">
         <f>IFERROR(VLOOKUP(C33,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5720,7 +5720,7 @@
       <c r="DG33" s="5"/>
       <c r="DH33" s="5"/>
     </row>
-    <row r="34" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C34" s="1"/>
       <c r="D34" s="6" t="str">
         <f>IFERROR(VLOOKUP(C34,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5841,7 +5841,7 @@
       <c r="DG34" s="5"/>
       <c r="DH34" s="5"/>
     </row>
-    <row r="35" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C35" s="1"/>
       <c r="D35" s="6" t="str">
         <f>IFERROR(VLOOKUP(C35,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5962,7 +5962,7 @@
       <c r="DG35" s="5"/>
       <c r="DH35" s="5"/>
     </row>
-    <row r="36" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C36" s="1"/>
       <c r="D36" s="6" t="str">
         <f>IFERROR(VLOOKUP(C36,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6083,7 +6083,7 @@
       <c r="DG36" s="5"/>
       <c r="DH36" s="5"/>
     </row>
-    <row r="37" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C37" s="1"/>
       <c r="D37" s="6" t="str">
         <f>IFERROR(VLOOKUP(C37,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6204,7 +6204,7 @@
       <c r="DG37" s="5"/>
       <c r="DH37" s="5"/>
     </row>
-    <row r="38" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C38" s="1"/>
       <c r="D38" s="6" t="str">
         <f>IFERROR(VLOOKUP(C38,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6325,7 +6325,7 @@
       <c r="DG38" s="5"/>
       <c r="DH38" s="5"/>
     </row>
-    <row r="39" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C39" s="1"/>
       <c r="D39" s="6" t="str">
         <f>IFERROR(VLOOKUP(C39,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6446,7 +6446,7 @@
       <c r="DG39" s="5"/>
       <c r="DH39" s="5"/>
     </row>
-    <row r="40" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C40" s="1"/>
       <c r="D40" s="6" t="str">
         <f>IFERROR(VLOOKUP(C40,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6567,7 +6567,7 @@
       <c r="DG40" s="5"/>
       <c r="DH40" s="5"/>
     </row>
-    <row r="41" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C41" s="1"/>
       <c r="D41" s="6" t="str">
         <f>IFERROR(VLOOKUP(C41,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6688,7 +6688,7 @@
       <c r="DG41" s="5"/>
       <c r="DH41" s="5"/>
     </row>
-    <row r="42" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C42" s="1"/>
       <c r="D42" s="6" t="str">
         <f>IFERROR(VLOOKUP(C42,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6809,7 +6809,7 @@
       <c r="DG42" s="5"/>
       <c r="DH42" s="5"/>
     </row>
-    <row r="43" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C43" s="1"/>
       <c r="D43" s="6" t="str">
         <f>IFERROR(VLOOKUP(C43,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6930,7 +6930,7 @@
       <c r="DG43" s="5"/>
       <c r="DH43" s="5"/>
     </row>
-    <row r="44" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C44" s="1"/>
       <c r="D44" s="6" t="str">
         <f>IFERROR(VLOOKUP(C44,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7051,7 +7051,7 @@
       <c r="DG44" s="5"/>
       <c r="DH44" s="5"/>
     </row>
-    <row r="45" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C45" s="1"/>
       <c r="D45" s="6" t="str">
         <f>IFERROR(VLOOKUP(C45,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7172,7 +7172,7 @@
       <c r="DG45" s="5"/>
       <c r="DH45" s="5"/>
     </row>
-    <row r="46" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C46" s="1"/>
       <c r="D46" s="6" t="str">
         <f>IFERROR(VLOOKUP(C46,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7293,7 +7293,7 @@
       <c r="DG46" s="5"/>
       <c r="DH46" s="5"/>
     </row>
-    <row r="47" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C47" s="1"/>
       <c r="D47" s="6" t="str">
         <f>IFERROR(VLOOKUP(C47,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7414,7 +7414,7 @@
       <c r="DG47" s="5"/>
       <c r="DH47" s="5"/>
     </row>
-    <row r="48" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C48" s="1"/>
       <c r="D48" s="6" t="str">
         <f>IFERROR(VLOOKUP(C48,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7535,7 +7535,7 @@
       <c r="DG48" s="5"/>
       <c r="DH48" s="5"/>
     </row>
-    <row r="49" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C49" s="1"/>
       <c r="D49" s="6" t="str">
         <f>IFERROR(VLOOKUP(C49,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7656,7 +7656,7 @@
       <c r="DG49" s="5"/>
       <c r="DH49" s="5"/>
     </row>
-    <row r="50" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C50" s="1"/>
       <c r="D50" s="6" t="str">
         <f>IFERROR(VLOOKUP(C50,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7777,7 +7777,7 @@
       <c r="DG50" s="5"/>
       <c r="DH50" s="5"/>
     </row>
-    <row r="51" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C51" s="1"/>
       <c r="D51" s="6" t="str">
         <f>IFERROR(VLOOKUP(C51,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7898,7 +7898,7 @@
       <c r="DG51" s="5"/>
       <c r="DH51" s="5"/>
     </row>
-    <row r="52" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C52" s="1"/>
       <c r="D52" s="6" t="str">
         <f>IFERROR(VLOOKUP(C52,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8019,7 +8019,7 @@
       <c r="DG52" s="5"/>
       <c r="DH52" s="5"/>
     </row>
-    <row r="53" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C53" s="1"/>
       <c r="D53" s="6" t="str">
         <f>IFERROR(VLOOKUP(C53,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8140,7 +8140,7 @@
       <c r="DG53" s="5"/>
       <c r="DH53" s="5"/>
     </row>
-    <row r="54" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C54" s="1"/>
       <c r="D54" s="6" t="str">
         <f>IFERROR(VLOOKUP(C54,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8261,7 +8261,7 @@
       <c r="DG54" s="5"/>
       <c r="DH54" s="5"/>
     </row>
-    <row r="55" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C55" s="1"/>
       <c r="D55" s="6" t="str">
         <f>IFERROR(VLOOKUP(C55,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8382,7 +8382,7 @@
       <c r="DG55" s="5"/>
       <c r="DH55" s="5"/>
     </row>
-    <row r="56" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C56" s="1"/>
       <c r="D56" s="6" t="str">
         <f>IFERROR(VLOOKUP(C56,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8503,7 +8503,7 @@
       <c r="DG56" s="5"/>
       <c r="DH56" s="5"/>
     </row>
-    <row r="57" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C57" s="1"/>
       <c r="D57" s="6" t="str">
         <f>IFERROR(VLOOKUP(C57,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8624,7 +8624,7 @@
       <c r="DG57" s="5"/>
       <c r="DH57" s="5"/>
     </row>
-    <row r="58" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C58" s="1"/>
       <c r="D58" s="6" t="str">
         <f>IFERROR(VLOOKUP(C58,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8745,7 +8745,7 @@
       <c r="DG58" s="5"/>
       <c r="DH58" s="5"/>
     </row>
-    <row r="59" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C59" s="1"/>
       <c r="D59" s="6" t="str">
         <f>IFERROR(VLOOKUP(C59,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8866,7 +8866,7 @@
       <c r="DG59" s="5"/>
       <c r="DH59" s="5"/>
     </row>
-    <row r="60" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C60" s="1"/>
       <c r="D60" s="6" t="str">
         <f>IFERROR(VLOOKUP(C60,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8987,7 +8987,7 @@
       <c r="DG60" s="5"/>
       <c r="DH60" s="5"/>
     </row>
-    <row r="61" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C61" s="1"/>
       <c r="D61" s="6" t="str">
         <f>IFERROR(VLOOKUP(C61,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9108,7 +9108,7 @@
       <c r="DG61" s="5"/>
       <c r="DH61" s="5"/>
     </row>
-    <row r="62" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C62" s="1"/>
       <c r="D62" s="6" t="str">
         <f>IFERROR(VLOOKUP(C62,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9229,7 +9229,7 @@
       <c r="DG62" s="5"/>
       <c r="DH62" s="5"/>
     </row>
-    <row r="63" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C63" s="1"/>
       <c r="D63" s="6" t="str">
         <f>IFERROR(VLOOKUP(C63,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9350,7 +9350,7 @@
       <c r="DG63" s="5"/>
       <c r="DH63" s="5"/>
     </row>
-    <row r="64" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C64" s="1"/>
       <c r="D64" s="6" t="str">
         <f>IFERROR(VLOOKUP(C64,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9471,7 +9471,7 @@
       <c r="DG64" s="5"/>
       <c r="DH64" s="5"/>
     </row>
-    <row r="65" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C65" s="1"/>
       <c r="D65" s="6" t="str">
         <f>IFERROR(VLOOKUP(C65,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9592,7 +9592,7 @@
       <c r="DG65" s="5"/>
       <c r="DH65" s="5"/>
     </row>
-    <row r="66" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C66" s="1"/>
       <c r="D66" s="6" t="str">
         <f>IFERROR(VLOOKUP(C66,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9713,7 +9713,7 @@
       <c r="DG66" s="5"/>
       <c r="DH66" s="5"/>
     </row>
-    <row r="67" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C67" s="1"/>
       <c r="D67" s="6" t="str">
         <f>IFERROR(VLOOKUP(C67,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9834,7 +9834,7 @@
       <c r="DG67" s="5"/>
       <c r="DH67" s="5"/>
     </row>
-    <row r="68" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C68" s="1"/>
       <c r="D68" s="6" t="str">
         <f>IFERROR(VLOOKUP(C68,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9955,7 +9955,7 @@
       <c r="DG68" s="5"/>
       <c r="DH68" s="5"/>
     </row>
-    <row r="69" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C69" s="1"/>
       <c r="D69" s="6" t="str">
         <f>IFERROR(VLOOKUP(C69,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10076,7 +10076,7 @@
       <c r="DG69" s="5"/>
       <c r="DH69" s="5"/>
     </row>
-    <row r="70" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C70" s="1"/>
       <c r="D70" s="6" t="str">
         <f>IFERROR(VLOOKUP(C70,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10197,7 +10197,7 @@
       <c r="DG70" s="5"/>
       <c r="DH70" s="5"/>
     </row>
-    <row r="71" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C71" s="1"/>
       <c r="D71" s="6" t="str">
         <f>IFERROR(VLOOKUP(C71,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10318,7 +10318,7 @@
       <c r="DG71" s="5"/>
       <c r="DH71" s="5"/>
     </row>
-    <row r="72" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C72" s="1"/>
       <c r="D72" s="6" t="str">
         <f>IFERROR(VLOOKUP(C72,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10439,7 +10439,7 @@
       <c r="DG72" s="5"/>
       <c r="DH72" s="5"/>
     </row>
-    <row r="73" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C73" s="1"/>
       <c r="D73" s="6" t="str">
         <f>IFERROR(VLOOKUP(C73,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10560,7 +10560,7 @@
       <c r="DG73" s="5"/>
       <c r="DH73" s="5"/>
     </row>
-    <row r="74" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C74" s="1"/>
       <c r="D74" s="6" t="str">
         <f>IFERROR(VLOOKUP(C74,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10681,7 +10681,7 @@
       <c r="DG74" s="5"/>
       <c r="DH74" s="5"/>
     </row>
-    <row r="75" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C75" s="1"/>
       <c r="D75" s="6" t="str">
         <f>IFERROR(VLOOKUP(C75,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10802,7 +10802,7 @@
       <c r="DG75" s="5"/>
       <c r="DH75" s="5"/>
     </row>
-    <row r="76" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C76" s="1"/>
       <c r="D76" s="6" t="str">
         <f>IFERROR(VLOOKUP(C76,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10923,7 +10923,7 @@
       <c r="DG76" s="5"/>
       <c r="DH76" s="5"/>
     </row>
-    <row r="77" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C77" s="1"/>
       <c r="D77" s="6" t="str">
         <f>IFERROR(VLOOKUP(C77,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11044,7 +11044,7 @@
       <c r="DG77" s="5"/>
       <c r="DH77" s="5"/>
     </row>
-    <row r="78" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C78" s="1"/>
       <c r="D78" s="6" t="str">
         <f>IFERROR(VLOOKUP(C78,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11165,7 +11165,7 @@
       <c r="DG78" s="5"/>
       <c r="DH78" s="5"/>
     </row>
-    <row r="79" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C79" s="1"/>
       <c r="D79" s="6" t="str">
         <f>IFERROR(VLOOKUP(C79,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11286,7 +11286,7 @@
       <c r="DG79" s="5"/>
       <c r="DH79" s="5"/>
     </row>
-    <row r="80" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C80" s="1"/>
       <c r="D80" s="6" t="str">
         <f>IFERROR(VLOOKUP(C80,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11407,7 +11407,7 @@
       <c r="DG80" s="5"/>
       <c r="DH80" s="5"/>
     </row>
-    <row r="81" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C81" s="1"/>
       <c r="D81" s="6" t="str">
         <f>IFERROR(VLOOKUP(C81,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11528,7 +11528,7 @@
       <c r="DG81" s="5"/>
       <c r="DH81" s="5"/>
     </row>
-    <row r="82" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C82" s="1"/>
       <c r="D82" s="6" t="str">
         <f>IFERROR(VLOOKUP(C82,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11649,7 +11649,7 @@
       <c r="DG82" s="5"/>
       <c r="DH82" s="5"/>
     </row>
-    <row r="83" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C83" s="1"/>
       <c r="D83" s="6" t="str">
         <f>IFERROR(VLOOKUP(C83,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11770,7 +11770,7 @@
       <c r="DG83" s="5"/>
       <c r="DH83" s="5"/>
     </row>
-    <row r="84" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C84" s="1"/>
       <c r="D84" s="6" t="str">
         <f>IFERROR(VLOOKUP(C84,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11891,7 +11891,7 @@
       <c r="DG84" s="5"/>
       <c r="DH84" s="5"/>
     </row>
-    <row r="85" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C85" s="1"/>
       <c r="D85" s="6" t="str">
         <f>IFERROR(VLOOKUP(C85,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12012,7 +12012,7 @@
       <c r="DG85" s="5"/>
       <c r="DH85" s="5"/>
     </row>
-    <row r="86" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C86" s="1"/>
       <c r="D86" s="6" t="str">
         <f>IFERROR(VLOOKUP(C86,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12133,7 +12133,7 @@
       <c r="DG86" s="5"/>
       <c r="DH86" s="5"/>
     </row>
-    <row r="87" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C87" s="1"/>
       <c r="D87" s="6" t="str">
         <f>IFERROR(VLOOKUP(C87,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12254,7 +12254,7 @@
       <c r="DG87" s="5"/>
       <c r="DH87" s="5"/>
     </row>
-    <row r="88" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C88" s="1"/>
       <c r="D88" s="6" t="str">
         <f>IFERROR(VLOOKUP(C88,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12375,7 +12375,7 @@
       <c r="DG88" s="5"/>
       <c r="DH88" s="5"/>
     </row>
-    <row r="89" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C89" s="1"/>
       <c r="D89" s="6" t="str">
         <f>IFERROR(VLOOKUP(C89,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12496,7 +12496,7 @@
       <c r="DG89" s="5"/>
       <c r="DH89" s="5"/>
     </row>
-    <row r="90" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C90" s="1"/>
       <c r="D90" s="6" t="str">
         <f>IFERROR(VLOOKUP(C90,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12617,7 +12617,7 @@
       <c r="DG90" s="5"/>
       <c r="DH90" s="5"/>
     </row>
-    <row r="91" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C91" s="1"/>
       <c r="D91" s="6" t="str">
         <f>IFERROR(VLOOKUP(C91,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12738,7 +12738,7 @@
       <c r="DG91" s="5"/>
       <c r="DH91" s="5"/>
     </row>
-    <row r="92" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C92" s="1"/>
       <c r="D92" s="6" t="str">
         <f>IFERROR(VLOOKUP(C92,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12859,7 +12859,7 @@
       <c r="DG92" s="5"/>
       <c r="DH92" s="5"/>
     </row>
-    <row r="93" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C93" s="1"/>
       <c r="D93" s="6" t="str">
         <f>IFERROR(VLOOKUP(C93,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12980,7 +12980,7 @@
       <c r="DG93" s="5"/>
       <c r="DH93" s="5"/>
     </row>
-    <row r="94" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C94" s="1"/>
       <c r="D94" s="6" t="str">
         <f>IFERROR(VLOOKUP(C94,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13101,7 +13101,7 @@
       <c r="DG94" s="5"/>
       <c r="DH94" s="5"/>
     </row>
-    <row r="95" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C95" s="1"/>
       <c r="D95" s="6" t="str">
         <f>IFERROR(VLOOKUP(C95,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13222,7 +13222,7 @@
       <c r="DG95" s="5"/>
       <c r="DH95" s="5"/>
     </row>
-    <row r="96" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C96" s="1"/>
       <c r="D96" s="6" t="str">
         <f>IFERROR(VLOOKUP(C96,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13343,7 +13343,7 @@
       <c r="DG96" s="5"/>
       <c r="DH96" s="5"/>
     </row>
-    <row r="97" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C97" s="1"/>
       <c r="D97" s="6" t="str">
         <f>IFERROR(VLOOKUP(C97,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13464,7 +13464,7 @@
       <c r="DG97" s="5"/>
       <c r="DH97" s="5"/>
     </row>
-    <row r="98" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C98" s="1"/>
       <c r="D98" s="6" t="str">
         <f>IFERROR(VLOOKUP(C98,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13585,7 +13585,7 @@
       <c r="DG98" s="5"/>
       <c r="DH98" s="5"/>
     </row>
-    <row r="99" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C99" s="1"/>
       <c r="D99" s="6" t="str">
         <f>IFERROR(VLOOKUP(C99,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13706,7 +13706,7 @@
       <c r="DG99" s="5"/>
       <c r="DH99" s="5"/>
     </row>
-    <row r="100" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C100" s="1"/>
       <c r="D100" s="6" t="str">
         <f>IFERROR(VLOOKUP(C100,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13827,7 +13827,7 @@
       <c r="DG100" s="5"/>
       <c r="DH100" s="5"/>
     </row>
-    <row r="102" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="3:112" x14ac:dyDescent="0.45">
       <c r="E102" s="9"/>
     </row>
   </sheetData>
@@ -13911,22 +13911,22 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="101.9140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="101.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C4" s="18" t="s">
         <v>0</v>
       </c>
@@ -13946,7 +13946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C5" s="1" t="s">
         <v>47</v>
       </c>
@@ -13967,7 +13967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:30" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C6" s="27" t="s">
         <v>24</v>
       </c>
@@ -13986,7 +13986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A7" s="22"/>
       <c r="B7" s="23" t="s">
         <v>25</v>
@@ -14008,7 +14008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
@@ -14026,7 +14026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
@@ -14044,7 +14044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
@@ -14062,7 +14062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:30" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C11" s="27" t="s">
         <v>57</v>
       </c>
@@ -14080,7 +14080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B12" s="24" t="s">
         <v>34</v>
       </c>
@@ -14101,7 +14101,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C13" s="1" t="s">
         <v>35</v>
       </c>
@@ -14119,7 +14119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C14" s="1" t="s">
         <v>37</v>
       </c>
@@ -14137,7 +14137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
@@ -14155,7 +14155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C16" s="1" t="s">
         <v>40</v>
       </c>
@@ -14173,7 +14173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C17" s="1" t="s">
         <v>43</v>
       </c>
@@ -14191,7 +14191,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C18" s="1" t="s">
         <v>58</v>
       </c>
@@ -14209,7 +14209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="35"/>
@@ -14219,7 +14219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="25" t="s">
         <v>46</v>
       </c>
@@ -14240,7 +14240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C21" s="1" t="s">
         <v>51</v>
       </c>
@@ -14258,7 +14258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -14268,7 +14268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -14278,7 +14278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -14288,7 +14288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -14298,7 +14298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -14308,7 +14308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -14318,7 +14318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -14328,7 +14328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -14338,7 +14338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -14348,7 +14348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -14358,7 +14358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -14368,7 +14368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -14378,7 +14378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -14388,7 +14388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -14398,7 +14398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -14408,7 +14408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -14418,7 +14418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -14428,7 +14428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -14438,7 +14438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -14448,7 +14448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -14458,7 +14458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -14468,7 +14468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -14478,7 +14478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -14488,7 +14488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -14498,7 +14498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -14508,7 +14508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -14518,7 +14518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -14528,7 +14528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -14538,7 +14538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -14548,7 +14548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -14558,7 +14558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -14568,7 +14568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -14578,7 +14578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -14588,7 +14588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -14598,7 +14598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -14608,7 +14608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -14618,7 +14618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -14628,7 +14628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -14638,7 +14638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -14648,7 +14648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -14658,7 +14658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -14668,7 +14668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -14678,7 +14678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -14688,7 +14688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -14698,7 +14698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -14708,7 +14708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -14718,7 +14718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -14728,7 +14728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -14738,7 +14738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -14748,7 +14748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -14758,7 +14758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -14768,7 +14768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -14778,7 +14778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -14788,7 +14788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -14798,7 +14798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -14808,7 +14808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -14818,7 +14818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -14828,7 +14828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -14838,7 +14838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -14848,7 +14848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -14858,7 +14858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -14868,7 +14868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -14878,7 +14878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -14888,7 +14888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -14898,7 +14898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -14908,7 +14908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -14918,7 +14918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -14928,7 +14928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -14938,7 +14938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -14948,7 +14948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -14958,7 +14958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -14968,7 +14968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -14978,7 +14978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -14988,7 +14988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -14998,7 +14998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -15008,7 +15008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -15018,7 +15018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -15028,7 +15028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -15038,7 +15038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -15048,7 +15048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -15058,7 +15058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -15068,7 +15068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -15078,7 +15078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -15088,7 +15088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -15098,7 +15098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -15108,7 +15108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -15118,7 +15118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -15128,7 +15128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -15138,7 +15138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -15148,7 +15148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -15158,7 +15158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -15168,7 +15168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -15178,7 +15178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -15188,7 +15188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -15198,7 +15198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -15208,7 +15208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -15218,7 +15218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -15228,7 +15228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -15238,7 +15238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -15248,7 +15248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -15258,7 +15258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -15268,7 +15268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -15278,7 +15278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -15288,7 +15288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -15298,7 +15298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -15308,7 +15308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -15318,7 +15318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -15328,7 +15328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -15338,7 +15338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -15348,7 +15348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -15358,7 +15358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -15368,7 +15368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -15378,7 +15378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -15388,7 +15388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -15398,7 +15398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -15408,7 +15408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -15418,7 +15418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -15428,7 +15428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -15438,7 +15438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -15448,7 +15448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -15458,7 +15458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -15468,7 +15468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -15478,7 +15478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -15488,7 +15488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -15498,7 +15498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -15508,7 +15508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -15518,7 +15518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -15528,7 +15528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -15538,7 +15538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -15548,7 +15548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -15558,7 +15558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -15568,7 +15568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -15578,7 +15578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -15588,7 +15588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -15598,7 +15598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -15608,7 +15608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -15618,7 +15618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -15628,7 +15628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -15638,7 +15638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -15648,7 +15648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -15658,7 +15658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -15668,7 +15668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -15678,7 +15678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -15688,7 +15688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -15698,7 +15698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -15708,7 +15708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -15718,7 +15718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -15728,7 +15728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -15738,7 +15738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -15748,7 +15748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -15758,7 +15758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -15768,7 +15768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -15778,7 +15778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -15788,7 +15788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -15798,7 +15798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -15808,7 +15808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -15818,7 +15818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -15828,7 +15828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -15838,7 +15838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -15848,7 +15848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -15858,7 +15858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -15868,7 +15868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -15878,7 +15878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -15888,7 +15888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -15898,7 +15898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -15908,7 +15908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -15918,7 +15918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -15928,7 +15928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -15938,7 +15938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -15948,7 +15948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -15958,7 +15958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -15968,7 +15968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -15978,7 +15978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -15988,7 +15988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -15998,7 +15998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -16008,7 +16008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -16018,7 +16018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -16028,7 +16028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -16038,7 +16038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -16048,7 +16048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -16058,7 +16058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -16068,7 +16068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -16078,7 +16078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -16088,7 +16088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -16098,7 +16098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -16108,7 +16108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -16118,7 +16118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -16128,7 +16128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -16138,7 +16138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -16148,7 +16148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -16158,7 +16158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -16168,7 +16168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -16178,7 +16178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -16188,7 +16188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -16198,7 +16198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -16208,7 +16208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -16218,7 +16218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -16228,7 +16228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -16238,7 +16238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -16248,7 +16248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -16258,7 +16258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -16268,7 +16268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -16278,7 +16278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -16288,7 +16288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -16298,7 +16298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -16308,7 +16308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -16318,7 +16318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -16328,7 +16328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -16338,7 +16338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -16348,7 +16348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -16358,7 +16358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -16368,7 +16368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -16378,7 +16378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -16388,7 +16388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -16398,7 +16398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -16408,7 +16408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -16418,7 +16418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -16428,7 +16428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -16438,7 +16438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -16448,7 +16448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -16458,7 +16458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -16468,7 +16468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -16478,7 +16478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -16488,7 +16488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -16498,7 +16498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -16508,7 +16508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -16518,7 +16518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -16528,7 +16528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -16538,7 +16538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -16548,7 +16548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -16558,7 +16558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -16568,7 +16568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -16578,7 +16578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -16588,7 +16588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -16598,7 +16598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -16608,7 +16608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -16618,7 +16618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -16628,7 +16628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -16638,7 +16638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -16648,7 +16648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -16658,7 +16658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -16668,7 +16668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -16678,7 +16678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -16688,7 +16688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -16698,7 +16698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -16708,7 +16708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -16718,7 +16718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -16728,7 +16728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -16738,7 +16738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -16748,7 +16748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -16758,7 +16758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -16768,7 +16768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -16778,7 +16778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -16788,7 +16788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -16798,7 +16798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -16808,7 +16808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -16818,7 +16818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -16828,7 +16828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -16838,7 +16838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -16848,7 +16848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -16858,7 +16858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -16868,7 +16868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -16878,7 +16878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -16888,7 +16888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -16898,7 +16898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -16908,7 +16908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -16918,7 +16918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -16928,7 +16928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -16938,7 +16938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -16948,7 +16948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -16958,7 +16958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -16968,7 +16968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -16978,7 +16978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -16988,7 +16988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -16998,7 +16998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -17008,7 +17008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -17018,7 +17018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -17028,7 +17028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -17038,7 +17038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
@@ -17048,7 +17048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
@@ -17058,7 +17058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
@@ -17068,7 +17068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
@@ -17078,7 +17078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
@@ -17088,7 +17088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
@@ -17098,7 +17098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
@@ -17108,7 +17108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
@@ -17118,7 +17118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
@@ -17128,7 +17128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
@@ -17138,7 +17138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
@@ -17148,7 +17148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
@@ -17158,7 +17158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
@@ -17168,7 +17168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
@@ -17178,7 +17178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
@@ -17188,7 +17188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
@@ -17198,7 +17198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
@@ -17208,7 +17208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
@@ -17218,7 +17218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
@@ -17228,7 +17228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
@@ -17238,7 +17238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
@@ -17248,7 +17248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
@@ -17258,7 +17258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
@@ -17268,7 +17268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
@@ -17278,7 +17278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
@@ -17288,7 +17288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
@@ -17298,7 +17298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
@@ -17308,7 +17308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
@@ -17318,7 +17318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
@@ -17328,7 +17328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
@@ -17338,7 +17338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
@@ -17348,7 +17348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
@@ -17358,7 +17358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
@@ -17368,7 +17368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
@@ -17378,7 +17378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
@@ -17388,7 +17388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
@@ -17398,7 +17398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
@@ -17408,7 +17408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
@@ -17418,7 +17418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
@@ -17428,7 +17428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
@@ -17438,7 +17438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
@@ -17448,7 +17448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
@@ -17458,7 +17458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
@@ -17468,7 +17468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
@@ -17478,7 +17478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
@@ -17488,7 +17488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
@@ -17498,7 +17498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
@@ -17508,7 +17508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
@@ -17518,7 +17518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
@@ -17528,7 +17528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
@@ -17538,7 +17538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
@@ -17548,7 +17548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
@@ -17558,7 +17558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
@@ -17568,7 +17568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
@@ -17578,7 +17578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
@@ -17588,7 +17588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
@@ -17598,7 +17598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
@@ -17608,7 +17608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
@@ -17618,7 +17618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
@@ -17628,7 +17628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
@@ -17638,7 +17638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
@@ -17648,7 +17648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
@@ -17658,7 +17658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
@@ -17668,7 +17668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
@@ -17678,7 +17678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
@@ -17688,7 +17688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
@@ -17698,7 +17698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
@@ -17708,7 +17708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
@@ -17718,7 +17718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
@@ -17728,7 +17728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
@@ -17738,7 +17738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
@@ -17748,7 +17748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
@@ -17758,7 +17758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
@@ -17768,7 +17768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
@@ -17778,7 +17778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
@@ -17788,7 +17788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
@@ -17798,7 +17798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
@@ -17808,7 +17808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
@@ -17818,7 +17818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
@@ -17828,7 +17828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
@@ -17838,7 +17838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
@@ -17848,7 +17848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
@@ -17858,7 +17858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
@@ -17868,7 +17868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
@@ -17878,7 +17878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
@@ -17888,7 +17888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
@@ -17898,7 +17898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
@@ -17908,7 +17908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
@@ -17918,7 +17918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
@@ -17928,7 +17928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
@@ -17938,7 +17938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
@@ -17948,7 +17948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
@@ -17958,7 +17958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
@@ -17968,7 +17968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
@@ -17978,7 +17978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
@@ -17988,7 +17988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
@@ -17998,7 +17998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
@@ -18008,7 +18008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
@@ -18018,7 +18018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
@@ -18028,7 +18028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
@@ -18038,7 +18038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
@@ -18048,7 +18048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
@@ -18058,7 +18058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
@@ -18068,7 +18068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
@@ -18078,7 +18078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
@@ -18088,7 +18088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
@@ -18098,7 +18098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
@@ -18108,7 +18108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
@@ -18118,7 +18118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
@@ -18128,7 +18128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
@@ -18138,7 +18138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
@@ -18148,7 +18148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
@@ -18158,7 +18158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
@@ -18168,7 +18168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
@@ -18178,7 +18178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
@@ -18188,7 +18188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
@@ -18198,7 +18198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
@@ -18208,7 +18208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
@@ -18218,7 +18218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
@@ -18228,7 +18228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
@@ -18238,7 +18238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
@@ -18248,7 +18248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
@@ -18258,7 +18258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
@@ -18268,7 +18268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
@@ -18278,7 +18278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
@@ -18288,7 +18288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
@@ -18298,7 +18298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
@@ -18308,7 +18308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
@@ -18318,7 +18318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
@@ -18328,7 +18328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
@@ -18338,7 +18338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
@@ -18348,7 +18348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
@@ -18358,7 +18358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
@@ -18368,7 +18368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
@@ -18378,7 +18378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
@@ -18388,7 +18388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
@@ -18398,7 +18398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
@@ -18408,7 +18408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
@@ -18418,7 +18418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
@@ -18428,7 +18428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
@@ -18438,7 +18438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
@@ -18448,7 +18448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
@@ -18458,7 +18458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
@@ -18468,7 +18468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
@@ -18478,7 +18478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
@@ -18488,7 +18488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
@@ -18498,7 +18498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
@@ -18508,7 +18508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
@@ -18518,7 +18518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
@@ -18528,7 +18528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
@@ -18538,7 +18538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
@@ -18548,7 +18548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
@@ -18558,7 +18558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
@@ -18568,7 +18568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
@@ -18578,7 +18578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
@@ -18588,7 +18588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
@@ -18598,7 +18598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
@@ -18608,7 +18608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
@@ -18618,7 +18618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
@@ -18628,7 +18628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
@@ -18638,7 +18638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
@@ -18648,7 +18648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
@@ -18658,7 +18658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
@@ -18668,7 +18668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
@@ -18678,7 +18678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
@@ -18688,7 +18688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
@@ -18698,7 +18698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
@@ -18708,7 +18708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
@@ -18718,7 +18718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
@@ -18728,7 +18728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
@@ -18738,7 +18738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
@@ -18748,7 +18748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
@@ -18758,7 +18758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
@@ -18768,7 +18768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
@@ -18778,7 +18778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
@@ -18788,7 +18788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
@@ -18798,7 +18798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
@@ -18808,7 +18808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
@@ -18818,7 +18818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
@@ -18828,7 +18828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
@@ -18838,7 +18838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
@@ -18848,7 +18848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
@@ -18858,7 +18858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
@@ -18868,7 +18868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
@@ -18878,7 +18878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
@@ -18888,7 +18888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
@@ -18898,7 +18898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
@@ -18908,7 +18908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
@@ -18918,7 +18918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
@@ -18928,7 +18928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
@@ -18938,7 +18938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
@@ -18948,7 +18948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
@@ -18958,7 +18958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
@@ -18968,7 +18968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
@@ -18978,7 +18978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
@@ -18988,7 +18988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
@@ -18998,7 +18998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
@@ -19008,7 +19008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
@@ -19018,7 +19018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
@@ -19028,7 +19028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
@@ -19038,7 +19038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
@@ -19048,7 +19048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
       <c r="E501" s="1"/>
@@ -19058,7 +19058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
       <c r="E502" s="1"/>
@@ -19068,7 +19068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
       <c r="E503" s="1"/>
@@ -19078,7 +19078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
       <c r="E504" s="1"/>
@@ -19088,7 +19088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="505" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C505" s="1"/>
       <c r="D505" s="1"/>
       <c r="E505" s="1"/>
@@ -19098,7 +19098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
       <c r="E506" s="1"/>
@@ -19108,7 +19108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C507" s="1"/>
       <c r="D507" s="1"/>
       <c r="E507" s="1"/>
@@ -19118,7 +19118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C508" s="1"/>
       <c r="D508" s="1"/>
       <c r="E508" s="1"/>
@@ -19128,7 +19128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="509" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C509" s="1"/>
       <c r="D509" s="1"/>
       <c r="E509" s="1"/>
@@ -19138,7 +19138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="510" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
       <c r="E510" s="1"/>
@@ -19148,7 +19148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="511" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C511" s="1"/>
       <c r="D511" s="1"/>
       <c r="E511" s="1"/>
@@ -19158,7 +19158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="512" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C512" s="1"/>
       <c r="D512" s="1"/>
       <c r="E512" s="1"/>
@@ -19168,7 +19168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="513" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C513" s="1"/>
       <c r="D513" s="1"/>
       <c r="E513" s="1"/>
@@ -19178,7 +19178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="514" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C514" s="1"/>
       <c r="D514" s="1"/>
       <c r="E514" s="1"/>
@@ -19188,7 +19188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="515" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C515" s="1"/>
       <c r="D515" s="1"/>
       <c r="E515" s="1"/>
@@ -19198,7 +19198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="516" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C516" s="1"/>
       <c r="D516" s="1"/>
       <c r="E516" s="1"/>
@@ -19208,7 +19208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="517" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C517" s="1"/>
       <c r="D517" s="1"/>
       <c r="E517" s="1"/>
@@ -19218,7 +19218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="518" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C518" s="1"/>
       <c r="D518" s="1"/>
       <c r="E518" s="1"/>
@@ -19228,7 +19228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="519" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C519" s="1"/>
       <c r="D519" s="1"/>
       <c r="E519" s="1"/>
@@ -19238,7 +19238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="520" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C520" s="1"/>
       <c r="D520" s="1"/>
       <c r="E520" s="1"/>
@@ -19248,7 +19248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="521" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C521" s="1"/>
       <c r="D521" s="1"/>
       <c r="E521" s="1"/>
@@ -19258,7 +19258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="522" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C522" s="1"/>
       <c r="D522" s="1"/>
       <c r="E522" s="1"/>
@@ -19268,7 +19268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="523" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C523" s="1"/>
       <c r="D523" s="1"/>
       <c r="E523" s="1"/>
@@ -19278,7 +19278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="524" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C524" s="1"/>
       <c r="D524" s="1"/>
       <c r="E524" s="1"/>
@@ -19288,7 +19288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="525" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C525" s="1"/>
       <c r="D525" s="1"/>
       <c r="E525" s="1"/>
@@ -19298,7 +19298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="526" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C526" s="1"/>
       <c r="D526" s="1"/>
       <c r="E526" s="1"/>
@@ -19308,7 +19308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="527" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C527" s="1"/>
       <c r="D527" s="1"/>
       <c r="E527" s="1"/>
@@ -19318,7 +19318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="528" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C528" s="1"/>
       <c r="D528" s="1"/>
       <c r="E528" s="1"/>
@@ -19328,7 +19328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="529" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C529" s="1"/>
       <c r="D529" s="1"/>
       <c r="E529" s="1"/>
@@ -19338,7 +19338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="530" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C530" s="1"/>
       <c r="D530" s="1"/>
       <c r="E530" s="1"/>
@@ -19348,7 +19348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="531" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C531" s="1"/>
       <c r="D531" s="1"/>
       <c r="E531" s="1"/>
@@ -19358,7 +19358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="532" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C532" s="1"/>
       <c r="D532" s="1"/>
       <c r="E532" s="1"/>
@@ -19368,7 +19368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="533" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C533" s="1"/>
       <c r="D533" s="1"/>
       <c r="E533" s="1"/>
@@ -19378,7 +19378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="534" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C534" s="1"/>
       <c r="D534" s="1"/>
       <c r="E534" s="1"/>
@@ -19388,7 +19388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="535" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C535" s="1"/>
       <c r="D535" s="1"/>
       <c r="E535" s="1"/>
@@ -19398,7 +19398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="536" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C536" s="1"/>
       <c r="D536" s="1"/>
       <c r="E536" s="1"/>
@@ -19408,7 +19408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="537" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C537" s="1"/>
       <c r="D537" s="1"/>
       <c r="E537" s="1"/>
@@ -19418,7 +19418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="538" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C538" s="1"/>
       <c r="D538" s="1"/>
       <c r="E538" s="1"/>
@@ -19428,7 +19428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="539" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C539" s="1"/>
       <c r="D539" s="1"/>
       <c r="E539" s="1"/>
@@ -19438,7 +19438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="540" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C540" s="1"/>
       <c r="D540" s="1"/>
       <c r="E540" s="1"/>
@@ -19448,7 +19448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="541" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C541" s="1"/>
       <c r="D541" s="1"/>
       <c r="E541" s="1"/>
@@ -19458,7 +19458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="542" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C542" s="1"/>
       <c r="D542" s="1"/>
       <c r="E542" s="1"/>
@@ -19468,7 +19468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="543" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C543" s="1"/>
       <c r="D543" s="1"/>
       <c r="E543" s="1"/>
@@ -19478,7 +19478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="544" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C544" s="1"/>
       <c r="D544" s="1"/>
       <c r="E544" s="1"/>
@@ -19488,7 +19488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="545" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C545" s="1"/>
       <c r="D545" s="1"/>
       <c r="E545" s="1"/>
@@ -19498,7 +19498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="546" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C546" s="1"/>
       <c r="D546" s="1"/>
       <c r="E546" s="1"/>
@@ -19508,7 +19508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="547" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C547" s="1"/>
       <c r="D547" s="1"/>
       <c r="E547" s="1"/>
@@ -19518,7 +19518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="548" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
       <c r="E548" s="1"/>
@@ -19528,7 +19528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="549" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C549" s="1"/>
       <c r="D549" s="1"/>
       <c r="E549" s="1"/>
@@ -19538,7 +19538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="550" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C550" s="1"/>
       <c r="D550" s="1"/>
       <c r="E550" s="1"/>
@@ -19548,7 +19548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="551" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C551" s="1"/>
       <c r="D551" s="1"/>
       <c r="E551" s="1"/>
@@ -19558,7 +19558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="552" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C552" s="1"/>
       <c r="D552" s="1"/>
       <c r="E552" s="1"/>
@@ -19568,7 +19568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="553" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C553" s="1"/>
       <c r="D553" s="1"/>
       <c r="E553" s="1"/>
@@ -19578,7 +19578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="554" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C554" s="1"/>
       <c r="D554" s="1"/>
       <c r="E554" s="1"/>
@@ -19588,7 +19588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="555" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C555" s="1"/>
       <c r="D555" s="1"/>
       <c r="E555" s="1"/>
@@ -19598,7 +19598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="556" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C556" s="1"/>
       <c r="D556" s="1"/>
       <c r="E556" s="1"/>
@@ -19608,7 +19608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="557" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C557" s="1"/>
       <c r="D557" s="1"/>
       <c r="E557" s="1"/>
@@ -19618,7 +19618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="558" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C558" s="1"/>
       <c r="D558" s="1"/>
       <c r="E558" s="1"/>
@@ -19628,7 +19628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="559" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C559" s="1"/>
       <c r="D559" s="1"/>
       <c r="E559" s="1"/>
@@ -19638,7 +19638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="560" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C560" s="1"/>
       <c r="D560" s="1"/>
       <c r="E560" s="1"/>
@@ -19648,7 +19648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="561" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C561" s="1"/>
       <c r="D561" s="1"/>
       <c r="E561" s="1"/>
@@ -19658,7 +19658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="562" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C562" s="1"/>
       <c r="D562" s="1"/>
       <c r="E562" s="1"/>
@@ -19668,7 +19668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="563" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C563" s="1"/>
       <c r="D563" s="1"/>
       <c r="E563" s="1"/>
@@ -19678,7 +19678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="564" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C564" s="1"/>
       <c r="D564" s="1"/>
       <c r="E564" s="1"/>
@@ -19688,7 +19688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="565" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C565" s="1"/>
       <c r="D565" s="1"/>
       <c r="E565" s="1"/>
@@ -19698,7 +19698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="566" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C566" s="1"/>
       <c r="D566" s="1"/>
       <c r="E566" s="1"/>
@@ -19708,7 +19708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="567" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C567" s="1"/>
       <c r="D567" s="1"/>
       <c r="E567" s="1"/>
@@ -19718,7 +19718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="568" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C568" s="1"/>
       <c r="D568" s="1"/>
       <c r="E568" s="1"/>
@@ -19728,7 +19728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="569" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C569" s="1"/>
       <c r="D569" s="1"/>
       <c r="E569" s="1"/>
@@ -19738,7 +19738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="570" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C570" s="1"/>
       <c r="D570" s="1"/>
       <c r="E570" s="1"/>
@@ -19748,7 +19748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="571" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C571" s="1"/>
       <c r="D571" s="1"/>
       <c r="E571" s="1"/>
@@ -19758,7 +19758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="572" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C572" s="1"/>
       <c r="D572" s="1"/>
       <c r="E572" s="1"/>
@@ -19768,7 +19768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="573" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C573" s="1"/>
       <c r="D573" s="1"/>
       <c r="E573" s="1"/>
@@ -19778,7 +19778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="574" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C574" s="1"/>
       <c r="D574" s="1"/>
       <c r="E574" s="1"/>
@@ -19788,7 +19788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="575" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C575" s="1"/>
       <c r="D575" s="1"/>
       <c r="E575" s="1"/>
@@ -19798,7 +19798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="576" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C576" s="1"/>
       <c r="D576" s="1"/>
       <c r="E576" s="1"/>
@@ -19808,7 +19808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="577" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C577" s="1"/>
       <c r="D577" s="1"/>
       <c r="E577" s="1"/>
@@ -19818,7 +19818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="578" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C578" s="1"/>
       <c r="D578" s="1"/>
       <c r="E578" s="1"/>
@@ -19828,7 +19828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="579" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C579" s="1"/>
       <c r="D579" s="1"/>
       <c r="E579" s="1"/>
@@ -19838,7 +19838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="580" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C580" s="1"/>
       <c r="D580" s="1"/>
       <c r="E580" s="1"/>
@@ -19848,7 +19848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="581" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C581" s="1"/>
       <c r="D581" s="1"/>
       <c r="E581" s="1"/>
@@ -19858,7 +19858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="582" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C582" s="1"/>
       <c r="D582" s="1"/>
       <c r="E582" s="1"/>
@@ -19868,7 +19868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="583" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C583" s="1"/>
       <c r="D583" s="1"/>
       <c r="E583" s="1"/>
@@ -19878,7 +19878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="584" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C584" s="1"/>
       <c r="D584" s="1"/>
       <c r="E584" s="1"/>
@@ -19888,7 +19888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="585" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C585" s="1"/>
       <c r="D585" s="1"/>
       <c r="E585" s="1"/>
@@ -19898,7 +19898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="586" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C586" s="1"/>
       <c r="D586" s="1"/>
       <c r="E586" s="1"/>
@@ -19908,7 +19908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="587" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C587" s="1"/>
       <c r="D587" s="1"/>
       <c r="E587" s="1"/>
@@ -19918,7 +19918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="588" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C588" s="1"/>
       <c r="D588" s="1"/>
       <c r="E588" s="1"/>
@@ -19928,7 +19928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="589" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C589" s="1"/>
       <c r="D589" s="1"/>
       <c r="E589" s="1"/>
@@ -19938,7 +19938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="590" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C590" s="1"/>
       <c r="D590" s="1"/>
       <c r="E590" s="1"/>
@@ -19948,7 +19948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="591" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C591" s="1"/>
       <c r="D591" s="1"/>
       <c r="E591" s="1"/>
@@ -19958,7 +19958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="592" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C592" s="1"/>
       <c r="D592" s="1"/>
       <c r="E592" s="1"/>
@@ -19968,7 +19968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="593" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C593" s="1"/>
       <c r="D593" s="1"/>
       <c r="E593" s="1"/>
@@ -19978,7 +19978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="594" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C594" s="1"/>
       <c r="D594" s="1"/>
       <c r="E594" s="1"/>
@@ -19988,7 +19988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="595" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C595" s="1"/>
       <c r="D595" s="1"/>
       <c r="E595" s="1"/>
@@ -19998,7 +19998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="596" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C596" s="1"/>
       <c r="D596" s="1"/>
       <c r="E596" s="1"/>
@@ -20008,7 +20008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="597" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C597" s="1"/>
       <c r="D597" s="1"/>
       <c r="E597" s="1"/>
@@ -20018,7 +20018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="598" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C598" s="1"/>
       <c r="D598" s="1"/>
       <c r="E598" s="1"/>
@@ -20028,7 +20028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="599" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C599" s="1"/>
       <c r="D599" s="1"/>
       <c r="E599" s="1"/>
@@ -20038,7 +20038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="600" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C600" s="1"/>
       <c r="D600" s="1"/>
       <c r="E600" s="1"/>
@@ -20048,7 +20048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="601" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C601" s="1"/>
       <c r="D601" s="1"/>
       <c r="E601" s="1"/>
@@ -20058,7 +20058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="602" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C602" s="1"/>
       <c r="D602" s="1"/>
       <c r="E602" s="1"/>
@@ -20068,7 +20068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="603" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C603" s="1"/>
       <c r="D603" s="1"/>
       <c r="E603" s="1"/>
@@ -20078,7 +20078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="604" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C604" s="1"/>
       <c r="D604" s="1"/>
       <c r="E604" s="1"/>
@@ -20088,7 +20088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="605" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C605" s="1"/>
       <c r="D605" s="1"/>
       <c r="E605" s="1"/>
@@ -20098,7 +20098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="606" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C606" s="1"/>
       <c r="D606" s="1"/>
       <c r="E606" s="1"/>
@@ -20108,7 +20108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="607" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C607" s="1"/>
       <c r="D607" s="1"/>
       <c r="E607" s="1"/>
@@ -20118,7 +20118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="608" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C608" s="1"/>
       <c r="D608" s="1"/>
       <c r="E608" s="1"/>
@@ -20128,7 +20128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="609" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C609" s="1"/>
       <c r="D609" s="1"/>
       <c r="E609" s="1"/>
@@ -20138,7 +20138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="610" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C610" s="1"/>
       <c r="D610" s="1"/>
       <c r="E610" s="1"/>
@@ -20148,7 +20148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="611" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C611" s="1"/>
       <c r="D611" s="1"/>
       <c r="E611" s="1"/>
@@ -20158,7 +20158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="612" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C612" s="1"/>
       <c r="D612" s="1"/>
       <c r="E612" s="1"/>
@@ -20168,7 +20168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="613" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C613" s="1"/>
       <c r="D613" s="1"/>
       <c r="E613" s="1"/>
@@ -20178,7 +20178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="614" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C614" s="1"/>
       <c r="D614" s="1"/>
       <c r="E614" s="1"/>
@@ -20188,7 +20188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="615" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C615" s="1"/>
       <c r="D615" s="1"/>
       <c r="E615" s="1"/>
@@ -20198,7 +20198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="616" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C616" s="1"/>
       <c r="D616" s="1"/>
       <c r="E616" s="1"/>
@@ -20208,7 +20208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="617" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C617" s="1"/>
       <c r="D617" s="1"/>
       <c r="E617" s="1"/>
@@ -20218,7 +20218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="618" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C618" s="1"/>
       <c r="D618" s="1"/>
       <c r="E618" s="1"/>
@@ -20228,7 +20228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="619" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C619" s="1"/>
       <c r="D619" s="1"/>
       <c r="E619" s="1"/>
@@ -20238,7 +20238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="620" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C620" s="1"/>
       <c r="D620" s="1"/>
       <c r="E620" s="1"/>
@@ -20248,7 +20248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="621" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C621" s="1"/>
       <c r="D621" s="1"/>
       <c r="E621" s="1"/>
@@ -20258,7 +20258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="622" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C622" s="1"/>
       <c r="D622" s="1"/>
       <c r="E622" s="1"/>
@@ -20268,7 +20268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="623" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C623" s="1"/>
       <c r="D623" s="1"/>
       <c r="E623" s="1"/>
@@ -20278,7 +20278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="624" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C624" s="1"/>
       <c r="D624" s="1"/>
       <c r="E624" s="1"/>
@@ -20288,7 +20288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="625" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C625" s="1"/>
       <c r="D625" s="1"/>
       <c r="E625" s="1"/>
@@ -20298,7 +20298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="626" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C626" s="1"/>
       <c r="D626" s="1"/>
       <c r="E626" s="1"/>
@@ -20308,7 +20308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="627" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C627" s="1"/>
       <c r="D627" s="1"/>
       <c r="E627" s="1"/>
@@ -20318,7 +20318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="628" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C628" s="1"/>
       <c r="D628" s="1"/>
       <c r="E628" s="1"/>
@@ -20328,7 +20328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="629" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C629" s="1"/>
       <c r="D629" s="1"/>
       <c r="E629" s="1"/>
@@ -20338,7 +20338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="630" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C630" s="1"/>
       <c r="D630" s="1"/>
       <c r="E630" s="1"/>
@@ -20348,7 +20348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="631" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C631" s="1"/>
       <c r="D631" s="1"/>
       <c r="E631" s="1"/>
@@ -20358,7 +20358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="632" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C632" s="1"/>
       <c r="D632" s="1"/>
       <c r="E632" s="1"/>
@@ -20368,7 +20368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="633" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C633" s="1"/>
       <c r="D633" s="1"/>
       <c r="E633" s="1"/>
@@ -20378,7 +20378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="634" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C634" s="1"/>
       <c r="D634" s="1"/>
       <c r="E634" s="1"/>
@@ -20388,7 +20388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="635" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C635" s="1"/>
       <c r="D635" s="1"/>
       <c r="E635" s="1"/>
@@ -20398,7 +20398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="636" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C636" s="1"/>
       <c r="D636" s="1"/>
       <c r="E636" s="1"/>
@@ -20408,7 +20408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="637" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C637" s="1"/>
       <c r="D637" s="1"/>
       <c r="E637" s="1"/>
@@ -20418,7 +20418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="638" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C638" s="1"/>
       <c r="D638" s="1"/>
       <c r="E638" s="1"/>
@@ -20428,7 +20428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="639" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C639" s="1"/>
       <c r="D639" s="1"/>
       <c r="E639" s="1"/>
@@ -20438,7 +20438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="640" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C640" s="1"/>
       <c r="D640" s="1"/>
       <c r="E640" s="1"/>
@@ -20448,7 +20448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="641" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C641" s="1"/>
       <c r="D641" s="1"/>
       <c r="E641" s="1"/>
@@ -20458,7 +20458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="642" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C642" s="1"/>
       <c r="D642" s="1"/>
       <c r="E642" s="1"/>
@@ -20468,7 +20468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="643" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C643" s="1"/>
       <c r="D643" s="1"/>
       <c r="E643" s="1"/>
@@ -20478,7 +20478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="644" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C644" s="1"/>
       <c r="D644" s="1"/>
       <c r="E644" s="1"/>
@@ -20488,7 +20488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="645" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C645" s="1"/>
       <c r="D645" s="1"/>
       <c r="E645" s="1"/>
@@ -20498,7 +20498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="646" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C646" s="1"/>
       <c r="D646" s="1"/>
       <c r="E646" s="1"/>
@@ -20508,7 +20508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="647" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C647" s="1"/>
       <c r="D647" s="1"/>
       <c r="E647" s="1"/>
@@ -20518,7 +20518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="648" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C648" s="1"/>
       <c r="D648" s="1"/>
       <c r="E648" s="1"/>
@@ -20528,7 +20528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="649" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C649" s="1"/>
       <c r="D649" s="1"/>
       <c r="E649" s="1"/>
@@ -20538,7 +20538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="650" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C650" s="1"/>
       <c r="D650" s="1"/>
       <c r="E650" s="1"/>
@@ -20548,7 +20548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="651" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C651" s="1"/>
       <c r="D651" s="1"/>
       <c r="E651" s="1"/>
@@ -20558,7 +20558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="652" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C652" s="1"/>
       <c r="D652" s="1"/>
       <c r="E652" s="1"/>
@@ -20568,7 +20568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="653" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C653" s="1"/>
       <c r="D653" s="1"/>
       <c r="E653" s="1"/>
@@ -20578,7 +20578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="654" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C654" s="1"/>
       <c r="D654" s="1"/>
       <c r="E654" s="1"/>
@@ -20588,7 +20588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="655" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C655" s="1"/>
       <c r="D655" s="1"/>
       <c r="E655" s="1"/>
@@ -20598,7 +20598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="656" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C656" s="1"/>
       <c r="D656" s="1"/>
       <c r="E656" s="1"/>
@@ -20608,7 +20608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="657" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C657" s="1"/>
       <c r="D657" s="1"/>
       <c r="E657" s="1"/>
@@ -20618,7 +20618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="658" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C658" s="1"/>
       <c r="D658" s="1"/>
       <c r="E658" s="1"/>
@@ -20628,7 +20628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="659" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C659" s="1"/>
       <c r="D659" s="1"/>
       <c r="E659" s="1"/>
@@ -20638,7 +20638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="660" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C660" s="1"/>
       <c r="D660" s="1"/>
       <c r="E660" s="1"/>
@@ -20648,7 +20648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="661" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C661" s="1"/>
       <c r="D661" s="1"/>
       <c r="E661" s="1"/>
@@ -20658,7 +20658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="662" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C662" s="1"/>
       <c r="D662" s="1"/>
       <c r="E662" s="1"/>
@@ -20668,7 +20668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="663" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C663" s="1"/>
       <c r="D663" s="1"/>
       <c r="E663" s="1"/>
@@ -20678,7 +20678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="664" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C664" s="1"/>
       <c r="D664" s="1"/>
       <c r="E664" s="1"/>
@@ -20688,7 +20688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="665" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C665" s="1"/>
       <c r="D665" s="1"/>
       <c r="E665" s="1"/>
@@ -20698,7 +20698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="666" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C666" s="1"/>
       <c r="D666" s="1"/>
       <c r="E666" s="1"/>
@@ -20708,7 +20708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="667" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C667" s="1"/>
       <c r="D667" s="1"/>
       <c r="E667" s="1"/>
@@ -20718,7 +20718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="668" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C668" s="1"/>
       <c r="D668" s="1"/>
       <c r="E668" s="1"/>
@@ -20728,7 +20728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="669" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C669" s="1"/>
       <c r="D669" s="1"/>
       <c r="E669" s="1"/>
@@ -20738,7 +20738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="670" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C670" s="1"/>
       <c r="D670" s="1"/>
       <c r="E670" s="1"/>
@@ -20763,9 +20763,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" s="36" t="s">
         <v>62</v>
       </c>
@@ -20777,7 +20777,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -20787,7 +20787,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
@@ -20797,7 +20797,7 @@
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
@@ -20807,7 +20807,7 @@
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>

--- a/タスク表.xlsx
+++ b/タスク表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkrs3\Documents\EXTREMEProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k018a1560\Desktop\GameEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
@@ -1481,32 +1481,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DH102"/>
   <sheetViews>
-    <sheetView topLeftCell="I4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="26.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.69921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="18" width="7.83203125" customWidth="1"/>
-    <col min="19" max="27" width="6.83203125" customWidth="1"/>
-    <col min="28" max="49" width="7.83203125" customWidth="1"/>
-    <col min="50" max="58" width="6.83203125" customWidth="1"/>
-    <col min="59" max="80" width="7.83203125" customWidth="1"/>
-    <col min="81" max="89" width="6.83203125" customWidth="1"/>
-    <col min="90" max="112" width="7.83203125" customWidth="1"/>
+    <col min="8" max="8" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="18" width="7.796875" customWidth="1"/>
+    <col min="19" max="27" width="6.796875" customWidth="1"/>
+    <col min="28" max="49" width="7.796875" customWidth="1"/>
+    <col min="50" max="58" width="6.796875" customWidth="1"/>
+    <col min="59" max="80" width="7.796875" customWidth="1"/>
+    <col min="81" max="89" width="6.796875" customWidth="1"/>
+    <col min="90" max="112" width="7.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:112" x14ac:dyDescent="0.45">
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:112" x14ac:dyDescent="0.45">
       <c r="A2" s="37"/>
       <c r="P2" s="14" t="s">
         <v>19</v>
@@ -1518,7 +1518,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:112" x14ac:dyDescent="0.45">
       <c r="H3" s="11"/>
       <c r="I3" s="10" t="s">
         <v>11</v>
@@ -1833,7 +1833,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:112" x14ac:dyDescent="0.45">
       <c r="C4" s="20" t="s">
         <v>3</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>43740</v>
       </c>
     </row>
-    <row r="5" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:112" x14ac:dyDescent="0.45">
       <c r="C5" s="1" t="s">
         <v>44</v>
       </c>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="F5" s="13">
         <f ca="1">IFERROR(ABS(TODAY()-$E5),"")</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>6</v>
@@ -2290,7 +2290,7 @@
       <c r="DG5" s="5"/>
       <c r="DH5" s="5"/>
     </row>
-    <row r="6" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:112" x14ac:dyDescent="0.45">
       <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F69" ca="1" si="0">IFERROR(ABS(TODAY()-$E6),"")</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>6</v>
@@ -2417,7 +2417,7 @@
       <c r="DG6" s="5"/>
       <c r="DH6" s="5"/>
     </row>
-    <row r="7" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:112" x14ac:dyDescent="0.45">
       <c r="C7" s="1" t="s">
         <v>45</v>
       </c>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="F7" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>6</v>
@@ -2544,7 +2544,7 @@
       <c r="DG7" s="5"/>
       <c r="DH7" s="5"/>
     </row>
-    <row r="8" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:112" x14ac:dyDescent="0.45">
       <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="F8" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>6</v>
@@ -2671,7 +2671,7 @@
       <c r="DG8" s="5"/>
       <c r="DH8" s="5"/>
     </row>
-    <row r="9" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:112" x14ac:dyDescent="0.45">
       <c r="C9" s="1" t="s">
         <v>50</v>
       </c>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="F9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>6</v>
@@ -2798,7 +2798,7 @@
       <c r="DG9" s="5"/>
       <c r="DH9" s="5"/>
     </row>
-    <row r="10" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:112" x14ac:dyDescent="0.45">
       <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="F10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>7</v>
@@ -2925,7 +2925,7 @@
       <c r="DG10" s="5"/>
       <c r="DH10" s="5"/>
     </row>
-    <row r="11" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:112" x14ac:dyDescent="0.45">
       <c r="C11" s="1" t="s">
         <v>54</v>
       </c>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="F11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>7</v>
@@ -3052,7 +3052,7 @@
       <c r="DG11" s="5"/>
       <c r="DH11" s="5"/>
     </row>
-    <row r="12" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:112" x14ac:dyDescent="0.45">
       <c r="C12" s="1" t="s">
         <v>55</v>
       </c>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="F12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>7</v>
@@ -3179,7 +3179,7 @@
       <c r="DG12" s="5"/>
       <c r="DH12" s="5"/>
     </row>
-    <row r="13" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:112" x14ac:dyDescent="0.45">
       <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="F13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>6</v>
@@ -3306,7 +3306,7 @@
       <c r="DG13" s="5"/>
       <c r="DH13" s="5"/>
     </row>
-    <row r="14" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:112" x14ac:dyDescent="0.45">
       <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
@@ -3320,7 +3320,7 @@
       </c>
       <c r="F14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>8</v>
@@ -3433,7 +3433,7 @@
       <c r="DG14" s="5"/>
       <c r="DH14" s="5"/>
     </row>
-    <row r="15" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:112" x14ac:dyDescent="0.45">
       <c r="C15" s="1" t="s">
         <v>36</v>
       </c>
@@ -3447,10 +3447,10 @@
       </c>
       <c r="F15" s="8">
         <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="H15" s="33" t="s">
         <v>53</v>
@@ -3560,7 +3560,7 @@
       <c r="DG15" s="5"/>
       <c r="DH15" s="5"/>
     </row>
-    <row r="16" spans="1:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:112" x14ac:dyDescent="0.45">
       <c r="C16" s="1" t="s">
         <v>41</v>
       </c>
@@ -3574,10 +3574,10 @@
       </c>
       <c r="F16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H16" s="33" t="s">
         <v>53</v>
@@ -3687,7 +3687,7 @@
       <c r="DG16" s="5"/>
       <c r="DH16" s="5"/>
     </row>
-    <row r="17" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C17" s="1" t="s">
         <v>33</v>
       </c>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>7</v>
@@ -3814,7 +3814,7 @@
       <c r="DG17" s="5"/>
       <c r="DH17" s="5"/>
     </row>
-    <row r="18" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C18" s="1" t="s">
         <v>47</v>
       </c>
@@ -3828,7 +3828,7 @@
       </c>
       <c r="F18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>7</v>
@@ -3941,7 +3941,7 @@
       <c r="DG18" s="5"/>
       <c r="DH18" s="5"/>
     </row>
-    <row r="19" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C19" s="1" t="s">
         <v>48</v>
       </c>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="F19" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>7</v>
@@ -4068,7 +4068,7 @@
       <c r="DG19" s="5"/>
       <c r="DH19" s="5"/>
     </row>
-    <row r="20" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C20" s="1"/>
       <c r="D20" s="6" t="str">
         <f>IFERROR(VLOOKUP(C20,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4189,7 +4189,7 @@
       <c r="DG20" s="5"/>
       <c r="DH20" s="5"/>
     </row>
-    <row r="21" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C21" s="1"/>
       <c r="D21" s="6" t="str">
         <f>IFERROR(VLOOKUP(C21,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4310,7 +4310,7 @@
       <c r="DG21" s="5"/>
       <c r="DH21" s="5"/>
     </row>
-    <row r="22" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C22" s="1"/>
       <c r="D22" s="6" t="str">
         <f>IFERROR(VLOOKUP(C22,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4431,7 +4431,7 @@
       <c r="DG22" s="5"/>
       <c r="DH22" s="5"/>
     </row>
-    <row r="23" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C23" s="1"/>
       <c r="D23" s="6" t="str">
         <f>IFERROR(VLOOKUP(C23,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4552,7 +4552,7 @@
       <c r="DG23" s="5"/>
       <c r="DH23" s="5"/>
     </row>
-    <row r="24" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C24" s="1"/>
       <c r="D24" s="6" t="str">
         <f>IFERROR(VLOOKUP(C24,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4673,7 +4673,7 @@
       <c r="DG24" s="5"/>
       <c r="DH24" s="5"/>
     </row>
-    <row r="25" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C25" s="1"/>
       <c r="D25" s="6" t="str">
         <f>IFERROR(VLOOKUP(C25,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4794,7 +4794,7 @@
       <c r="DG25" s="5"/>
       <c r="DH25" s="5"/>
     </row>
-    <row r="26" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C26" s="1"/>
       <c r="D26" s="6" t="str">
         <f>IFERROR(VLOOKUP(C26,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4915,7 +4915,7 @@
       <c r="DG26" s="5"/>
       <c r="DH26" s="5"/>
     </row>
-    <row r="27" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C27" s="1"/>
       <c r="D27" s="6" t="str">
         <f>IFERROR(VLOOKUP(C27,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5036,7 +5036,7 @@
       <c r="DG27" s="5"/>
       <c r="DH27" s="5"/>
     </row>
-    <row r="28" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C28" s="1"/>
       <c r="D28" s="6" t="str">
         <f>IFERROR(VLOOKUP(C28,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5157,7 +5157,7 @@
       <c r="DG28" s="5"/>
       <c r="DH28" s="5"/>
     </row>
-    <row r="29" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C29" s="1"/>
       <c r="D29" s="6" t="str">
         <f>IFERROR(VLOOKUP(C29,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5278,7 +5278,7 @@
       <c r="DG29" s="5"/>
       <c r="DH29" s="5"/>
     </row>
-    <row r="30" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C30" s="1"/>
       <c r="D30" s="6" t="str">
         <f>IFERROR(VLOOKUP(C30,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5399,7 +5399,7 @@
       <c r="DG30" s="5"/>
       <c r="DH30" s="5"/>
     </row>
-    <row r="31" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C31" s="1"/>
       <c r="D31" s="6" t="str">
         <f>IFERROR(VLOOKUP(C31,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5520,7 +5520,7 @@
       <c r="DG31" s="5"/>
       <c r="DH31" s="5"/>
     </row>
-    <row r="32" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C32" s="1"/>
       <c r="D32" s="6" t="str">
         <f>IFERROR(VLOOKUP(C32,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5641,7 +5641,7 @@
       <c r="DG32" s="5"/>
       <c r="DH32" s="5"/>
     </row>
-    <row r="33" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C33" s="1"/>
       <c r="D33" s="6" t="str">
         <f>IFERROR(VLOOKUP(C33,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5762,7 +5762,7 @@
       <c r="DG33" s="5"/>
       <c r="DH33" s="5"/>
     </row>
-    <row r="34" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C34" s="1"/>
       <c r="D34" s="6" t="str">
         <f>IFERROR(VLOOKUP(C34,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5883,7 +5883,7 @@
       <c r="DG34" s="5"/>
       <c r="DH34" s="5"/>
     </row>
-    <row r="35" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C35" s="1"/>
       <c r="D35" s="6" t="str">
         <f>IFERROR(VLOOKUP(C35,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6004,7 +6004,7 @@
       <c r="DG35" s="5"/>
       <c r="DH35" s="5"/>
     </row>
-    <row r="36" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C36" s="1"/>
       <c r="D36" s="6" t="str">
         <f>IFERROR(VLOOKUP(C36,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6125,7 +6125,7 @@
       <c r="DG36" s="5"/>
       <c r="DH36" s="5"/>
     </row>
-    <row r="37" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C37" s="1"/>
       <c r="D37" s="6" t="str">
         <f>IFERROR(VLOOKUP(C37,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6246,7 +6246,7 @@
       <c r="DG37" s="5"/>
       <c r="DH37" s="5"/>
     </row>
-    <row r="38" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C38" s="1"/>
       <c r="D38" s="6" t="str">
         <f>IFERROR(VLOOKUP(C38,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6367,7 +6367,7 @@
       <c r="DG38" s="5"/>
       <c r="DH38" s="5"/>
     </row>
-    <row r="39" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C39" s="1"/>
       <c r="D39" s="6" t="str">
         <f>IFERROR(VLOOKUP(C39,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6488,7 +6488,7 @@
       <c r="DG39" s="5"/>
       <c r="DH39" s="5"/>
     </row>
-    <row r="40" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C40" s="1"/>
       <c r="D40" s="6" t="str">
         <f>IFERROR(VLOOKUP(C40,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6609,7 +6609,7 @@
       <c r="DG40" s="5"/>
       <c r="DH40" s="5"/>
     </row>
-    <row r="41" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C41" s="1"/>
       <c r="D41" s="6" t="str">
         <f>IFERROR(VLOOKUP(C41,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6730,7 +6730,7 @@
       <c r="DG41" s="5"/>
       <c r="DH41" s="5"/>
     </row>
-    <row r="42" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C42" s="1"/>
       <c r="D42" s="6" t="str">
         <f>IFERROR(VLOOKUP(C42,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6851,7 +6851,7 @@
       <c r="DG42" s="5"/>
       <c r="DH42" s="5"/>
     </row>
-    <row r="43" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C43" s="1"/>
       <c r="D43" s="6" t="str">
         <f>IFERROR(VLOOKUP(C43,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6972,7 +6972,7 @@
       <c r="DG43" s="5"/>
       <c r="DH43" s="5"/>
     </row>
-    <row r="44" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C44" s="1"/>
       <c r="D44" s="6" t="str">
         <f>IFERROR(VLOOKUP(C44,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7093,7 +7093,7 @@
       <c r="DG44" s="5"/>
       <c r="DH44" s="5"/>
     </row>
-    <row r="45" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C45" s="1"/>
       <c r="D45" s="6" t="str">
         <f>IFERROR(VLOOKUP(C45,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7214,7 +7214,7 @@
       <c r="DG45" s="5"/>
       <c r="DH45" s="5"/>
     </row>
-    <row r="46" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C46" s="1"/>
       <c r="D46" s="6" t="str">
         <f>IFERROR(VLOOKUP(C46,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7335,7 +7335,7 @@
       <c r="DG46" s="5"/>
       <c r="DH46" s="5"/>
     </row>
-    <row r="47" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C47" s="1"/>
       <c r="D47" s="6" t="str">
         <f>IFERROR(VLOOKUP(C47,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7456,7 +7456,7 @@
       <c r="DG47" s="5"/>
       <c r="DH47" s="5"/>
     </row>
-    <row r="48" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C48" s="1"/>
       <c r="D48" s="6" t="str">
         <f>IFERROR(VLOOKUP(C48,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7577,7 +7577,7 @@
       <c r="DG48" s="5"/>
       <c r="DH48" s="5"/>
     </row>
-    <row r="49" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C49" s="1"/>
       <c r="D49" s="6" t="str">
         <f>IFERROR(VLOOKUP(C49,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7698,7 +7698,7 @@
       <c r="DG49" s="5"/>
       <c r="DH49" s="5"/>
     </row>
-    <row r="50" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C50" s="1"/>
       <c r="D50" s="6" t="str">
         <f>IFERROR(VLOOKUP(C50,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7819,7 +7819,7 @@
       <c r="DG50" s="5"/>
       <c r="DH50" s="5"/>
     </row>
-    <row r="51" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C51" s="1"/>
       <c r="D51" s="6" t="str">
         <f>IFERROR(VLOOKUP(C51,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7940,7 +7940,7 @@
       <c r="DG51" s="5"/>
       <c r="DH51" s="5"/>
     </row>
-    <row r="52" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C52" s="1"/>
       <c r="D52" s="6" t="str">
         <f>IFERROR(VLOOKUP(C52,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8061,7 +8061,7 @@
       <c r="DG52" s="5"/>
       <c r="DH52" s="5"/>
     </row>
-    <row r="53" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C53" s="1"/>
       <c r="D53" s="6" t="str">
         <f>IFERROR(VLOOKUP(C53,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8182,7 +8182,7 @@
       <c r="DG53" s="5"/>
       <c r="DH53" s="5"/>
     </row>
-    <row r="54" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C54" s="1"/>
       <c r="D54" s="6" t="str">
         <f>IFERROR(VLOOKUP(C54,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8303,7 +8303,7 @@
       <c r="DG54" s="5"/>
       <c r="DH54" s="5"/>
     </row>
-    <row r="55" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C55" s="1"/>
       <c r="D55" s="6" t="str">
         <f>IFERROR(VLOOKUP(C55,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8424,7 +8424,7 @@
       <c r="DG55" s="5"/>
       <c r="DH55" s="5"/>
     </row>
-    <row r="56" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C56" s="1"/>
       <c r="D56" s="6" t="str">
         <f>IFERROR(VLOOKUP(C56,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8545,7 +8545,7 @@
       <c r="DG56" s="5"/>
       <c r="DH56" s="5"/>
     </row>
-    <row r="57" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C57" s="1"/>
       <c r="D57" s="6" t="str">
         <f>IFERROR(VLOOKUP(C57,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8666,7 +8666,7 @@
       <c r="DG57" s="5"/>
       <c r="DH57" s="5"/>
     </row>
-    <row r="58" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C58" s="1"/>
       <c r="D58" s="6" t="str">
         <f>IFERROR(VLOOKUP(C58,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8787,7 +8787,7 @@
       <c r="DG58" s="5"/>
       <c r="DH58" s="5"/>
     </row>
-    <row r="59" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C59" s="1"/>
       <c r="D59" s="6" t="str">
         <f>IFERROR(VLOOKUP(C59,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8908,7 +8908,7 @@
       <c r="DG59" s="5"/>
       <c r="DH59" s="5"/>
     </row>
-    <row r="60" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C60" s="1"/>
       <c r="D60" s="6" t="str">
         <f>IFERROR(VLOOKUP(C60,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9029,7 +9029,7 @@
       <c r="DG60" s="5"/>
       <c r="DH60" s="5"/>
     </row>
-    <row r="61" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C61" s="1"/>
       <c r="D61" s="6" t="str">
         <f>IFERROR(VLOOKUP(C61,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9150,7 +9150,7 @@
       <c r="DG61" s="5"/>
       <c r="DH61" s="5"/>
     </row>
-    <row r="62" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C62" s="1"/>
       <c r="D62" s="6" t="str">
         <f>IFERROR(VLOOKUP(C62,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9271,7 +9271,7 @@
       <c r="DG62" s="5"/>
       <c r="DH62" s="5"/>
     </row>
-    <row r="63" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C63" s="1"/>
       <c r="D63" s="6" t="str">
         <f>IFERROR(VLOOKUP(C63,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9392,7 +9392,7 @@
       <c r="DG63" s="5"/>
       <c r="DH63" s="5"/>
     </row>
-    <row r="64" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C64" s="1"/>
       <c r="D64" s="6" t="str">
         <f>IFERROR(VLOOKUP(C64,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9513,7 +9513,7 @@
       <c r="DG64" s="5"/>
       <c r="DH64" s="5"/>
     </row>
-    <row r="65" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C65" s="1"/>
       <c r="D65" s="6" t="str">
         <f>IFERROR(VLOOKUP(C65,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9634,7 +9634,7 @@
       <c r="DG65" s="5"/>
       <c r="DH65" s="5"/>
     </row>
-    <row r="66" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C66" s="1"/>
       <c r="D66" s="6" t="str">
         <f>IFERROR(VLOOKUP(C66,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9755,7 +9755,7 @@
       <c r="DG66" s="5"/>
       <c r="DH66" s="5"/>
     </row>
-    <row r="67" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C67" s="1"/>
       <c r="D67" s="6" t="str">
         <f>IFERROR(VLOOKUP(C67,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9876,7 +9876,7 @@
       <c r="DG67" s="5"/>
       <c r="DH67" s="5"/>
     </row>
-    <row r="68" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C68" s="1"/>
       <c r="D68" s="6" t="str">
         <f>IFERROR(VLOOKUP(C68,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9997,7 +9997,7 @@
       <c r="DG68" s="5"/>
       <c r="DH68" s="5"/>
     </row>
-    <row r="69" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C69" s="1"/>
       <c r="D69" s="6" t="str">
         <f>IFERROR(VLOOKUP(C69,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10118,7 +10118,7 @@
       <c r="DG69" s="5"/>
       <c r="DH69" s="5"/>
     </row>
-    <row r="70" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C70" s="1"/>
       <c r="D70" s="6" t="str">
         <f>IFERROR(VLOOKUP(C70,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10239,7 +10239,7 @@
       <c r="DG70" s="5"/>
       <c r="DH70" s="5"/>
     </row>
-    <row r="71" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C71" s="1"/>
       <c r="D71" s="6" t="str">
         <f>IFERROR(VLOOKUP(C71,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10360,7 +10360,7 @@
       <c r="DG71" s="5"/>
       <c r="DH71" s="5"/>
     </row>
-    <row r="72" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C72" s="1"/>
       <c r="D72" s="6" t="str">
         <f>IFERROR(VLOOKUP(C72,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10481,7 +10481,7 @@
       <c r="DG72" s="5"/>
       <c r="DH72" s="5"/>
     </row>
-    <row r="73" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C73" s="1"/>
       <c r="D73" s="6" t="str">
         <f>IFERROR(VLOOKUP(C73,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10602,7 +10602,7 @@
       <c r="DG73" s="5"/>
       <c r="DH73" s="5"/>
     </row>
-    <row r="74" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C74" s="1"/>
       <c r="D74" s="6" t="str">
         <f>IFERROR(VLOOKUP(C74,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10723,7 +10723,7 @@
       <c r="DG74" s="5"/>
       <c r="DH74" s="5"/>
     </row>
-    <row r="75" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C75" s="1"/>
       <c r="D75" s="6" t="str">
         <f>IFERROR(VLOOKUP(C75,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10844,7 +10844,7 @@
       <c r="DG75" s="5"/>
       <c r="DH75" s="5"/>
     </row>
-    <row r="76" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C76" s="1"/>
       <c r="D76" s="6" t="str">
         <f>IFERROR(VLOOKUP(C76,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10965,7 +10965,7 @@
       <c r="DG76" s="5"/>
       <c r="DH76" s="5"/>
     </row>
-    <row r="77" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C77" s="1"/>
       <c r="D77" s="6" t="str">
         <f>IFERROR(VLOOKUP(C77,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11086,7 +11086,7 @@
       <c r="DG77" s="5"/>
       <c r="DH77" s="5"/>
     </row>
-    <row r="78" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C78" s="1"/>
       <c r="D78" s="6" t="str">
         <f>IFERROR(VLOOKUP(C78,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11207,7 +11207,7 @@
       <c r="DG78" s="5"/>
       <c r="DH78" s="5"/>
     </row>
-    <row r="79" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C79" s="1"/>
       <c r="D79" s="6" t="str">
         <f>IFERROR(VLOOKUP(C79,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11328,7 +11328,7 @@
       <c r="DG79" s="5"/>
       <c r="DH79" s="5"/>
     </row>
-    <row r="80" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C80" s="1"/>
       <c r="D80" s="6" t="str">
         <f>IFERROR(VLOOKUP(C80,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11449,7 +11449,7 @@
       <c r="DG80" s="5"/>
       <c r="DH80" s="5"/>
     </row>
-    <row r="81" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C81" s="1"/>
       <c r="D81" s="6" t="str">
         <f>IFERROR(VLOOKUP(C81,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11570,7 +11570,7 @@
       <c r="DG81" s="5"/>
       <c r="DH81" s="5"/>
     </row>
-    <row r="82" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C82" s="1"/>
       <c r="D82" s="6" t="str">
         <f>IFERROR(VLOOKUP(C82,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11691,7 +11691,7 @@
       <c r="DG82" s="5"/>
       <c r="DH82" s="5"/>
     </row>
-    <row r="83" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C83" s="1"/>
       <c r="D83" s="6" t="str">
         <f>IFERROR(VLOOKUP(C83,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11812,7 +11812,7 @@
       <c r="DG83" s="5"/>
       <c r="DH83" s="5"/>
     </row>
-    <row r="84" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C84" s="1"/>
       <c r="D84" s="6" t="str">
         <f>IFERROR(VLOOKUP(C84,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11933,7 +11933,7 @@
       <c r="DG84" s="5"/>
       <c r="DH84" s="5"/>
     </row>
-    <row r="85" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C85" s="1"/>
       <c r="D85" s="6" t="str">
         <f>IFERROR(VLOOKUP(C85,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12054,7 +12054,7 @@
       <c r="DG85" s="5"/>
       <c r="DH85" s="5"/>
     </row>
-    <row r="86" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C86" s="1"/>
       <c r="D86" s="6" t="str">
         <f>IFERROR(VLOOKUP(C86,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12175,7 +12175,7 @@
       <c r="DG86" s="5"/>
       <c r="DH86" s="5"/>
     </row>
-    <row r="87" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C87" s="1"/>
       <c r="D87" s="6" t="str">
         <f>IFERROR(VLOOKUP(C87,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12296,7 +12296,7 @@
       <c r="DG87" s="5"/>
       <c r="DH87" s="5"/>
     </row>
-    <row r="88" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C88" s="1"/>
       <c r="D88" s="6" t="str">
         <f>IFERROR(VLOOKUP(C88,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12417,7 +12417,7 @@
       <c r="DG88" s="5"/>
       <c r="DH88" s="5"/>
     </row>
-    <row r="89" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C89" s="1"/>
       <c r="D89" s="6" t="str">
         <f>IFERROR(VLOOKUP(C89,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12538,7 +12538,7 @@
       <c r="DG89" s="5"/>
       <c r="DH89" s="5"/>
     </row>
-    <row r="90" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C90" s="1"/>
       <c r="D90" s="6" t="str">
         <f>IFERROR(VLOOKUP(C90,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12659,7 +12659,7 @@
       <c r="DG90" s="5"/>
       <c r="DH90" s="5"/>
     </row>
-    <row r="91" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C91" s="1"/>
       <c r="D91" s="6" t="str">
         <f>IFERROR(VLOOKUP(C91,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12780,7 +12780,7 @@
       <c r="DG91" s="5"/>
       <c r="DH91" s="5"/>
     </row>
-    <row r="92" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C92" s="1"/>
       <c r="D92" s="6" t="str">
         <f>IFERROR(VLOOKUP(C92,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12901,7 +12901,7 @@
       <c r="DG92" s="5"/>
       <c r="DH92" s="5"/>
     </row>
-    <row r="93" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C93" s="1"/>
       <c r="D93" s="6" t="str">
         <f>IFERROR(VLOOKUP(C93,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13022,7 +13022,7 @@
       <c r="DG93" s="5"/>
       <c r="DH93" s="5"/>
     </row>
-    <row r="94" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C94" s="1"/>
       <c r="D94" s="6" t="str">
         <f>IFERROR(VLOOKUP(C94,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13143,7 +13143,7 @@
       <c r="DG94" s="5"/>
       <c r="DH94" s="5"/>
     </row>
-    <row r="95" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C95" s="1"/>
       <c r="D95" s="6" t="str">
         <f>IFERROR(VLOOKUP(C95,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13264,7 +13264,7 @@
       <c r="DG95" s="5"/>
       <c r="DH95" s="5"/>
     </row>
-    <row r="96" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C96" s="1"/>
       <c r="D96" s="6" t="str">
         <f>IFERROR(VLOOKUP(C96,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13385,7 +13385,7 @@
       <c r="DG96" s="5"/>
       <c r="DH96" s="5"/>
     </row>
-    <row r="97" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C97" s="1"/>
       <c r="D97" s="6" t="str">
         <f>IFERROR(VLOOKUP(C97,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13506,7 +13506,7 @@
       <c r="DG97" s="5"/>
       <c r="DH97" s="5"/>
     </row>
-    <row r="98" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C98" s="1"/>
       <c r="D98" s="6" t="str">
         <f>IFERROR(VLOOKUP(C98,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13627,7 +13627,7 @@
       <c r="DG98" s="5"/>
       <c r="DH98" s="5"/>
     </row>
-    <row r="99" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C99" s="1"/>
       <c r="D99" s="6" t="str">
         <f>IFERROR(VLOOKUP(C99,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13748,7 +13748,7 @@
       <c r="DG99" s="5"/>
       <c r="DH99" s="5"/>
     </row>
-    <row r="100" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="3:112" x14ac:dyDescent="0.45">
       <c r="C100" s="1"/>
       <c r="D100" s="6" t="str">
         <f>IFERROR(VLOOKUP(C100,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13869,7 +13869,7 @@
       <c r="DG100" s="5"/>
       <c r="DH100" s="5"/>
     </row>
-    <row r="102" spans="3:112" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="3:112" x14ac:dyDescent="0.45">
       <c r="E102" s="9"/>
     </row>
   </sheetData>
@@ -13949,26 +13949,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AD670"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="160.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="160.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C4" s="18" t="s">
         <v>0</v>
       </c>
@@ -13988,7 +13988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C5" s="1" t="s">
         <v>44</v>
       </c>
@@ -14009,7 +14009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:30" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C6" s="27" t="s">
         <v>24</v>
       </c>
@@ -14028,7 +14028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A7" s="22"/>
       <c r="B7" s="23" t="s">
         <v>25</v>
@@ -14050,7 +14050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
@@ -14068,7 +14068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
@@ -14086,7 +14086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
@@ -14104,7 +14104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:30" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C11" s="27" t="s">
         <v>54</v>
       </c>
@@ -14122,7 +14122,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B12" s="24" t="s">
         <v>32</v>
       </c>
@@ -14143,7 +14143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
@@ -14161,7 +14161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
@@ -14179,7 +14179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C15" s="1" t="s">
         <v>36</v>
       </c>
@@ -14197,7 +14197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C16" s="1" t="s">
         <v>38</v>
       </c>
@@ -14215,7 +14215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C17" s="1" t="s">
         <v>41</v>
       </c>
@@ -14233,7 +14233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C18" s="1" t="s">
         <v>55</v>
       </c>
@@ -14251,7 +14251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="35"/>
@@ -14261,7 +14261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" s="25" t="s">
         <v>43</v>
       </c>
@@ -14282,7 +14282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C21" s="1" t="s">
         <v>48</v>
       </c>
@@ -14300,7 +14300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -14310,7 +14310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -14320,7 +14320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -14330,7 +14330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -14340,7 +14340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -14350,7 +14350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -14360,7 +14360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -14370,7 +14370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -14380,7 +14380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -14390,7 +14390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -14400,7 +14400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -14410,7 +14410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -14420,7 +14420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -14430,7 +14430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -14440,7 +14440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -14450,7 +14450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -14460,7 +14460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -14470,7 +14470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -14480,7 +14480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -14490,7 +14490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -14500,7 +14500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -14510,7 +14510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -14520,7 +14520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -14530,7 +14530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -14540,7 +14540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -14550,7 +14550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -14560,7 +14560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -14570,7 +14570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -14580,7 +14580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -14590,7 +14590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -14600,7 +14600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -14610,7 +14610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -14620,7 +14620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -14630,7 +14630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -14640,7 +14640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -14650,7 +14650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -14660,7 +14660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -14670,7 +14670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -14680,7 +14680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -14690,7 +14690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -14700,7 +14700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -14710,7 +14710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -14720,7 +14720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -14730,7 +14730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -14740,7 +14740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -14750,7 +14750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -14760,7 +14760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -14770,7 +14770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -14780,7 +14780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -14790,7 +14790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -14800,7 +14800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -14810,7 +14810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -14820,7 +14820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -14830,7 +14830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -14840,7 +14840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -14850,7 +14850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -14860,7 +14860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -14870,7 +14870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -14880,7 +14880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -14890,7 +14890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -14900,7 +14900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -14910,7 +14910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -14920,7 +14920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -14930,7 +14930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -14940,7 +14940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -14950,7 +14950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -14960,7 +14960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -14970,7 +14970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -14980,7 +14980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -14990,7 +14990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -15000,7 +15000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -15010,7 +15010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -15020,7 +15020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -15030,7 +15030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -15040,7 +15040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -15050,7 +15050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -15060,7 +15060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -15070,7 +15070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -15080,7 +15080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -15090,7 +15090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -15100,7 +15100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -15110,7 +15110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -15120,7 +15120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -15130,7 +15130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -15140,7 +15140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -15150,7 +15150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -15160,7 +15160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -15170,7 +15170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -15180,7 +15180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -15190,7 +15190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -15200,7 +15200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -15210,7 +15210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -15220,7 +15220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -15230,7 +15230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -15240,7 +15240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -15250,7 +15250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -15260,7 +15260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -15270,7 +15270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -15280,7 +15280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -15290,7 +15290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -15300,7 +15300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -15310,7 +15310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -15320,7 +15320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -15330,7 +15330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -15340,7 +15340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -15350,7 +15350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -15360,7 +15360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -15370,7 +15370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -15380,7 +15380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -15390,7 +15390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -15400,7 +15400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -15410,7 +15410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -15420,7 +15420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -15430,7 +15430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -15440,7 +15440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -15450,7 +15450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -15460,7 +15460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -15470,7 +15470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -15480,7 +15480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -15490,7 +15490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -15500,7 +15500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -15510,7 +15510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -15520,7 +15520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -15530,7 +15530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -15540,7 +15540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -15550,7 +15550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -15560,7 +15560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -15570,7 +15570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -15580,7 +15580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -15590,7 +15590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -15600,7 +15600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -15610,7 +15610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -15620,7 +15620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -15630,7 +15630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -15640,7 +15640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -15650,7 +15650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -15660,7 +15660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -15670,7 +15670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -15680,7 +15680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -15690,7 +15690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -15700,7 +15700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -15710,7 +15710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -15720,7 +15720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -15730,7 +15730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -15740,7 +15740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -15750,7 +15750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -15760,7 +15760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -15770,7 +15770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -15780,7 +15780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -15790,7 +15790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -15800,7 +15800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -15810,7 +15810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -15820,7 +15820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -15830,7 +15830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -15840,7 +15840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -15850,7 +15850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -15860,7 +15860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -15870,7 +15870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -15880,7 +15880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -15890,7 +15890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -15900,7 +15900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -15910,7 +15910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -15920,7 +15920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -15930,7 +15930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -15940,7 +15940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -15950,7 +15950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -15960,7 +15960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -15970,7 +15970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -15980,7 +15980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -15990,7 +15990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -16000,7 +16000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -16010,7 +16010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -16020,7 +16020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -16030,7 +16030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -16040,7 +16040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -16050,7 +16050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -16060,7 +16060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -16070,7 +16070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -16080,7 +16080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -16090,7 +16090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -16100,7 +16100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -16110,7 +16110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -16120,7 +16120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -16130,7 +16130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -16140,7 +16140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -16150,7 +16150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -16160,7 +16160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -16170,7 +16170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -16180,7 +16180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -16190,7 +16190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -16200,7 +16200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -16210,7 +16210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -16220,7 +16220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -16230,7 +16230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -16240,7 +16240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -16250,7 +16250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -16260,7 +16260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -16270,7 +16270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -16280,7 +16280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -16290,7 +16290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -16300,7 +16300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -16310,7 +16310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -16320,7 +16320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -16330,7 +16330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -16340,7 +16340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -16350,7 +16350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -16360,7 +16360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -16370,7 +16370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -16380,7 +16380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -16390,7 +16390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -16400,7 +16400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -16410,7 +16410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -16420,7 +16420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -16430,7 +16430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -16440,7 +16440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -16450,7 +16450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -16460,7 +16460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -16470,7 +16470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -16480,7 +16480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -16490,7 +16490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -16500,7 +16500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -16510,7 +16510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -16520,7 +16520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -16530,7 +16530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -16540,7 +16540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -16550,7 +16550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -16560,7 +16560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -16570,7 +16570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -16580,7 +16580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -16590,7 +16590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -16600,7 +16600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -16610,7 +16610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -16620,7 +16620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -16630,7 +16630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -16640,7 +16640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -16650,7 +16650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -16660,7 +16660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -16670,7 +16670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -16680,7 +16680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -16690,7 +16690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -16700,7 +16700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -16710,7 +16710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -16720,7 +16720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -16730,7 +16730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -16740,7 +16740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -16750,7 +16750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -16760,7 +16760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -16770,7 +16770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -16780,7 +16780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -16790,7 +16790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -16800,7 +16800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -16810,7 +16810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -16820,7 +16820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -16830,7 +16830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -16840,7 +16840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -16850,7 +16850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -16860,7 +16860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -16870,7 +16870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -16880,7 +16880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -16890,7 +16890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -16900,7 +16900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -16910,7 +16910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -16920,7 +16920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -16930,7 +16930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -16940,7 +16940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -16950,7 +16950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -16960,7 +16960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -16970,7 +16970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -16980,7 +16980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -16990,7 +16990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -17000,7 +17000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -17010,7 +17010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -17020,7 +17020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -17030,7 +17030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -17040,7 +17040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -17050,7 +17050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -17060,7 +17060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -17070,7 +17070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -17080,7 +17080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
@@ -17090,7 +17090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
@@ -17100,7 +17100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
@@ -17110,7 +17110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
@@ -17120,7 +17120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
@@ -17130,7 +17130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
@@ -17140,7 +17140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
@@ -17150,7 +17150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
@@ -17160,7 +17160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
@@ -17170,7 +17170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
@@ -17180,7 +17180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
@@ -17190,7 +17190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
@@ -17200,7 +17200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
@@ -17210,7 +17210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
@@ -17220,7 +17220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
@@ -17230,7 +17230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
@@ -17240,7 +17240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
@@ -17250,7 +17250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
@@ -17260,7 +17260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
@@ -17270,7 +17270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
@@ -17280,7 +17280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
@@ -17290,7 +17290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
@@ -17300,7 +17300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
@@ -17310,7 +17310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
@@ -17320,7 +17320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
@@ -17330,7 +17330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
@@ -17340,7 +17340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
@@ -17350,7 +17350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
@@ -17360,7 +17360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
@@ -17370,7 +17370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
@@ -17380,7 +17380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
@@ -17390,7 +17390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
@@ -17400,7 +17400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
@@ -17410,7 +17410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
@@ -17420,7 +17420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
@@ -17430,7 +17430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
@@ -17440,7 +17440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
@@ -17450,7 +17450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
@@ -17460,7 +17460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
@@ -17470,7 +17470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
@@ -17480,7 +17480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
@@ -17490,7 +17490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
@@ -17500,7 +17500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
@@ -17510,7 +17510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
@@ -17520,7 +17520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
@@ -17530,7 +17530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
@@ -17540,7 +17540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
@@ -17550,7 +17550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
@@ -17560,7 +17560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
@@ -17570,7 +17570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
@@ -17580,7 +17580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
@@ -17590,7 +17590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
@@ -17600,7 +17600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
@@ -17610,7 +17610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
@@ -17620,7 +17620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
@@ -17630,7 +17630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
@@ -17640,7 +17640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
@@ -17650,7 +17650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
@@ -17660,7 +17660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
@@ -17670,7 +17670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
@@ -17680,7 +17680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
@@ -17690,7 +17690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
@@ -17700,7 +17700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
@@ -17710,7 +17710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
@@ -17720,7 +17720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
@@ -17730,7 +17730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
@@ -17740,7 +17740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
@@ -17750,7 +17750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
@@ -17760,7 +17760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
@@ -17770,7 +17770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
@@ -17780,7 +17780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
@@ -17790,7 +17790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
@@ -17800,7 +17800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
@@ -17810,7 +17810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
@@ -17820,7 +17820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
@@ -17830,7 +17830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
@@ -17840,7 +17840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
@@ -17850,7 +17850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
@@ -17860,7 +17860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
@@ -17870,7 +17870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
@@ -17880,7 +17880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
@@ -17890,7 +17890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
@@ -17900,7 +17900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
@@ -17910,7 +17910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
@@ -17920,7 +17920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
@@ -17930,7 +17930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
@@ -17940,7 +17940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
@@ -17950,7 +17950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
@@ -17960,7 +17960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
@@ -17970,7 +17970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
@@ -17980,7 +17980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
@@ -17990,7 +17990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
@@ -18000,7 +18000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
@@ -18010,7 +18010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
@@ -18020,7 +18020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
@@ -18030,7 +18030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
@@ -18040,7 +18040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
@@ -18050,7 +18050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
@@ -18060,7 +18060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
@@ -18070,7 +18070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
@@ -18080,7 +18080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
@@ -18090,7 +18090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
@@ -18100,7 +18100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
@@ -18110,7 +18110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
@@ -18120,7 +18120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
@@ -18130,7 +18130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
@@ -18140,7 +18140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
@@ -18150,7 +18150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
@@ -18160,7 +18160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
@@ -18170,7 +18170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
@@ -18180,7 +18180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
@@ -18190,7 +18190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
@@ -18200,7 +18200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
@@ -18210,7 +18210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
@@ -18220,7 +18220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
@@ -18230,7 +18230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
@@ -18240,7 +18240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
@@ -18250,7 +18250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
@@ -18260,7 +18260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
@@ -18270,7 +18270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
@@ -18280,7 +18280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
@@ -18290,7 +18290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
@@ -18300,7 +18300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
@@ -18310,7 +18310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
@@ -18320,7 +18320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
@@ -18330,7 +18330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
@@ -18340,7 +18340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
@@ -18350,7 +18350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
@@ -18360,7 +18360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
@@ -18370,7 +18370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
@@ -18380,7 +18380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
@@ -18390,7 +18390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
@@ -18400,7 +18400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
@@ -18410,7 +18410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
@@ -18420,7 +18420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
@@ -18430,7 +18430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
@@ -18440,7 +18440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
@@ -18450,7 +18450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
@@ -18460,7 +18460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
@@ -18470,7 +18470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
@@ -18480,7 +18480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
@@ -18490,7 +18490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
@@ -18500,7 +18500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
@@ -18510,7 +18510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
@@ -18520,7 +18520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
@@ -18530,7 +18530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
@@ -18540,7 +18540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
@@ -18550,7 +18550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
@@ -18560,7 +18560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
@@ -18570,7 +18570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
@@ -18580,7 +18580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
@@ -18590,7 +18590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
@@ -18600,7 +18600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
@@ -18610,7 +18610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
@@ -18620,7 +18620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
@@ -18630,7 +18630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
@@ -18640,7 +18640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
@@ -18650,7 +18650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
@@ -18660,7 +18660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
@@ -18670,7 +18670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
@@ -18680,7 +18680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
@@ -18690,7 +18690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
@@ -18700,7 +18700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
@@ -18710,7 +18710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
@@ -18720,7 +18720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
@@ -18730,7 +18730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
@@ -18740,7 +18740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
@@ -18750,7 +18750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
@@ -18760,7 +18760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
@@ -18770,7 +18770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
@@ -18780,7 +18780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
@@ -18790,7 +18790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
@@ -18800,7 +18800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
@@ -18810,7 +18810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
@@ -18820,7 +18820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
@@ -18830,7 +18830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
@@ -18840,7 +18840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
@@ -18850,7 +18850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
@@ -18860,7 +18860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
@@ -18870,7 +18870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
@@ -18880,7 +18880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
@@ -18890,7 +18890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
@@ -18900,7 +18900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
@@ -18910,7 +18910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
@@ -18920,7 +18920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
@@ -18930,7 +18930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
@@ -18940,7 +18940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
@@ -18950,7 +18950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
@@ -18960,7 +18960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
@@ -18970,7 +18970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
@@ -18980,7 +18980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
@@ -18990,7 +18990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
@@ -19000,7 +19000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
@@ -19010,7 +19010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
@@ -19020,7 +19020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
@@ -19030,7 +19030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
@@ -19040,7 +19040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
@@ -19050,7 +19050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
@@ -19060,7 +19060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
@@ -19070,7 +19070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
@@ -19080,7 +19080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
@@ -19090,7 +19090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
       <c r="E501" s="1"/>
@@ -19100,7 +19100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
       <c r="E502" s="1"/>
@@ -19110,7 +19110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
       <c r="E503" s="1"/>
@@ -19120,7 +19120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
       <c r="E504" s="1"/>
@@ -19130,7 +19130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="505" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C505" s="1"/>
       <c r="D505" s="1"/>
       <c r="E505" s="1"/>
@@ -19140,7 +19140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
       <c r="E506" s="1"/>
@@ -19150,7 +19150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C507" s="1"/>
       <c r="D507" s="1"/>
       <c r="E507" s="1"/>
@@ -19160,7 +19160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C508" s="1"/>
       <c r="D508" s="1"/>
       <c r="E508" s="1"/>
@@ -19170,7 +19170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="509" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C509" s="1"/>
       <c r="D509" s="1"/>
       <c r="E509" s="1"/>
@@ -19180,7 +19180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="510" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
       <c r="E510" s="1"/>
@@ -19190,7 +19190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="511" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C511" s="1"/>
       <c r="D511" s="1"/>
       <c r="E511" s="1"/>
@@ -19200,7 +19200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="512" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C512" s="1"/>
       <c r="D512" s="1"/>
       <c r="E512" s="1"/>
@@ -19210,7 +19210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="513" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C513" s="1"/>
       <c r="D513" s="1"/>
       <c r="E513" s="1"/>
@@ -19220,7 +19220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="514" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C514" s="1"/>
       <c r="D514" s="1"/>
       <c r="E514" s="1"/>
@@ -19230,7 +19230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="515" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C515" s="1"/>
       <c r="D515" s="1"/>
       <c r="E515" s="1"/>
@@ -19240,7 +19240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="516" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C516" s="1"/>
       <c r="D516" s="1"/>
       <c r="E516" s="1"/>
@@ -19250,7 +19250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="517" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C517" s="1"/>
       <c r="D517" s="1"/>
       <c r="E517" s="1"/>
@@ -19260,7 +19260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="518" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C518" s="1"/>
       <c r="D518" s="1"/>
       <c r="E518" s="1"/>
@@ -19270,7 +19270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="519" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C519" s="1"/>
       <c r="D519" s="1"/>
       <c r="E519" s="1"/>
@@ -19280,7 +19280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="520" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C520" s="1"/>
       <c r="D520" s="1"/>
       <c r="E520" s="1"/>
@@ -19290,7 +19290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="521" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C521" s="1"/>
       <c r="D521" s="1"/>
       <c r="E521" s="1"/>
@@ -19300,7 +19300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="522" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C522" s="1"/>
       <c r="D522" s="1"/>
       <c r="E522" s="1"/>
@@ -19310,7 +19310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="523" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C523" s="1"/>
       <c r="D523" s="1"/>
       <c r="E523" s="1"/>
@@ -19320,7 +19320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="524" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C524" s="1"/>
       <c r="D524" s="1"/>
       <c r="E524" s="1"/>
@@ -19330,7 +19330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="525" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C525" s="1"/>
       <c r="D525" s="1"/>
       <c r="E525" s="1"/>
@@ -19340,7 +19340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="526" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C526" s="1"/>
       <c r="D526" s="1"/>
       <c r="E526" s="1"/>
@@ -19350,7 +19350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="527" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C527" s="1"/>
       <c r="D527" s="1"/>
       <c r="E527" s="1"/>
@@ -19360,7 +19360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="528" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C528" s="1"/>
       <c r="D528" s="1"/>
       <c r="E528" s="1"/>
@@ -19370,7 +19370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="529" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C529" s="1"/>
       <c r="D529" s="1"/>
       <c r="E529" s="1"/>
@@ -19380,7 +19380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="530" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C530" s="1"/>
       <c r="D530" s="1"/>
       <c r="E530" s="1"/>
@@ -19390,7 +19390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="531" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C531" s="1"/>
       <c r="D531" s="1"/>
       <c r="E531" s="1"/>
@@ -19400,7 +19400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="532" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C532" s="1"/>
       <c r="D532" s="1"/>
       <c r="E532" s="1"/>
@@ -19410,7 +19410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="533" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C533" s="1"/>
       <c r="D533" s="1"/>
       <c r="E533" s="1"/>
@@ -19420,7 +19420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="534" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C534" s="1"/>
       <c r="D534" s="1"/>
       <c r="E534" s="1"/>
@@ -19430,7 +19430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="535" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C535" s="1"/>
       <c r="D535" s="1"/>
       <c r="E535" s="1"/>
@@ -19440,7 +19440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="536" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C536" s="1"/>
       <c r="D536" s="1"/>
       <c r="E536" s="1"/>
@@ -19450,7 +19450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="537" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C537" s="1"/>
       <c r="D537" s="1"/>
       <c r="E537" s="1"/>
@@ -19460,7 +19460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="538" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C538" s="1"/>
       <c r="D538" s="1"/>
       <c r="E538" s="1"/>
@@ -19470,7 +19470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="539" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C539" s="1"/>
       <c r="D539" s="1"/>
       <c r="E539" s="1"/>
@@ -19480,7 +19480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="540" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C540" s="1"/>
       <c r="D540" s="1"/>
       <c r="E540" s="1"/>
@@ -19490,7 +19490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="541" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C541" s="1"/>
       <c r="D541" s="1"/>
       <c r="E541" s="1"/>
@@ -19500,7 +19500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="542" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C542" s="1"/>
       <c r="D542" s="1"/>
       <c r="E542" s="1"/>
@@ -19510,7 +19510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="543" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C543" s="1"/>
       <c r="D543" s="1"/>
       <c r="E543" s="1"/>
@@ -19520,7 +19520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="544" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C544" s="1"/>
       <c r="D544" s="1"/>
       <c r="E544" s="1"/>
@@ -19530,7 +19530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="545" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C545" s="1"/>
       <c r="D545" s="1"/>
       <c r="E545" s="1"/>
@@ -19540,7 +19540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="546" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C546" s="1"/>
       <c r="D546" s="1"/>
       <c r="E546" s="1"/>
@@ -19550,7 +19550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="547" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C547" s="1"/>
       <c r="D547" s="1"/>
       <c r="E547" s="1"/>
@@ -19560,7 +19560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="548" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
       <c r="E548" s="1"/>
@@ -19570,7 +19570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="549" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C549" s="1"/>
       <c r="D549" s="1"/>
       <c r="E549" s="1"/>
@@ -19580,7 +19580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="550" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C550" s="1"/>
       <c r="D550" s="1"/>
       <c r="E550" s="1"/>
@@ -19590,7 +19590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="551" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C551" s="1"/>
       <c r="D551" s="1"/>
       <c r="E551" s="1"/>
@@ -19600,7 +19600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="552" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C552" s="1"/>
       <c r="D552" s="1"/>
       <c r="E552" s="1"/>
@@ -19610,7 +19610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="553" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C553" s="1"/>
       <c r="D553" s="1"/>
       <c r="E553" s="1"/>
@@ -19620,7 +19620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="554" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C554" s="1"/>
       <c r="D554" s="1"/>
       <c r="E554" s="1"/>
@@ -19630,7 +19630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="555" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C555" s="1"/>
       <c r="D555" s="1"/>
       <c r="E555" s="1"/>
@@ -19640,7 +19640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="556" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C556" s="1"/>
       <c r="D556" s="1"/>
       <c r="E556" s="1"/>
@@ -19650,7 +19650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="557" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C557" s="1"/>
       <c r="D557" s="1"/>
       <c r="E557" s="1"/>
@@ -19660,7 +19660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="558" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C558" s="1"/>
       <c r="D558" s="1"/>
       <c r="E558" s="1"/>
@@ -19670,7 +19670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="559" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C559" s="1"/>
       <c r="D559" s="1"/>
       <c r="E559" s="1"/>
@@ -19680,7 +19680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="560" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C560" s="1"/>
       <c r="D560" s="1"/>
       <c r="E560" s="1"/>
@@ -19690,7 +19690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="561" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C561" s="1"/>
       <c r="D561" s="1"/>
       <c r="E561" s="1"/>
@@ -19700,7 +19700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="562" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C562" s="1"/>
       <c r="D562" s="1"/>
       <c r="E562" s="1"/>
@@ -19710,7 +19710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="563" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C563" s="1"/>
       <c r="D563" s="1"/>
       <c r="E563" s="1"/>
@@ -19720,7 +19720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="564" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C564" s="1"/>
       <c r="D564" s="1"/>
       <c r="E564" s="1"/>
@@ -19730,7 +19730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="565" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C565" s="1"/>
       <c r="D565" s="1"/>
       <c r="E565" s="1"/>
@@ -19740,7 +19740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="566" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C566" s="1"/>
       <c r="D566" s="1"/>
       <c r="E566" s="1"/>
@@ -19750,7 +19750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="567" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C567" s="1"/>
       <c r="D567" s="1"/>
       <c r="E567" s="1"/>
@@ -19760,7 +19760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="568" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C568" s="1"/>
       <c r="D568" s="1"/>
       <c r="E568" s="1"/>
@@ -19770,7 +19770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="569" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C569" s="1"/>
       <c r="D569" s="1"/>
       <c r="E569" s="1"/>
@@ -19780,7 +19780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="570" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C570" s="1"/>
       <c r="D570" s="1"/>
       <c r="E570" s="1"/>
@@ -19790,7 +19790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="571" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C571" s="1"/>
       <c r="D571" s="1"/>
       <c r="E571" s="1"/>
@@ -19800,7 +19800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="572" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C572" s="1"/>
       <c r="D572" s="1"/>
       <c r="E572" s="1"/>
@@ -19810,7 +19810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="573" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C573" s="1"/>
       <c r="D573" s="1"/>
       <c r="E573" s="1"/>
@@ -19820,7 +19820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="574" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C574" s="1"/>
       <c r="D574" s="1"/>
       <c r="E574" s="1"/>
@@ -19830,7 +19830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="575" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C575" s="1"/>
       <c r="D575" s="1"/>
       <c r="E575" s="1"/>
@@ -19840,7 +19840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="576" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C576" s="1"/>
       <c r="D576" s="1"/>
       <c r="E576" s="1"/>
@@ -19850,7 +19850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="577" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C577" s="1"/>
       <c r="D577" s="1"/>
       <c r="E577" s="1"/>
@@ -19860,7 +19860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="578" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C578" s="1"/>
       <c r="D578" s="1"/>
       <c r="E578" s="1"/>
@@ -19870,7 +19870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="579" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C579" s="1"/>
       <c r="D579" s="1"/>
       <c r="E579" s="1"/>
@@ -19880,7 +19880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="580" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C580" s="1"/>
       <c r="D580" s="1"/>
       <c r="E580" s="1"/>
@@ -19890,7 +19890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="581" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C581" s="1"/>
       <c r="D581" s="1"/>
       <c r="E581" s="1"/>
@@ -19900,7 +19900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="582" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C582" s="1"/>
       <c r="D582" s="1"/>
       <c r="E582" s="1"/>
@@ -19910,7 +19910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="583" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C583" s="1"/>
       <c r="D583" s="1"/>
       <c r="E583" s="1"/>
@@ -19920,7 +19920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="584" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C584" s="1"/>
       <c r="D584" s="1"/>
       <c r="E584" s="1"/>
@@ -19930,7 +19930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="585" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C585" s="1"/>
       <c r="D585" s="1"/>
       <c r="E585" s="1"/>
@@ -19940,7 +19940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="586" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C586" s="1"/>
       <c r="D586" s="1"/>
       <c r="E586" s="1"/>
@@ -19950,7 +19950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="587" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C587" s="1"/>
       <c r="D587" s="1"/>
       <c r="E587" s="1"/>
@@ -19960,7 +19960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="588" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C588" s="1"/>
       <c r="D588" s="1"/>
       <c r="E588" s="1"/>
@@ -19970,7 +19970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="589" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C589" s="1"/>
       <c r="D589" s="1"/>
       <c r="E589" s="1"/>
@@ -19980,7 +19980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="590" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C590" s="1"/>
       <c r="D590" s="1"/>
       <c r="E590" s="1"/>
@@ -19990,7 +19990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="591" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C591" s="1"/>
       <c r="D591" s="1"/>
       <c r="E591" s="1"/>
@@ -20000,7 +20000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="592" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C592" s="1"/>
       <c r="D592" s="1"/>
       <c r="E592" s="1"/>
@@ -20010,7 +20010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="593" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C593" s="1"/>
       <c r="D593" s="1"/>
       <c r="E593" s="1"/>
@@ -20020,7 +20020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="594" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C594" s="1"/>
       <c r="D594" s="1"/>
       <c r="E594" s="1"/>
@@ -20030,7 +20030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="595" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C595" s="1"/>
       <c r="D595" s="1"/>
       <c r="E595" s="1"/>
@@ -20040,7 +20040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="596" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C596" s="1"/>
       <c r="D596" s="1"/>
       <c r="E596" s="1"/>
@@ -20050,7 +20050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="597" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C597" s="1"/>
       <c r="D597" s="1"/>
       <c r="E597" s="1"/>
@@ -20060,7 +20060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="598" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C598" s="1"/>
       <c r="D598" s="1"/>
       <c r="E598" s="1"/>
@@ -20070,7 +20070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="599" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C599" s="1"/>
       <c r="D599" s="1"/>
       <c r="E599" s="1"/>
@@ -20080,7 +20080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="600" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C600" s="1"/>
       <c r="D600" s="1"/>
       <c r="E600" s="1"/>
@@ -20090,7 +20090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="601" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C601" s="1"/>
       <c r="D601" s="1"/>
       <c r="E601" s="1"/>
@@ -20100,7 +20100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="602" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C602" s="1"/>
       <c r="D602" s="1"/>
       <c r="E602" s="1"/>
@@ -20110,7 +20110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="603" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C603" s="1"/>
       <c r="D603" s="1"/>
       <c r="E603" s="1"/>
@@ -20120,7 +20120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="604" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C604" s="1"/>
       <c r="D604" s="1"/>
       <c r="E604" s="1"/>
@@ -20130,7 +20130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="605" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C605" s="1"/>
       <c r="D605" s="1"/>
       <c r="E605" s="1"/>
@@ -20140,7 +20140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="606" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C606" s="1"/>
       <c r="D606" s="1"/>
       <c r="E606" s="1"/>
@@ -20150,7 +20150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="607" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C607" s="1"/>
       <c r="D607" s="1"/>
       <c r="E607" s="1"/>
@@ -20160,7 +20160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="608" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C608" s="1"/>
       <c r="D608" s="1"/>
       <c r="E608" s="1"/>
@@ -20170,7 +20170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="609" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C609" s="1"/>
       <c r="D609" s="1"/>
       <c r="E609" s="1"/>
@@ -20180,7 +20180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="610" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C610" s="1"/>
       <c r="D610" s="1"/>
       <c r="E610" s="1"/>
@@ -20190,7 +20190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="611" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C611" s="1"/>
       <c r="D611" s="1"/>
       <c r="E611" s="1"/>
@@ -20200,7 +20200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="612" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C612" s="1"/>
       <c r="D612" s="1"/>
       <c r="E612" s="1"/>
@@ -20210,7 +20210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="613" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C613" s="1"/>
       <c r="D613" s="1"/>
       <c r="E613" s="1"/>
@@ -20220,7 +20220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="614" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C614" s="1"/>
       <c r="D614" s="1"/>
       <c r="E614" s="1"/>
@@ -20230,7 +20230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="615" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C615" s="1"/>
       <c r="D615" s="1"/>
       <c r="E615" s="1"/>
@@ -20240,7 +20240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="616" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C616" s="1"/>
       <c r="D616" s="1"/>
       <c r="E616" s="1"/>
@@ -20250,7 +20250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="617" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C617" s="1"/>
       <c r="D617" s="1"/>
       <c r="E617" s="1"/>
@@ -20260,7 +20260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="618" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C618" s="1"/>
       <c r="D618" s="1"/>
       <c r="E618" s="1"/>
@@ -20270,7 +20270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="619" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C619" s="1"/>
       <c r="D619" s="1"/>
       <c r="E619" s="1"/>
@@ -20280,7 +20280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="620" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C620" s="1"/>
       <c r="D620" s="1"/>
       <c r="E620" s="1"/>
@@ -20290,7 +20290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="621" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C621" s="1"/>
       <c r="D621" s="1"/>
       <c r="E621" s="1"/>
@@ -20300,7 +20300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="622" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C622" s="1"/>
       <c r="D622" s="1"/>
       <c r="E622" s="1"/>
@@ -20310,7 +20310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="623" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C623" s="1"/>
       <c r="D623" s="1"/>
       <c r="E623" s="1"/>
@@ -20320,7 +20320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="624" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C624" s="1"/>
       <c r="D624" s="1"/>
       <c r="E624" s="1"/>
@@ -20330,7 +20330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="625" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C625" s="1"/>
       <c r="D625" s="1"/>
       <c r="E625" s="1"/>
@@ -20340,7 +20340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="626" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C626" s="1"/>
       <c r="D626" s="1"/>
       <c r="E626" s="1"/>
@@ -20350,7 +20350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="627" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C627" s="1"/>
       <c r="D627" s="1"/>
       <c r="E627" s="1"/>
@@ -20360,7 +20360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="628" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C628" s="1"/>
       <c r="D628" s="1"/>
       <c r="E628" s="1"/>
@@ -20370,7 +20370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="629" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C629" s="1"/>
       <c r="D629" s="1"/>
       <c r="E629" s="1"/>
@@ -20380,7 +20380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="630" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C630" s="1"/>
       <c r="D630" s="1"/>
       <c r="E630" s="1"/>
@@ -20390,7 +20390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="631" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C631" s="1"/>
       <c r="D631" s="1"/>
       <c r="E631" s="1"/>
@@ -20400,7 +20400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="632" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C632" s="1"/>
       <c r="D632" s="1"/>
       <c r="E632" s="1"/>
@@ -20410,7 +20410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="633" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C633" s="1"/>
       <c r="D633" s="1"/>
       <c r="E633" s="1"/>
@@ -20420,7 +20420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="634" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C634" s="1"/>
       <c r="D634" s="1"/>
       <c r="E634" s="1"/>
@@ -20430,7 +20430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="635" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C635" s="1"/>
       <c r="D635" s="1"/>
       <c r="E635" s="1"/>
@@ -20440,7 +20440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="636" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C636" s="1"/>
       <c r="D636" s="1"/>
       <c r="E636" s="1"/>
@@ -20450,7 +20450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="637" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C637" s="1"/>
       <c r="D637" s="1"/>
       <c r="E637" s="1"/>
@@ -20460,7 +20460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="638" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C638" s="1"/>
       <c r="D638" s="1"/>
       <c r="E638" s="1"/>
@@ -20470,7 +20470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="639" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C639" s="1"/>
       <c r="D639" s="1"/>
       <c r="E639" s="1"/>
@@ -20480,7 +20480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="640" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C640" s="1"/>
       <c r="D640" s="1"/>
       <c r="E640" s="1"/>
@@ -20490,7 +20490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="641" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C641" s="1"/>
       <c r="D641" s="1"/>
       <c r="E641" s="1"/>
@@ -20500,7 +20500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="642" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C642" s="1"/>
       <c r="D642" s="1"/>
       <c r="E642" s="1"/>
@@ -20510,7 +20510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="643" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C643" s="1"/>
       <c r="D643" s="1"/>
       <c r="E643" s="1"/>
@@ -20520,7 +20520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="644" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C644" s="1"/>
       <c r="D644" s="1"/>
       <c r="E644" s="1"/>
@@ -20530,7 +20530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="645" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C645" s="1"/>
       <c r="D645" s="1"/>
       <c r="E645" s="1"/>
@@ -20540,7 +20540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="646" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C646" s="1"/>
       <c r="D646" s="1"/>
       <c r="E646" s="1"/>
@@ -20550,7 +20550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="647" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C647" s="1"/>
       <c r="D647" s="1"/>
       <c r="E647" s="1"/>
@@ -20560,7 +20560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="648" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C648" s="1"/>
       <c r="D648" s="1"/>
       <c r="E648" s="1"/>
@@ -20570,7 +20570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="649" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C649" s="1"/>
       <c r="D649" s="1"/>
       <c r="E649" s="1"/>
@@ -20580,7 +20580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="650" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C650" s="1"/>
       <c r="D650" s="1"/>
       <c r="E650" s="1"/>
@@ -20590,7 +20590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="651" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C651" s="1"/>
       <c r="D651" s="1"/>
       <c r="E651" s="1"/>
@@ -20600,7 +20600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="652" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C652" s="1"/>
       <c r="D652" s="1"/>
       <c r="E652" s="1"/>
@@ -20610,7 +20610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="653" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C653" s="1"/>
       <c r="D653" s="1"/>
       <c r="E653" s="1"/>
@@ -20620,7 +20620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="654" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C654" s="1"/>
       <c r="D654" s="1"/>
       <c r="E654" s="1"/>
@@ -20630,7 +20630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="655" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C655" s="1"/>
       <c r="D655" s="1"/>
       <c r="E655" s="1"/>
@@ -20640,7 +20640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="656" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C656" s="1"/>
       <c r="D656" s="1"/>
       <c r="E656" s="1"/>
@@ -20650,7 +20650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="657" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C657" s="1"/>
       <c r="D657" s="1"/>
       <c r="E657" s="1"/>
@@ -20660,7 +20660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="658" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C658" s="1"/>
       <c r="D658" s="1"/>
       <c r="E658" s="1"/>
@@ -20670,7 +20670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="659" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C659" s="1"/>
       <c r="D659" s="1"/>
       <c r="E659" s="1"/>
@@ -20680,7 +20680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="660" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C660" s="1"/>
       <c r="D660" s="1"/>
       <c r="E660" s="1"/>
@@ -20690,7 +20690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="661" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C661" s="1"/>
       <c r="D661" s="1"/>
       <c r="E661" s="1"/>
@@ -20700,7 +20700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="662" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C662" s="1"/>
       <c r="D662" s="1"/>
       <c r="E662" s="1"/>
@@ -20710,7 +20710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="663" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C663" s="1"/>
       <c r="D663" s="1"/>
       <c r="E663" s="1"/>
@@ -20720,7 +20720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="664" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C664" s="1"/>
       <c r="D664" s="1"/>
       <c r="E664" s="1"/>
@@ -20730,7 +20730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="665" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C665" s="1"/>
       <c r="D665" s="1"/>
       <c r="E665" s="1"/>
@@ -20740,7 +20740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="666" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C666" s="1"/>
       <c r="D666" s="1"/>
       <c r="E666" s="1"/>
@@ -20750,7 +20750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="667" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C667" s="1"/>
       <c r="D667" s="1"/>
       <c r="E667" s="1"/>
@@ -20760,7 +20760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="668" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C668" s="1"/>
       <c r="D668" s="1"/>
       <c r="E668" s="1"/>
@@ -20770,7 +20770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="669" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C669" s="1"/>
       <c r="D669" s="1"/>
       <c r="E669" s="1"/>
@@ -20780,7 +20780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="670" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C670" s="1"/>
       <c r="D670" s="1"/>
       <c r="E670" s="1"/>
@@ -20805,9 +20805,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" s="36" t="s">
         <v>59</v>
       </c>
@@ -20819,7 +20819,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -20829,7 +20829,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
@@ -20839,7 +20839,7 @@
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
@@ -20849,7 +20849,7 @@
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>

--- a/タスク表.xlsx
+++ b/タスク表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k018a1560\Desktop\GameEX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkrs3\Documents\EXTREMEProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="66">
   <si>
     <t>タスク表</t>
     <rPh sb="3" eb="4">
@@ -772,6 +772,51 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>日時修正しました。修正前：6/28→7/1</t>
+    <rPh sb="0" eb="2">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日時修正しました。修正前：7/1→7/8</t>
+    <rPh sb="0" eb="2">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日時修正しました。修正前：7/8→7/15</t>
+    <rPh sb="0" eb="4">
+      <t>ニチジシュウセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1200,8 +1245,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99FF"/>
       <color rgb="FFEFD9D9"/>
-      <color rgb="FFFF99FF"/>
       <color rgb="FFFF5353"/>
     </mruColors>
   </colors>
@@ -1481,32 +1526,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DH102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="26.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.4140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="18" width="7.796875" customWidth="1"/>
-    <col min="19" max="27" width="6.796875" customWidth="1"/>
-    <col min="28" max="49" width="7.796875" customWidth="1"/>
-    <col min="50" max="58" width="6.796875" customWidth="1"/>
-    <col min="59" max="80" width="7.796875" customWidth="1"/>
-    <col min="81" max="89" width="6.796875" customWidth="1"/>
-    <col min="90" max="112" width="7.796875" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="18" width="7.83203125" customWidth="1"/>
+    <col min="19" max="27" width="6.83203125" customWidth="1"/>
+    <col min="28" max="49" width="7.83203125" customWidth="1"/>
+    <col min="50" max="58" width="6.83203125" customWidth="1"/>
+    <col min="59" max="80" width="7.83203125" customWidth="1"/>
+    <col min="81" max="89" width="6.83203125" customWidth="1"/>
+    <col min="90" max="112" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:112" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:112" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="37"/>
       <c r="P2" s="14" t="s">
         <v>19</v>
@@ -1518,7 +1563,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:112" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="H3" s="11"/>
       <c r="I3" s="10" t="s">
         <v>11</v>
@@ -1833,7 +1878,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:112" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="20" t="s">
         <v>3</v>
       </c>
@@ -2165,7 +2210,7 @@
         <v>43740</v>
       </c>
     </row>
-    <row r="5" spans="1:112" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="1" t="s">
         <v>44</v>
       </c>
@@ -2179,7 +2224,7 @@
       </c>
       <c r="F5" s="13">
         <f ca="1">IFERROR(ABS(TODAY()-$E5),"")</f>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>6</v>
@@ -2290,7 +2335,7 @@
       <c r="DG5" s="5"/>
       <c r="DH5" s="5"/>
     </row>
-    <row r="6" spans="1:112" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
@@ -2304,7 +2349,7 @@
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F69" ca="1" si="0">IFERROR(ABS(TODAY()-$E6),"")</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>6</v>
@@ -2417,7 +2462,7 @@
       <c r="DG6" s="5"/>
       <c r="DH6" s="5"/>
     </row>
-    <row r="7" spans="1:112" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="1" t="s">
         <v>45</v>
       </c>
@@ -2431,7 +2476,7 @@
       </c>
       <c r="F7" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>6</v>
@@ -2544,7 +2589,7 @@
       <c r="DG7" s="5"/>
       <c r="DH7" s="5"/>
     </row>
-    <row r="8" spans="1:112" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
@@ -2558,7 +2603,7 @@
       </c>
       <c r="F8" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>6</v>
@@ -2671,7 +2716,7 @@
       <c r="DG8" s="5"/>
       <c r="DH8" s="5"/>
     </row>
-    <row r="9" spans="1:112" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="1" t="s">
         <v>50</v>
       </c>
@@ -2685,7 +2730,7 @@
       </c>
       <c r="F9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>6</v>
@@ -2798,17 +2843,17 @@
       <c r="DG9" s="5"/>
       <c r="DH9" s="5"/>
     </row>
-    <row r="10" spans="1:112" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="6">
         <f>IFERROR(VLOOKUP(C10,タスク表!$C$5:$E$100,3,FALSE),"")</f>
-        <v>43647</v>
+        <v>43658</v>
       </c>
       <c r="E10" s="6">
         <f>IFERROR(VLOOKUP(C10,タスク表!$C$5:$F$100,4,FALSE),"")</f>
-        <v>43654</v>
+        <v>43661</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" ca="1" si="0"/>
@@ -2925,21 +2970,21 @@
       <c r="DG10" s="5"/>
       <c r="DH10" s="5"/>
     </row>
-    <row r="11" spans="1:112" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D11" s="6">
         <f>IFERROR(VLOOKUP(C11,タスク表!$C$5:$E$100,3,FALSE),"")</f>
-        <v>43654</v>
+        <v>43661</v>
       </c>
       <c r="E11" s="6">
         <f>IFERROR(VLOOKUP(C11,タスク表!$C$5:$F$100,4,FALSE),"")</f>
-        <v>43661</v>
+        <v>43665</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>7</v>
@@ -3052,27 +3097,27 @@
       <c r="DG11" s="5"/>
       <c r="DH11" s="5"/>
     </row>
-    <row r="12" spans="1:112" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D12" s="6">
         <f>IFERROR(VLOOKUP(C12,タスク表!$C$5:$E$100,3,FALSE),"")</f>
-        <v>43661</v>
+        <v>43665</v>
       </c>
       <c r="E12" s="6">
         <f>IFERROR(VLOOKUP(C12,タスク表!$C$5:$F$100,4,FALSE),"")</f>
-        <v>43661</v>
+        <v>43665</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="31" t="s">
-        <v>51</v>
+      <c r="H12" s="33" t="s">
+        <v>53</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="5"/>
@@ -3179,7 +3224,7 @@
       <c r="DG12" s="5"/>
       <c r="DH12" s="5"/>
     </row>
-    <row r="13" spans="1:112" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
@@ -3193,7 +3238,7 @@
       </c>
       <c r="F13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>6</v>
@@ -3306,7 +3351,7 @@
       <c r="DG13" s="5"/>
       <c r="DH13" s="5"/>
     </row>
-    <row r="14" spans="1:112" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
@@ -3320,10 +3365,10 @@
       </c>
       <c r="F14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H14" s="33" t="s">
         <v>53</v>
@@ -3433,7 +3478,7 @@
       <c r="DG14" s="5"/>
       <c r="DH14" s="5"/>
     </row>
-    <row r="15" spans="1:112" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="1" t="s">
         <v>36</v>
       </c>
@@ -3447,7 +3492,7 @@
       </c>
       <c r="F15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>6</v>
@@ -3560,7 +3605,7 @@
       <c r="DG15" s="5"/>
       <c r="DH15" s="5"/>
     </row>
-    <row r="16" spans="1:112" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="1" t="s">
         <v>41</v>
       </c>
@@ -3574,7 +3619,7 @@
       </c>
       <c r="F16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>6</v>
@@ -3687,21 +3732,21 @@
       <c r="DG16" s="5"/>
       <c r="DH16" s="5"/>
     </row>
-    <row r="17" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="6">
         <f>IFERROR(VLOOKUP(C17,タスク表!$C$5:$E$100,3,FALSE),"")</f>
-        <v>43644</v>
+        <v>43658</v>
       </c>
       <c r="E17" s="6">
         <f>IFERROR(VLOOKUP(C17,タスク表!$C$5:$F$100,4,FALSE),"")</f>
-        <v>43647</v>
+        <v>43665</v>
       </c>
       <c r="F17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>7</v>
@@ -3814,7 +3859,7 @@
       <c r="DG17" s="5"/>
       <c r="DH17" s="5"/>
     </row>
-    <row r="18" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="1" t="s">
         <v>47</v>
       </c>
@@ -3828,7 +3873,7 @@
       </c>
       <c r="F18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>7</v>
@@ -3941,7 +3986,7 @@
       <c r="DG18" s="5"/>
       <c r="DH18" s="5"/>
     </row>
-    <row r="19" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="1" t="s">
         <v>48</v>
       </c>
@@ -3955,7 +4000,7 @@
       </c>
       <c r="F19" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>7</v>
@@ -4068,7 +4113,7 @@
       <c r="DG19" s="5"/>
       <c r="DH19" s="5"/>
     </row>
-    <row r="20" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="1"/>
       <c r="D20" s="6" t="str">
         <f>IFERROR(VLOOKUP(C20,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4189,7 +4234,7 @@
       <c r="DG20" s="5"/>
       <c r="DH20" s="5"/>
     </row>
-    <row r="21" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="1"/>
       <c r="D21" s="6" t="str">
         <f>IFERROR(VLOOKUP(C21,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4310,7 +4355,7 @@
       <c r="DG21" s="5"/>
       <c r="DH21" s="5"/>
     </row>
-    <row r="22" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="1"/>
       <c r="D22" s="6" t="str">
         <f>IFERROR(VLOOKUP(C22,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4431,7 +4476,7 @@
       <c r="DG22" s="5"/>
       <c r="DH22" s="5"/>
     </row>
-    <row r="23" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="1"/>
       <c r="D23" s="6" t="str">
         <f>IFERROR(VLOOKUP(C23,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4552,7 +4597,7 @@
       <c r="DG23" s="5"/>
       <c r="DH23" s="5"/>
     </row>
-    <row r="24" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" s="1"/>
       <c r="D24" s="6" t="str">
         <f>IFERROR(VLOOKUP(C24,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4673,7 +4718,7 @@
       <c r="DG24" s="5"/>
       <c r="DH24" s="5"/>
     </row>
-    <row r="25" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" s="1"/>
       <c r="D25" s="6" t="str">
         <f>IFERROR(VLOOKUP(C25,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4794,7 +4839,7 @@
       <c r="DG25" s="5"/>
       <c r="DH25" s="5"/>
     </row>
-    <row r="26" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" s="1"/>
       <c r="D26" s="6" t="str">
         <f>IFERROR(VLOOKUP(C26,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4915,7 +4960,7 @@
       <c r="DG26" s="5"/>
       <c r="DH26" s="5"/>
     </row>
-    <row r="27" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" s="1"/>
       <c r="D27" s="6" t="str">
         <f>IFERROR(VLOOKUP(C27,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5036,7 +5081,7 @@
       <c r="DG27" s="5"/>
       <c r="DH27" s="5"/>
     </row>
-    <row r="28" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="1"/>
       <c r="D28" s="6" t="str">
         <f>IFERROR(VLOOKUP(C28,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5157,7 +5202,7 @@
       <c r="DG28" s="5"/>
       <c r="DH28" s="5"/>
     </row>
-    <row r="29" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="1"/>
       <c r="D29" s="6" t="str">
         <f>IFERROR(VLOOKUP(C29,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5278,7 +5323,7 @@
       <c r="DG29" s="5"/>
       <c r="DH29" s="5"/>
     </row>
-    <row r="30" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="1"/>
       <c r="D30" s="6" t="str">
         <f>IFERROR(VLOOKUP(C30,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5399,7 +5444,7 @@
       <c r="DG30" s="5"/>
       <c r="DH30" s="5"/>
     </row>
-    <row r="31" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="1"/>
       <c r="D31" s="6" t="str">
         <f>IFERROR(VLOOKUP(C31,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5520,7 +5565,7 @@
       <c r="DG31" s="5"/>
       <c r="DH31" s="5"/>
     </row>
-    <row r="32" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" s="1"/>
       <c r="D32" s="6" t="str">
         <f>IFERROR(VLOOKUP(C32,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5641,7 +5686,7 @@
       <c r="DG32" s="5"/>
       <c r="DH32" s="5"/>
     </row>
-    <row r="33" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" s="1"/>
       <c r="D33" s="6" t="str">
         <f>IFERROR(VLOOKUP(C33,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5762,7 +5807,7 @@
       <c r="DG33" s="5"/>
       <c r="DH33" s="5"/>
     </row>
-    <row r="34" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C34" s="1"/>
       <c r="D34" s="6" t="str">
         <f>IFERROR(VLOOKUP(C34,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -5883,7 +5928,7 @@
       <c r="DG34" s="5"/>
       <c r="DH34" s="5"/>
     </row>
-    <row r="35" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" s="1"/>
       <c r="D35" s="6" t="str">
         <f>IFERROR(VLOOKUP(C35,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6004,7 +6049,7 @@
       <c r="DG35" s="5"/>
       <c r="DH35" s="5"/>
     </row>
-    <row r="36" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C36" s="1"/>
       <c r="D36" s="6" t="str">
         <f>IFERROR(VLOOKUP(C36,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6125,7 +6170,7 @@
       <c r="DG36" s="5"/>
       <c r="DH36" s="5"/>
     </row>
-    <row r="37" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C37" s="1"/>
       <c r="D37" s="6" t="str">
         <f>IFERROR(VLOOKUP(C37,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6246,7 +6291,7 @@
       <c r="DG37" s="5"/>
       <c r="DH37" s="5"/>
     </row>
-    <row r="38" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C38" s="1"/>
       <c r="D38" s="6" t="str">
         <f>IFERROR(VLOOKUP(C38,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6367,7 +6412,7 @@
       <c r="DG38" s="5"/>
       <c r="DH38" s="5"/>
     </row>
-    <row r="39" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C39" s="1"/>
       <c r="D39" s="6" t="str">
         <f>IFERROR(VLOOKUP(C39,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6488,7 +6533,7 @@
       <c r="DG39" s="5"/>
       <c r="DH39" s="5"/>
     </row>
-    <row r="40" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C40" s="1"/>
       <c r="D40" s="6" t="str">
         <f>IFERROR(VLOOKUP(C40,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6609,7 +6654,7 @@
       <c r="DG40" s="5"/>
       <c r="DH40" s="5"/>
     </row>
-    <row r="41" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C41" s="1"/>
       <c r="D41" s="6" t="str">
         <f>IFERROR(VLOOKUP(C41,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6730,7 +6775,7 @@
       <c r="DG41" s="5"/>
       <c r="DH41" s="5"/>
     </row>
-    <row r="42" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="42" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C42" s="1"/>
       <c r="D42" s="6" t="str">
         <f>IFERROR(VLOOKUP(C42,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6851,7 +6896,7 @@
       <c r="DG42" s="5"/>
       <c r="DH42" s="5"/>
     </row>
-    <row r="43" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="43" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C43" s="1"/>
       <c r="D43" s="6" t="str">
         <f>IFERROR(VLOOKUP(C43,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -6972,7 +7017,7 @@
       <c r="DG43" s="5"/>
       <c r="DH43" s="5"/>
     </row>
-    <row r="44" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C44" s="1"/>
       <c r="D44" s="6" t="str">
         <f>IFERROR(VLOOKUP(C44,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7093,7 +7138,7 @@
       <c r="DG44" s="5"/>
       <c r="DH44" s="5"/>
     </row>
-    <row r="45" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="45" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C45" s="1"/>
       <c r="D45" s="6" t="str">
         <f>IFERROR(VLOOKUP(C45,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7214,7 +7259,7 @@
       <c r="DG45" s="5"/>
       <c r="DH45" s="5"/>
     </row>
-    <row r="46" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C46" s="1"/>
       <c r="D46" s="6" t="str">
         <f>IFERROR(VLOOKUP(C46,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7335,7 +7380,7 @@
       <c r="DG46" s="5"/>
       <c r="DH46" s="5"/>
     </row>
-    <row r="47" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="47" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C47" s="1"/>
       <c r="D47" s="6" t="str">
         <f>IFERROR(VLOOKUP(C47,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7456,7 +7501,7 @@
       <c r="DG47" s="5"/>
       <c r="DH47" s="5"/>
     </row>
-    <row r="48" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C48" s="1"/>
       <c r="D48" s="6" t="str">
         <f>IFERROR(VLOOKUP(C48,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7577,7 +7622,7 @@
       <c r="DG48" s="5"/>
       <c r="DH48" s="5"/>
     </row>
-    <row r="49" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C49" s="1"/>
       <c r="D49" s="6" t="str">
         <f>IFERROR(VLOOKUP(C49,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7698,7 +7743,7 @@
       <c r="DG49" s="5"/>
       <c r="DH49" s="5"/>
     </row>
-    <row r="50" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C50" s="1"/>
       <c r="D50" s="6" t="str">
         <f>IFERROR(VLOOKUP(C50,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7819,7 +7864,7 @@
       <c r="DG50" s="5"/>
       <c r="DH50" s="5"/>
     </row>
-    <row r="51" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C51" s="1"/>
       <c r="D51" s="6" t="str">
         <f>IFERROR(VLOOKUP(C51,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -7940,7 +7985,7 @@
       <c r="DG51" s="5"/>
       <c r="DH51" s="5"/>
     </row>
-    <row r="52" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="52" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C52" s="1"/>
       <c r="D52" s="6" t="str">
         <f>IFERROR(VLOOKUP(C52,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8061,7 +8106,7 @@
       <c r="DG52" s="5"/>
       <c r="DH52" s="5"/>
     </row>
-    <row r="53" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="53" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C53" s="1"/>
       <c r="D53" s="6" t="str">
         <f>IFERROR(VLOOKUP(C53,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8182,7 +8227,7 @@
       <c r="DG53" s="5"/>
       <c r="DH53" s="5"/>
     </row>
-    <row r="54" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="54" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C54" s="1"/>
       <c r="D54" s="6" t="str">
         <f>IFERROR(VLOOKUP(C54,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8303,7 +8348,7 @@
       <c r="DG54" s="5"/>
       <c r="DH54" s="5"/>
     </row>
-    <row r="55" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="55" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C55" s="1"/>
       <c r="D55" s="6" t="str">
         <f>IFERROR(VLOOKUP(C55,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8424,7 +8469,7 @@
       <c r="DG55" s="5"/>
       <c r="DH55" s="5"/>
     </row>
-    <row r="56" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="56" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C56" s="1"/>
       <c r="D56" s="6" t="str">
         <f>IFERROR(VLOOKUP(C56,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8545,7 +8590,7 @@
       <c r="DG56" s="5"/>
       <c r="DH56" s="5"/>
     </row>
-    <row r="57" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="57" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C57" s="1"/>
       <c r="D57" s="6" t="str">
         <f>IFERROR(VLOOKUP(C57,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8666,7 +8711,7 @@
       <c r="DG57" s="5"/>
       <c r="DH57" s="5"/>
     </row>
-    <row r="58" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="58" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C58" s="1"/>
       <c r="D58" s="6" t="str">
         <f>IFERROR(VLOOKUP(C58,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8787,7 +8832,7 @@
       <c r="DG58" s="5"/>
       <c r="DH58" s="5"/>
     </row>
-    <row r="59" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="59" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C59" s="1"/>
       <c r="D59" s="6" t="str">
         <f>IFERROR(VLOOKUP(C59,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -8908,7 +8953,7 @@
       <c r="DG59" s="5"/>
       <c r="DH59" s="5"/>
     </row>
-    <row r="60" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="60" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C60" s="1"/>
       <c r="D60" s="6" t="str">
         <f>IFERROR(VLOOKUP(C60,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9029,7 +9074,7 @@
       <c r="DG60" s="5"/>
       <c r="DH60" s="5"/>
     </row>
-    <row r="61" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="61" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C61" s="1"/>
       <c r="D61" s="6" t="str">
         <f>IFERROR(VLOOKUP(C61,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9150,7 +9195,7 @@
       <c r="DG61" s="5"/>
       <c r="DH61" s="5"/>
     </row>
-    <row r="62" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="62" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C62" s="1"/>
       <c r="D62" s="6" t="str">
         <f>IFERROR(VLOOKUP(C62,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9271,7 +9316,7 @@
       <c r="DG62" s="5"/>
       <c r="DH62" s="5"/>
     </row>
-    <row r="63" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="63" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C63" s="1"/>
       <c r="D63" s="6" t="str">
         <f>IFERROR(VLOOKUP(C63,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9392,7 +9437,7 @@
       <c r="DG63" s="5"/>
       <c r="DH63" s="5"/>
     </row>
-    <row r="64" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="64" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C64" s="1"/>
       <c r="D64" s="6" t="str">
         <f>IFERROR(VLOOKUP(C64,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9513,7 +9558,7 @@
       <c r="DG64" s="5"/>
       <c r="DH64" s="5"/>
     </row>
-    <row r="65" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="65" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C65" s="1"/>
       <c r="D65" s="6" t="str">
         <f>IFERROR(VLOOKUP(C65,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9634,7 +9679,7 @@
       <c r="DG65" s="5"/>
       <c r="DH65" s="5"/>
     </row>
-    <row r="66" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="66" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C66" s="1"/>
       <c r="D66" s="6" t="str">
         <f>IFERROR(VLOOKUP(C66,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9755,7 +9800,7 @@
       <c r="DG66" s="5"/>
       <c r="DH66" s="5"/>
     </row>
-    <row r="67" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="67" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C67" s="1"/>
       <c r="D67" s="6" t="str">
         <f>IFERROR(VLOOKUP(C67,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9876,7 +9921,7 @@
       <c r="DG67" s="5"/>
       <c r="DH67" s="5"/>
     </row>
-    <row r="68" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="68" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C68" s="1"/>
       <c r="D68" s="6" t="str">
         <f>IFERROR(VLOOKUP(C68,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -9997,7 +10042,7 @@
       <c r="DG68" s="5"/>
       <c r="DH68" s="5"/>
     </row>
-    <row r="69" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="69" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C69" s="1"/>
       <c r="D69" s="6" t="str">
         <f>IFERROR(VLOOKUP(C69,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10118,7 +10163,7 @@
       <c r="DG69" s="5"/>
       <c r="DH69" s="5"/>
     </row>
-    <row r="70" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="70" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C70" s="1"/>
       <c r="D70" s="6" t="str">
         <f>IFERROR(VLOOKUP(C70,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10239,7 +10284,7 @@
       <c r="DG70" s="5"/>
       <c r="DH70" s="5"/>
     </row>
-    <row r="71" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="71" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C71" s="1"/>
       <c r="D71" s="6" t="str">
         <f>IFERROR(VLOOKUP(C71,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10360,7 +10405,7 @@
       <c r="DG71" s="5"/>
       <c r="DH71" s="5"/>
     </row>
-    <row r="72" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="72" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C72" s="1"/>
       <c r="D72" s="6" t="str">
         <f>IFERROR(VLOOKUP(C72,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10481,7 +10526,7 @@
       <c r="DG72" s="5"/>
       <c r="DH72" s="5"/>
     </row>
-    <row r="73" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="73" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C73" s="1"/>
       <c r="D73" s="6" t="str">
         <f>IFERROR(VLOOKUP(C73,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10602,7 +10647,7 @@
       <c r="DG73" s="5"/>
       <c r="DH73" s="5"/>
     </row>
-    <row r="74" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="74" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C74" s="1"/>
       <c r="D74" s="6" t="str">
         <f>IFERROR(VLOOKUP(C74,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10723,7 +10768,7 @@
       <c r="DG74" s="5"/>
       <c r="DH74" s="5"/>
     </row>
-    <row r="75" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="75" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C75" s="1"/>
       <c r="D75" s="6" t="str">
         <f>IFERROR(VLOOKUP(C75,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10844,7 +10889,7 @@
       <c r="DG75" s="5"/>
       <c r="DH75" s="5"/>
     </row>
-    <row r="76" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="76" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C76" s="1"/>
       <c r="D76" s="6" t="str">
         <f>IFERROR(VLOOKUP(C76,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -10965,7 +11010,7 @@
       <c r="DG76" s="5"/>
       <c r="DH76" s="5"/>
     </row>
-    <row r="77" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="77" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C77" s="1"/>
       <c r="D77" s="6" t="str">
         <f>IFERROR(VLOOKUP(C77,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11086,7 +11131,7 @@
       <c r="DG77" s="5"/>
       <c r="DH77" s="5"/>
     </row>
-    <row r="78" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="78" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C78" s="1"/>
       <c r="D78" s="6" t="str">
         <f>IFERROR(VLOOKUP(C78,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11207,7 +11252,7 @@
       <c r="DG78" s="5"/>
       <c r="DH78" s="5"/>
     </row>
-    <row r="79" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="79" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C79" s="1"/>
       <c r="D79" s="6" t="str">
         <f>IFERROR(VLOOKUP(C79,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11328,7 +11373,7 @@
       <c r="DG79" s="5"/>
       <c r="DH79" s="5"/>
     </row>
-    <row r="80" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="80" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C80" s="1"/>
       <c r="D80" s="6" t="str">
         <f>IFERROR(VLOOKUP(C80,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11449,7 +11494,7 @@
       <c r="DG80" s="5"/>
       <c r="DH80" s="5"/>
     </row>
-    <row r="81" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="81" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C81" s="1"/>
       <c r="D81" s="6" t="str">
         <f>IFERROR(VLOOKUP(C81,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11570,7 +11615,7 @@
       <c r="DG81" s="5"/>
       <c r="DH81" s="5"/>
     </row>
-    <row r="82" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="82" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C82" s="1"/>
       <c r="D82" s="6" t="str">
         <f>IFERROR(VLOOKUP(C82,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11691,7 +11736,7 @@
       <c r="DG82" s="5"/>
       <c r="DH82" s="5"/>
     </row>
-    <row r="83" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="83" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C83" s="1"/>
       <c r="D83" s="6" t="str">
         <f>IFERROR(VLOOKUP(C83,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11812,7 +11857,7 @@
       <c r="DG83" s="5"/>
       <c r="DH83" s="5"/>
     </row>
-    <row r="84" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="84" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C84" s="1"/>
       <c r="D84" s="6" t="str">
         <f>IFERROR(VLOOKUP(C84,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -11933,7 +11978,7 @@
       <c r="DG84" s="5"/>
       <c r="DH84" s="5"/>
     </row>
-    <row r="85" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="85" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C85" s="1"/>
       <c r="D85" s="6" t="str">
         <f>IFERROR(VLOOKUP(C85,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12054,7 +12099,7 @@
       <c r="DG85" s="5"/>
       <c r="DH85" s="5"/>
     </row>
-    <row r="86" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="86" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C86" s="1"/>
       <c r="D86" s="6" t="str">
         <f>IFERROR(VLOOKUP(C86,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12175,7 +12220,7 @@
       <c r="DG86" s="5"/>
       <c r="DH86" s="5"/>
     </row>
-    <row r="87" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="87" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C87" s="1"/>
       <c r="D87" s="6" t="str">
         <f>IFERROR(VLOOKUP(C87,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12296,7 +12341,7 @@
       <c r="DG87" s="5"/>
       <c r="DH87" s="5"/>
     </row>
-    <row r="88" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="88" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C88" s="1"/>
       <c r="D88" s="6" t="str">
         <f>IFERROR(VLOOKUP(C88,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12417,7 +12462,7 @@
       <c r="DG88" s="5"/>
       <c r="DH88" s="5"/>
     </row>
-    <row r="89" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="89" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C89" s="1"/>
       <c r="D89" s="6" t="str">
         <f>IFERROR(VLOOKUP(C89,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12538,7 +12583,7 @@
       <c r="DG89" s="5"/>
       <c r="DH89" s="5"/>
     </row>
-    <row r="90" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="90" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C90" s="1"/>
       <c r="D90" s="6" t="str">
         <f>IFERROR(VLOOKUP(C90,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12659,7 +12704,7 @@
       <c r="DG90" s="5"/>
       <c r="DH90" s="5"/>
     </row>
-    <row r="91" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="91" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C91" s="1"/>
       <c r="D91" s="6" t="str">
         <f>IFERROR(VLOOKUP(C91,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12780,7 +12825,7 @@
       <c r="DG91" s="5"/>
       <c r="DH91" s="5"/>
     </row>
-    <row r="92" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="92" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C92" s="1"/>
       <c r="D92" s="6" t="str">
         <f>IFERROR(VLOOKUP(C92,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -12901,7 +12946,7 @@
       <c r="DG92" s="5"/>
       <c r="DH92" s="5"/>
     </row>
-    <row r="93" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="93" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C93" s="1"/>
       <c r="D93" s="6" t="str">
         <f>IFERROR(VLOOKUP(C93,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13022,7 +13067,7 @@
       <c r="DG93" s="5"/>
       <c r="DH93" s="5"/>
     </row>
-    <row r="94" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="94" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C94" s="1"/>
       <c r="D94" s="6" t="str">
         <f>IFERROR(VLOOKUP(C94,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13143,7 +13188,7 @@
       <c r="DG94" s="5"/>
       <c r="DH94" s="5"/>
     </row>
-    <row r="95" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="95" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C95" s="1"/>
       <c r="D95" s="6" t="str">
         <f>IFERROR(VLOOKUP(C95,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13264,7 +13309,7 @@
       <c r="DG95" s="5"/>
       <c r="DH95" s="5"/>
     </row>
-    <row r="96" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="96" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C96" s="1"/>
       <c r="D96" s="6" t="str">
         <f>IFERROR(VLOOKUP(C96,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13385,7 +13430,7 @@
       <c r="DG96" s="5"/>
       <c r="DH96" s="5"/>
     </row>
-    <row r="97" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="97" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C97" s="1"/>
       <c r="D97" s="6" t="str">
         <f>IFERROR(VLOOKUP(C97,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13506,7 +13551,7 @@
       <c r="DG97" s="5"/>
       <c r="DH97" s="5"/>
     </row>
-    <row r="98" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="98" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C98" s="1"/>
       <c r="D98" s="6" t="str">
         <f>IFERROR(VLOOKUP(C98,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13627,7 +13672,7 @@
       <c r="DG98" s="5"/>
       <c r="DH98" s="5"/>
     </row>
-    <row r="99" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="99" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C99" s="1"/>
       <c r="D99" s="6" t="str">
         <f>IFERROR(VLOOKUP(C99,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13748,7 +13793,7 @@
       <c r="DG99" s="5"/>
       <c r="DH99" s="5"/>
     </row>
-    <row r="100" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="100" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C100" s="1"/>
       <c r="D100" s="6" t="str">
         <f>IFERROR(VLOOKUP(C100,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -13869,7 +13914,7 @@
       <c r="DG100" s="5"/>
       <c r="DH100" s="5"/>
     </row>
-    <row r="102" spans="3:112" x14ac:dyDescent="0.45">
+    <row r="102" spans="3:112" x14ac:dyDescent="0.55000000000000004">
       <c r="E102" s="9"/>
     </row>
   </sheetData>
@@ -13949,26 +13994,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AD670"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="160.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="160.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="18" t="s">
         <v>0</v>
       </c>
@@ -13988,7 +14033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="1" t="s">
         <v>44</v>
       </c>
@@ -14009,7 +14054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:30" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C6" s="27" t="s">
         <v>24</v>
       </c>
@@ -14028,7 +14073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="22"/>
       <c r="B7" s="23" t="s">
         <v>25</v>
@@ -14050,7 +14095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
@@ -14068,7 +14113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
@@ -14086,7 +14131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
@@ -14094,17 +14139,20 @@
         <v>62</v>
       </c>
       <c r="E10" s="3">
-        <v>43647</v>
+        <v>43658</v>
       </c>
       <c r="F10" s="3">
-        <v>43654</v>
+        <v>43661</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C11" s="27" t="s">
         <v>54</v>
       </c>
@@ -14112,17 +14160,20 @@
         <v>61</v>
       </c>
       <c r="E11" s="29">
-        <v>43654</v>
+        <v>43661</v>
       </c>
       <c r="F11" s="29">
-        <v>43661</v>
+        <v>43665</v>
       </c>
       <c r="G11" s="27">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="24" t="s">
         <v>32</v>
       </c>
@@ -14143,7 +14194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
@@ -14151,17 +14202,17 @@
         <v>34</v>
       </c>
       <c r="E13" s="3">
-        <v>43644</v>
+        <v>43658</v>
       </c>
       <c r="F13" s="3">
-        <v>43647</v>
+        <v>43665</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
@@ -14179,7 +14230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="1" t="s">
         <v>36</v>
       </c>
@@ -14197,7 +14248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="1" t="s">
         <v>38</v>
       </c>
@@ -14215,7 +14266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="1" t="s">
         <v>41</v>
       </c>
@@ -14232,8 +14283,11 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="H17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="1" t="s">
         <v>55</v>
       </c>
@@ -14241,17 +14295,17 @@
         <v>60</v>
       </c>
       <c r="E18" s="3">
-        <v>43661</v>
+        <v>43665</v>
       </c>
       <c r="F18" s="3">
-        <v>43661</v>
+        <v>43665</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="35"/>
@@ -14261,7 +14315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="25" t="s">
         <v>43</v>
       </c>
@@ -14282,7 +14336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="1" t="s">
         <v>48</v>
       </c>
@@ -14300,7 +14354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -14310,7 +14364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -14320,7 +14374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -14330,7 +14384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -14340,7 +14394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -14350,7 +14404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -14360,7 +14414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -14370,7 +14424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -14380,7 +14434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -14390,7 +14444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -14400,7 +14454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -14410,7 +14464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -14420,7 +14474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -14430,7 +14484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -14440,7 +14494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -14450,7 +14504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -14460,7 +14514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -14470,7 +14524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -14480,7 +14534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -14490,7 +14544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -14500,7 +14554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -14510,7 +14564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -14520,7 +14574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -14530,7 +14584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -14540,7 +14594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -14550,7 +14604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -14560,7 +14614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -14570,7 +14624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -14580,7 +14634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -14590,7 +14644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -14600,7 +14654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -14610,7 +14664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -14620,7 +14674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -14630,7 +14684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -14640,7 +14694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -14650,7 +14704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -14660,7 +14714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -14670,7 +14724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -14680,7 +14734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -14690,7 +14744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -14700,7 +14754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -14710,7 +14764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -14720,7 +14774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="64" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -14730,7 +14784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="65" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -14740,7 +14794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="66" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -14750,7 +14804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="67" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -14760,7 +14814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="68" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -14770,7 +14824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="69" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -14780,7 +14834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -14790,7 +14844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -14800,7 +14854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -14810,7 +14864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="73" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -14820,7 +14874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="74" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -14830,7 +14884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="75" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -14840,7 +14894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="76" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -14850,7 +14904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="77" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -14860,7 +14914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="78" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -14870,7 +14924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="79" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -14880,7 +14934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="80" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -14890,7 +14944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="81" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -14900,7 +14954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -14910,7 +14964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -14920,7 +14974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="84" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -14930,7 +14984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -14940,7 +14994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="86" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -14950,7 +15004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="87" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -14960,7 +15014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="88" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -14970,7 +15024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="89" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -14980,7 +15034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -14990,7 +15044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="91" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -15000,7 +15054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="92" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -15010,7 +15064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="93" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -15020,7 +15074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="94" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -15030,7 +15084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="95" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -15040,7 +15094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -15050,7 +15104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="97" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -15060,7 +15114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="98" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -15070,7 +15124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="99" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -15080,7 +15134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="100" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -15090,7 +15144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="101" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -15100,7 +15154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="102" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -15110,7 +15164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="103" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -15120,7 +15174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="104" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -15130,7 +15184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="105" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -15140,7 +15194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="106" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -15150,7 +15204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="107" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -15160,7 +15214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="108" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -15170,7 +15224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="109" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -15180,7 +15234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="110" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -15190,7 +15244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="111" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -15200,7 +15254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="112" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -15210,7 +15264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="113" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -15220,7 +15274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="114" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -15230,7 +15284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="115" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -15240,7 +15294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="116" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -15250,7 +15304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="117" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -15260,7 +15314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="118" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -15270,7 +15324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="119" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -15280,7 +15334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="120" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -15290,7 +15344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="121" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -15300,7 +15354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="122" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -15310,7 +15364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="123" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -15320,7 +15374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="124" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -15330,7 +15384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="125" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -15340,7 +15394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="126" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -15350,7 +15404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="127" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -15360,7 +15414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="128" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -15370,7 +15424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="129" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -15380,7 +15434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="130" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -15390,7 +15444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="131" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -15400,7 +15454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="132" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -15410,7 +15464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="133" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -15420,7 +15474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="134" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -15430,7 +15484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="135" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -15440,7 +15494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="136" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -15450,7 +15504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="137" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -15460,7 +15514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="138" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -15470,7 +15524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="139" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -15480,7 +15534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="140" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -15490,7 +15544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="141" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -15500,7 +15554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="142" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -15510,7 +15564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="143" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -15520,7 +15574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="144" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -15530,7 +15584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="145" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -15540,7 +15594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="146" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -15550,7 +15604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="147" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -15560,7 +15614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="148" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -15570,7 +15624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="149" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -15580,7 +15634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="150" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -15590,7 +15644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="151" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -15600,7 +15654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="152" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -15610,7 +15664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="153" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -15620,7 +15674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="154" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -15630,7 +15684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="155" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -15640,7 +15694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="156" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -15650,7 +15704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="157" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -15660,7 +15714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="158" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -15670,7 +15724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="159" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -15680,7 +15734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="160" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -15690,7 +15744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="161" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -15700,7 +15754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="162" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -15710,7 +15764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="163" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -15720,7 +15774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="164" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -15730,7 +15784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="165" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -15740,7 +15794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="166" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -15750,7 +15804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="167" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -15760,7 +15814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="168" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -15770,7 +15824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="169" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -15780,7 +15834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="170" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -15790,7 +15844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="171" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -15800,7 +15854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="172" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -15810,7 +15864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="173" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -15820,7 +15874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="174" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -15830,7 +15884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="175" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -15840,7 +15894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="176" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -15850,7 +15904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="177" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -15860,7 +15914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="178" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -15870,7 +15924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="179" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -15880,7 +15934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="180" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -15890,7 +15944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="181" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -15900,7 +15954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="182" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -15910,7 +15964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="183" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -15920,7 +15974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="184" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -15930,7 +15984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="185" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -15940,7 +15994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="186" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -15950,7 +16004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="187" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -15960,7 +16014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="188" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -15970,7 +16024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="189" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -15980,7 +16034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="190" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -15990,7 +16044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="191" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -16000,7 +16054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="192" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -16010,7 +16064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="193" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -16020,7 +16074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="194" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -16030,7 +16084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="195" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -16040,7 +16094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="196" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -16050,7 +16104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="197" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -16060,7 +16114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="198" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -16070,7 +16124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="199" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -16080,7 +16134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="200" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -16090,7 +16144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="201" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -16100,7 +16154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="202" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -16110,7 +16164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="203" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -16120,7 +16174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="204" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -16130,7 +16184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="205" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -16140,7 +16194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="206" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -16150,7 +16204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="207" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -16160,7 +16214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="208" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -16170,7 +16224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="209" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -16180,7 +16234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="210" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -16190,7 +16244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="211" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -16200,7 +16254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="212" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -16210,7 +16264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="213" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -16220,7 +16274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="214" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -16230,7 +16284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="215" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -16240,7 +16294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="216" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -16250,7 +16304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="217" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -16260,7 +16314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="218" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -16270,7 +16324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="219" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -16280,7 +16334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="220" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -16290,7 +16344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="221" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -16300,7 +16354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="222" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -16310,7 +16364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="223" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -16320,7 +16374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="224" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -16330,7 +16384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="225" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -16340,7 +16394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="226" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -16350,7 +16404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="227" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -16360,7 +16414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="228" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -16370,7 +16424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="229" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -16380,7 +16434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="230" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -16390,7 +16444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="231" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -16400,7 +16454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="232" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -16410,7 +16464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="233" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -16420,7 +16474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="234" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -16430,7 +16484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="235" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -16440,7 +16494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="236" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -16450,7 +16504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="237" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -16460,7 +16514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="238" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -16470,7 +16524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="239" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -16480,7 +16534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="240" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -16490,7 +16544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="241" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -16500,7 +16554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="242" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -16510,7 +16564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="243" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -16520,7 +16574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="244" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -16530,7 +16584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="245" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -16540,7 +16594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="246" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -16550,7 +16604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="247" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -16560,7 +16614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="248" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -16570,7 +16624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="249" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -16580,7 +16634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="250" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -16590,7 +16644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="251" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -16600,7 +16654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="252" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -16610,7 +16664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="253" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -16620,7 +16674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="254" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -16630,7 +16684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="255" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -16640,7 +16694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="256" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -16650,7 +16704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="257" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -16660,7 +16714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="258" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -16670,7 +16724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="259" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -16680,7 +16734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="260" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -16690,7 +16744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="261" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -16700,7 +16754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="262" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -16710,7 +16764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="263" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -16720,7 +16774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="264" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -16730,7 +16784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="265" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -16740,7 +16794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="266" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -16750,7 +16804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="267" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -16760,7 +16814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="268" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -16770,7 +16824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="269" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -16780,7 +16834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="270" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -16790,7 +16844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="271" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -16800,7 +16854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="272" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -16810,7 +16864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="273" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -16820,7 +16874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="274" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -16830,7 +16884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="275" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -16840,7 +16894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="276" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -16850,7 +16904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="277" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -16860,7 +16914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="278" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -16870,7 +16924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="279" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -16880,7 +16934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="280" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -16890,7 +16944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="281" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -16900,7 +16954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="282" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -16910,7 +16964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="283" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -16920,7 +16974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="284" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -16930,7 +16984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="285" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -16940,7 +16994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="286" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -16950,7 +17004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="287" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -16960,7 +17014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="288" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -16970,7 +17024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="289" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -16980,7 +17034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="290" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -16990,7 +17044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="291" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -17000,7 +17054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="292" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -17010,7 +17064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="293" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -17020,7 +17074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="294" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -17030,7 +17084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="295" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -17040,7 +17094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="296" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -17050,7 +17104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="297" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -17060,7 +17114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="298" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -17070,7 +17124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="299" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -17080,7 +17134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="300" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
@@ -17090,7 +17144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="301" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
@@ -17100,7 +17154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="302" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
@@ -17110,7 +17164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="303" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
@@ -17120,7 +17174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="304" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
@@ -17130,7 +17184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="305" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
@@ -17140,7 +17194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="306" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
@@ -17150,7 +17204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="307" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
@@ -17160,7 +17214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="308" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
@@ -17170,7 +17224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="309" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
@@ -17180,7 +17234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="310" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
@@ -17190,7 +17244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="311" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
@@ -17200,7 +17254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="312" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
@@ -17210,7 +17264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="313" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
@@ -17220,7 +17274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="314" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
@@ -17230,7 +17284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="315" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
@@ -17240,7 +17294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="316" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
@@ -17250,7 +17304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="317" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
@@ -17260,7 +17314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="318" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
@@ -17270,7 +17324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="319" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
@@ -17280,7 +17334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="320" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
@@ -17290,7 +17344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="321" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
@@ -17300,7 +17354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="322" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
@@ -17310,7 +17364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="323" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
@@ -17320,7 +17374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="324" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
@@ -17330,7 +17384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="325" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
@@ -17340,7 +17394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="326" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
@@ -17350,7 +17404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="327" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
@@ -17360,7 +17414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="328" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
@@ -17370,7 +17424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="329" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
@@ -17380,7 +17434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="330" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
@@ -17390,7 +17444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="331" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
@@ -17400,7 +17454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="332" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
@@ -17410,7 +17464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="333" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
@@ -17420,7 +17474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="334" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
@@ -17430,7 +17484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="335" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
@@ -17440,7 +17494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="336" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
@@ -17450,7 +17504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="337" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
@@ -17460,7 +17514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="338" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
@@ -17470,7 +17524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="339" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
@@ -17480,7 +17534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="340" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
@@ -17490,7 +17544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="341" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
@@ -17500,7 +17554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="342" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
@@ -17510,7 +17564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="343" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
@@ -17520,7 +17574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="344" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
@@ -17530,7 +17584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="345" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
@@ -17540,7 +17594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="346" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
@@ -17550,7 +17604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="347" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
@@ -17560,7 +17614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="348" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
@@ -17570,7 +17624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="349" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
@@ -17580,7 +17634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="350" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
@@ -17590,7 +17644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="351" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
@@ -17600,7 +17654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="352" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
@@ -17610,7 +17664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="353" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
@@ -17620,7 +17674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="354" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
@@ -17630,7 +17684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="355" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
@@ -17640,7 +17694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="356" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
@@ -17650,7 +17704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="357" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
@@ -17660,7 +17714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="358" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
@@ -17670,7 +17724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="359" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
@@ -17680,7 +17734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="360" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
@@ -17690,7 +17744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="361" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
@@ -17700,7 +17754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="362" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
@@ -17710,7 +17764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="363" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
@@ -17720,7 +17774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="364" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
@@ -17730,7 +17784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="365" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
@@ -17740,7 +17794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="366" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
@@ -17750,7 +17804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="367" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
@@ -17760,7 +17814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="368" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
@@ -17770,7 +17824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="369" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
@@ -17780,7 +17834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="370" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
@@ -17790,7 +17844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="371" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
@@ -17800,7 +17854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="372" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
@@ -17810,7 +17864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="373" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
@@ -17820,7 +17874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="374" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
@@ -17830,7 +17884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="375" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
@@ -17840,7 +17894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="376" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
@@ -17850,7 +17904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="377" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
@@ -17860,7 +17914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="378" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
@@ -17870,7 +17924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="379" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
@@ -17880,7 +17934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="380" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
@@ -17890,7 +17944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="381" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
@@ -17900,7 +17954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="382" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
@@ -17910,7 +17964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="383" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
@@ -17920,7 +17974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="384" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
@@ -17930,7 +17984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="385" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
@@ -17940,7 +17994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="386" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
@@ -17950,7 +18004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="387" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
@@ -17960,7 +18014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="388" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
@@ -17970,7 +18024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="389" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
@@ -17980,7 +18034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="390" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
@@ -17990,7 +18044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="391" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
@@ -18000,7 +18054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="392" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
@@ -18010,7 +18064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="393" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
@@ -18020,7 +18074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="394" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
@@ -18030,7 +18084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="395" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
@@ -18040,7 +18094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="396" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
@@ -18050,7 +18104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="397" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
@@ -18060,7 +18114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="398" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
@@ -18070,7 +18124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="399" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
@@ -18080,7 +18134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="400" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
@@ -18090,7 +18144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="401" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
@@ -18100,7 +18154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="402" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
@@ -18110,7 +18164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="403" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
@@ -18120,7 +18174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="404" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
@@ -18130,7 +18184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="405" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
@@ -18140,7 +18194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="406" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
@@ -18150,7 +18204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="407" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
@@ -18160,7 +18214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="408" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
@@ -18170,7 +18224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="409" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
@@ -18180,7 +18234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="410" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
@@ -18190,7 +18244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="411" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
@@ -18200,7 +18254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="412" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
@@ -18210,7 +18264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="413" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
@@ -18220,7 +18274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="414" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
@@ -18230,7 +18284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="415" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
@@ -18240,7 +18294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="416" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
@@ -18250,7 +18304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="417" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
@@ -18260,7 +18314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="418" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
@@ -18270,7 +18324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="419" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
@@ -18280,7 +18334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="420" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
@@ -18290,7 +18344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="421" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
@@ -18300,7 +18354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="422" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
@@ -18310,7 +18364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="423" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
@@ -18320,7 +18374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="424" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
@@ -18330,7 +18384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="425" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
@@ -18340,7 +18394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="426" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
@@ -18350,7 +18404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="427" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
@@ -18360,7 +18414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="428" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
@@ -18370,7 +18424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="429" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
@@ -18380,7 +18434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="430" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
@@ -18390,7 +18444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="431" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
@@ -18400,7 +18454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="432" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
@@ -18410,7 +18464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="433" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
@@ -18420,7 +18474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="434" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
@@ -18430,7 +18484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="435" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
@@ -18440,7 +18494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="436" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
@@ -18450,7 +18504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="437" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
@@ -18460,7 +18514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="438" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
@@ -18470,7 +18524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="439" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
@@ -18480,7 +18534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="440" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
@@ -18490,7 +18544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="441" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
@@ -18500,7 +18554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="442" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
@@ -18510,7 +18564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="443" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
@@ -18520,7 +18574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="444" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
@@ -18530,7 +18584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="445" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
@@ -18540,7 +18594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="446" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
@@ -18550,7 +18604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="447" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
@@ -18560,7 +18614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="448" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
@@ -18570,7 +18624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="449" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
@@ -18580,7 +18634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="450" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
@@ -18590,7 +18644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="451" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
@@ -18600,7 +18654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="452" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
@@ -18610,7 +18664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="453" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
@@ -18620,7 +18674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="454" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
@@ -18630,7 +18684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="455" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
@@ -18640,7 +18694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="456" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
@@ -18650,7 +18704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="457" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
@@ -18660,7 +18714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="458" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
@@ -18670,7 +18724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="459" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
@@ -18680,7 +18734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="460" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
@@ -18690,7 +18744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="461" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
@@ -18700,7 +18754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="462" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
@@ -18710,7 +18764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="463" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
@@ -18720,7 +18774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="464" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
@@ -18730,7 +18784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="465" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
@@ -18740,7 +18794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="466" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
@@ -18750,7 +18804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="467" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
@@ -18760,7 +18814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="468" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
@@ -18770,7 +18824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="469" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
@@ -18780,7 +18834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="470" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
@@ -18790,7 +18844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="471" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
@@ -18800,7 +18854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="472" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
@@ -18810,7 +18864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="473" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
@@ -18820,7 +18874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="474" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
@@ -18830,7 +18884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="475" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
@@ -18840,7 +18894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="476" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
@@ -18850,7 +18904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="477" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
@@ -18860,7 +18914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="478" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
@@ -18870,7 +18924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="479" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
@@ -18880,7 +18934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="480" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
@@ -18890,7 +18944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="481" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
@@ -18900,7 +18954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="482" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
@@ -18910,7 +18964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="483" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
@@ -18920,7 +18974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="484" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
@@ -18930,7 +18984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="485" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
@@ -18940,7 +18994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="486" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
@@ -18950,7 +19004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="487" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
@@ -18960,7 +19014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="488" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
@@ -18970,7 +19024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="489" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
@@ -18980,7 +19034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="490" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
@@ -18990,7 +19044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="491" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
@@ -19000,7 +19054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="492" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
@@ -19010,7 +19064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="493" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
@@ -19020,7 +19074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="494" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
@@ -19030,7 +19084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="495" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
@@ -19040,7 +19094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="496" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
@@ -19050,7 +19104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="497" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
@@ -19060,7 +19114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="498" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
@@ -19070,7 +19124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="499" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
@@ -19080,7 +19134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="500" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
@@ -19090,7 +19144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="501" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
       <c r="E501" s="1"/>
@@ -19100,7 +19154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="502" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
       <c r="E502" s="1"/>
@@ -19110,7 +19164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="503" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
       <c r="E503" s="1"/>
@@ -19120,7 +19174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="504" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
       <c r="E504" s="1"/>
@@ -19130,7 +19184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="505" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C505" s="1"/>
       <c r="D505" s="1"/>
       <c r="E505" s="1"/>
@@ -19140,7 +19194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="506" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
       <c r="E506" s="1"/>
@@ -19150,7 +19204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="507" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C507" s="1"/>
       <c r="D507" s="1"/>
       <c r="E507" s="1"/>
@@ -19160,7 +19214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="508" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C508" s="1"/>
       <c r="D508" s="1"/>
       <c r="E508" s="1"/>
@@ -19170,7 +19224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="509" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C509" s="1"/>
       <c r="D509" s="1"/>
       <c r="E509" s="1"/>
@@ -19180,7 +19234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="510" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
       <c r="E510" s="1"/>
@@ -19190,7 +19244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="511" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C511" s="1"/>
       <c r="D511" s="1"/>
       <c r="E511" s="1"/>
@@ -19200,7 +19254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="512" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C512" s="1"/>
       <c r="D512" s="1"/>
       <c r="E512" s="1"/>
@@ -19210,7 +19264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="513" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C513" s="1"/>
       <c r="D513" s="1"/>
       <c r="E513" s="1"/>
@@ -19220,7 +19274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="514" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C514" s="1"/>
       <c r="D514" s="1"/>
       <c r="E514" s="1"/>
@@ -19230,7 +19284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="515" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C515" s="1"/>
       <c r="D515" s="1"/>
       <c r="E515" s="1"/>
@@ -19240,7 +19294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="516" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C516" s="1"/>
       <c r="D516" s="1"/>
       <c r="E516" s="1"/>
@@ -19250,7 +19304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="517" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C517" s="1"/>
       <c r="D517" s="1"/>
       <c r="E517" s="1"/>
@@ -19260,7 +19314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="518" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C518" s="1"/>
       <c r="D518" s="1"/>
       <c r="E518" s="1"/>
@@ -19270,7 +19324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="519" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C519" s="1"/>
       <c r="D519" s="1"/>
       <c r="E519" s="1"/>
@@ -19280,7 +19334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="520" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C520" s="1"/>
       <c r="D520" s="1"/>
       <c r="E520" s="1"/>
@@ -19290,7 +19344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="521" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C521" s="1"/>
       <c r="D521" s="1"/>
       <c r="E521" s="1"/>
@@ -19300,7 +19354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="522" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C522" s="1"/>
       <c r="D522" s="1"/>
       <c r="E522" s="1"/>
@@ -19310,7 +19364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="523" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C523" s="1"/>
       <c r="D523" s="1"/>
       <c r="E523" s="1"/>
@@ -19320,7 +19374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="524" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C524" s="1"/>
       <c r="D524" s="1"/>
       <c r="E524" s="1"/>
@@ -19330,7 +19384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="525" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C525" s="1"/>
       <c r="D525" s="1"/>
       <c r="E525" s="1"/>
@@ -19340,7 +19394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="526" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C526" s="1"/>
       <c r="D526" s="1"/>
       <c r="E526" s="1"/>
@@ -19350,7 +19404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="527" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C527" s="1"/>
       <c r="D527" s="1"/>
       <c r="E527" s="1"/>
@@ -19360,7 +19414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="528" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C528" s="1"/>
       <c r="D528" s="1"/>
       <c r="E528" s="1"/>
@@ -19370,7 +19424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="529" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C529" s="1"/>
       <c r="D529" s="1"/>
       <c r="E529" s="1"/>
@@ -19380,7 +19434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="530" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C530" s="1"/>
       <c r="D530" s="1"/>
       <c r="E530" s="1"/>
@@ -19390,7 +19444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="531" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C531" s="1"/>
       <c r="D531" s="1"/>
       <c r="E531" s="1"/>
@@ -19400,7 +19454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="532" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C532" s="1"/>
       <c r="D532" s="1"/>
       <c r="E532" s="1"/>
@@ -19410,7 +19464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="533" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C533" s="1"/>
       <c r="D533" s="1"/>
       <c r="E533" s="1"/>
@@ -19420,7 +19474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="534" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C534" s="1"/>
       <c r="D534" s="1"/>
       <c r="E534" s="1"/>
@@ -19430,7 +19484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="535" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C535" s="1"/>
       <c r="D535" s="1"/>
       <c r="E535" s="1"/>
@@ -19440,7 +19494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="536" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C536" s="1"/>
       <c r="D536" s="1"/>
       <c r="E536" s="1"/>
@@ -19450,7 +19504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="537" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C537" s="1"/>
       <c r="D537" s="1"/>
       <c r="E537" s="1"/>
@@ -19460,7 +19514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="538" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C538" s="1"/>
       <c r="D538" s="1"/>
       <c r="E538" s="1"/>
@@ -19470,7 +19524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="539" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C539" s="1"/>
       <c r="D539" s="1"/>
       <c r="E539" s="1"/>
@@ -19480,7 +19534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="540" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C540" s="1"/>
       <c r="D540" s="1"/>
       <c r="E540" s="1"/>
@@ -19490,7 +19544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="541" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C541" s="1"/>
       <c r="D541" s="1"/>
       <c r="E541" s="1"/>
@@ -19500,7 +19554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="542" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C542" s="1"/>
       <c r="D542" s="1"/>
       <c r="E542" s="1"/>
@@ -19510,7 +19564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="543" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C543" s="1"/>
       <c r="D543" s="1"/>
       <c r="E543" s="1"/>
@@ -19520,7 +19574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="544" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C544" s="1"/>
       <c r="D544" s="1"/>
       <c r="E544" s="1"/>
@@ -19530,7 +19584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="545" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C545" s="1"/>
       <c r="D545" s="1"/>
       <c r="E545" s="1"/>
@@ -19540,7 +19594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="546" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C546" s="1"/>
       <c r="D546" s="1"/>
       <c r="E546" s="1"/>
@@ -19550,7 +19604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="547" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C547" s="1"/>
       <c r="D547" s="1"/>
       <c r="E547" s="1"/>
@@ -19560,7 +19614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="548" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
       <c r="E548" s="1"/>
@@ -19570,7 +19624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="549" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C549" s="1"/>
       <c r="D549" s="1"/>
       <c r="E549" s="1"/>
@@ -19580,7 +19634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="550" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C550" s="1"/>
       <c r="D550" s="1"/>
       <c r="E550" s="1"/>
@@ -19590,7 +19644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="551" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C551" s="1"/>
       <c r="D551" s="1"/>
       <c r="E551" s="1"/>
@@ -19600,7 +19654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="552" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C552" s="1"/>
       <c r="D552" s="1"/>
       <c r="E552" s="1"/>
@@ -19610,7 +19664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="553" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C553" s="1"/>
       <c r="D553" s="1"/>
       <c r="E553" s="1"/>
@@ -19620,7 +19674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="554" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C554" s="1"/>
       <c r="D554" s="1"/>
       <c r="E554" s="1"/>
@@ -19630,7 +19684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="555" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C555" s="1"/>
       <c r="D555" s="1"/>
       <c r="E555" s="1"/>
@@ -19640,7 +19694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="556" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C556" s="1"/>
       <c r="D556" s="1"/>
       <c r="E556" s="1"/>
@@ -19650,7 +19704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="557" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C557" s="1"/>
       <c r="D557" s="1"/>
       <c r="E557" s="1"/>
@@ -19660,7 +19714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="558" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C558" s="1"/>
       <c r="D558" s="1"/>
       <c r="E558" s="1"/>
@@ -19670,7 +19724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="559" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C559" s="1"/>
       <c r="D559" s="1"/>
       <c r="E559" s="1"/>
@@ -19680,7 +19734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="560" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C560" s="1"/>
       <c r="D560" s="1"/>
       <c r="E560" s="1"/>
@@ -19690,7 +19744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="561" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C561" s="1"/>
       <c r="D561" s="1"/>
       <c r="E561" s="1"/>
@@ -19700,7 +19754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="562" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C562" s="1"/>
       <c r="D562" s="1"/>
       <c r="E562" s="1"/>
@@ -19710,7 +19764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="563" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C563" s="1"/>
       <c r="D563" s="1"/>
       <c r="E563" s="1"/>
@@ -19720,7 +19774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="564" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C564" s="1"/>
       <c r="D564" s="1"/>
       <c r="E564" s="1"/>
@@ -19730,7 +19784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="565" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C565" s="1"/>
       <c r="D565" s="1"/>
       <c r="E565" s="1"/>
@@ -19740,7 +19794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="566" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C566" s="1"/>
       <c r="D566" s="1"/>
       <c r="E566" s="1"/>
@@ -19750,7 +19804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="567" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C567" s="1"/>
       <c r="D567" s="1"/>
       <c r="E567" s="1"/>
@@ -19760,7 +19814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="568" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C568" s="1"/>
       <c r="D568" s="1"/>
       <c r="E568" s="1"/>
@@ -19770,7 +19824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="569" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C569" s="1"/>
       <c r="D569" s="1"/>
       <c r="E569" s="1"/>
@@ -19780,7 +19834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="570" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C570" s="1"/>
       <c r="D570" s="1"/>
       <c r="E570" s="1"/>
@@ -19790,7 +19844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="571" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C571" s="1"/>
       <c r="D571" s="1"/>
       <c r="E571" s="1"/>
@@ -19800,7 +19854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="572" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C572" s="1"/>
       <c r="D572" s="1"/>
       <c r="E572" s="1"/>
@@ -19810,7 +19864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="573" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C573" s="1"/>
       <c r="D573" s="1"/>
       <c r="E573" s="1"/>
@@ -19820,7 +19874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="574" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C574" s="1"/>
       <c r="D574" s="1"/>
       <c r="E574" s="1"/>
@@ -19830,7 +19884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="575" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C575" s="1"/>
       <c r="D575" s="1"/>
       <c r="E575" s="1"/>
@@ -19840,7 +19894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="576" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C576" s="1"/>
       <c r="D576" s="1"/>
       <c r="E576" s="1"/>
@@ -19850,7 +19904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="577" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C577" s="1"/>
       <c r="D577" s="1"/>
       <c r="E577" s="1"/>
@@ -19860,7 +19914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="578" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C578" s="1"/>
       <c r="D578" s="1"/>
       <c r="E578" s="1"/>
@@ -19870,7 +19924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="579" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C579" s="1"/>
       <c r="D579" s="1"/>
       <c r="E579" s="1"/>
@@ -19880,7 +19934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="580" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C580" s="1"/>
       <c r="D580" s="1"/>
       <c r="E580" s="1"/>
@@ -19890,7 +19944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="581" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C581" s="1"/>
       <c r="D581" s="1"/>
       <c r="E581" s="1"/>
@@ -19900,7 +19954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="582" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C582" s="1"/>
       <c r="D582" s="1"/>
       <c r="E582" s="1"/>
@@ -19910,7 +19964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="583" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C583" s="1"/>
       <c r="D583" s="1"/>
       <c r="E583" s="1"/>
@@ -19920,7 +19974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="584" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C584" s="1"/>
       <c r="D584" s="1"/>
       <c r="E584" s="1"/>
@@ -19930,7 +19984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="585" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C585" s="1"/>
       <c r="D585" s="1"/>
       <c r="E585" s="1"/>
@@ -19940,7 +19994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="586" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C586" s="1"/>
       <c r="D586" s="1"/>
       <c r="E586" s="1"/>
@@ -19950,7 +20004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="587" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C587" s="1"/>
       <c r="D587" s="1"/>
       <c r="E587" s="1"/>
@@ -19960,7 +20014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="588" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C588" s="1"/>
       <c r="D588" s="1"/>
       <c r="E588" s="1"/>
@@ -19970,7 +20024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="589" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C589" s="1"/>
       <c r="D589" s="1"/>
       <c r="E589" s="1"/>
@@ -19980,7 +20034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="590" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C590" s="1"/>
       <c r="D590" s="1"/>
       <c r="E590" s="1"/>
@@ -19990,7 +20044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="591" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C591" s="1"/>
       <c r="D591" s="1"/>
       <c r="E591" s="1"/>
@@ -20000,7 +20054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="592" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C592" s="1"/>
       <c r="D592" s="1"/>
       <c r="E592" s="1"/>
@@ -20010,7 +20064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="593" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C593" s="1"/>
       <c r="D593" s="1"/>
       <c r="E593" s="1"/>
@@ -20020,7 +20074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="594" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C594" s="1"/>
       <c r="D594" s="1"/>
       <c r="E594" s="1"/>
@@ -20030,7 +20084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="595" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C595" s="1"/>
       <c r="D595" s="1"/>
       <c r="E595" s="1"/>
@@ -20040,7 +20094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="596" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C596" s="1"/>
       <c r="D596" s="1"/>
       <c r="E596" s="1"/>
@@ -20050,7 +20104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="597" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C597" s="1"/>
       <c r="D597" s="1"/>
       <c r="E597" s="1"/>
@@ -20060,7 +20114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="598" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C598" s="1"/>
       <c r="D598" s="1"/>
       <c r="E598" s="1"/>
@@ -20070,7 +20124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="599" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C599" s="1"/>
       <c r="D599" s="1"/>
       <c r="E599" s="1"/>
@@ -20080,7 +20134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="600" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C600" s="1"/>
       <c r="D600" s="1"/>
       <c r="E600" s="1"/>
@@ -20090,7 +20144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="601" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C601" s="1"/>
       <c r="D601" s="1"/>
       <c r="E601" s="1"/>
@@ -20100,7 +20154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="602" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C602" s="1"/>
       <c r="D602" s="1"/>
       <c r="E602" s="1"/>
@@ -20110,7 +20164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="603" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C603" s="1"/>
       <c r="D603" s="1"/>
       <c r="E603" s="1"/>
@@ -20120,7 +20174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="604" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C604" s="1"/>
       <c r="D604" s="1"/>
       <c r="E604" s="1"/>
@@ -20130,7 +20184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="605" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C605" s="1"/>
       <c r="D605" s="1"/>
       <c r="E605" s="1"/>
@@ -20140,7 +20194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="606" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C606" s="1"/>
       <c r="D606" s="1"/>
       <c r="E606" s="1"/>
@@ -20150,7 +20204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="607" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C607" s="1"/>
       <c r="D607" s="1"/>
       <c r="E607" s="1"/>
@@ -20160,7 +20214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="608" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C608" s="1"/>
       <c r="D608" s="1"/>
       <c r="E608" s="1"/>
@@ -20170,7 +20224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="609" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C609" s="1"/>
       <c r="D609" s="1"/>
       <c r="E609" s="1"/>
@@ -20180,7 +20234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="610" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C610" s="1"/>
       <c r="D610" s="1"/>
       <c r="E610" s="1"/>
@@ -20190,7 +20244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="611" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C611" s="1"/>
       <c r="D611" s="1"/>
       <c r="E611" s="1"/>
@@ -20200,7 +20254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="612" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C612" s="1"/>
       <c r="D612" s="1"/>
       <c r="E612" s="1"/>
@@ -20210,7 +20264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="613" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C613" s="1"/>
       <c r="D613" s="1"/>
       <c r="E613" s="1"/>
@@ -20220,7 +20274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="614" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C614" s="1"/>
       <c r="D614" s="1"/>
       <c r="E614" s="1"/>
@@ -20230,7 +20284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="615" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C615" s="1"/>
       <c r="D615" s="1"/>
       <c r="E615" s="1"/>
@@ -20240,7 +20294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="616" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C616" s="1"/>
       <c r="D616" s="1"/>
       <c r="E616" s="1"/>
@@ -20250,7 +20304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="617" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C617" s="1"/>
       <c r="D617" s="1"/>
       <c r="E617" s="1"/>
@@ -20260,7 +20314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="618" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C618" s="1"/>
       <c r="D618" s="1"/>
       <c r="E618" s="1"/>
@@ -20270,7 +20324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="619" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C619" s="1"/>
       <c r="D619" s="1"/>
       <c r="E619" s="1"/>
@@ -20280,7 +20334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="620" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C620" s="1"/>
       <c r="D620" s="1"/>
       <c r="E620" s="1"/>
@@ -20290,7 +20344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="621" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C621" s="1"/>
       <c r="D621" s="1"/>
       <c r="E621" s="1"/>
@@ -20300,7 +20354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="622" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C622" s="1"/>
       <c r="D622" s="1"/>
       <c r="E622" s="1"/>
@@ -20310,7 +20364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="623" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C623" s="1"/>
       <c r="D623" s="1"/>
       <c r="E623" s="1"/>
@@ -20320,7 +20374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="624" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C624" s="1"/>
       <c r="D624" s="1"/>
       <c r="E624" s="1"/>
@@ -20330,7 +20384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="625" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C625" s="1"/>
       <c r="D625" s="1"/>
       <c r="E625" s="1"/>
@@ -20340,7 +20394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="626" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C626" s="1"/>
       <c r="D626" s="1"/>
       <c r="E626" s="1"/>
@@ -20350,7 +20404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="627" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C627" s="1"/>
       <c r="D627" s="1"/>
       <c r="E627" s="1"/>
@@ -20360,7 +20414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="628" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C628" s="1"/>
       <c r="D628" s="1"/>
       <c r="E628" s="1"/>
@@ -20370,7 +20424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="629" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C629" s="1"/>
       <c r="D629" s="1"/>
       <c r="E629" s="1"/>
@@ -20380,7 +20434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="630" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C630" s="1"/>
       <c r="D630" s="1"/>
       <c r="E630" s="1"/>
@@ -20390,7 +20444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="631" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C631" s="1"/>
       <c r="D631" s="1"/>
       <c r="E631" s="1"/>
@@ -20400,7 +20454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="632" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C632" s="1"/>
       <c r="D632" s="1"/>
       <c r="E632" s="1"/>
@@ -20410,7 +20464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="633" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C633" s="1"/>
       <c r="D633" s="1"/>
       <c r="E633" s="1"/>
@@ -20420,7 +20474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="634" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C634" s="1"/>
       <c r="D634" s="1"/>
       <c r="E634" s="1"/>
@@ -20430,7 +20484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="635" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C635" s="1"/>
       <c r="D635" s="1"/>
       <c r="E635" s="1"/>
@@ -20440,7 +20494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="636" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C636" s="1"/>
       <c r="D636" s="1"/>
       <c r="E636" s="1"/>
@@ -20450,7 +20504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="637" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C637" s="1"/>
       <c r="D637" s="1"/>
       <c r="E637" s="1"/>
@@ -20460,7 +20514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="638" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C638" s="1"/>
       <c r="D638" s="1"/>
       <c r="E638" s="1"/>
@@ -20470,7 +20524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="639" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C639" s="1"/>
       <c r="D639" s="1"/>
       <c r="E639" s="1"/>
@@ -20480,7 +20534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="640" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C640" s="1"/>
       <c r="D640" s="1"/>
       <c r="E640" s="1"/>
@@ -20490,7 +20544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="641" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C641" s="1"/>
       <c r="D641" s="1"/>
       <c r="E641" s="1"/>
@@ -20500,7 +20554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="642" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C642" s="1"/>
       <c r="D642" s="1"/>
       <c r="E642" s="1"/>
@@ -20510,7 +20564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="643" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C643" s="1"/>
       <c r="D643" s="1"/>
       <c r="E643" s="1"/>
@@ -20520,7 +20574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="644" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C644" s="1"/>
       <c r="D644" s="1"/>
       <c r="E644" s="1"/>
@@ -20530,7 +20584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="645" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C645" s="1"/>
       <c r="D645" s="1"/>
       <c r="E645" s="1"/>
@@ -20540,7 +20594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="646" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C646" s="1"/>
       <c r="D646" s="1"/>
       <c r="E646" s="1"/>
@@ -20550,7 +20604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="647" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C647" s="1"/>
       <c r="D647" s="1"/>
       <c r="E647" s="1"/>
@@ -20560,7 +20614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="648" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C648" s="1"/>
       <c r="D648" s="1"/>
       <c r="E648" s="1"/>
@@ -20570,7 +20624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="649" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C649" s="1"/>
       <c r="D649" s="1"/>
       <c r="E649" s="1"/>
@@ -20580,7 +20634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="650" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C650" s="1"/>
       <c r="D650" s="1"/>
       <c r="E650" s="1"/>
@@ -20590,7 +20644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="651" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C651" s="1"/>
       <c r="D651" s="1"/>
       <c r="E651" s="1"/>
@@ -20600,7 +20654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="652" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C652" s="1"/>
       <c r="D652" s="1"/>
       <c r="E652" s="1"/>
@@ -20610,7 +20664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="653" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C653" s="1"/>
       <c r="D653" s="1"/>
       <c r="E653" s="1"/>
@@ -20620,7 +20674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="654" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C654" s="1"/>
       <c r="D654" s="1"/>
       <c r="E654" s="1"/>
@@ -20630,7 +20684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="655" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C655" s="1"/>
       <c r="D655" s="1"/>
       <c r="E655" s="1"/>
@@ -20640,7 +20694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="656" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C656" s="1"/>
       <c r="D656" s="1"/>
       <c r="E656" s="1"/>
@@ -20650,7 +20704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="657" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C657" s="1"/>
       <c r="D657" s="1"/>
       <c r="E657" s="1"/>
@@ -20660,7 +20714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="658" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C658" s="1"/>
       <c r="D658" s="1"/>
       <c r="E658" s="1"/>
@@ -20670,7 +20724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="659" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C659" s="1"/>
       <c r="D659" s="1"/>
       <c r="E659" s="1"/>
@@ -20680,7 +20734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="660" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C660" s="1"/>
       <c r="D660" s="1"/>
       <c r="E660" s="1"/>
@@ -20690,7 +20744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="661" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C661" s="1"/>
       <c r="D661" s="1"/>
       <c r="E661" s="1"/>
@@ -20700,7 +20754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="662" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C662" s="1"/>
       <c r="D662" s="1"/>
       <c r="E662" s="1"/>
@@ -20710,7 +20764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="663" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C663" s="1"/>
       <c r="D663" s="1"/>
       <c r="E663" s="1"/>
@@ -20720,7 +20774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="664" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C664" s="1"/>
       <c r="D664" s="1"/>
       <c r="E664" s="1"/>
@@ -20730,7 +20784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="665" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C665" s="1"/>
       <c r="D665" s="1"/>
       <c r="E665" s="1"/>
@@ -20740,7 +20794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="666" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C666" s="1"/>
       <c r="D666" s="1"/>
       <c r="E666" s="1"/>
@@ -20750,7 +20804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="667" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C667" s="1"/>
       <c r="D667" s="1"/>
       <c r="E667" s="1"/>
@@ -20760,7 +20814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="668" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C668" s="1"/>
       <c r="D668" s="1"/>
       <c r="E668" s="1"/>
@@ -20770,7 +20824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="669" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C669" s="1"/>
       <c r="D669" s="1"/>
       <c r="E669" s="1"/>
@@ -20780,7 +20834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="670" spans="3:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C670" s="1"/>
       <c r="D670" s="1"/>
       <c r="E670" s="1"/>
@@ -20805,9 +20859,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="36" t="s">
         <v>59</v>
       </c>
@@ -20819,7 +20873,7 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
@@ -20829,7 +20883,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="36"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
@@ -20839,7 +20893,7 @@
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
@@ -20849,7 +20903,7 @@
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>

--- a/タスク表.xlsx
+++ b/タスク表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート (9月)" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="94">
   <si>
     <t>タスク表</t>
     <rPh sb="3" eb="4">
@@ -1040,6 +1040,41 @@
     <t>Player</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>α版仕様決定会議</t>
+    <rPh sb="1" eb="2">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何をどこまで実装するのか。会議してこの後のタスクを決める。</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1529,7 +1564,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="19">
     <dxf>
       <fill>
         <patternFill>
@@ -1604,83 +1639,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5353"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2025,8 +1983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DH102"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2389,20 +2347,24 @@
       <c r="DH4" s="51"/>
     </row>
     <row r="5" spans="1:112" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="1"/>
-      <c r="D5" s="6" t="str">
+      <c r="C5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="6">
         <f>IFERROR(VLOOKUP(C5,タスク表!$C$5:$E$100,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E5" s="6" t="str">
+        <v>43718</v>
+      </c>
+      <c r="E5" s="6">
         <f>IFERROR(VLOOKUP(C5,タスク表!$C$5:$F$100,4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F5" s="13" t="str">
+        <v>43718</v>
+      </c>
+      <c r="F5" s="13">
         <f ca="1">IFERROR(ABS(TODAY()-$E5),"")</f>
-        <v/>
-      </c>
-      <c r="G5" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="7"/>
       <c r="J5" s="5"/>
@@ -26467,45 +26429,45 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F5:F100">
-    <cfRule type="expression" dxfId="29" priority="9">
+    <cfRule type="expression" dxfId="10" priority="9">
       <formula>$G5="完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>TODAY()&gt;$E5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:DH3">
-    <cfRule type="containsText" dxfId="27" priority="6" operator="containsText" text="日">
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="日">
       <formula>NOT(ISERROR(SEARCH("日",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="土">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="土">
       <formula>NOT(ISERROR(SEARCH("土",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:DH5">
-    <cfRule type="expression" dxfId="25" priority="12">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>AND(AND($D5&lt;=I$4,$E5&gt;=I$4),$G5="完了")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="13">
+    <cfRule type="expression" dxfId="5" priority="13">
       <formula>AND($D5&lt;=I$4,$E5&gt;=I$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:DH100">
-    <cfRule type="expression" dxfId="23" priority="14">
+    <cfRule type="expression" dxfId="4" priority="14">
       <formula>AND(AND($D6&lt;=I$4,$E6&gt;=I$4),$G6="完了")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="15">
+    <cfRule type="expression" dxfId="3" priority="15">
       <formula>AND($D6&lt;=I$4,$E6&gt;=I$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H100">
-    <cfRule type="expression" dxfId="21" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$H$5:$H$100="佐藤か"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$H$5:$H$100="吉成"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$H$5:$H$100="佐藤る"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26541,8 +26503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AD670"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="E17" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -26923,19 +26885,27 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="3">
+        <v>43718</v>
+      </c>
+      <c r="F23" s="3">
+        <v>43718</v>
+      </c>
       <c r="G23" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="55" t="s">
+        <v>91</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>

--- a/タスク表.xlsx
+++ b/タスク表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート (9月)" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="114">
   <si>
     <t>タスク表</t>
     <rPh sb="3" eb="4">
@@ -1027,16 +1027,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ここから下はα版仕様</t>
-    <rPh sb="4" eb="5">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>アルファバンシヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Player</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1072,6 +1062,251 @@
     </rPh>
     <rPh sb="25" eb="26">
       <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイ会を実装するにあたって、テントと暗幕とプレイ動画を作ろう</t>
+    <rPh sb="3" eb="4">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>アンマク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイ動画はTGSで企業がやっているように、操作説明とPVの2種作ろう。</t>
+    <rPh sb="3" eb="5">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクトのテキスト</t>
+  </si>
+  <si>
+    <t>オブジェクトのテキスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決定で箱がアニメーションで動いたり、オブジェクトに関係したテキストを表示するなど決定した時の反応を作る</t>
+    <rPh sb="0" eb="2">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ハンノウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Playerモデルをアニメーションとリンクさせる。移動速度によってアニメーションの速度も変わるようにする。</t>
+    <rPh sb="25" eb="27">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ーーー※※ここから下はα版仕様※※ーーー</t>
+    <rPh sb="9" eb="10">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>アルファバンシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パッドの移動速度</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左スティックを傾けた分だけ移動速度を変更するようにする。</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カタム</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enemy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Object</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>机</t>
+    <rPh sb="0" eb="1">
+      <t>ツクエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>椅子</t>
+    <rPh sb="0" eb="2">
+      <t>イス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本棚</t>
+    <rPh sb="0" eb="2">
+      <t>ホンダナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引き出し</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鏡</t>
+    <rPh sb="0" eb="1">
+      <t>カガミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MAP作成</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1マップ分のマップを作る。カギのなぞ解きをするのではなく、カギを探す探索メインのマップ作りにする。</t>
+    <rPh sb="4" eb="5">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ヅク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enemyモデルを各種モーション(待機・走り・トビラ開け・その場捜索)に合わせるようにする</t>
+    <rPh sb="9" eb="11">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ソウサク</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1131,7 +1366,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1195,6 +1430,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5353"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1389,7 +1630,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1560,6 +1801,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1702,9 +1949,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF5353"/>
       <color rgb="FFEFD9D9"/>
       <color rgb="FFFF99FF"/>
-      <color rgb="FFFF5353"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1983,8 +2230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DH102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2348,7 +2595,7 @@
     </row>
     <row r="5" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="6">
         <f>IFERROR(VLOOKUP(C5,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -2360,7 +2607,7 @@
       </c>
       <c r="F5" s="13">
         <f ca="1">IFERROR(ABS(TODAY()-$E5),"")</f>
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>7</v>
@@ -2472,21 +2719,27 @@
       <c r="DH5" s="51"/>
     </row>
     <row r="6" spans="1:112" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="1"/>
-      <c r="D6" s="6" t="str">
+      <c r="C6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="6">
         <f>IFERROR(VLOOKUP(C6,タスク表!$C$5:$E$100,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E6" s="6" t="str">
+        <v>43665</v>
+      </c>
+      <c r="E6" s="6">
         <f>IFERROR(VLOOKUP(C6,タスク表!$C$5:$F$100,4,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F6" s="8" t="str">
+        <v>43721</v>
+      </c>
+      <c r="F6" s="8">
         <f t="shared" ref="F6:F69" ca="1" si="0">IFERROR(ABS(TODAY()-$E6),"")</f>
-        <v/>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="48"/>
+        <v>56</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="56" t="s">
+        <v>51</v>
+      </c>
       <c r="I6" s="7"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -14035,8 +14288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DH102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -14733,7 +14986,7 @@
       </c>
       <c r="F5" s="13">
         <f ca="1">IFERROR(ABS(TODAY()-$E5),"")</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>6</v>
@@ -14858,7 +15111,7 @@
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F69" ca="1" si="0">IFERROR(ABS(TODAY()-$E6),"")</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>6</v>
@@ -14985,7 +15238,7 @@
       </c>
       <c r="F7" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>6</v>
@@ -15112,7 +15365,7 @@
       </c>
       <c r="F8" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>6</v>
@@ -15239,7 +15492,7 @@
       </c>
       <c r="F9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>6</v>
@@ -15366,10 +15619,10 @@
       </c>
       <c r="F10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H10" s="31" t="s">
         <v>51</v>
@@ -15485,15 +15738,15 @@
       </c>
       <c r="D11" s="6">
         <f>IFERROR(VLOOKUP(C11,タスク表!$C$5:$E$100,3,FALSE),"")</f>
-        <v>43661</v>
+        <v>43694</v>
       </c>
       <c r="E11" s="6">
         <f>IFERROR(VLOOKUP(C11,タスク表!$C$5:$F$100,4,FALSE),"")</f>
-        <v>43665</v>
+        <v>43699</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>7</v>
@@ -15612,15 +15865,15 @@
       </c>
       <c r="D12" s="6">
         <f>IFERROR(VLOOKUP(C12,タスク表!$C$5:$E$100,3,FALSE),"")</f>
-        <v>43665</v>
+        <v>43701</v>
       </c>
       <c r="E12" s="6">
         <f>IFERROR(VLOOKUP(C12,タスク表!$C$5:$F$100,4,FALSE),"")</f>
-        <v>43665</v>
+        <v>43708</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>7</v>
@@ -15747,7 +16000,7 @@
       </c>
       <c r="F13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>6</v>
@@ -15874,7 +16127,7 @@
       </c>
       <c r="F14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>6</v>
@@ -16001,7 +16254,7 @@
       </c>
       <c r="F15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>6</v>
@@ -16128,7 +16381,7 @@
       </c>
       <c r="F16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>6</v>
@@ -16255,10 +16508,10 @@
       </c>
       <c r="F17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H17" s="33" t="s">
         <v>53</v>
@@ -16382,7 +16635,7 @@
       </c>
       <c r="F18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>7</v>
@@ -16509,7 +16762,7 @@
       </c>
       <c r="F19" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>7</v>
@@ -26503,14 +26756,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AD670"/>
   <sheetViews>
-    <sheetView topLeftCell="E17" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="D17" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.08203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="160.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.4140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
@@ -26678,14 +26931,14 @@
         <v>61</v>
       </c>
       <c r="E11" s="29">
-        <v>43661</v>
+        <v>43694</v>
       </c>
       <c r="F11" s="29">
-        <v>43665</v>
+        <v>43699</v>
       </c>
       <c r="G11" s="27">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H11" t="s">
         <v>65</v>
@@ -26813,14 +27066,14 @@
         <v>60</v>
       </c>
       <c r="E18" s="3">
-        <v>43665</v>
+        <v>43701</v>
       </c>
       <c r="F18" s="3">
-        <v>43665</v>
+        <v>43708</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -26874,7 +27127,7 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="54" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
@@ -26886,10 +27139,10 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="E23" s="3">
         <v>43718</v>
@@ -26904,20 +27157,32 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="3">
+        <v>43665</v>
+      </c>
+      <c r="F24" s="3">
+        <v>43721</v>
+      </c>
       <c r="G24" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1">
@@ -26926,8 +27191,12 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1">
@@ -26936,8 +27205,15 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="B27" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1">
@@ -26946,8 +27222,15 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="B28" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1">
@@ -26956,7 +27239,9 @@
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -26966,7 +27251,9 @@
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -26976,7 +27263,9 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -26986,7 +27275,9 @@
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -26996,7 +27287,9 @@
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -27006,7 +27299,9 @@
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -33387,7 +33682,7 @@
   <dimension ref="C4:M241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -36081,7 +36376,7 @@
   <dimension ref="B2:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -36099,7 +36394,9 @@
       <c r="I2" s="36"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="36"/>
+      <c r="B3" s="36" t="s">
+        <v>93</v>
+      </c>
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
       <c r="E3" s="36"/>
@@ -36109,7 +36406,9 @@
       <c r="I3" s="36"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="36"/>
+      <c r="B4" s="36" t="s">
+        <v>94</v>
+      </c>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>

--- a/タスク表.xlsx
+++ b/タスク表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート (9月)" sheetId="5" r:id="rId1"/>
@@ -2230,8 +2230,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DH102"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2607,7 +2608,7 @@
       </c>
       <c r="F5" s="13">
         <f ca="1">IFERROR(ABS(TODAY()-$E5),"")</f>
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>7</v>
@@ -2732,7 +2733,7 @@
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F69" ca="1" si="0">IFERROR(ABS(TODAY()-$E6),"")</f>
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>8</v>
@@ -14288,8 +14289,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DH102"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -14986,7 +14988,7 @@
       </c>
       <c r="F5" s="13">
         <f ca="1">IFERROR(ABS(TODAY()-$E5),"")</f>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>6</v>
@@ -15111,7 +15113,7 @@
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F69" ca="1" si="0">IFERROR(ABS(TODAY()-$E6),"")</f>
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>6</v>
@@ -15238,7 +15240,7 @@
       </c>
       <c r="F7" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>6</v>
@@ -15365,7 +15367,7 @@
       </c>
       <c r="F8" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>6</v>
@@ -15492,7 +15494,7 @@
       </c>
       <c r="F9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>6</v>
@@ -15619,7 +15621,7 @@
       </c>
       <c r="F10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>6</v>
@@ -15746,7 +15748,7 @@
       </c>
       <c r="F11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>7</v>
@@ -15873,7 +15875,7 @@
       </c>
       <c r="F12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>7</v>
@@ -16000,7 +16002,7 @@
       </c>
       <c r="F13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>6</v>
@@ -16127,7 +16129,7 @@
       </c>
       <c r="F14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>6</v>
@@ -16254,7 +16256,7 @@
       </c>
       <c r="F15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>6</v>
@@ -16381,7 +16383,7 @@
       </c>
       <c r="F16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>6</v>
@@ -16504,11 +16506,11 @@
       </c>
       <c r="E17" s="6">
         <f>IFERROR(VLOOKUP(C17,タスク表!$C$5:$F$100,4,FALSE),"")</f>
-        <v>43665</v>
+        <v>43672</v>
       </c>
       <c r="F17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>8</v>
@@ -16635,7 +16637,7 @@
       </c>
       <c r="F18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>7</v>
@@ -16762,7 +16764,7 @@
       </c>
       <c r="F19" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>7</v>
@@ -26756,8 +26758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AD670"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D17" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -26976,11 +26978,11 @@
         <v>43658</v>
       </c>
       <c r="F13" s="3">
-        <v>43665</v>
+        <v>43672</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">

--- a/タスク表.xlsx
+++ b/タスク表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="537"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート (9月)" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="115">
   <si>
     <t>タスク表</t>
     <rPh sb="3" eb="4">
@@ -1310,6 +1310,19 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>作業終了日</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1630,7 +1643,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1807,11 +1820,23 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill>
@@ -1906,14 +1931,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="2"/>
+          <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1928,20 +1953,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF5353"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2232,24 +2243,25 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1:D1048576"/>
+      <selection pane="topRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="7.83203125" customWidth="1"/>
-    <col min="15" max="15" width="8.9140625" customWidth="1"/>
-    <col min="16" max="21" width="7.83203125" customWidth="1"/>
-    <col min="22" max="22" width="8.9140625" customWidth="1"/>
-    <col min="23" max="49" width="7.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.75" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="26.08203125" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="59" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.5" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="7.83203125" customWidth="1"/>
+    <col min="16" max="16" width="8.9140625" customWidth="1"/>
+    <col min="17" max="22" width="7.83203125" customWidth="1"/>
+    <col min="23" max="23" width="8.9140625" customWidth="1"/>
+    <col min="24" max="49" width="7.83203125" customWidth="1"/>
     <col min="50" max="58" width="6.83203125" customWidth="1"/>
     <col min="59" max="80" width="7.83203125" customWidth="1"/>
     <col min="81" max="89" width="6.83203125" customWidth="1"/>
@@ -2267,11 +2279,12 @@
       <c r="B2" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="E2" s="58"/>
+      <c r="P2" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="P2" s="50"/>
-      <c r="V2" s="22" t="s">
+      <c r="Q2" s="50"/>
+      <c r="W2" s="22" t="s">
         <v>89</v>
       </c>
       <c r="AK2" s="9"/>
@@ -2280,71 +2293,70 @@
       <c r="AR2" s="50"/>
     </row>
     <row r="3" spans="1:112" x14ac:dyDescent="0.55000000000000004">
-      <c r="H3" s="11"/>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="M3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="N3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="O3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="52" t="s">
+      <c r="P3" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="Q3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="R3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="S3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="T3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="U3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="V3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="52" t="s">
+      <c r="W3" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="53" t="s">
+      <c r="X3" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="10" t="s">
+      <c r="Y3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="Z3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Z3" s="10" t="s">
+      <c r="AA3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="AA3" s="10" t="s">
+      <c r="AB3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AB3" s="10" t="s">
+      <c r="AC3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AD3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AD3" s="51"/>
       <c r="AE3" s="51"/>
       <c r="AF3" s="51"/>
       <c r="AG3" s="51"/>
@@ -2438,79 +2450,81 @@
       <c r="E4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="H4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="I4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="49">
+      <c r="J4" s="49">
         <v>43718</v>
       </c>
-      <c r="J4" s="49">
+      <c r="K4" s="49">
         <v>43719</v>
       </c>
-      <c r="K4" s="49">
+      <c r="L4" s="49">
         <v>43720</v>
       </c>
-      <c r="L4" s="49">
+      <c r="M4" s="49">
         <v>43721</v>
       </c>
-      <c r="M4" s="49">
+      <c r="N4" s="49">
         <v>43722</v>
       </c>
-      <c r="N4" s="49">
+      <c r="O4" s="49">
         <v>43723</v>
       </c>
-      <c r="O4" s="49">
+      <c r="P4" s="49">
         <v>43724</v>
       </c>
-      <c r="P4" s="49">
+      <c r="Q4" s="49">
         <v>43725</v>
       </c>
-      <c r="Q4" s="49">
+      <c r="R4" s="49">
         <v>43726</v>
       </c>
-      <c r="R4" s="49">
+      <c r="S4" s="49">
         <v>43727</v>
       </c>
-      <c r="S4" s="49">
+      <c r="T4" s="49">
         <v>43728</v>
       </c>
-      <c r="T4" s="49">
+      <c r="U4" s="49">
         <v>43729</v>
       </c>
-      <c r="U4" s="49">
+      <c r="V4" s="49">
         <v>43730</v>
       </c>
-      <c r="V4" s="49">
+      <c r="W4" s="49">
         <v>43731</v>
       </c>
-      <c r="W4" s="49">
+      <c r="X4" s="49">
         <v>43732</v>
       </c>
-      <c r="X4" s="49">
+      <c r="Y4" s="49">
         <v>43733</v>
       </c>
-      <c r="Y4" s="49">
+      <c r="Z4" s="49">
         <v>43734</v>
       </c>
-      <c r="Z4" s="49">
+      <c r="AA4" s="49">
         <v>43735</v>
       </c>
-      <c r="AA4" s="49">
+      <c r="AB4" s="49">
         <v>43736</v>
       </c>
-      <c r="AB4" s="49">
+      <c r="AC4" s="49">
         <v>43737</v>
       </c>
-      <c r="AC4" s="49">
+      <c r="AD4" s="49">
         <v>43738</v>
       </c>
-      <c r="AD4" s="51"/>
       <c r="AE4" s="51"/>
       <c r="AF4" s="51"/>
       <c r="AG4" s="51"/>
@@ -2606,16 +2620,19 @@
         <f>IFERROR(VLOOKUP(C5,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v>43718</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="61" t="str">
+        <f ca="1">IF($H5="完了",TODAY(),"")</f>
+        <v/>
+      </c>
+      <c r="G5" s="13">
         <f ca="1">IFERROR(ABS(TODAY()-$E5),"")</f>
-        <v>28</v>
-      </c>
-      <c r="G5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="5"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="7"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -2635,7 +2652,7 @@
       <c r="AA5" s="5"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
-      <c r="AD5" s="51"/>
+      <c r="AD5" s="5"/>
       <c r="AE5" s="51"/>
       <c r="AF5" s="51"/>
       <c r="AG5" s="51"/>
@@ -2731,18 +2748,21 @@
         <f>IFERROR(VLOOKUP(C6,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v>43721</v>
       </c>
-      <c r="F6" s="8">
-        <f t="shared" ref="F6:F69" ca="1" si="0">IFERROR(ABS(TODAY()-$E6),"")</f>
-        <v>31</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="61" t="str">
+        <f t="shared" ref="F6:F69" ca="1" si="0">IF($H6="完了",TODAY(),"")</f>
+        <v/>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" ref="G6:G69" ca="1" si="1">IFERROR(ABS(TODAY()-$E6),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="56" t="s">
+      <c r="I6" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="5"/>
+      <c r="J6" s="7"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -2762,7 +2782,7 @@
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
-      <c r="AD6" s="51"/>
+      <c r="AD6" s="5"/>
       <c r="AE6" s="51"/>
       <c r="AF6" s="51"/>
       <c r="AG6" s="51"/>
@@ -2856,14 +2876,17 @@
         <f>IFERROR(VLOOKUP(C7,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F7" s="8" t="str">
+      <c r="F7" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="5"/>
+      <c r="G7" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="7"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -2883,7 +2906,7 @@
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
-      <c r="AD7" s="51"/>
+      <c r="AD7" s="5"/>
       <c r="AE7" s="51"/>
       <c r="AF7" s="51"/>
       <c r="AG7" s="51"/>
@@ -2977,14 +3000,17 @@
         <f>IFERROR(VLOOKUP(C8,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F8" s="8" t="str">
+      <c r="F8" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="5"/>
+      <c r="G8" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="7"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
@@ -3004,7 +3030,7 @@
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
-      <c r="AD8" s="51"/>
+      <c r="AD8" s="5"/>
       <c r="AE8" s="51"/>
       <c r="AF8" s="51"/>
       <c r="AG8" s="51"/>
@@ -3098,14 +3124,17 @@
         <f>IFERROR(VLOOKUP(C9,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F9" s="8" t="str">
+      <c r="F9" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="5"/>
+      <c r="G9" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="7"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
@@ -3125,7 +3154,7 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
-      <c r="AD9" s="51"/>
+      <c r="AD9" s="5"/>
       <c r="AE9" s="51"/>
       <c r="AF9" s="51"/>
       <c r="AG9" s="51"/>
@@ -3219,14 +3248,17 @@
         <f>IFERROR(VLOOKUP(C10,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F10" s="8" t="str">
+      <c r="F10" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="5"/>
+      <c r="G10" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="7"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
@@ -3246,7 +3278,7 @@
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
-      <c r="AD10" s="51"/>
+      <c r="AD10" s="5"/>
       <c r="AE10" s="51"/>
       <c r="AF10" s="51"/>
       <c r="AG10" s="51"/>
@@ -3340,14 +3372,17 @@
         <f>IFERROR(VLOOKUP(C11,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F11" s="8" t="str">
+      <c r="F11" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="5"/>
+      <c r="G11" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="7"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
@@ -3367,7 +3402,7 @@
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
-      <c r="AD11" s="51"/>
+      <c r="AD11" s="5"/>
       <c r="AE11" s="51"/>
       <c r="AF11" s="51"/>
       <c r="AG11" s="51"/>
@@ -3461,14 +3496,17 @@
         <f>IFERROR(VLOOKUP(C12,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F12" s="8" t="str">
+      <c r="F12" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="5"/>
+      <c r="G12" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="7"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -3488,7 +3526,7 @@
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
-      <c r="AD12" s="51"/>
+      <c r="AD12" s="5"/>
       <c r="AE12" s="51"/>
       <c r="AF12" s="51"/>
       <c r="AG12" s="51"/>
@@ -3582,14 +3620,17 @@
         <f>IFERROR(VLOOKUP(C13,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F13" s="8" t="str">
+      <c r="F13" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="5"/>
+      <c r="G13" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="7"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -3609,7 +3650,7 @@
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
-      <c r="AD13" s="51"/>
+      <c r="AD13" s="5"/>
       <c r="AE13" s="51"/>
       <c r="AF13" s="51"/>
       <c r="AG13" s="51"/>
@@ -3703,14 +3744,17 @@
         <f>IFERROR(VLOOKUP(C14,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F14" s="8" t="str">
+      <c r="F14" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="5"/>
+      <c r="G14" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="7"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
@@ -3730,7 +3774,7 @@
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
-      <c r="AD14" s="51"/>
+      <c r="AD14" s="5"/>
       <c r="AE14" s="51"/>
       <c r="AF14" s="51"/>
       <c r="AG14" s="51"/>
@@ -3824,14 +3868,17 @@
         <f>IFERROR(VLOOKUP(C15,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F15" s="8" t="str">
+      <c r="F15" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="5"/>
+      <c r="G15" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="7"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
@@ -3851,7 +3898,7 @@
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
-      <c r="AD15" s="51"/>
+      <c r="AD15" s="5"/>
       <c r="AE15" s="51"/>
       <c r="AF15" s="51"/>
       <c r="AG15" s="51"/>
@@ -3945,14 +3992,17 @@
         <f>IFERROR(VLOOKUP(C16,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F16" s="8" t="str">
+      <c r="F16" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="5"/>
+      <c r="G16" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="7"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
@@ -3972,7 +4022,7 @@
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
-      <c r="AD16" s="51"/>
+      <c r="AD16" s="5"/>
       <c r="AE16" s="51"/>
       <c r="AF16" s="51"/>
       <c r="AG16" s="51"/>
@@ -4066,14 +4116,17 @@
         <f>IFERROR(VLOOKUP(C17,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F17" s="8" t="str">
+      <c r="F17" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="5"/>
+      <c r="G17" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="7"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -4093,7 +4146,7 @@
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
-      <c r="AD17" s="51"/>
+      <c r="AD17" s="5"/>
       <c r="AE17" s="51"/>
       <c r="AF17" s="51"/>
       <c r="AG17" s="51"/>
@@ -4187,14 +4240,17 @@
         <f>IFERROR(VLOOKUP(C18,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F18" s="8" t="str">
+      <c r="F18" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="5"/>
+      <c r="G18" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="7"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
@@ -4214,7 +4270,7 @@
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
-      <c r="AD18" s="51"/>
+      <c r="AD18" s="5"/>
       <c r="AE18" s="51"/>
       <c r="AF18" s="51"/>
       <c r="AG18" s="51"/>
@@ -4308,14 +4364,17 @@
         <f>IFERROR(VLOOKUP(C19,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F19" s="8" t="str">
+      <c r="F19" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="5"/>
+      <c r="G19" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="7"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
@@ -4335,7 +4394,7 @@
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
-      <c r="AD19" s="51"/>
+      <c r="AD19" s="5"/>
       <c r="AE19" s="51"/>
       <c r="AF19" s="51"/>
       <c r="AG19" s="51"/>
@@ -4429,14 +4488,17 @@
         <f>IFERROR(VLOOKUP(C20,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F20" s="8" t="str">
+      <c r="F20" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="5"/>
+      <c r="G20" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="7"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
@@ -4456,7 +4518,7 @@
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
-      <c r="AD20" s="51"/>
+      <c r="AD20" s="5"/>
       <c r="AE20" s="51"/>
       <c r="AF20" s="51"/>
       <c r="AG20" s="51"/>
@@ -4550,14 +4612,17 @@
         <f>IFERROR(VLOOKUP(C21,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F21" s="8" t="str">
+      <c r="F21" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="5"/>
+      <c r="G21" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="7"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
@@ -4577,7 +4642,7 @@
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
-      <c r="AD21" s="51"/>
+      <c r="AD21" s="5"/>
       <c r="AE21" s="51"/>
       <c r="AF21" s="51"/>
       <c r="AG21" s="51"/>
@@ -4671,14 +4736,17 @@
         <f>IFERROR(VLOOKUP(C22,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F22" s="8" t="str">
+      <c r="F22" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="5"/>
+      <c r="G22" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="7"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
@@ -4698,7 +4766,7 @@
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
-      <c r="AD22" s="51"/>
+      <c r="AD22" s="5"/>
       <c r="AE22" s="51"/>
       <c r="AF22" s="51"/>
       <c r="AG22" s="51"/>
@@ -4792,14 +4860,17 @@
         <f>IFERROR(VLOOKUP(C23,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F23" s="8" t="str">
+      <c r="F23" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="5"/>
+      <c r="G23" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="7"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
@@ -4819,7 +4890,7 @@
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
-      <c r="AD23" s="51"/>
+      <c r="AD23" s="5"/>
       <c r="AE23" s="51"/>
       <c r="AF23" s="51"/>
       <c r="AG23" s="51"/>
@@ -4913,14 +4984,17 @@
         <f>IFERROR(VLOOKUP(C24,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F24" s="8" t="str">
+      <c r="F24" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="5"/>
+      <c r="G24" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="7"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
@@ -4940,7 +5014,7 @@
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
-      <c r="AD24" s="51"/>
+      <c r="AD24" s="5"/>
       <c r="AE24" s="51"/>
       <c r="AF24" s="51"/>
       <c r="AG24" s="51"/>
@@ -5034,14 +5108,17 @@
         <f>IFERROR(VLOOKUP(C25,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F25" s="8" t="str">
+      <c r="F25" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="5"/>
+      <c r="G25" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="7"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
@@ -5061,7 +5138,7 @@
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
-      <c r="AD25" s="51"/>
+      <c r="AD25" s="5"/>
       <c r="AE25" s="51"/>
       <c r="AF25" s="51"/>
       <c r="AG25" s="51"/>
@@ -5155,14 +5232,17 @@
         <f>IFERROR(VLOOKUP(C26,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F26" s="8" t="str">
+      <c r="F26" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="5"/>
+      <c r="G26" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="7"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -5182,7 +5262,7 @@
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
-      <c r="AD26" s="51"/>
+      <c r="AD26" s="5"/>
       <c r="AE26" s="51"/>
       <c r="AF26" s="51"/>
       <c r="AG26" s="51"/>
@@ -5276,14 +5356,17 @@
         <f>IFERROR(VLOOKUP(C27,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F27" s="8" t="str">
+      <c r="F27" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="5"/>
+      <c r="G27" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="7"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
@@ -5303,7 +5386,7 @@
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
-      <c r="AD27" s="51"/>
+      <c r="AD27" s="5"/>
       <c r="AE27" s="51"/>
       <c r="AF27" s="51"/>
       <c r="AG27" s="51"/>
@@ -5397,14 +5480,17 @@
         <f>IFERROR(VLOOKUP(C28,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F28" s="8" t="str">
+      <c r="F28" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="5"/>
+      <c r="G28" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="7"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
@@ -5424,7 +5510,7 @@
       <c r="AA28" s="5"/>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
-      <c r="AD28" s="51"/>
+      <c r="AD28" s="5"/>
       <c r="AE28" s="51"/>
       <c r="AF28" s="51"/>
       <c r="AG28" s="51"/>
@@ -5518,14 +5604,17 @@
         <f>IFERROR(VLOOKUP(C29,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F29" s="8" t="str">
+      <c r="F29" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="5"/>
+      <c r="G29" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="7"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -5545,7 +5634,7 @@
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
-      <c r="AD29" s="51"/>
+      <c r="AD29" s="5"/>
       <c r="AE29" s="51"/>
       <c r="AF29" s="51"/>
       <c r="AG29" s="51"/>
@@ -5639,14 +5728,17 @@
         <f>IFERROR(VLOOKUP(C30,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F30" s="8" t="str">
+      <c r="F30" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="5"/>
+      <c r="G30" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="7"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
@@ -5666,7 +5758,7 @@
       <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
-      <c r="AD30" s="51"/>
+      <c r="AD30" s="5"/>
       <c r="AE30" s="51"/>
       <c r="AF30" s="51"/>
       <c r="AG30" s="51"/>
@@ -5760,14 +5852,17 @@
         <f>IFERROR(VLOOKUP(C31,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F31" s="8" t="str">
+      <c r="F31" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="5"/>
+      <c r="G31" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="7"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
@@ -5787,7 +5882,7 @@
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
-      <c r="AD31" s="51"/>
+      <c r="AD31" s="5"/>
       <c r="AE31" s="51"/>
       <c r="AF31" s="51"/>
       <c r="AG31" s="51"/>
@@ -5881,14 +5976,17 @@
         <f>IFERROR(VLOOKUP(C32,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F32" s="8" t="str">
+      <c r="F32" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="5"/>
+      <c r="G32" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="7"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -5908,7 +6006,7 @@
       <c r="AA32" s="5"/>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
-      <c r="AD32" s="51"/>
+      <c r="AD32" s="5"/>
       <c r="AE32" s="51"/>
       <c r="AF32" s="51"/>
       <c r="AG32" s="51"/>
@@ -6002,14 +6100,17 @@
         <f>IFERROR(VLOOKUP(C33,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F33" s="8" t="str">
+      <c r="F33" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="5"/>
+      <c r="G33" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="7"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
@@ -6029,7 +6130,7 @@
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
-      <c r="AD33" s="51"/>
+      <c r="AD33" s="5"/>
       <c r="AE33" s="51"/>
       <c r="AF33" s="51"/>
       <c r="AG33" s="51"/>
@@ -6123,14 +6224,17 @@
         <f>IFERROR(VLOOKUP(C34,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F34" s="8" t="str">
+      <c r="F34" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="5"/>
+      <c r="G34" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="7"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
@@ -6150,7 +6254,7 @@
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
-      <c r="AD34" s="51"/>
+      <c r="AD34" s="5"/>
       <c r="AE34" s="51"/>
       <c r="AF34" s="51"/>
       <c r="AG34" s="51"/>
@@ -6244,14 +6348,17 @@
         <f>IFERROR(VLOOKUP(C35,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F35" s="8" t="str">
+      <c r="F35" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="5"/>
+      <c r="G35" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="7"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
@@ -6271,7 +6378,7 @@
       <c r="AA35" s="5"/>
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
-      <c r="AD35" s="51"/>
+      <c r="AD35" s="5"/>
       <c r="AE35" s="51"/>
       <c r="AF35" s="51"/>
       <c r="AG35" s="51"/>
@@ -6365,14 +6472,17 @@
         <f>IFERROR(VLOOKUP(C36,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F36" s="8" t="str">
+      <c r="F36" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="5"/>
+      <c r="G36" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H36" s="2"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="7"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
@@ -6392,7 +6502,7 @@
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
-      <c r="AD36" s="51"/>
+      <c r="AD36" s="5"/>
       <c r="AE36" s="51"/>
       <c r="AF36" s="51"/>
       <c r="AG36" s="51"/>
@@ -6486,14 +6596,17 @@
         <f>IFERROR(VLOOKUP(C37,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F37" s="8" t="str">
+      <c r="F37" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="5"/>
+      <c r="G37" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="7"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
@@ -6513,7 +6626,7 @@
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
-      <c r="AD37" s="51"/>
+      <c r="AD37" s="5"/>
       <c r="AE37" s="51"/>
       <c r="AF37" s="51"/>
       <c r="AG37" s="51"/>
@@ -6607,14 +6720,17 @@
         <f>IFERROR(VLOOKUP(C38,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F38" s="8" t="str">
+      <c r="F38" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="5"/>
+      <c r="G38" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H38" s="2"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="7"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
@@ -6634,7 +6750,7 @@
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
-      <c r="AD38" s="51"/>
+      <c r="AD38" s="5"/>
       <c r="AE38" s="51"/>
       <c r="AF38" s="51"/>
       <c r="AG38" s="51"/>
@@ -6728,14 +6844,17 @@
         <f>IFERROR(VLOOKUP(C39,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F39" s="8" t="str">
+      <c r="F39" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="5"/>
+      <c r="G39" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="7"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
@@ -6755,7 +6874,7 @@
       <c r="AA39" s="5"/>
       <c r="AB39" s="5"/>
       <c r="AC39" s="5"/>
-      <c r="AD39" s="51"/>
+      <c r="AD39" s="5"/>
       <c r="AE39" s="51"/>
       <c r="AF39" s="51"/>
       <c r="AG39" s="51"/>
@@ -6849,14 +6968,17 @@
         <f>IFERROR(VLOOKUP(C40,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F40" s="8" t="str">
+      <c r="F40" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="5"/>
+      <c r="G40" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H40" s="2"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="7"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
@@ -6876,7 +6998,7 @@
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
       <c r="AC40" s="5"/>
-      <c r="AD40" s="51"/>
+      <c r="AD40" s="5"/>
       <c r="AE40" s="51"/>
       <c r="AF40" s="51"/>
       <c r="AG40" s="51"/>
@@ -6970,14 +7092,17 @@
         <f>IFERROR(VLOOKUP(C41,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F41" s="8" t="str">
+      <c r="F41" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="5"/>
+      <c r="G41" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H41" s="2"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="7"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
@@ -6997,7 +7122,7 @@
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
       <c r="AC41" s="5"/>
-      <c r="AD41" s="51"/>
+      <c r="AD41" s="5"/>
       <c r="AE41" s="51"/>
       <c r="AF41" s="51"/>
       <c r="AG41" s="51"/>
@@ -7091,14 +7216,17 @@
         <f>IFERROR(VLOOKUP(C42,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F42" s="8" t="str">
+      <c r="F42" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="5"/>
+      <c r="G42" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H42" s="2"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="7"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
@@ -7118,7 +7246,7 @@
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
       <c r="AC42" s="5"/>
-      <c r="AD42" s="51"/>
+      <c r="AD42" s="5"/>
       <c r="AE42" s="51"/>
       <c r="AF42" s="51"/>
       <c r="AG42" s="51"/>
@@ -7212,14 +7340,17 @@
         <f>IFERROR(VLOOKUP(C43,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F43" s="8" t="str">
+      <c r="F43" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="5"/>
+      <c r="G43" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H43" s="2"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="7"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
@@ -7239,7 +7370,7 @@
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
-      <c r="AD43" s="51"/>
+      <c r="AD43" s="5"/>
       <c r="AE43" s="51"/>
       <c r="AF43" s="51"/>
       <c r="AG43" s="51"/>
@@ -7333,14 +7464,17 @@
         <f>IFERROR(VLOOKUP(C44,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F44" s="8" t="str">
+      <c r="F44" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="5"/>
+      <c r="G44" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H44" s="2"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="7"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
@@ -7360,7 +7494,7 @@
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
       <c r="AC44" s="5"/>
-      <c r="AD44" s="51"/>
+      <c r="AD44" s="5"/>
       <c r="AE44" s="51"/>
       <c r="AF44" s="51"/>
       <c r="AG44" s="51"/>
@@ -7454,14 +7588,17 @@
         <f>IFERROR(VLOOKUP(C45,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F45" s="8" t="str">
+      <c r="F45" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="5"/>
+      <c r="G45" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H45" s="2"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="7"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
@@ -7481,7 +7618,7 @@
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
       <c r="AC45" s="5"/>
-      <c r="AD45" s="51"/>
+      <c r="AD45" s="5"/>
       <c r="AE45" s="51"/>
       <c r="AF45" s="51"/>
       <c r="AG45" s="51"/>
@@ -7575,14 +7712,17 @@
         <f>IFERROR(VLOOKUP(C46,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F46" s="8" t="str">
+      <c r="F46" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="5"/>
+      <c r="G46" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H46" s="2"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="7"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -7602,7 +7742,7 @@
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
       <c r="AC46" s="5"/>
-      <c r="AD46" s="51"/>
+      <c r="AD46" s="5"/>
       <c r="AE46" s="51"/>
       <c r="AF46" s="51"/>
       <c r="AG46" s="51"/>
@@ -7696,14 +7836,17 @@
         <f>IFERROR(VLOOKUP(C47,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F47" s="8" t="str">
+      <c r="F47" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="5"/>
+      <c r="G47" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H47" s="2"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="7"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
@@ -7723,7 +7866,7 @@
       <c r="AA47" s="5"/>
       <c r="AB47" s="5"/>
       <c r="AC47" s="5"/>
-      <c r="AD47" s="51"/>
+      <c r="AD47" s="5"/>
       <c r="AE47" s="51"/>
       <c r="AF47" s="51"/>
       <c r="AG47" s="51"/>
@@ -7817,14 +7960,17 @@
         <f>IFERROR(VLOOKUP(C48,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F48" s="8" t="str">
+      <c r="F48" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="5"/>
+      <c r="G48" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H48" s="2"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="7"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
@@ -7844,7 +7990,7 @@
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
       <c r="AC48" s="5"/>
-      <c r="AD48" s="51"/>
+      <c r="AD48" s="5"/>
       <c r="AE48" s="51"/>
       <c r="AF48" s="51"/>
       <c r="AG48" s="51"/>
@@ -7938,14 +8084,17 @@
         <f>IFERROR(VLOOKUP(C49,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F49" s="8" t="str">
+      <c r="F49" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="5"/>
+      <c r="G49" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H49" s="2"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="7"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
@@ -7965,7 +8114,7 @@
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
       <c r="AC49" s="5"/>
-      <c r="AD49" s="51"/>
+      <c r="AD49" s="5"/>
       <c r="AE49" s="51"/>
       <c r="AF49" s="51"/>
       <c r="AG49" s="51"/>
@@ -8059,14 +8208,17 @@
         <f>IFERROR(VLOOKUP(C50,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F50" s="8" t="str">
+      <c r="F50" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="5"/>
+      <c r="G50" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H50" s="2"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="7"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
@@ -8086,7 +8238,7 @@
       <c r="AA50" s="5"/>
       <c r="AB50" s="5"/>
       <c r="AC50" s="5"/>
-      <c r="AD50" s="51"/>
+      <c r="AD50" s="5"/>
       <c r="AE50" s="51"/>
       <c r="AF50" s="51"/>
       <c r="AG50" s="51"/>
@@ -8180,14 +8332,17 @@
         <f>IFERROR(VLOOKUP(C51,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F51" s="8" t="str">
+      <c r="F51" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="5"/>
+      <c r="G51" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H51" s="2"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="7"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
@@ -8207,7 +8362,7 @@
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
       <c r="AC51" s="5"/>
-      <c r="AD51" s="51"/>
+      <c r="AD51" s="5"/>
       <c r="AE51" s="51"/>
       <c r="AF51" s="51"/>
       <c r="AG51" s="51"/>
@@ -8301,14 +8456,17 @@
         <f>IFERROR(VLOOKUP(C52,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F52" s="8" t="str">
+      <c r="F52" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="5"/>
+      <c r="G52" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H52" s="2"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="7"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
@@ -8328,7 +8486,7 @@
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
       <c r="AC52" s="5"/>
-      <c r="AD52" s="51"/>
+      <c r="AD52" s="5"/>
       <c r="AE52" s="51"/>
       <c r="AF52" s="51"/>
       <c r="AG52" s="51"/>
@@ -8422,14 +8580,17 @@
         <f>IFERROR(VLOOKUP(C53,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F53" s="8" t="str">
+      <c r="F53" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="5"/>
+      <c r="G53" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H53" s="2"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="7"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
@@ -8449,7 +8610,7 @@
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
       <c r="AC53" s="5"/>
-      <c r="AD53" s="51"/>
+      <c r="AD53" s="5"/>
       <c r="AE53" s="51"/>
       <c r="AF53" s="51"/>
       <c r="AG53" s="51"/>
@@ -8543,14 +8704,17 @@
         <f>IFERROR(VLOOKUP(C54,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F54" s="8" t="str">
+      <c r="F54" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="5"/>
+      <c r="G54" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H54" s="2"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="7"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
@@ -8570,7 +8734,7 @@
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
       <c r="AC54" s="5"/>
-      <c r="AD54" s="51"/>
+      <c r="AD54" s="5"/>
       <c r="AE54" s="51"/>
       <c r="AF54" s="51"/>
       <c r="AG54" s="51"/>
@@ -8664,14 +8828,17 @@
         <f>IFERROR(VLOOKUP(C55,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F55" s="8" t="str">
+      <c r="F55" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="5"/>
+      <c r="G55" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H55" s="2"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="7"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
@@ -8691,7 +8858,7 @@
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
       <c r="AC55" s="5"/>
-      <c r="AD55" s="51"/>
+      <c r="AD55" s="5"/>
       <c r="AE55" s="51"/>
       <c r="AF55" s="51"/>
       <c r="AG55" s="51"/>
@@ -8785,14 +8952,17 @@
         <f>IFERROR(VLOOKUP(C56,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F56" s="8" t="str">
+      <c r="F56" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="5"/>
+      <c r="G56" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H56" s="2"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="7"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
@@ -8812,7 +8982,7 @@
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
       <c r="AC56" s="5"/>
-      <c r="AD56" s="51"/>
+      <c r="AD56" s="5"/>
       <c r="AE56" s="51"/>
       <c r="AF56" s="51"/>
       <c r="AG56" s="51"/>
@@ -8906,14 +9076,17 @@
         <f>IFERROR(VLOOKUP(C57,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F57" s="8" t="str">
+      <c r="F57" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G57" s="2"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="5"/>
+      <c r="G57" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H57" s="2"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="7"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
@@ -8933,7 +9106,7 @@
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
       <c r="AC57" s="5"/>
-      <c r="AD57" s="51"/>
+      <c r="AD57" s="5"/>
       <c r="AE57" s="51"/>
       <c r="AF57" s="51"/>
       <c r="AG57" s="51"/>
@@ -9027,14 +9200,17 @@
         <f>IFERROR(VLOOKUP(C58,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F58" s="8" t="str">
+      <c r="F58" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G58" s="2"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="5"/>
+      <c r="G58" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H58" s="2"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="7"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
@@ -9054,7 +9230,7 @@
       <c r="AA58" s="5"/>
       <c r="AB58" s="5"/>
       <c r="AC58" s="5"/>
-      <c r="AD58" s="51"/>
+      <c r="AD58" s="5"/>
       <c r="AE58" s="51"/>
       <c r="AF58" s="51"/>
       <c r="AG58" s="51"/>
@@ -9148,14 +9324,17 @@
         <f>IFERROR(VLOOKUP(C59,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F59" s="8" t="str">
+      <c r="F59" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="5"/>
+      <c r="G59" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H59" s="2"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="7"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
@@ -9175,7 +9354,7 @@
       <c r="AA59" s="5"/>
       <c r="AB59" s="5"/>
       <c r="AC59" s="5"/>
-      <c r="AD59" s="51"/>
+      <c r="AD59" s="5"/>
       <c r="AE59" s="51"/>
       <c r="AF59" s="51"/>
       <c r="AG59" s="51"/>
@@ -9269,14 +9448,17 @@
         <f>IFERROR(VLOOKUP(C60,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F60" s="8" t="str">
+      <c r="F60" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="5"/>
+      <c r="G60" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H60" s="2"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="7"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
@@ -9296,7 +9478,7 @@
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
       <c r="AC60" s="5"/>
-      <c r="AD60" s="51"/>
+      <c r="AD60" s="5"/>
       <c r="AE60" s="51"/>
       <c r="AF60" s="51"/>
       <c r="AG60" s="51"/>
@@ -9390,14 +9572,17 @@
         <f>IFERROR(VLOOKUP(C61,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F61" s="8" t="str">
+      <c r="F61" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="5"/>
+      <c r="G61" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H61" s="2"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="7"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
@@ -9417,7 +9602,7 @@
       <c r="AA61" s="5"/>
       <c r="AB61" s="5"/>
       <c r="AC61" s="5"/>
-      <c r="AD61" s="51"/>
+      <c r="AD61" s="5"/>
       <c r="AE61" s="51"/>
       <c r="AF61" s="51"/>
       <c r="AG61" s="51"/>
@@ -9511,14 +9696,17 @@
         <f>IFERROR(VLOOKUP(C62,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F62" s="8" t="str">
+      <c r="F62" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G62" s="2"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="5"/>
+      <c r="G62" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H62" s="2"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="7"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
@@ -9538,7 +9726,7 @@
       <c r="AA62" s="5"/>
       <c r="AB62" s="5"/>
       <c r="AC62" s="5"/>
-      <c r="AD62" s="51"/>
+      <c r="AD62" s="5"/>
       <c r="AE62" s="51"/>
       <c r="AF62" s="51"/>
       <c r="AG62" s="51"/>
@@ -9632,14 +9820,17 @@
         <f>IFERROR(VLOOKUP(C63,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F63" s="8" t="str">
+      <c r="F63" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G63" s="2"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="5"/>
+      <c r="G63" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H63" s="2"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="7"/>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
@@ -9659,7 +9850,7 @@
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
       <c r="AC63" s="5"/>
-      <c r="AD63" s="51"/>
+      <c r="AD63" s="5"/>
       <c r="AE63" s="51"/>
       <c r="AF63" s="51"/>
       <c r="AG63" s="51"/>
@@ -9753,14 +9944,17 @@
         <f>IFERROR(VLOOKUP(C64,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F64" s="8" t="str">
+      <c r="F64" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="5"/>
+      <c r="G64" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H64" s="2"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="7"/>
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
@@ -9780,7 +9974,7 @@
       <c r="AA64" s="5"/>
       <c r="AB64" s="5"/>
       <c r="AC64" s="5"/>
-      <c r="AD64" s="51"/>
+      <c r="AD64" s="5"/>
       <c r="AE64" s="51"/>
       <c r="AF64" s="51"/>
       <c r="AG64" s="51"/>
@@ -9874,14 +10068,17 @@
         <f>IFERROR(VLOOKUP(C65,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F65" s="8" t="str">
+      <c r="F65" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G65" s="2"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="5"/>
+      <c r="G65" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H65" s="2"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="7"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
@@ -9901,7 +10098,7 @@
       <c r="AA65" s="5"/>
       <c r="AB65" s="5"/>
       <c r="AC65" s="5"/>
-      <c r="AD65" s="51"/>
+      <c r="AD65" s="5"/>
       <c r="AE65" s="51"/>
       <c r="AF65" s="51"/>
       <c r="AG65" s="51"/>
@@ -9995,14 +10192,17 @@
         <f>IFERROR(VLOOKUP(C66,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F66" s="8" t="str">
+      <c r="F66" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G66" s="2"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="5"/>
+      <c r="G66" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H66" s="2"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="7"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
@@ -10022,7 +10222,7 @@
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
       <c r="AC66" s="5"/>
-      <c r="AD66" s="51"/>
+      <c r="AD66" s="5"/>
       <c r="AE66" s="51"/>
       <c r="AF66" s="51"/>
       <c r="AG66" s="51"/>
@@ -10116,14 +10316,17 @@
         <f>IFERROR(VLOOKUP(C67,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F67" s="8" t="str">
+      <c r="F67" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G67" s="2"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="5"/>
+      <c r="G67" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H67" s="2"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="7"/>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
@@ -10143,7 +10346,7 @@
       <c r="AA67" s="5"/>
       <c r="AB67" s="5"/>
       <c r="AC67" s="5"/>
-      <c r="AD67" s="51"/>
+      <c r="AD67" s="5"/>
       <c r="AE67" s="51"/>
       <c r="AF67" s="51"/>
       <c r="AG67" s="51"/>
@@ -10237,14 +10440,17 @@
         <f>IFERROR(VLOOKUP(C68,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F68" s="8" t="str">
+      <c r="F68" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G68" s="2"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="5"/>
+      <c r="G68" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H68" s="2"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="7"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
@@ -10264,7 +10470,7 @@
       <c r="AA68" s="5"/>
       <c r="AB68" s="5"/>
       <c r="AC68" s="5"/>
-      <c r="AD68" s="51"/>
+      <c r="AD68" s="5"/>
       <c r="AE68" s="51"/>
       <c r="AF68" s="51"/>
       <c r="AG68" s="51"/>
@@ -10358,14 +10564,17 @@
         <f>IFERROR(VLOOKUP(C69,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F69" s="8" t="str">
+      <c r="F69" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G69" s="2"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="5"/>
+      <c r="G69" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H69" s="2"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="7"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
@@ -10385,7 +10594,7 @@
       <c r="AA69" s="5"/>
       <c r="AB69" s="5"/>
       <c r="AC69" s="5"/>
-      <c r="AD69" s="51"/>
+      <c r="AD69" s="5"/>
       <c r="AE69" s="51"/>
       <c r="AF69" s="51"/>
       <c r="AG69" s="51"/>
@@ -10479,14 +10688,17 @@
         <f>IFERROR(VLOOKUP(C70,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F70" s="8" t="str">
-        <f t="shared" ref="F70:F100" ca="1" si="1">IFERROR(ABS(TODAY()-$E70),"")</f>
-        <v/>
-      </c>
-      <c r="G70" s="2"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="5"/>
+      <c r="F70" s="61" t="str">
+        <f t="shared" ref="F70:F100" ca="1" si="2">IF($H70="完了",TODAY(),"")</f>
+        <v/>
+      </c>
+      <c r="G70" s="8" t="str">
+        <f t="shared" ref="G70:G100" ca="1" si="3">IFERROR(ABS(TODAY()-$E70),"")</f>
+        <v/>
+      </c>
+      <c r="H70" s="2"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="7"/>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
@@ -10506,7 +10718,7 @@
       <c r="AA70" s="5"/>
       <c r="AB70" s="5"/>
       <c r="AC70" s="5"/>
-      <c r="AD70" s="51"/>
+      <c r="AD70" s="5"/>
       <c r="AE70" s="51"/>
       <c r="AF70" s="51"/>
       <c r="AG70" s="51"/>
@@ -10600,14 +10812,17 @@
         <f>IFERROR(VLOOKUP(C71,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F71" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G71" s="2"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="5"/>
+      <c r="F71" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="G71" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="H71" s="2"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="7"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
@@ -10627,7 +10842,7 @@
       <c r="AA71" s="5"/>
       <c r="AB71" s="5"/>
       <c r="AC71" s="5"/>
-      <c r="AD71" s="51"/>
+      <c r="AD71" s="5"/>
       <c r="AE71" s="51"/>
       <c r="AF71" s="51"/>
       <c r="AG71" s="51"/>
@@ -10721,14 +10936,17 @@
         <f>IFERROR(VLOOKUP(C72,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F72" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G72" s="2"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="5"/>
+      <c r="F72" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="G72" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="H72" s="2"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="7"/>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
@@ -10748,7 +10966,7 @@
       <c r="AA72" s="5"/>
       <c r="AB72" s="5"/>
       <c r="AC72" s="5"/>
-      <c r="AD72" s="51"/>
+      <c r="AD72" s="5"/>
       <c r="AE72" s="51"/>
       <c r="AF72" s="51"/>
       <c r="AG72" s="51"/>
@@ -10842,14 +11060,17 @@
         <f>IFERROR(VLOOKUP(C73,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F73" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G73" s="2"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="5"/>
+      <c r="F73" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="G73" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="H73" s="2"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="7"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
@@ -10869,7 +11090,7 @@
       <c r="AA73" s="5"/>
       <c r="AB73" s="5"/>
       <c r="AC73" s="5"/>
-      <c r="AD73" s="51"/>
+      <c r="AD73" s="5"/>
       <c r="AE73" s="51"/>
       <c r="AF73" s="51"/>
       <c r="AG73" s="51"/>
@@ -10963,14 +11184,17 @@
         <f>IFERROR(VLOOKUP(C74,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F74" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G74" s="2"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="5"/>
+      <c r="F74" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="G74" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="H74" s="2"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="7"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
@@ -10990,7 +11214,7 @@
       <c r="AA74" s="5"/>
       <c r="AB74" s="5"/>
       <c r="AC74" s="5"/>
-      <c r="AD74" s="51"/>
+      <c r="AD74" s="5"/>
       <c r="AE74" s="51"/>
       <c r="AF74" s="51"/>
       <c r="AG74" s="51"/>
@@ -11084,14 +11308,17 @@
         <f>IFERROR(VLOOKUP(C75,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F75" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G75" s="2"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="5"/>
+      <c r="F75" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="G75" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="H75" s="2"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="7"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
@@ -11111,7 +11338,7 @@
       <c r="AA75" s="5"/>
       <c r="AB75" s="5"/>
       <c r="AC75" s="5"/>
-      <c r="AD75" s="51"/>
+      <c r="AD75" s="5"/>
       <c r="AE75" s="51"/>
       <c r="AF75" s="51"/>
       <c r="AG75" s="51"/>
@@ -11205,14 +11432,17 @@
         <f>IFERROR(VLOOKUP(C76,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F76" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G76" s="2"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="5"/>
+      <c r="F76" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="G76" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="H76" s="2"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="7"/>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
@@ -11232,7 +11462,7 @@
       <c r="AA76" s="5"/>
       <c r="AB76" s="5"/>
       <c r="AC76" s="5"/>
-      <c r="AD76" s="51"/>
+      <c r="AD76" s="5"/>
       <c r="AE76" s="51"/>
       <c r="AF76" s="51"/>
       <c r="AG76" s="51"/>
@@ -11326,14 +11556,17 @@
         <f>IFERROR(VLOOKUP(C77,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F77" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G77" s="2"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="5"/>
+      <c r="F77" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="G77" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="H77" s="2"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="7"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
@@ -11353,7 +11586,7 @@
       <c r="AA77" s="5"/>
       <c r="AB77" s="5"/>
       <c r="AC77" s="5"/>
-      <c r="AD77" s="51"/>
+      <c r="AD77" s="5"/>
       <c r="AE77" s="51"/>
       <c r="AF77" s="51"/>
       <c r="AG77" s="51"/>
@@ -11447,14 +11680,17 @@
         <f>IFERROR(VLOOKUP(C78,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F78" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G78" s="2"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="5"/>
+      <c r="F78" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="G78" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="H78" s="2"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="7"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
@@ -11474,7 +11710,7 @@
       <c r="AA78" s="5"/>
       <c r="AB78" s="5"/>
       <c r="AC78" s="5"/>
-      <c r="AD78" s="51"/>
+      <c r="AD78" s="5"/>
       <c r="AE78" s="51"/>
       <c r="AF78" s="51"/>
       <c r="AG78" s="51"/>
@@ -11568,14 +11804,17 @@
         <f>IFERROR(VLOOKUP(C79,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F79" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G79" s="2"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="5"/>
+      <c r="F79" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="G79" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="H79" s="2"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="7"/>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
@@ -11595,7 +11834,7 @@
       <c r="AA79" s="5"/>
       <c r="AB79" s="5"/>
       <c r="AC79" s="5"/>
-      <c r="AD79" s="51"/>
+      <c r="AD79" s="5"/>
       <c r="AE79" s="51"/>
       <c r="AF79" s="51"/>
       <c r="AG79" s="51"/>
@@ -11689,14 +11928,17 @@
         <f>IFERROR(VLOOKUP(C80,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F80" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G80" s="2"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="5"/>
+      <c r="F80" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="G80" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="H80" s="2"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="7"/>
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
@@ -11716,7 +11958,7 @@
       <c r="AA80" s="5"/>
       <c r="AB80" s="5"/>
       <c r="AC80" s="5"/>
-      <c r="AD80" s="51"/>
+      <c r="AD80" s="5"/>
       <c r="AE80" s="51"/>
       <c r="AF80" s="51"/>
       <c r="AG80" s="51"/>
@@ -11810,14 +12052,17 @@
         <f>IFERROR(VLOOKUP(C81,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F81" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G81" s="2"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="5"/>
+      <c r="F81" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="G81" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="H81" s="2"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="7"/>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
@@ -11837,7 +12082,7 @@
       <c r="AA81" s="5"/>
       <c r="AB81" s="5"/>
       <c r="AC81" s="5"/>
-      <c r="AD81" s="51"/>
+      <c r="AD81" s="5"/>
       <c r="AE81" s="51"/>
       <c r="AF81" s="51"/>
       <c r="AG81" s="51"/>
@@ -11931,14 +12176,17 @@
         <f>IFERROR(VLOOKUP(C82,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F82" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G82" s="2"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="5"/>
+      <c r="F82" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="G82" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="H82" s="2"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="7"/>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
@@ -11958,7 +12206,7 @@
       <c r="AA82" s="5"/>
       <c r="AB82" s="5"/>
       <c r="AC82" s="5"/>
-      <c r="AD82" s="51"/>
+      <c r="AD82" s="5"/>
       <c r="AE82" s="51"/>
       <c r="AF82" s="51"/>
       <c r="AG82" s="51"/>
@@ -12052,14 +12300,17 @@
         <f>IFERROR(VLOOKUP(C83,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F83" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G83" s="2"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="5"/>
+      <c r="F83" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="G83" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="H83" s="2"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="7"/>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
@@ -12079,7 +12330,7 @@
       <c r="AA83" s="5"/>
       <c r="AB83" s="5"/>
       <c r="AC83" s="5"/>
-      <c r="AD83" s="51"/>
+      <c r="AD83" s="5"/>
       <c r="AE83" s="51"/>
       <c r="AF83" s="51"/>
       <c r="AG83" s="51"/>
@@ -12173,14 +12424,17 @@
         <f>IFERROR(VLOOKUP(C84,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F84" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G84" s="2"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="5"/>
+      <c r="F84" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="G84" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="H84" s="2"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="7"/>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
@@ -12200,7 +12454,7 @@
       <c r="AA84" s="5"/>
       <c r="AB84" s="5"/>
       <c r="AC84" s="5"/>
-      <c r="AD84" s="51"/>
+      <c r="AD84" s="5"/>
       <c r="AE84" s="51"/>
       <c r="AF84" s="51"/>
       <c r="AG84" s="51"/>
@@ -12294,14 +12548,17 @@
         <f>IFERROR(VLOOKUP(C85,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F85" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G85" s="2"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="5"/>
+      <c r="F85" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="G85" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="H85" s="2"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="7"/>
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
@@ -12321,7 +12578,7 @@
       <c r="AA85" s="5"/>
       <c r="AB85" s="5"/>
       <c r="AC85" s="5"/>
-      <c r="AD85" s="51"/>
+      <c r="AD85" s="5"/>
       <c r="AE85" s="51"/>
       <c r="AF85" s="51"/>
       <c r="AG85" s="51"/>
@@ -12415,14 +12672,17 @@
         <f>IFERROR(VLOOKUP(C86,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F86" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G86" s="2"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="5"/>
+      <c r="F86" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="G86" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="H86" s="2"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="7"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
@@ -12442,7 +12702,7 @@
       <c r="AA86" s="5"/>
       <c r="AB86" s="5"/>
       <c r="AC86" s="5"/>
-      <c r="AD86" s="51"/>
+      <c r="AD86" s="5"/>
       <c r="AE86" s="51"/>
       <c r="AF86" s="51"/>
       <c r="AG86" s="51"/>
@@ -12536,14 +12796,17 @@
         <f>IFERROR(VLOOKUP(C87,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F87" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G87" s="2"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="5"/>
+      <c r="F87" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="G87" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="H87" s="2"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="7"/>
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
@@ -12563,7 +12826,7 @@
       <c r="AA87" s="5"/>
       <c r="AB87" s="5"/>
       <c r="AC87" s="5"/>
-      <c r="AD87" s="51"/>
+      <c r="AD87" s="5"/>
       <c r="AE87" s="51"/>
       <c r="AF87" s="51"/>
       <c r="AG87" s="51"/>
@@ -12657,14 +12920,17 @@
         <f>IFERROR(VLOOKUP(C88,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F88" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G88" s="2"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="5"/>
+      <c r="F88" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="G88" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="H88" s="2"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="7"/>
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
@@ -12684,7 +12950,7 @@
       <c r="AA88" s="5"/>
       <c r="AB88" s="5"/>
       <c r="AC88" s="5"/>
-      <c r="AD88" s="51"/>
+      <c r="AD88" s="5"/>
       <c r="AE88" s="51"/>
       <c r="AF88" s="51"/>
       <c r="AG88" s="51"/>
@@ -12778,14 +13044,17 @@
         <f>IFERROR(VLOOKUP(C89,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F89" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G89" s="2"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="5"/>
+      <c r="F89" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="G89" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="H89" s="2"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="7"/>
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
@@ -12805,7 +13074,7 @@
       <c r="AA89" s="5"/>
       <c r="AB89" s="5"/>
       <c r="AC89" s="5"/>
-      <c r="AD89" s="51"/>
+      <c r="AD89" s="5"/>
       <c r="AE89" s="51"/>
       <c r="AF89" s="51"/>
       <c r="AG89" s="51"/>
@@ -12899,14 +13168,17 @@
         <f>IFERROR(VLOOKUP(C90,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F90" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G90" s="2"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="5"/>
+      <c r="F90" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="G90" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="H90" s="2"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="7"/>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
@@ -12926,7 +13198,7 @@
       <c r="AA90" s="5"/>
       <c r="AB90" s="5"/>
       <c r="AC90" s="5"/>
-      <c r="AD90" s="51"/>
+      <c r="AD90" s="5"/>
       <c r="AE90" s="51"/>
       <c r="AF90" s="51"/>
       <c r="AG90" s="51"/>
@@ -13020,14 +13292,17 @@
         <f>IFERROR(VLOOKUP(C91,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F91" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G91" s="2"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="5"/>
+      <c r="F91" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="G91" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="H91" s="2"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="7"/>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
@@ -13047,7 +13322,7 @@
       <c r="AA91" s="5"/>
       <c r="AB91" s="5"/>
       <c r="AC91" s="5"/>
-      <c r="AD91" s="51"/>
+      <c r="AD91" s="5"/>
       <c r="AE91" s="51"/>
       <c r="AF91" s="51"/>
       <c r="AG91" s="51"/>
@@ -13141,14 +13416,17 @@
         <f>IFERROR(VLOOKUP(C92,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F92" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G92" s="2"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="5"/>
+      <c r="F92" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="G92" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="H92" s="2"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="7"/>
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
@@ -13168,7 +13446,7 @@
       <c r="AA92" s="5"/>
       <c r="AB92" s="5"/>
       <c r="AC92" s="5"/>
-      <c r="AD92" s="51"/>
+      <c r="AD92" s="5"/>
       <c r="AE92" s="51"/>
       <c r="AF92" s="51"/>
       <c r="AG92" s="51"/>
@@ -13262,14 +13540,17 @@
         <f>IFERROR(VLOOKUP(C93,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F93" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G93" s="2"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="5"/>
+      <c r="F93" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="G93" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="H93" s="2"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="7"/>
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
@@ -13289,7 +13570,7 @@
       <c r="AA93" s="5"/>
       <c r="AB93" s="5"/>
       <c r="AC93" s="5"/>
-      <c r="AD93" s="51"/>
+      <c r="AD93" s="5"/>
       <c r="AE93" s="51"/>
       <c r="AF93" s="51"/>
       <c r="AG93" s="51"/>
@@ -13383,14 +13664,17 @@
         <f>IFERROR(VLOOKUP(C94,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F94" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G94" s="2"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="5"/>
+      <c r="F94" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="G94" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="H94" s="2"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="7"/>
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
@@ -13410,7 +13694,7 @@
       <c r="AA94" s="5"/>
       <c r="AB94" s="5"/>
       <c r="AC94" s="5"/>
-      <c r="AD94" s="51"/>
+      <c r="AD94" s="5"/>
       <c r="AE94" s="51"/>
       <c r="AF94" s="51"/>
       <c r="AG94" s="51"/>
@@ -13504,14 +13788,17 @@
         <f>IFERROR(VLOOKUP(C95,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F95" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G95" s="2"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="5"/>
+      <c r="F95" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="G95" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="H95" s="2"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="7"/>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
       <c r="M95" s="5"/>
@@ -13531,7 +13818,7 @@
       <c r="AA95" s="5"/>
       <c r="AB95" s="5"/>
       <c r="AC95" s="5"/>
-      <c r="AD95" s="51"/>
+      <c r="AD95" s="5"/>
       <c r="AE95" s="51"/>
       <c r="AF95" s="51"/>
       <c r="AG95" s="51"/>
@@ -13625,14 +13912,17 @@
         <f>IFERROR(VLOOKUP(C96,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F96" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G96" s="2"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="5"/>
+      <c r="F96" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="G96" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="H96" s="2"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="7"/>
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
       <c r="M96" s="5"/>
@@ -13652,7 +13942,7 @@
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
       <c r="AC96" s="5"/>
-      <c r="AD96" s="51"/>
+      <c r="AD96" s="5"/>
       <c r="AE96" s="51"/>
       <c r="AF96" s="51"/>
       <c r="AG96" s="51"/>
@@ -13746,14 +14036,17 @@
         <f>IFERROR(VLOOKUP(C97,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F97" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G97" s="2"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="5"/>
+      <c r="F97" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="G97" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="H97" s="2"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="7"/>
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
       <c r="M97" s="5"/>
@@ -13773,7 +14066,7 @@
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
       <c r="AC97" s="5"/>
-      <c r="AD97" s="51"/>
+      <c r="AD97" s="5"/>
       <c r="AE97" s="51"/>
       <c r="AF97" s="51"/>
       <c r="AG97" s="51"/>
@@ -13867,14 +14160,17 @@
         <f>IFERROR(VLOOKUP(C98,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F98" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G98" s="2"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="5"/>
+      <c r="F98" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="G98" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="H98" s="2"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="7"/>
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>
       <c r="M98" s="5"/>
@@ -13894,7 +14190,7 @@
       <c r="AA98" s="5"/>
       <c r="AB98" s="5"/>
       <c r="AC98" s="5"/>
-      <c r="AD98" s="51"/>
+      <c r="AD98" s="5"/>
       <c r="AE98" s="51"/>
       <c r="AF98" s="51"/>
       <c r="AG98" s="51"/>
@@ -13988,14 +14284,17 @@
         <f>IFERROR(VLOOKUP(C99,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F99" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G99" s="2"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="5"/>
+      <c r="F99" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="G99" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="H99" s="2"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="7"/>
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
       <c r="M99" s="5"/>
@@ -14015,7 +14314,7 @@
       <c r="AA99" s="5"/>
       <c r="AB99" s="5"/>
       <c r="AC99" s="5"/>
-      <c r="AD99" s="51"/>
+      <c r="AD99" s="5"/>
       <c r="AE99" s="51"/>
       <c r="AF99" s="51"/>
       <c r="AG99" s="51"/>
@@ -14109,14 +14408,17 @@
         <f>IFERROR(VLOOKUP(C100,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F100" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="G100" s="2"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="7"/>
-      <c r="J100" s="5"/>
+      <c r="F100" s="61" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="G100" s="8" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="H100" s="2"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="7"/>
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
@@ -14136,7 +14438,7 @@
       <c r="AA100" s="5"/>
       <c r="AB100" s="5"/>
       <c r="AC100" s="5"/>
-      <c r="AD100" s="51"/>
+      <c r="AD100" s="5"/>
       <c r="AE100" s="51"/>
       <c r="AF100" s="51"/>
       <c r="AG100" s="51"/>
@@ -14225,40 +14527,32 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="F5:F100">
-    <cfRule type="expression" dxfId="18" priority="6">
-      <formula>$G5="完了"</formula>
+  <conditionalFormatting sqref="J3:AD3 AE3:DH100">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="日">
+      <formula>NOT(ISERROR(SEARCH("日",J3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="7">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="土">
+      <formula>NOT(ISERROR(SEARCH("土",J3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G100">
+    <cfRule type="expression" dxfId="14" priority="16">
+      <formula>$H5="完了"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="17">
       <formula>TODAY()&gt;$E5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:AC3 AD3:DH100">
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="日">
-      <formula>NOT(ISERROR(SEARCH("日",I3)))</formula>
+  <conditionalFormatting sqref="J5:AD100">
+    <cfRule type="expression" dxfId="12" priority="18">
+      <formula>AND(AND($D5&lt;=J$4,$E5&gt;=J$4),$H5="完了")</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="土">
-      <formula>NOT(ISERROR(SEARCH("土",I3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:AC5">
-    <cfRule type="expression" dxfId="14" priority="8">
-      <formula>AND(AND($D5&lt;=I$4,$E5&gt;=I$4),$G5="完了")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="9">
-      <formula>AND($D5&lt;=I$4,$E5&gt;=I$4)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6:AC100">
-    <cfRule type="expression" dxfId="12" priority="10">
-      <formula>AND(AND($D6&lt;=I$4,$E6&gt;=I$4),$G6="完了")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>AND($D6&lt;=I$4,$E6&gt;=I$4)</formula>
+    <cfRule type="expression" dxfId="11" priority="19">
+      <formula>AND($D5&lt;=J$4,$E5&gt;=J$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H100">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I100">
       <formula1>"佐藤る,吉成,佐藤か"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14271,7 +14565,7 @@
           <x14:formula1>
             <xm:f>タスク表!$AD$4:$AD$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G100</xm:sqref>
+          <xm:sqref>H5:H100</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -14289,9 +14583,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DH102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1:D1048576"/>
+      <selection pane="topRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -14988,7 +15282,7 @@
       </c>
       <c r="F5" s="13">
         <f ca="1">IFERROR(ABS(TODAY()-$E5),"")</f>
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>6</v>
@@ -15113,7 +15407,7 @@
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F69" ca="1" si="0">IFERROR(ABS(TODAY()-$E6),"")</f>
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>6</v>
@@ -15240,7 +15534,7 @@
       </c>
       <c r="F7" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>6</v>
@@ -15367,7 +15661,7 @@
       </c>
       <c r="F8" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>6</v>
@@ -15494,7 +15788,7 @@
       </c>
       <c r="F9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>6</v>
@@ -15621,7 +15915,7 @@
       </c>
       <c r="F10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>6</v>
@@ -15748,7 +16042,7 @@
       </c>
       <c r="F11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>7</v>
@@ -15875,7 +16169,7 @@
       </c>
       <c r="F12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>7</v>
@@ -16002,7 +16296,7 @@
       </c>
       <c r="F13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>6</v>
@@ -16129,7 +16423,7 @@
       </c>
       <c r="F14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>6</v>
@@ -16256,7 +16550,7 @@
       </c>
       <c r="F15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>6</v>
@@ -16383,7 +16677,7 @@
       </c>
       <c r="F16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>6</v>
@@ -16510,7 +16804,7 @@
       </c>
       <c r="F17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>8</v>
@@ -16637,7 +16931,7 @@
       </c>
       <c r="F18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>7</v>
@@ -16764,7 +17058,7 @@
       </c>
       <c r="F19" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>7</v>

--- a/タスク表.xlsx
+++ b/タスク表.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="135">
   <si>
     <t>タスク表</t>
     <rPh sb="3" eb="4">
@@ -1240,16 +1240,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>引き出し</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>鏡</t>
     <rPh sb="0" eb="1">
       <t>カガミ</t>
@@ -1323,6 +1313,297 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>アイテム取得</t>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムを取得した際にアイテムを獲得したことにする。また、アイテムを取得した際にMAP上にあるアイテムを削除する</t>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクトク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得したアイテムの種類によって文を変更する。例「カギを入手した」「ツボを入手した」</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニュウシュ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ニュウシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム獲得表示</t>
+    <rPh sb="4" eb="6">
+      <t>カクトク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムを取得した時、UIのアイテム欄にアイテムのアイコンを表示する</t>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足音</t>
+    <rPh sb="0" eb="2">
+      <t>アシオト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>扉の音</t>
+    <rPh sb="0" eb="1">
+      <t>トビラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>扉の開閉時に効果音を鳴らす</t>
+    <rPh sb="0" eb="1">
+      <t>トビラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイヘイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>コウカオン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足音２</t>
+    <rPh sb="0" eb="2">
+      <t>アシオト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>床の素材によって足音が変わるようにする</t>
+    <rPh sb="0" eb="1">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>アシオト</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー、エネミー兼用の足音。距離によって聞こえる音の大きさと聞こえてくる場所が変わる。</t>
+    <rPh sb="10" eb="12">
+      <t>ケンヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>アシオト</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライトのON/OFF音</t>
+    <rPh sb="10" eb="11">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライトのスイッチを押すたびに音を鳴らすようにする</t>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム文の調整</t>
+    <rPh sb="4" eb="5">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム判定の調整</t>
+    <rPh sb="4" eb="6">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Player/Enemy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロードからスタート画面から冒頭ムービーを流してゲームシーンに入る。</t>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ボウトウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーン遷移(ロード～ゲーム開始まで)</t>
+    <rPh sb="3" eb="5">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーン遷移(ゲーム中の各シーン)</t>
+    <rPh sb="3" eb="5">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーズ画面とゲームオーバーシーン作成。また、ゲームオーバーでリトライを選択したら、ステージを初期化する。</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>ショキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>箱などを開ける前に判定が貫通しないようにする</t>
+    <rPh sb="0" eb="1">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1379,7 +1660,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1449,6 +1730,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF5353"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3B5E9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1643,7 +1930,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1832,11 +2119,143 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="29">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5353"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5353"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1914,55 +2333,14 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5353"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD3B5E9"/>
+      <color rgb="FFFF99FF"/>
       <color rgb="FFFF5353"/>
       <color rgb="FFEFD9D9"/>
-      <color rgb="FFFF99FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2242,8 +2620,8 @@
   <dimension ref="A1:DH102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H8" sqref="H8"/>
+      <pane xSplit="3" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF10" sqref="AF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2451,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G4" s="20" t="s">
         <v>5</v>
@@ -2620,16 +2998,16 @@
         <f>IFERROR(VLOOKUP(C5,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v>43718</v>
       </c>
-      <c r="F5" s="61" t="str">
+      <c r="F5" s="61">
         <f ca="1">IF($H5="完了",TODAY(),"")</f>
-        <v/>
+        <v>43725</v>
       </c>
       <c r="G5" s="13">
         <f ca="1">IFERROR(ABS(TODAY()-$E5),"")</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="7"/>
@@ -2742,22 +3120,22 @@
       </c>
       <c r="D6" s="6">
         <f>IFERROR(VLOOKUP(C6,タスク表!$C$5:$E$100,3,FALSE),"")</f>
-        <v>43665</v>
+        <v>43673</v>
       </c>
       <c r="E6" s="6">
         <f>IFERROR(VLOOKUP(C6,タスク表!$C$5:$F$100,4,FALSE),"")</f>
-        <v>43721</v>
-      </c>
-      <c r="F6" s="61" t="str">
+        <v>43718</v>
+      </c>
+      <c r="F6" s="61">
         <f t="shared" ref="F6:F69" ca="1" si="0">IF($H6="完了",TODAY(),"")</f>
-        <v/>
+        <v>43725</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" ref="G6:G69" ca="1" si="1">IFERROR(ABS(TODAY()-$E6),"")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I6" s="56" t="s">
         <v>51</v>
@@ -2867,25 +3245,31 @@
       <c r="DH6" s="51"/>
     </row>
     <row r="7" spans="1:112" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="1"/>
-      <c r="D7" s="6" t="str">
+      <c r="C7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="6">
         <f>IFERROR(VLOOKUP(C7,タスク表!$C$5:$E$100,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E7" s="6" t="str">
+        <v>43728</v>
+      </c>
+      <c r="E7" s="6">
         <f>IFERROR(VLOOKUP(C7,タスク表!$C$5:$F$100,4,FALSE),"")</f>
-        <v/>
+        <v>43732</v>
       </c>
       <c r="F7" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G7" s="8" t="str">
+      <c r="G7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="48"/>
+        <v>7</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="56" t="s">
+        <v>51</v>
+      </c>
       <c r="J7" s="7"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -2991,25 +3375,31 @@
       <c r="DH7" s="51"/>
     </row>
     <row r="8" spans="1:112" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="1"/>
-      <c r="D8" s="6" t="str">
+      <c r="C8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="6">
         <f>IFERROR(VLOOKUP(C8,タスク表!$C$5:$E$100,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E8" s="6" t="str">
+        <v>43732</v>
+      </c>
+      <c r="E8" s="6">
         <f>IFERROR(VLOOKUP(C8,タスク表!$C$5:$F$100,4,FALSE),"")</f>
-        <v/>
+        <v>43735</v>
       </c>
       <c r="F8" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G8" s="8" t="str">
+      <c r="G8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="48"/>
+        <v>10</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="56" t="s">
+        <v>51</v>
+      </c>
       <c r="J8" s="7"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -3115,25 +3505,31 @@
       <c r="DH8" s="51"/>
     </row>
     <row r="9" spans="1:112" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="1"/>
-      <c r="D9" s="6" t="str">
+      <c r="C9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="6">
         <f>IFERROR(VLOOKUP(C9,タスク表!$C$5:$E$100,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E9" s="6" t="str">
+        <v>43725</v>
+      </c>
+      <c r="E9" s="6">
         <f>IFERROR(VLOOKUP(C9,タスク表!$C$5:$F$100,4,FALSE),"")</f>
-        <v/>
+        <v>43728</v>
       </c>
       <c r="F9" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G9" s="8" t="str">
+      <c r="G9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="48"/>
+        <v>3</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="56" t="s">
+        <v>51</v>
+      </c>
       <c r="J9" s="7"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -3239,25 +3635,31 @@
       <c r="DH9" s="51"/>
     </row>
     <row r="10" spans="1:112" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" s="1"/>
-      <c r="D10" s="6" t="str">
+      <c r="C10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="6">
         <f>IFERROR(VLOOKUP(C10,タスク表!$C$5:$E$100,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E10" s="6" t="str">
+        <v>43735</v>
+      </c>
+      <c r="E10" s="6">
         <f>IFERROR(VLOOKUP(C10,タスク表!$C$5:$F$100,4,FALSE),"")</f>
-        <v/>
+        <v>43739</v>
       </c>
       <c r="F10" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G10" s="8" t="str">
+      <c r="G10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="48"/>
+        <v>14</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="56" t="s">
+        <v>51</v>
+      </c>
       <c r="J10" s="7"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -3363,25 +3765,31 @@
       <c r="DH10" s="51"/>
     </row>
     <row r="11" spans="1:112" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" s="1"/>
-      <c r="D11" s="6" t="str">
+      <c r="C11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="6">
         <f>IFERROR(VLOOKUP(C11,タスク表!$C$5:$E$100,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E11" s="6" t="str">
+        <v>43725</v>
+      </c>
+      <c r="E11" s="6">
         <f>IFERROR(VLOOKUP(C11,タスク表!$C$5:$F$100,4,FALSE),"")</f>
-        <v/>
+        <v>43735</v>
       </c>
       <c r="F11" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G11" s="8" t="str">
+      <c r="G11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="48"/>
+        <v>10</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>53</v>
+      </c>
       <c r="J11" s="7"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -3487,25 +3895,31 @@
       <c r="DH11" s="51"/>
     </row>
     <row r="12" spans="1:112" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" s="1"/>
-      <c r="D12" s="6" t="str">
+      <c r="C12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="6">
         <f>IFERROR(VLOOKUP(C12,タスク表!$C$5:$E$100,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E12" s="6" t="str">
+        <v>43725</v>
+      </c>
+      <c r="E12" s="6">
         <f>IFERROR(VLOOKUP(C12,タスク表!$C$5:$F$100,4,FALSE),"")</f>
-        <v/>
+        <v>43738</v>
       </c>
       <c r="F12" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G12" s="8" t="str">
+      <c r="G12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="48"/>
+        <v>13</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>53</v>
+      </c>
       <c r="J12" s="7"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -3611,25 +4025,31 @@
       <c r="DH12" s="51"/>
     </row>
     <row r="13" spans="1:112" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" s="1"/>
-      <c r="D13" s="6" t="str">
+      <c r="C13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="6">
         <f>IFERROR(VLOOKUP(C13,タスク表!$C$5:$E$100,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E13" s="6" t="str">
+        <v>43738</v>
+      </c>
+      <c r="E13" s="6">
         <f>IFERROR(VLOOKUP(C13,タスク表!$C$5:$F$100,4,FALSE),"")</f>
-        <v/>
+        <v>43743</v>
       </c>
       <c r="F13" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G13" s="8" t="str">
+      <c r="G13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="48"/>
+        <v>18</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>53</v>
+      </c>
       <c r="J13" s="7"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -3735,25 +4155,31 @@
       <c r="DH13" s="51"/>
     </row>
     <row r="14" spans="1:112" x14ac:dyDescent="0.55000000000000004">
-      <c r="C14" s="1"/>
-      <c r="D14" s="6" t="str">
+      <c r="C14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="6">
         <f>IFERROR(VLOOKUP(C14,タスク表!$C$5:$E$100,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E14" s="6" t="str">
+        <v>43725</v>
+      </c>
+      <c r="E14" s="6">
         <f>IFERROR(VLOOKUP(C14,タスク表!$C$5:$F$100,4,FALSE),"")</f>
-        <v/>
+        <v>43732</v>
       </c>
       <c r="F14" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G14" s="8" t="str">
+      <c r="G14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="48"/>
+        <v>7</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="63" t="s">
+        <v>23</v>
+      </c>
       <c r="J14" s="7"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -3859,25 +4285,29 @@
       <c r="DH14" s="51"/>
     </row>
     <row r="15" spans="1:112" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15" s="1"/>
-      <c r="D15" s="6" t="str">
+      <c r="C15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="6">
         <f>IFERROR(VLOOKUP(C15,タスク表!$C$5:$E$100,3,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="E15" s="6" t="str">
+        <v>43732</v>
+      </c>
+      <c r="E15" s="6">
         <f>IFERROR(VLOOKUP(C15,タスク表!$C$5:$F$100,4,FALSE),"")</f>
-        <v/>
+        <v>43738</v>
       </c>
       <c r="F15" s="61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G15" s="8" t="str">
+      <c r="G15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="48"/>
+        <v>13</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="63"/>
       <c r="J15" s="7"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -14528,27 +14958,35 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J3:AD3 AE3:DH100">
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="日">
+    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="日">
       <formula>NOT(ISERROR(SEARCH("日",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="土">
+    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="土">
       <formula>NOT(ISERROR(SEARCH("土",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G100">
-    <cfRule type="expression" dxfId="14" priority="16">
+    <cfRule type="expression" dxfId="15" priority="18">
       <formula>$H5="完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="17">
+    <cfRule type="expression" dxfId="14" priority="19">
       <formula>TODAY()&gt;$E5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:AD100">
-    <cfRule type="expression" dxfId="12" priority="18">
+  <conditionalFormatting sqref="J5:AD5 J6:T6 J8:AD100 J7:V7 X7:AD7 V6:AD6">
+    <cfRule type="expression" dxfId="13" priority="20">
       <formula>AND(AND($D5&lt;=J$4,$E5&gt;=J$4),$H5="完了")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="19">
+    <cfRule type="expression" dxfId="12" priority="21">
       <formula>AND($D5&lt;=J$4,$E5&gt;=J$4)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W7">
+    <cfRule type="expression" dxfId="11" priority="1">
+      <formula>AND(AND($D8&lt;=Y$4,$E8&gt;=Y$4),$H8="完了")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="2">
+      <formula>AND($D8&lt;=Y$4,$E8&gt;=Y$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -15282,7 +15720,7 @@
       </c>
       <c r="F5" s="13">
         <f ca="1">IFERROR(ABS(TODAY()-$E5),"")</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>6</v>
@@ -15407,7 +15845,7 @@
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F69" ca="1" si="0">IFERROR(ABS(TODAY()-$E6),"")</f>
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>6</v>
@@ -15534,7 +15972,7 @@
       </c>
       <c r="F7" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>6</v>
@@ -15661,7 +16099,7 @@
       </c>
       <c r="F8" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>6</v>
@@ -15788,7 +16226,7 @@
       </c>
       <c r="F9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>6</v>
@@ -15915,7 +16353,7 @@
       </c>
       <c r="F10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>6</v>
@@ -16042,7 +16480,7 @@
       </c>
       <c r="F11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>7</v>
@@ -16169,7 +16607,7 @@
       </c>
       <c r="F12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>7</v>
@@ -16296,7 +16734,7 @@
       </c>
       <c r="F13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>6</v>
@@ -16423,7 +16861,7 @@
       </c>
       <c r="F14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>6</v>
@@ -16550,7 +16988,7 @@
       </c>
       <c r="F15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>6</v>
@@ -16677,7 +17115,7 @@
       </c>
       <c r="F16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>6</v>
@@ -16804,7 +17242,7 @@
       </c>
       <c r="F17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>8</v>
@@ -16931,7 +17369,7 @@
       </c>
       <c r="F18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>7</v>
@@ -17058,7 +17496,7 @@
       </c>
       <c r="F19" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>7</v>
@@ -26978,45 +27416,45 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F5:F100">
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="28" priority="9">
       <formula>$G5="完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="27" priority="10">
       <formula>TODAY()&gt;$E5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:DH3">
-    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="日">
+    <cfRule type="containsText" dxfId="26" priority="6" operator="containsText" text="日">
       <formula>NOT(ISERROR(SEARCH("日",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="土">
+    <cfRule type="containsText" dxfId="25" priority="7" operator="containsText" text="土">
       <formula>NOT(ISERROR(SEARCH("土",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:DH5">
-    <cfRule type="expression" dxfId="6" priority="12">
+    <cfRule type="expression" dxfId="24" priority="12">
       <formula>AND(AND($D5&lt;=I$4,$E5&gt;=I$4),$G5="完了")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="13">
+    <cfRule type="expression" dxfId="23" priority="13">
       <formula>AND($D5&lt;=I$4,$E5&gt;=I$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:DH100">
-    <cfRule type="expression" dxfId="4" priority="14">
+    <cfRule type="expression" dxfId="22" priority="14">
       <formula>AND(AND($D6&lt;=I$4,$E6&gt;=I$4),$G6="完了")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="15">
+    <cfRule type="expression" dxfId="21" priority="15">
       <formula>AND($D6&lt;=I$4,$E6&gt;=I$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H100">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="20" priority="1">
       <formula>$H$5:$H$100="佐藤か"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>$H$5:$H$100="吉成"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="18" priority="3">
       <formula>$H$5:$H$100="佐藤る"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27052,8 +27490,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AD670"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="B21" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection activeCell="B21" sqref="B21"/>
+      <selection pane="topRight" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -27462,107 +27902,152 @@
         <v>97</v>
       </c>
       <c r="E24" s="3">
-        <v>43665</v>
+        <v>43673</v>
       </c>
       <c r="F24" s="3">
-        <v>43721</v>
+        <v>43718</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="55" t="s">
+        <v>80</v>
+      </c>
       <c r="C25" s="1" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+        <v>134</v>
+      </c>
+      <c r="E25" s="3">
+        <v>43732</v>
+      </c>
+      <c r="F25" s="3">
+        <v>43735</v>
+      </c>
       <c r="G25" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="55" t="s">
+        <v>80</v>
+      </c>
       <c r="C26" s="1" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="E26" s="3">
+        <v>43728</v>
+      </c>
+      <c r="F26" s="3">
+        <v>43732</v>
+      </c>
       <c r="G26" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IFERROR(ABS($F26-$E26),"")</f>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="57" t="s">
-        <v>103</v>
+      <c r="B27" s="55" t="s">
+        <v>80</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="E27" s="3">
+        <v>43725</v>
+      </c>
+      <c r="F27" s="3">
+        <v>43728</v>
+      </c>
       <c r="G27" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="25" t="s">
-        <v>104</v>
+      <c r="B28" s="55" t="s">
+        <v>80</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="E28" s="3">
+        <v>43735</v>
+      </c>
+      <c r="F28" s="3">
+        <v>43739</v>
+      </c>
       <c r="G28" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="55" t="s">
+        <v>80</v>
+      </c>
       <c r="C29" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="3">
+        <v>43725</v>
+      </c>
+      <c r="F29" s="61">
+        <v>43738</v>
+      </c>
       <c r="G29" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="62" t="s">
+        <v>129</v>
+      </c>
       <c r="C30" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="3">
+        <v>43725</v>
+      </c>
+      <c r="F30" s="3">
+        <v>43735</v>
+      </c>
       <c r="G30" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="62" t="s">
+        <v>129</v>
+      </c>
       <c r="C31" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1">
@@ -27571,52 +28056,90 @@
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="25" t="s">
+        <v>104</v>
+      </c>
       <c r="C32" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="3">
+        <v>43725</v>
+      </c>
+      <c r="F32" s="3">
+        <v>43738</v>
+      </c>
       <c r="G32" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="55" t="s">
+        <v>80</v>
+      </c>
       <c r="C33" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" s="3">
+        <v>43738</v>
+      </c>
+      <c r="F33" s="3">
+        <v>43743</v>
+      </c>
       <c r="G33" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="25" t="s">
+        <v>104</v>
+      </c>
       <c r="C34" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="3">
+        <v>43725</v>
+      </c>
+      <c r="F34" s="3">
+        <v>43732</v>
+      </c>
       <c r="G34" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" s="3">
+        <v>43732</v>
+      </c>
+      <c r="F35" s="3">
+        <v>43738</v>
+      </c>
       <c r="G35" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -27626,7 +28149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -27636,7 +28159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -27646,7 +28169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -27656,7 +28179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -27666,7 +28189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -27676,7 +28199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -27686,7 +28209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -27696,7 +28219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -27706,7 +28229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -27716,7 +28239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -27726,7 +28249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -27736,9 +28259,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1">
@@ -27746,9 +28273,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1">
@@ -27756,9 +28290,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1">
@@ -27766,8 +28307,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C51" s="1"/>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C51" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -27776,8 +28319,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C52" s="1"/>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C52" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -27786,8 +28331,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C53" s="1"/>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C53" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -27796,8 +28343,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C54" s="1"/>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C54" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -27806,8 +28355,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C55" s="1"/>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C55" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -27816,8 +28367,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="C56" s="1"/>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="C56" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -27826,7 +28379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -27836,7 +28389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -27846,7 +28399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -27856,7 +28409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -27866,7 +28419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -27876,7 +28429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -27886,7 +28439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -27896,7 +28449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>

--- a/タスク表.xlsx
+++ b/タスク表.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkrs3\Documents\EXTREMEProject\"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="136">
   <si>
     <t>タスク表</t>
     <rPh sb="3" eb="4">
@@ -1604,6 +1604,10 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>佐藤る</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -2129,133 +2133,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5353"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5353"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <fill>
         <patternFill>
@@ -2330,6 +2208,62 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5353"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2617,11 +2551,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:DH102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF10" sqref="AF10"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3000,11 +2935,11 @@
       </c>
       <c r="F5" s="61">
         <f ca="1">IF($H5="完了",TODAY(),"")</f>
-        <v>43725</v>
+        <v>43728</v>
       </c>
       <c r="G5" s="13">
         <f ca="1">IFERROR(ABS(TODAY()-$E5),"")</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>6</v>
@@ -3128,11 +3063,11 @@
       </c>
       <c r="F6" s="61">
         <f t="shared" ref="F6:F69" ca="1" si="0">IF($H6="完了",TODAY(),"")</f>
-        <v>43725</v>
+        <v>43728</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" ref="G6:G69" ca="1" si="1">IFERROR(ABS(TODAY()-$E6),"")</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>6</v>
@@ -3262,7 +3197,7 @@
       </c>
       <c r="G7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>7</v>
@@ -3392,7 +3327,7 @@
       </c>
       <c r="G8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>7</v>
@@ -3522,7 +3457,7 @@
       </c>
       <c r="G9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>8</v>
@@ -3652,7 +3587,7 @@
       </c>
       <c r="G10" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>7</v>
@@ -3782,7 +3717,7 @@
       </c>
       <c r="G11" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>8</v>
@@ -3912,7 +3847,7 @@
       </c>
       <c r="G12" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>7</v>
@@ -4042,7 +3977,7 @@
       </c>
       <c r="G13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>7</v>
@@ -4172,13 +4107,13 @@
       </c>
       <c r="G14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I14" s="63" t="s">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="5"/>
@@ -4302,12 +4237,14 @@
       </c>
       <c r="G15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="63"/>
+      <c r="I15" s="63" t="s">
+        <v>135</v>
+      </c>
       <c r="J15" s="7"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -14958,34 +14895,34 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="J3:AD3 AE3:DH100">
-    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="日">
+    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="日">
       <formula>NOT(ISERROR(SEARCH("日",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="土">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="土">
       <formula>NOT(ISERROR(SEARCH("土",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G100">
-    <cfRule type="expression" dxfId="15" priority="18">
+    <cfRule type="expression" dxfId="16" priority="18">
       <formula>$H5="完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="19">
+    <cfRule type="expression" dxfId="15" priority="19">
       <formula>TODAY()&gt;$E5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:AD5 J6:T6 J8:AD100 J7:V7 X7:AD7 V6:AD6">
-    <cfRule type="expression" dxfId="13" priority="20">
+    <cfRule type="expression" dxfId="14" priority="20">
       <formula>AND(AND($D5&lt;=J$4,$E5&gt;=J$4),$H5="完了")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="21">
+    <cfRule type="expression" dxfId="13" priority="21">
       <formula>AND($D5&lt;=J$4,$E5&gt;=J$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W7">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>AND(AND($D8&lt;=Y$4,$E8&gt;=Y$4),$H8="完了")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>AND($D8&lt;=Y$4,$E8&gt;=Y$4)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15019,9 +14956,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:DH102"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E8" sqref="E8"/>
     </sheetView>
@@ -15720,7 +15658,7 @@
       </c>
       <c r="F5" s="13">
         <f ca="1">IFERROR(ABS(TODAY()-$E5),"")</f>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>6</v>
@@ -15845,7 +15783,7 @@
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F69" ca="1" si="0">IFERROR(ABS(TODAY()-$E6),"")</f>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>6</v>
@@ -15972,7 +15910,7 @@
       </c>
       <c r="F7" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>6</v>
@@ -16099,7 +16037,7 @@
       </c>
       <c r="F8" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>6</v>
@@ -16226,7 +16164,7 @@
       </c>
       <c r="F9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>6</v>
@@ -16353,7 +16291,7 @@
       </c>
       <c r="F10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>6</v>
@@ -16480,7 +16418,7 @@
       </c>
       <c r="F11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>7</v>
@@ -16607,7 +16545,7 @@
       </c>
       <c r="F12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>7</v>
@@ -16734,7 +16672,7 @@
       </c>
       <c r="F13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>6</v>
@@ -16861,7 +16799,7 @@
       </c>
       <c r="F14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>6</v>
@@ -16988,7 +16926,7 @@
       </c>
       <c r="F15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>6</v>
@@ -17115,7 +17053,7 @@
       </c>
       <c r="F16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>6</v>
@@ -17242,7 +17180,7 @@
       </c>
       <c r="F17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>8</v>
@@ -17369,7 +17307,7 @@
       </c>
       <c r="F18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>7</v>
@@ -17496,7 +17434,7 @@
       </c>
       <c r="F19" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>7</v>
@@ -27416,45 +27354,45 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F5:F100">
-    <cfRule type="expression" dxfId="28" priority="9">
+    <cfRule type="expression" dxfId="10" priority="9">
       <formula>$G5="完了"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>TODAY()&gt;$E5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:DH3">
-    <cfRule type="containsText" dxfId="26" priority="6" operator="containsText" text="日">
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="日">
       <formula>NOT(ISERROR(SEARCH("日",I3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="7" operator="containsText" text="土">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="土">
       <formula>NOT(ISERROR(SEARCH("土",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:DH5">
-    <cfRule type="expression" dxfId="24" priority="12">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>AND(AND($D5&lt;=I$4,$E5&gt;=I$4),$G5="完了")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="13">
+    <cfRule type="expression" dxfId="5" priority="13">
       <formula>AND($D5&lt;=I$4,$E5&gt;=I$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:DH100">
-    <cfRule type="expression" dxfId="22" priority="14">
+    <cfRule type="expression" dxfId="4" priority="14">
       <formula>AND(AND($D6&lt;=I$4,$E6&gt;=I$4),$G6="完了")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="15">
+    <cfRule type="expression" dxfId="3" priority="15">
       <formula>AND($D6&lt;=I$4,$E6&gt;=I$4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H100">
-    <cfRule type="expression" dxfId="20" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$H$5:$H$100="佐藤か"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$H$5:$H$100="吉成"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$H$5:$H$100="佐藤る"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27488,12 +27426,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A3:AD670"/>
   <sheetViews>
-    <sheetView topLeftCell="B21" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection activeCell="B21" sqref="B21"/>
-      <selection pane="topRight" activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -34528,6 +34465,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="C4:M241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -37222,6 +37160,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/タスク表.xlsx
+++ b/タスク表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="537"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="537" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート (9月)" sheetId="5" r:id="rId1"/>
@@ -1531,22 +1531,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ロードからスタート画面から冒頭ムービーを流してゲームシーンに入る。</t>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ボウトウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ハイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>シーン遷移(ロード～ゲーム開始まで)</t>
     <rPh sb="3" eb="5">
       <t>センイ</t>
@@ -1606,6 +1590,25 @@
   </si>
   <si>
     <t>佐藤る</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロードからスタート画面へと進み冒頭ムービーを流してゲームシーンに入る。</t>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ボウトウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ハイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2554,9 +2557,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:DH102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K11" sqref="K11"/>
+      <selection pane="topRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2934,8 +2937,7 @@
         <v>43718</v>
       </c>
       <c r="F5" s="61">
-        <f ca="1">IF($H5="完了",TODAY(),"")</f>
-        <v>43728</v>
+        <v>43718</v>
       </c>
       <c r="G5" s="13">
         <f ca="1">IFERROR(ABS(TODAY()-$E5),"")</f>
@@ -3062,11 +3064,10 @@
         <v>43718</v>
       </c>
       <c r="F6" s="61">
-        <f t="shared" ref="F6:F69" ca="1" si="0">IF($H6="完了",TODAY(),"")</f>
-        <v>43728</v>
+        <v>43718</v>
       </c>
       <c r="G6" s="8">
-        <f t="shared" ref="G6:G69" ca="1" si="1">IFERROR(ABS(TODAY()-$E6),"")</f>
+        <f t="shared" ref="G6:G69" ca="1" si="0">IFERROR(ABS(TODAY()-$E6),"")</f>
         <v>10</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -3191,12 +3192,9 @@
         <f>IFERROR(VLOOKUP(C7,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v>43732</v>
       </c>
-      <c r="F7" s="61" t="str">
+      <c r="F7" s="61"/>
+      <c r="G7" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G7" s="8">
-        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -3321,12 +3319,9 @@
         <f>IFERROR(VLOOKUP(C8,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v>43735</v>
       </c>
-      <c r="F8" s="61" t="str">
+      <c r="F8" s="61"/>
+      <c r="G8" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G8" s="8">
-        <f t="shared" ca="1" si="1"/>
         <v>7</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -3451,12 +3446,9 @@
         <f>IFERROR(VLOOKUP(C9,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v>43728</v>
       </c>
-      <c r="F9" s="61" t="str">
+      <c r="F9" s="61"/>
+      <c r="G9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G9" s="8">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -3581,12 +3573,9 @@
         <f>IFERROR(VLOOKUP(C10,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v>43739</v>
       </c>
-      <c r="F10" s="61" t="str">
+      <c r="F10" s="61"/>
+      <c r="G10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" ca="1" si="1"/>
         <v>11</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -3711,12 +3700,9 @@
         <f>IFERROR(VLOOKUP(C11,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v>43735</v>
       </c>
-      <c r="F11" s="61" t="str">
+      <c r="F11" s="61"/>
+      <c r="G11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G11" s="8">
-        <f t="shared" ca="1" si="1"/>
         <v>7</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -3841,12 +3827,9 @@
         <f>IFERROR(VLOOKUP(C12,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v>43738</v>
       </c>
-      <c r="F12" s="61" t="str">
+      <c r="F12" s="61"/>
+      <c r="G12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G12" s="8">
-        <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -3971,12 +3954,9 @@
         <f>IFERROR(VLOOKUP(C13,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v>43743</v>
       </c>
-      <c r="F13" s="61" t="str">
+      <c r="F13" s="61"/>
+      <c r="G13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G13" s="8">
-        <f t="shared" ca="1" si="1"/>
         <v>15</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -4091,7 +4071,7 @@
     </row>
     <row r="14" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D14" s="6">
         <f>IFERROR(VLOOKUP(C14,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4101,19 +4081,18 @@
         <f>IFERROR(VLOOKUP(C14,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v>43732</v>
       </c>
-      <c r="F14" s="61" t="str">
+      <c r="F14" s="61">
+        <v>43728</v>
+      </c>
+      <c r="G14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G14" s="8">
-        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I14" s="63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="5"/>
@@ -4221,7 +4200,7 @@
     </row>
     <row r="15" spans="1:112" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D15" s="6">
         <f>IFERROR(VLOOKUP(C15,タスク表!$C$5:$E$100,3,FALSE),"")</f>
@@ -4231,19 +4210,16 @@
         <f>IFERROR(VLOOKUP(C15,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v>43738</v>
       </c>
-      <c r="F15" s="61" t="str">
+      <c r="F15" s="61"/>
+      <c r="G15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G15" s="8">
-        <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I15" s="63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="5"/>
@@ -4359,12 +4335,9 @@
         <f>IFERROR(VLOOKUP(C16,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F16" s="61" t="str">
+      <c r="F16" s="61"/>
+      <c r="G16" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G16" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H16" s="2"/>
@@ -4483,12 +4456,9 @@
         <f>IFERROR(VLOOKUP(C17,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F17" s="61" t="str">
+      <c r="F17" s="61"/>
+      <c r="G17" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G17" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H17" s="2"/>
@@ -4607,12 +4577,9 @@
         <f>IFERROR(VLOOKUP(C18,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F18" s="61" t="str">
+      <c r="F18" s="61"/>
+      <c r="G18" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G18" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H18" s="2"/>
@@ -4731,12 +4698,9 @@
         <f>IFERROR(VLOOKUP(C19,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F19" s="61" t="str">
+      <c r="F19" s="61"/>
+      <c r="G19" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G19" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H19" s="2"/>
@@ -4855,12 +4819,9 @@
         <f>IFERROR(VLOOKUP(C20,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F20" s="61" t="str">
+      <c r="F20" s="61"/>
+      <c r="G20" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G20" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H20" s="2"/>
@@ -4979,12 +4940,9 @@
         <f>IFERROR(VLOOKUP(C21,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F21" s="61" t="str">
+      <c r="F21" s="61"/>
+      <c r="G21" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G21" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H21" s="2"/>
@@ -5103,12 +5061,9 @@
         <f>IFERROR(VLOOKUP(C22,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F22" s="61" t="str">
+      <c r="F22" s="61"/>
+      <c r="G22" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G22" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H22" s="2"/>
@@ -5227,12 +5182,9 @@
         <f>IFERROR(VLOOKUP(C23,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F23" s="61" t="str">
+      <c r="F23" s="61"/>
+      <c r="G23" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G23" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H23" s="2"/>
@@ -5351,12 +5303,9 @@
         <f>IFERROR(VLOOKUP(C24,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F24" s="61" t="str">
+      <c r="F24" s="61"/>
+      <c r="G24" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G24" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H24" s="2"/>
@@ -5475,12 +5424,9 @@
         <f>IFERROR(VLOOKUP(C25,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F25" s="61" t="str">
+      <c r="F25" s="61"/>
+      <c r="G25" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G25" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H25" s="2"/>
@@ -5599,12 +5545,9 @@
         <f>IFERROR(VLOOKUP(C26,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F26" s="61" t="str">
+      <c r="F26" s="61"/>
+      <c r="G26" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G26" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H26" s="2"/>
@@ -5723,12 +5666,9 @@
         <f>IFERROR(VLOOKUP(C27,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F27" s="61" t="str">
+      <c r="F27" s="61"/>
+      <c r="G27" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G27" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H27" s="2"/>
@@ -5847,12 +5787,9 @@
         <f>IFERROR(VLOOKUP(C28,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F28" s="61" t="str">
+      <c r="F28" s="61"/>
+      <c r="G28" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G28" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H28" s="2"/>
@@ -5971,12 +5908,9 @@
         <f>IFERROR(VLOOKUP(C29,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F29" s="61" t="str">
+      <c r="F29" s="61"/>
+      <c r="G29" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G29" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H29" s="2"/>
@@ -6095,12 +6029,9 @@
         <f>IFERROR(VLOOKUP(C30,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F30" s="61" t="str">
+      <c r="F30" s="61"/>
+      <c r="G30" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G30" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H30" s="2"/>
@@ -6219,12 +6150,9 @@
         <f>IFERROR(VLOOKUP(C31,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F31" s="61" t="str">
+      <c r="F31" s="61"/>
+      <c r="G31" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G31" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H31" s="2"/>
@@ -6343,12 +6271,9 @@
         <f>IFERROR(VLOOKUP(C32,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F32" s="61" t="str">
+      <c r="F32" s="61"/>
+      <c r="G32" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G32" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H32" s="2"/>
@@ -6467,12 +6392,9 @@
         <f>IFERROR(VLOOKUP(C33,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F33" s="61" t="str">
+      <c r="F33" s="61"/>
+      <c r="G33" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G33" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H33" s="2"/>
@@ -6591,12 +6513,9 @@
         <f>IFERROR(VLOOKUP(C34,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F34" s="61" t="str">
+      <c r="F34" s="61"/>
+      <c r="G34" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G34" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H34" s="2"/>
@@ -6715,12 +6634,9 @@
         <f>IFERROR(VLOOKUP(C35,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F35" s="61" t="str">
+      <c r="F35" s="61"/>
+      <c r="G35" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G35" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H35" s="2"/>
@@ -6839,12 +6755,9 @@
         <f>IFERROR(VLOOKUP(C36,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F36" s="61" t="str">
+      <c r="F36" s="61"/>
+      <c r="G36" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G36" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H36" s="2"/>
@@ -6963,12 +6876,9 @@
         <f>IFERROR(VLOOKUP(C37,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F37" s="61" t="str">
+      <c r="F37" s="61"/>
+      <c r="G37" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G37" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H37" s="2"/>
@@ -7087,12 +6997,9 @@
         <f>IFERROR(VLOOKUP(C38,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F38" s="61" t="str">
+      <c r="F38" s="61"/>
+      <c r="G38" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G38" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H38" s="2"/>
@@ -7211,12 +7118,9 @@
         <f>IFERROR(VLOOKUP(C39,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F39" s="61" t="str">
+      <c r="F39" s="61"/>
+      <c r="G39" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G39" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H39" s="2"/>
@@ -7335,12 +7239,9 @@
         <f>IFERROR(VLOOKUP(C40,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F40" s="61" t="str">
+      <c r="F40" s="61"/>
+      <c r="G40" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G40" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H40" s="2"/>
@@ -7459,12 +7360,9 @@
         <f>IFERROR(VLOOKUP(C41,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F41" s="61" t="str">
+      <c r="F41" s="61"/>
+      <c r="G41" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G41" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H41" s="2"/>
@@ -7583,12 +7481,9 @@
         <f>IFERROR(VLOOKUP(C42,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F42" s="61" t="str">
+      <c r="F42" s="61"/>
+      <c r="G42" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G42" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H42" s="2"/>
@@ -7707,12 +7602,9 @@
         <f>IFERROR(VLOOKUP(C43,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F43" s="61" t="str">
+      <c r="F43" s="61"/>
+      <c r="G43" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G43" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H43" s="2"/>
@@ -7831,12 +7723,9 @@
         <f>IFERROR(VLOOKUP(C44,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F44" s="61" t="str">
+      <c r="F44" s="61"/>
+      <c r="G44" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G44" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H44" s="2"/>
@@ -7955,12 +7844,9 @@
         <f>IFERROR(VLOOKUP(C45,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F45" s="61" t="str">
+      <c r="F45" s="61"/>
+      <c r="G45" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G45" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H45" s="2"/>
@@ -8079,12 +7965,9 @@
         <f>IFERROR(VLOOKUP(C46,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F46" s="61" t="str">
+      <c r="F46" s="61"/>
+      <c r="G46" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G46" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H46" s="2"/>
@@ -8203,12 +8086,9 @@
         <f>IFERROR(VLOOKUP(C47,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F47" s="61" t="str">
+      <c r="F47" s="61"/>
+      <c r="G47" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G47" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H47" s="2"/>
@@ -8327,12 +8207,9 @@
         <f>IFERROR(VLOOKUP(C48,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F48" s="61" t="str">
+      <c r="F48" s="61"/>
+      <c r="G48" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G48" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H48" s="2"/>
@@ -8451,12 +8328,9 @@
         <f>IFERROR(VLOOKUP(C49,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F49" s="61" t="str">
+      <c r="F49" s="61"/>
+      <c r="G49" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G49" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H49" s="2"/>
@@ -8575,12 +8449,9 @@
         <f>IFERROR(VLOOKUP(C50,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F50" s="61" t="str">
+      <c r="F50" s="61"/>
+      <c r="G50" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G50" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H50" s="2"/>
@@ -8699,12 +8570,9 @@
         <f>IFERROR(VLOOKUP(C51,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F51" s="61" t="str">
+      <c r="F51" s="61"/>
+      <c r="G51" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G51" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H51" s="2"/>
@@ -8823,12 +8691,9 @@
         <f>IFERROR(VLOOKUP(C52,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F52" s="61" t="str">
+      <c r="F52" s="61"/>
+      <c r="G52" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G52" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H52" s="2"/>
@@ -8947,12 +8812,9 @@
         <f>IFERROR(VLOOKUP(C53,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F53" s="61" t="str">
+      <c r="F53" s="61"/>
+      <c r="G53" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G53" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H53" s="2"/>
@@ -9071,12 +8933,9 @@
         <f>IFERROR(VLOOKUP(C54,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F54" s="61" t="str">
+      <c r="F54" s="61"/>
+      <c r="G54" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G54" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H54" s="2"/>
@@ -9195,12 +9054,9 @@
         <f>IFERROR(VLOOKUP(C55,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F55" s="61" t="str">
+      <c r="F55" s="61"/>
+      <c r="G55" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G55" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H55" s="2"/>
@@ -9319,12 +9175,9 @@
         <f>IFERROR(VLOOKUP(C56,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F56" s="61" t="str">
+      <c r="F56" s="61"/>
+      <c r="G56" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G56" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H56" s="2"/>
@@ -9443,12 +9296,9 @@
         <f>IFERROR(VLOOKUP(C57,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F57" s="61" t="str">
+      <c r="F57" s="61"/>
+      <c r="G57" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G57" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H57" s="2"/>
@@ -9567,12 +9417,9 @@
         <f>IFERROR(VLOOKUP(C58,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F58" s="61" t="str">
+      <c r="F58" s="61"/>
+      <c r="G58" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G58" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H58" s="2"/>
@@ -9691,12 +9538,9 @@
         <f>IFERROR(VLOOKUP(C59,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F59" s="61" t="str">
+      <c r="F59" s="61"/>
+      <c r="G59" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G59" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H59" s="2"/>
@@ -9815,12 +9659,9 @@
         <f>IFERROR(VLOOKUP(C60,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F60" s="61" t="str">
+      <c r="F60" s="61"/>
+      <c r="G60" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G60" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H60" s="2"/>
@@ -9939,12 +9780,9 @@
         <f>IFERROR(VLOOKUP(C61,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F61" s="61" t="str">
+      <c r="F61" s="61"/>
+      <c r="G61" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G61" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H61" s="2"/>
@@ -10063,12 +9901,9 @@
         <f>IFERROR(VLOOKUP(C62,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F62" s="61" t="str">
+      <c r="F62" s="61"/>
+      <c r="G62" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G62" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H62" s="2"/>
@@ -10187,12 +10022,9 @@
         <f>IFERROR(VLOOKUP(C63,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F63" s="61" t="str">
+      <c r="F63" s="61"/>
+      <c r="G63" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G63" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H63" s="2"/>
@@ -10311,12 +10143,9 @@
         <f>IFERROR(VLOOKUP(C64,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F64" s="61" t="str">
+      <c r="F64" s="61"/>
+      <c r="G64" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G64" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H64" s="2"/>
@@ -10435,12 +10264,9 @@
         <f>IFERROR(VLOOKUP(C65,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F65" s="61" t="str">
+      <c r="F65" s="61"/>
+      <c r="G65" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G65" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H65" s="2"/>
@@ -10559,12 +10385,9 @@
         <f>IFERROR(VLOOKUP(C66,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F66" s="61" t="str">
+      <c r="F66" s="61"/>
+      <c r="G66" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G66" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H66" s="2"/>
@@ -10683,12 +10506,9 @@
         <f>IFERROR(VLOOKUP(C67,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F67" s="61" t="str">
+      <c r="F67" s="61"/>
+      <c r="G67" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G67" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H67" s="2"/>
@@ -10807,12 +10627,9 @@
         <f>IFERROR(VLOOKUP(C68,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F68" s="61" t="str">
+      <c r="F68" s="61"/>
+      <c r="G68" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G68" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H68" s="2"/>
@@ -10931,12 +10748,9 @@
         <f>IFERROR(VLOOKUP(C69,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F69" s="61" t="str">
+      <c r="F69" s="61"/>
+      <c r="G69" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G69" s="8" t="str">
-        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H69" s="2"/>
@@ -11055,12 +10869,9 @@
         <f>IFERROR(VLOOKUP(C70,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F70" s="61" t="str">
-        <f t="shared" ref="F70:F100" ca="1" si="2">IF($H70="完了",TODAY(),"")</f>
-        <v/>
-      </c>
+      <c r="F70" s="61"/>
       <c r="G70" s="8" t="str">
-        <f t="shared" ref="G70:G100" ca="1" si="3">IFERROR(ABS(TODAY()-$E70),"")</f>
+        <f t="shared" ref="G70:G100" ca="1" si="1">IFERROR(ABS(TODAY()-$E70),"")</f>
         <v/>
       </c>
       <c r="H70" s="2"/>
@@ -11179,12 +10990,9 @@
         <f>IFERROR(VLOOKUP(C71,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F71" s="61" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
+      <c r="F71" s="61"/>
       <c r="G71" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H71" s="2"/>
@@ -11303,12 +11111,9 @@
         <f>IFERROR(VLOOKUP(C72,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F72" s="61" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
+      <c r="F72" s="61"/>
       <c r="G72" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H72" s="2"/>
@@ -11427,12 +11232,9 @@
         <f>IFERROR(VLOOKUP(C73,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F73" s="61" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
+      <c r="F73" s="61"/>
       <c r="G73" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H73" s="2"/>
@@ -11551,12 +11353,9 @@
         <f>IFERROR(VLOOKUP(C74,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F74" s="61" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
+      <c r="F74" s="61"/>
       <c r="G74" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H74" s="2"/>
@@ -11675,12 +11474,9 @@
         <f>IFERROR(VLOOKUP(C75,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F75" s="61" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
+      <c r="F75" s="61"/>
       <c r="G75" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H75" s="2"/>
@@ -11799,12 +11595,9 @@
         <f>IFERROR(VLOOKUP(C76,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F76" s="61" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
+      <c r="F76" s="61"/>
       <c r="G76" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H76" s="2"/>
@@ -11923,12 +11716,9 @@
         <f>IFERROR(VLOOKUP(C77,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F77" s="61" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
+      <c r="F77" s="61"/>
       <c r="G77" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H77" s="2"/>
@@ -12047,12 +11837,9 @@
         <f>IFERROR(VLOOKUP(C78,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F78" s="61" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
+      <c r="F78" s="61"/>
       <c r="G78" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H78" s="2"/>
@@ -12171,12 +11958,9 @@
         <f>IFERROR(VLOOKUP(C79,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F79" s="61" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
+      <c r="F79" s="61"/>
       <c r="G79" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H79" s="2"/>
@@ -12295,12 +12079,9 @@
         <f>IFERROR(VLOOKUP(C80,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F80" s="61" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
+      <c r="F80" s="61"/>
       <c r="G80" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H80" s="2"/>
@@ -12419,12 +12200,9 @@
         <f>IFERROR(VLOOKUP(C81,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F81" s="61" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
+      <c r="F81" s="61"/>
       <c r="G81" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H81" s="2"/>
@@ -12543,12 +12321,9 @@
         <f>IFERROR(VLOOKUP(C82,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F82" s="61" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
+      <c r="F82" s="61"/>
       <c r="G82" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H82" s="2"/>
@@ -12667,12 +12442,9 @@
         <f>IFERROR(VLOOKUP(C83,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F83" s="61" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
+      <c r="F83" s="61"/>
       <c r="G83" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H83" s="2"/>
@@ -12791,12 +12563,9 @@
         <f>IFERROR(VLOOKUP(C84,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F84" s="61" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
+      <c r="F84" s="61"/>
       <c r="G84" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H84" s="2"/>
@@ -12915,12 +12684,9 @@
         <f>IFERROR(VLOOKUP(C85,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F85" s="61" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
+      <c r="F85" s="61"/>
       <c r="G85" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H85" s="2"/>
@@ -13039,12 +12805,9 @@
         <f>IFERROR(VLOOKUP(C86,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F86" s="61" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
+      <c r="F86" s="61"/>
       <c r="G86" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H86" s="2"/>
@@ -13163,12 +12926,9 @@
         <f>IFERROR(VLOOKUP(C87,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F87" s="61" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
+      <c r="F87" s="61"/>
       <c r="G87" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H87" s="2"/>
@@ -13287,12 +13047,9 @@
         <f>IFERROR(VLOOKUP(C88,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F88" s="61" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
+      <c r="F88" s="61"/>
       <c r="G88" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H88" s="2"/>
@@ -13411,12 +13168,9 @@
         <f>IFERROR(VLOOKUP(C89,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F89" s="61" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
+      <c r="F89" s="61"/>
       <c r="G89" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H89" s="2"/>
@@ -13535,12 +13289,9 @@
         <f>IFERROR(VLOOKUP(C90,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F90" s="61" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
+      <c r="F90" s="61"/>
       <c r="G90" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H90" s="2"/>
@@ -13659,12 +13410,9 @@
         <f>IFERROR(VLOOKUP(C91,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F91" s="61" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
+      <c r="F91" s="61"/>
       <c r="G91" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H91" s="2"/>
@@ -13783,12 +13531,9 @@
         <f>IFERROR(VLOOKUP(C92,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F92" s="61" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
+      <c r="F92" s="61"/>
       <c r="G92" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H92" s="2"/>
@@ -13907,12 +13652,9 @@
         <f>IFERROR(VLOOKUP(C93,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F93" s="61" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
+      <c r="F93" s="61"/>
       <c r="G93" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H93" s="2"/>
@@ -14031,12 +13773,9 @@
         <f>IFERROR(VLOOKUP(C94,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F94" s="61" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
+      <c r="F94" s="61"/>
       <c r="G94" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H94" s="2"/>
@@ -14155,12 +13894,9 @@
         <f>IFERROR(VLOOKUP(C95,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F95" s="61" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
+      <c r="F95" s="61"/>
       <c r="G95" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H95" s="2"/>
@@ -14279,12 +14015,9 @@
         <f>IFERROR(VLOOKUP(C96,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F96" s="61" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
+      <c r="F96" s="61"/>
       <c r="G96" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H96" s="2"/>
@@ -14403,12 +14136,9 @@
         <f>IFERROR(VLOOKUP(C97,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F97" s="61" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
+      <c r="F97" s="61"/>
       <c r="G97" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H97" s="2"/>
@@ -14527,12 +14257,9 @@
         <f>IFERROR(VLOOKUP(C98,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F98" s="61" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
+      <c r="F98" s="61"/>
       <c r="G98" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H98" s="2"/>
@@ -14651,12 +14378,9 @@
         <f>IFERROR(VLOOKUP(C99,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F99" s="61" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
+      <c r="F99" s="61"/>
       <c r="G99" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H99" s="2"/>
@@ -14775,12 +14499,9 @@
         <f>IFERROR(VLOOKUP(C100,タスク表!$C$5:$F$100,4,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F100" s="61" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
+      <c r="F100" s="61"/>
       <c r="G100" s="8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="H100" s="2"/>
@@ -27429,8 +27150,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A3:AD670"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="C21" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -27857,7 +27578,7 @@
         <v>128</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E25" s="3">
         <v>43732</v>
@@ -28039,10 +27760,10 @@
         <v>104</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E34" s="3">
         <v>43725</v>
@@ -28060,10 +27781,10 @@
         <v>104</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="E35" s="3">
         <v>43732</v>

--- a/タスク表.xlsx
+++ b/タスク表.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="537" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7560" tabRatio="597"/>
   </bookViews>
   <sheets>
-    <sheet name="ガントチャート (9月)" sheetId="5" r:id="rId1"/>
-    <sheet name="ガントチャート(プレイ会)" sheetId="1" r:id="rId2"/>
-    <sheet name="タスク表" sheetId="2" r:id="rId3"/>
-    <sheet name="バグ報告書" sheetId="4" r:id="rId4"/>
-    <sheet name="かんノート" sheetId="3" r:id="rId5"/>
+    <sheet name="ガントチャート(10月)" sheetId="6" r:id="rId1"/>
+    <sheet name="ガントチャート (9月)" sheetId="5" r:id="rId2"/>
+    <sheet name="ガントチャート(プレイ会)" sheetId="1" r:id="rId3"/>
+    <sheet name="タスク表" sheetId="2" r:id="rId4"/>
+    <sheet name="バグ報告書" sheetId="4" r:id="rId5"/>
+    <sheet name="かんノート" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="143">
   <si>
     <t>タスク表</t>
     <rPh sb="3" eb="4">
@@ -1611,6 +1612,70 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>10月の目標</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>納期厳守</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体育の日</t>
+    <rPh sb="0" eb="2">
+      <t>タイイク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よく分らん日</t>
+    <rPh sb="2" eb="3">
+      <t>ワカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10月会議</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10月中にどこまで完成させるかと先月の反省</t>
+    <rPh sb="2" eb="4">
+      <t>ガツチュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センゲツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1667,7 +1732,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1746,8 +1811,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1931,13 +2002,161 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2132,11 +2351,155 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="31">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5353"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5353"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5353"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5353"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5353"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5353"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2554,12 +2917,4424 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AG103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="10.9140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.9140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="X2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="I3" s="79"/>
+      <c r="J3" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="X3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C4" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="12">
+        <v>43746</v>
+      </c>
+      <c r="K4" s="3">
+        <v>43747</v>
+      </c>
+      <c r="L4" s="3">
+        <v>43748</v>
+      </c>
+      <c r="M4" s="3">
+        <v>43749</v>
+      </c>
+      <c r="N4" s="3">
+        <v>43750</v>
+      </c>
+      <c r="O4" s="3">
+        <v>43751</v>
+      </c>
+      <c r="P4" s="64">
+        <v>43752</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>43753</v>
+      </c>
+      <c r="R4" s="3">
+        <v>43754</v>
+      </c>
+      <c r="S4" s="3">
+        <v>43755</v>
+      </c>
+      <c r="T4" s="3">
+        <v>43756</v>
+      </c>
+      <c r="U4" s="3">
+        <v>43757</v>
+      </c>
+      <c r="V4" s="3">
+        <v>43758</v>
+      </c>
+      <c r="W4" s="3">
+        <v>43759</v>
+      </c>
+      <c r="X4" s="64">
+        <v>43760</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>43761</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>43762</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>43763</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>43764</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>43765</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>43766</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>43767</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>43768</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>43769</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" s="69" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="75">
+        <f>IFERROR(VLOOKUP(C5,タスク表!$C$5:$E$100,3,FALSE),"")</f>
+        <v>43725</v>
+      </c>
+      <c r="E5" s="73">
+        <f>IFERROR(VLOOKUP(C5,タスク表!C5:F100,4,FALSE),"")</f>
+        <v>43728</v>
+      </c>
+      <c r="F5" s="69"/>
+      <c r="G5" s="66">
+        <f ca="1">IFERROR(ABS(TODAY()-$E5),"")</f>
+        <v>14</v>
+      </c>
+      <c r="H5" s="69"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="70"/>
+      <c r="D6" s="76" t="str">
+        <f>IFERROR(VLOOKUP(C6,タスク表!$C$5:$E$100,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E6" s="74" t="str">
+        <f>IFERROR(VLOOKUP(C6,タスク表!C6:F101,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F6" s="70"/>
+      <c r="G6" s="67" t="str">
+        <f t="shared" ref="G6:G69" ca="1" si="0">IFERROR(ABS(TODAY()-$E6),"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="70"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="70"/>
+      <c r="D7" s="76" t="str">
+        <f>IFERROR(VLOOKUP(C7,タスク表!$C$5:$E$100,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E7" s="74" t="str">
+        <f>IFERROR(VLOOKUP(C7,タスク表!C7:F102,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F7" s="70"/>
+      <c r="G7" s="67" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H7" s="70"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="70"/>
+      <c r="D8" s="76" t="str">
+        <f>IFERROR(VLOOKUP(C8,タスク表!$C$5:$E$100,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E8" s="74" t="str">
+        <f>IFERROR(VLOOKUP(C8,タスク表!C8:F103,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F8" s="70"/>
+      <c r="G8" s="67" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H8" s="70"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" s="70"/>
+      <c r="D9" s="76" t="str">
+        <f>IFERROR(VLOOKUP(C9,タスク表!$C$5:$E$100,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E9" s="74" t="str">
+        <f>IFERROR(VLOOKUP(C9,タスク表!C9:F104,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F9" s="70"/>
+      <c r="G9" s="67" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H9" s="70"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="70"/>
+      <c r="D10" s="76" t="str">
+        <f>IFERROR(VLOOKUP(C10,タスク表!$C$5:$E$100,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E10" s="74" t="str">
+        <f>IFERROR(VLOOKUP(C10,タスク表!C10:F105,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F10" s="70"/>
+      <c r="G10" s="67" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H10" s="70"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="70"/>
+      <c r="D11" s="76" t="str">
+        <f>IFERROR(VLOOKUP(C11,タスク表!$C$5:$E$100,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E11" s="74" t="str">
+        <f>IFERROR(VLOOKUP(C11,タスク表!C11:F106,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F11" s="70"/>
+      <c r="G11" s="67" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H11" s="70"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="70"/>
+      <c r="D12" s="76" t="str">
+        <f>IFERROR(VLOOKUP(C12,タスク表!$C$5:$E$100,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E12" s="74" t="str">
+        <f>IFERROR(VLOOKUP(C12,タスク表!C12:F107,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F12" s="70"/>
+      <c r="G12" s="67" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H12" s="70"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" s="70"/>
+      <c r="D13" s="76" t="str">
+        <f>IFERROR(VLOOKUP(C13,タスク表!$C$5:$E$100,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E13" s="74" t="str">
+        <f>IFERROR(VLOOKUP(C13,タスク表!C13:F108,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F13" s="70"/>
+      <c r="G13" s="67" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H13" s="70"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" s="70"/>
+      <c r="D14" s="76" t="str">
+        <f>IFERROR(VLOOKUP(C14,タスク表!$C$5:$E$100,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E14" s="74" t="str">
+        <f>IFERROR(VLOOKUP(C14,タスク表!C14:F109,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F14" s="70"/>
+      <c r="G14" s="67" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H14" s="70"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="70"/>
+      <c r="D15" s="76" t="str">
+        <f>IFERROR(VLOOKUP(C15,タスク表!$C$5:$E$100,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E15" s="74" t="str">
+        <f>IFERROR(VLOOKUP(C15,タスク表!C15:F110,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F15" s="70"/>
+      <c r="G15" s="67" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H15" s="70"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="70"/>
+      <c r="D16" s="76" t="str">
+        <f>IFERROR(VLOOKUP(C16,タスク表!$C$5:$E$100,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E16" s="74" t="str">
+        <f>IFERROR(VLOOKUP(C16,タスク表!C16:F111,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F16" s="70"/>
+      <c r="G16" s="67" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H16" s="70"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+    </row>
+    <row r="17" spans="3:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="70"/>
+      <c r="D17" s="76" t="str">
+        <f>IFERROR(VLOOKUP(C17,タスク表!$C$5:$E$100,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E17" s="74" t="str">
+        <f>IFERROR(VLOOKUP(C17,タスク表!C17:F112,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F17" s="70"/>
+      <c r="G17" s="67" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H17" s="70"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+    </row>
+    <row r="18" spans="3:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" s="70"/>
+      <c r="D18" s="76" t="str">
+        <f>IFERROR(VLOOKUP(C18,タスク表!$C$5:$E$100,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E18" s="74" t="str">
+        <f>IFERROR(VLOOKUP(C18,タスク表!C18:F113,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F18" s="70"/>
+      <c r="G18" s="67" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H18" s="70"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+    </row>
+    <row r="19" spans="3:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" s="70"/>
+      <c r="D19" s="76" t="str">
+        <f>IFERROR(VLOOKUP(C19,タスク表!$C$5:$E$100,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E19" s="74" t="str">
+        <f>IFERROR(VLOOKUP(C19,タスク表!C19:F114,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F19" s="70"/>
+      <c r="G19" s="67" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H19" s="70"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+    </row>
+    <row r="20" spans="3:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" s="70"/>
+      <c r="D20" s="76" t="str">
+        <f>IFERROR(VLOOKUP(C20,タスク表!$C$5:$E$100,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E20" s="74" t="str">
+        <f>IFERROR(VLOOKUP(C20,タスク表!C20:F115,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F20" s="70"/>
+      <c r="G20" s="67" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H20" s="70"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+    </row>
+    <row r="21" spans="3:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" s="70"/>
+      <c r="D21" s="76" t="str">
+        <f>IFERROR(VLOOKUP(C21,タスク表!$C$5:$E$100,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E21" s="74" t="str">
+        <f>IFERROR(VLOOKUP(C21,タスク表!C21:F116,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F21" s="70"/>
+      <c r="G21" s="67" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H21" s="70"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+    </row>
+    <row r="22" spans="3:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" s="70"/>
+      <c r="D22" s="76" t="str">
+        <f>IFERROR(VLOOKUP(C22,タスク表!$C$5:$E$100,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E22" s="74" t="str">
+        <f>IFERROR(VLOOKUP(C22,タスク表!C22:F117,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F22" s="70"/>
+      <c r="G22" s="67" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H22" s="70"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+    </row>
+    <row r="23" spans="3:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="C23" s="70"/>
+      <c r="D23" s="76" t="str">
+        <f>IFERROR(VLOOKUP(C23,タスク表!$C$5:$E$100,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E23" s="74" t="str">
+        <f>IFERROR(VLOOKUP(C23,タスク表!C23:F118,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F23" s="70"/>
+      <c r="G23" s="67" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H23" s="70"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+    </row>
+    <row r="24" spans="3:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="C24" s="70"/>
+      <c r="D24" s="76" t="str">
+        <f>IFERROR(VLOOKUP(C24,タスク表!$C$5:$E$100,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E24" s="74" t="str">
+        <f>IFERROR(VLOOKUP(C24,タスク表!C24:F119,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F24" s="70"/>
+      <c r="G24" s="67" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H24" s="70"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+    </row>
+    <row r="25" spans="3:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="C25" s="70"/>
+      <c r="D25" s="76" t="str">
+        <f>IFERROR(VLOOKUP(C25,タスク表!$C$5:$E$100,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E25" s="74" t="str">
+        <f>IFERROR(VLOOKUP(C25,タスク表!C25:F120,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F25" s="70"/>
+      <c r="G25" s="67" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H25" s="70"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+    </row>
+    <row r="26" spans="3:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="C26" s="70"/>
+      <c r="D26" s="76" t="str">
+        <f>IFERROR(VLOOKUP(C26,タスク表!$C$5:$E$100,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E26" s="74" t="str">
+        <f>IFERROR(VLOOKUP(C26,タスク表!C26:F121,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F26" s="70"/>
+      <c r="G26" s="67" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H26" s="70"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+    </row>
+    <row r="27" spans="3:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="C27" s="70"/>
+      <c r="D27" s="76" t="str">
+        <f>IFERROR(VLOOKUP(C27,タスク表!$C$5:$E$100,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E27" s="74" t="str">
+        <f>IFERROR(VLOOKUP(C27,タスク表!C27:F122,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F27" s="70"/>
+      <c r="G27" s="67" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H27" s="70"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+    </row>
+    <row r="28" spans="3:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="C28" s="70"/>
+      <c r="D28" s="76" t="str">
+        <f>IFERROR(VLOOKUP(C28,タスク表!$C$5:$E$100,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E28" s="74" t="str">
+        <f>IFERROR(VLOOKUP(C28,タスク表!C28:F123,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F28" s="70"/>
+      <c r="G28" s="67" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H28" s="70"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+    </row>
+    <row r="29" spans="3:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="C29" s="70"/>
+      <c r="D29" s="76" t="str">
+        <f>IFERROR(VLOOKUP(C29,タスク表!$C$5:$E$100,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E29" s="74" t="str">
+        <f>IFERROR(VLOOKUP(C29,タスク表!C29:F124,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F29" s="70"/>
+      <c r="G29" s="67" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H29" s="70"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+    </row>
+    <row r="30" spans="3:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="C30" s="70"/>
+      <c r="D30" s="76" t="str">
+        <f>IFERROR(VLOOKUP(C30,タスク表!$C$5:$E$100,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E30" s="74" t="str">
+        <f>IFERROR(VLOOKUP(C30,タスク表!C30:F125,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F30" s="70"/>
+      <c r="G30" s="67" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H30" s="70"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+    </row>
+    <row r="31" spans="3:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="C31" s="70"/>
+      <c r="D31" s="76" t="str">
+        <f>IFERROR(VLOOKUP(C31,タスク表!$C$5:$E$100,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E31" s="74" t="str">
+        <f>IFERROR(VLOOKUP(C31,タスク表!C31:F126,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F31" s="70"/>
+      <c r="G31" s="67" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H31" s="70"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+    </row>
+    <row r="32" spans="3:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="C32" s="70"/>
+      <c r="D32" s="76" t="str">
+        <f>IFERROR(VLOOKUP(C32,タスク表!$C$5:$E$100,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E32" s="74" t="str">
+        <f>IFERROR(VLOOKUP(C32,タスク表!C32:F127,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F32" s="70"/>
+      <c r="G32" s="67" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H32" s="70"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+    </row>
+    <row r="33" spans="3:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="C33" s="70"/>
+      <c r="D33" s="76" t="str">
+        <f>IFERROR(VLOOKUP(C33,タスク表!$C$5:$E$100,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E33" s="74" t="str">
+        <f>IFERROR(VLOOKUP(C33,タスク表!C33:F128,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F33" s="70"/>
+      <c r="G33" s="67" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H33" s="70"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+    </row>
+    <row r="34" spans="3:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="C34" s="70"/>
+      <c r="D34" s="76" t="str">
+        <f>IFERROR(VLOOKUP(C34,タスク表!$C$5:$E$100,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E34" s="74" t="str">
+        <f>IFERROR(VLOOKUP(C34,タスク表!C34:F129,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F34" s="70"/>
+      <c r="G34" s="67" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H34" s="70"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+    </row>
+    <row r="35" spans="3:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="C35" s="70"/>
+      <c r="D35" s="76" t="str">
+        <f>IFERROR(VLOOKUP(C35,タスク表!$C$5:$E$100,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E35" s="74" t="str">
+        <f>IFERROR(VLOOKUP(C35,タスク表!C35:F130,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F35" s="70"/>
+      <c r="G35" s="67" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H35" s="70"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+    </row>
+    <row r="36" spans="3:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="C36" s="70"/>
+      <c r="D36" s="76" t="str">
+        <f>IFERROR(VLOOKUP(C36,タスク表!$C$5:$E$100,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E36" s="74" t="str">
+        <f>IFERROR(VLOOKUP(C36,タスク表!C36:F131,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F36" s="70"/>
+      <c r="G36" s="67" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H36" s="70"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="78"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+    </row>
+    <row r="37" spans="3:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="C37" s="70"/>
+      <c r="D37" s="76" t="str">
+        <f>IFERROR(VLOOKUP(C37,タスク表!$C$5:$E$100,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E37" s="74" t="str">
+        <f>IFERROR(VLOOKUP(C37,タスク表!C37:F132,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F37" s="70"/>
+      <c r="G37" s="67" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H37" s="70"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+    </row>
+    <row r="38" spans="3:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="C38" s="70"/>
+      <c r="D38" s="76" t="str">
+        <f>IFERROR(VLOOKUP(C38,タスク表!$C$5:$E$100,3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="E38" s="74" t="str">
+        <f>IFERROR(VLOOKUP(C38,タスク表!C38:F133,4,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F38" s="70"/>
+      <c r="G38" s="67" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H38" s="70"/>
+      <c r="I38" s="82"/>
+      <c r="J38" s="78"/>